--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,17 +39,17 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>Itération</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Charge</t>
   </si>
   <si>
-    <t>Contrôller l'accès aux pages en fonction des rôles</t>
-  </si>
-  <si>
     <t>Eviter que quelqu'un fasse une action non autorisée</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Demande de droits d'accès supplémentaires (nouveau rôle)</t>
   </si>
   <si>
-    <t>Consultation des éléments de la collection numérique</t>
-  </si>
-  <si>
     <t>Ajout / Suppression / Modification d'un artefact à la collection</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ajout / Suppression / Modification d'une relation entre deux artefacts </t>
-  </si>
-  <si>
-    <t>Ajout / Suppression / Modification d'une relation entre un média et un artefact</t>
   </si>
   <si>
     <t>Accéder à l'application</t>
@@ -342,16 +333,10 @@
     <t>IT4</t>
   </si>
   <si>
-    <t>Service web -&gt; ouvrir la collection numérique</t>
-  </si>
-  <si>
     <t>Service web -&gt; ouvrir les parcours</t>
   </si>
   <si>
     <t>Acceder auxparcours via une API</t>
-  </si>
-  <si>
-    <t>Archivage des éléments de la collection numérique</t>
   </si>
   <si>
     <t xml:space="preserve">        - Gestion de plusieurs sous-parcours avec accès concurrents</t>
@@ -1673,7 +1658,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2184,7 +2183,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225053"/>
+          <c:x val="0.3703257666722507"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2201,10 +2200,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859879E-2"/>
-          <c:y val="0.15742128935532324"/>
+          <c:x val="5.5640078243859872E-2"/>
+          <c:y val="0.15742128935532329"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192092"/>
+          <c:h val="0.70464767616192103"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2514,11 +2513,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101788288"/>
-        <c:axId val="101802752"/>
+        <c:axId val="112002944"/>
+        <c:axId val="112021504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101788288"/>
+        <c:axId val="112002944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2549,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101802752"/>
+        <c:crossAx val="112021504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2558,7 +2557,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101802752"/>
+        <c:axId val="112021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,7 +2599,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101788288"/>
+        <c:crossAx val="112002944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2688,7 +2687,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000072" footer="0.49212598450000072"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000078" footer="0.49212598450000078"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2725,7 +2724,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225087"/>
+          <c:x val="0.37032576667225098"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2742,10 +2741,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859858E-2"/>
-          <c:y val="0.15742128935532335"/>
+          <c:x val="5.5640078243859852E-2"/>
+          <c:y val="0.15742128935532343"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192114"/>
+          <c:h val="0.70464767616192125"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3055,11 +3054,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104191488"/>
-        <c:axId val="104193408"/>
+        <c:axId val="112640768"/>
+        <c:axId val="112642688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104191488"/>
+        <c:axId val="112640768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3090,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104193408"/>
+        <c:crossAx val="112642688"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3099,7 +3098,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104193408"/>
+        <c:axId val="112642688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3140,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104191488"/>
+        <c:crossAx val="112640768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3229,7 +3228,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000083" footer="0.49212598450000083"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000089" footer="0.49212598450000089"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3266,7 +3265,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225109"/>
+          <c:x val="0.37032576667225126"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3284,9 +3283,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532348"/>
+          <c:y val="0.15742128935532354"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192137"/>
+          <c:h val="0.70464767616192159"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3596,11 +3595,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101511168"/>
-        <c:axId val="101513088"/>
+        <c:axId val="112524288"/>
+        <c:axId val="112620672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101511168"/>
+        <c:axId val="112524288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3631,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101513088"/>
+        <c:crossAx val="112620672"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3640,7 +3639,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101513088"/>
+        <c:axId val="112620672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,7 +3681,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101511168"/>
+        <c:crossAx val="112524288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3770,7 +3769,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000095" footer="0.49212598450000095"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500001" footer="0.492125984500001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3807,7 +3806,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225142"/>
+          <c:x val="0.37032576667225153"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3825,9 +3824,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553236"/>
+          <c:y val="0.15742128935532368"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192181"/>
+          <c:h val="0.70464767616192192"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4137,11 +4136,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104249600"/>
-        <c:axId val="104259968"/>
+        <c:axId val="112707072"/>
+        <c:axId val="112708992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104249600"/>
+        <c:axId val="112707072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,7 +4172,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104259968"/>
+        <c:crossAx val="112708992"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4181,7 +4180,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104259968"/>
+        <c:axId val="112708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +4222,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104249600"/>
+        <c:crossAx val="112707072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4311,7 +4310,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4756,10 +4755,10 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4883,7 +4882,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="61" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="33"/>
@@ -4927,7 +4926,7 @@
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="73" t="s">
@@ -4948,7 +4947,7 @@
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="73" t="s">
@@ -4969,7 +4968,7 @@
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="71" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="73" t="s">
@@ -4986,7 +4985,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="155" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="156"/>
       <c r="F11" s="149"/>
@@ -5012,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="73">
         <v>2</v>
@@ -5041,13 +5040,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="73">
         <v>2</v>
@@ -5070,13 +5069,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="73">
         <v>2</v>
@@ -5099,13 +5098,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" s="73">
         <v>2</v>
@@ -5128,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F16" s="112" t="s">
         <v>32</v>
@@ -5157,13 +5156,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" s="73">
         <v>8</v>
@@ -5186,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="73">
         <v>5</v>
@@ -5215,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G19" s="73">
         <v>5</v>
@@ -5242,13 +5241,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="73">
         <v>3</v>
@@ -5269,13 +5268,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" s="73">
         <v>3</v>
@@ -5296,13 +5295,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22" s="73">
         <v>8</v>
@@ -5321,7 +5320,7 @@
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="71"/>
       <c r="F23" s="73" t="s">
@@ -5363,7 +5362,7 @@
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="61" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="33"/>
@@ -5412,13 +5411,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="83" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="73">
         <v>4</v>
@@ -5433,10 +5432,10 @@
       <c r="B28" s="80"/>
       <c r="C28" s="76"/>
       <c r="D28" s="93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
@@ -5458,11 +5457,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G29" s="73">
         <v>6</v>
@@ -5483,11 +5482,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" s="73">
         <v>6</v>
@@ -5510,11 +5509,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" s="71"/>
       <c r="F31" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="86">
         <v>6</v>
@@ -5529,10 +5528,10 @@
       <c r="B32" s="80"/>
       <c r="C32" s="76"/>
       <c r="D32" s="93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" s="94" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" s="95"/>
       <c r="G32" s="95"/>
@@ -5552,11 +5551,11 @@
         <v>1</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E33" s="71"/>
       <c r="F33" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G33" s="73">
         <v>10</v>
@@ -5577,7 +5576,7 @@
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="73" t="s">
@@ -5619,7 +5618,7 @@
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="61" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="33"/>
@@ -5662,10 +5661,10 @@
       <c r="B38" s="70"/>
       <c r="C38" s="69"/>
       <c r="D38" s="93" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F38" s="95"/>
       <c r="G38" s="95"/>
@@ -5685,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="73" t="s">
@@ -5710,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="73" t="s">
@@ -5729,10 +5728,10 @@
       <c r="B41" s="70"/>
       <c r="C41" s="69"/>
       <c r="D41" s="93" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41" s="94" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F41" s="95"/>
       <c r="G41" s="95"/>
@@ -5752,11 +5751,11 @@
         <v>1</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42" s="73">
         <v>12</v>
@@ -5777,11 +5776,11 @@
         <v>1</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E43" s="72"/>
       <c r="F43" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G43" s="73">
         <v>12</v>
@@ -5802,10 +5801,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F44" s="73" t="s">
         <v>32</v>
@@ -5848,7 +5847,7 @@
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="61" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="33"/>
@@ -5895,10 +5894,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F48" s="73" t="s">
         <v>32</v>
@@ -5922,10 +5921,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E49" s="71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" s="73" t="s">
         <v>32</v>
@@ -5949,10 +5948,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F50" s="73" t="s">
         <v>32</v>
@@ -5976,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E51" s="71"/>
       <c r="F51" s="73"/>
@@ -6016,7 +6015,7 @@
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="61" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="33"/>
@@ -6060,7 +6059,7 @@
       </c>
       <c r="C55" s="130"/>
       <c r="D55" s="131" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E55" s="132"/>
       <c r="F55" s="86" t="s">
@@ -6184,10 +6183,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="1" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6203,7 +6202,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6394,12 +6393,12 @@
     </row>
     <row r="3" spans="1:120" ht="24.95" customHeight="1">
       <c r="A3" s="71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="76">
         <v>5</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="73">
         <v>2</v>
       </c>
       <c r="D3" s="34"/>
@@ -6420,13 +6419,13 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="71" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B4" s="76">
         <v>6</v>
       </c>
-      <c r="C4" s="103">
-        <v>5</v>
+      <c r="C4" s="73">
+        <v>2</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6446,13 +6445,13 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="76">
         <v>7</v>
       </c>
-      <c r="C5" s="103">
-        <v>4</v>
+      <c r="C5" s="73">
+        <v>2</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6472,12 +6471,12 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="76">
         <v>8</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="73">
         <v>2</v>
       </c>
       <c r="D6" s="34"/>
@@ -6498,13 +6497,13 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="83" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B7" s="76">
         <v>9</v>
       </c>
-      <c r="C7" s="103">
-        <v>5</v>
+      <c r="C7" s="76">
+        <v>10</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6524,13 +6523,13 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B8" s="76">
         <v>10</v>
       </c>
-      <c r="C8" s="103">
-        <v>4</v>
+      <c r="C8" s="73">
+        <v>8</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6550,13 +6549,13 @@
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
       <c r="A9" s="83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="76">
         <v>11</v>
       </c>
-      <c r="C9" s="103">
-        <v>4</v>
+      <c r="C9" s="73">
+        <v>5</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -6576,13 +6575,13 @@
     </row>
     <row r="10" spans="1:120" ht="24.95" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="76">
         <v>12</v>
       </c>
-      <c r="C10" s="103">
-        <v>4</v>
+      <c r="C10" s="73">
+        <v>5</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -6601,14 +6600,14 @@
       <c r="R10" s="50"/>
     </row>
     <row r="11" spans="1:120" s="143" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="71" t="s">
-        <v>50</v>
+      <c r="A11" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="76">
         <v>13</v>
       </c>
-      <c r="C11" s="103">
-        <v>4</v>
+      <c r="C11" s="73">
+        <v>3</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -6628,13 +6627,13 @@
     </row>
     <row r="12" spans="1:120" s="143" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B12" s="76">
         <v>14</v>
       </c>
-      <c r="C12" s="103">
-        <v>8</v>
+      <c r="C12" s="73">
+        <v>3</v>
       </c>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
@@ -6654,12 +6653,12 @@
     </row>
     <row r="13" spans="1:120" s="143" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="71" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B13" s="69">
         <v>15</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="73">
         <v>8</v>
       </c>
       <c r="D13" s="112"/>
@@ -6680,12 +6679,12 @@
     </row>
     <row r="14" spans="1:120" s="143" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="69">
         <v>16</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="73">
         <v>3</v>
       </c>
       <c r="D14" s="145"/>
@@ -8529,82 +8528,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B13 O14 D3:R13">
-    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="55" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A4 A6 A12:A14">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8633,7 +8640,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -8837,7 +8844,7 @@
     </row>
     <row r="4" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="76">
         <v>19</v>
@@ -8863,7 +8870,7 @@
     </row>
     <row r="5" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="104"/>
@@ -8885,7 +8892,7 @@
     </row>
     <row r="6" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="83" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="76">
         <v>20</v>
@@ -8911,7 +8918,7 @@
     </row>
     <row r="7" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="76">
         <v>21</v>
@@ -8937,7 +8944,7 @@
     </row>
     <row r="8" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="76">
         <v>22</v>
@@ -8963,7 +8970,7 @@
     </row>
     <row r="9" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="96"/>
       <c r="C9" s="104"/>
@@ -8985,7 +8992,7 @@
     </row>
     <row r="10" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" s="76">
         <v>23</v>
@@ -9011,7 +9018,7 @@
     </row>
     <row r="11" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="69">
         <v>24</v>
@@ -10904,7 +10911,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -11108,7 +11115,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="93" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="104"/>
@@ -11130,7 +11137,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="76">
         <v>27</v>
@@ -11156,7 +11163,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="76">
         <v>28</v>
@@ -11182,7 +11189,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="93" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
@@ -11204,7 +11211,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="76">
         <v>29</v>
@@ -11230,7 +11237,7 @@
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
       <c r="A9" s="113" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="159">
         <v>30</v>
@@ -11256,7 +11263,7 @@
     </row>
     <row r="10" spans="1:120" s="160" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="76">
         <v>31</v>
@@ -12942,7 +12949,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -13146,7 +13153,7 @@
     </row>
     <row r="4" spans="1:120" s="102" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="76">
         <v>34</v>
@@ -13172,7 +13179,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" s="76">
         <v>35</v>
@@ -13198,7 +13205,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="69">
         <v>36</v>
@@ -13224,7 +13231,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" s="69">
         <v>37</v>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -569,7 +569,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +716,12 @@
     <fill>
       <patternFill patternType="lightUp">
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1116,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1610,6 +1616,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1658,21 +1670,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -2148,6 +2146,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFEBF89E"/>
+      <color rgb="FFE2F56F"/>
+    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -2183,7 +2185,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722507"/>
+          <c:x val="0.37032576667225087"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2200,10 +2202,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859872E-2"/>
-          <c:y val="0.15742128935532329"/>
+          <c:x val="5.5640078243859858E-2"/>
+          <c:y val="0.15742128935532335"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192103"/>
+          <c:h val="0.70464767616192114"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2312,7 +2314,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2513,11 +2515,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112002944"/>
-        <c:axId val="112021504"/>
+        <c:axId val="104142720"/>
+        <c:axId val="104157184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112002944"/>
+        <c:axId val="104142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2551,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112021504"/>
+        <c:crossAx val="104157184"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2557,7 +2559,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112021504"/>
+        <c:axId val="104157184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2601,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112002944"/>
+        <c:crossAx val="104142720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,7 +2689,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000078" footer="0.49212598450000078"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000083" footer="0.49212598450000083"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2724,7 +2726,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225098"/>
+          <c:x val="0.37032576667225109"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2741,10 +2743,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859852E-2"/>
-          <c:y val="0.15742128935532343"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532348"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192125"/>
+          <c:h val="0.70464767616192137"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3054,11 +3056,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112640768"/>
-        <c:axId val="112642688"/>
+        <c:axId val="104444672"/>
+        <c:axId val="104446592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112640768"/>
+        <c:axId val="104444672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3092,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112642688"/>
+        <c:crossAx val="104446592"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3098,7 +3100,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112642688"/>
+        <c:axId val="104446592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112640768"/>
+        <c:crossAx val="104444672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,7 +3230,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000089" footer="0.49212598450000089"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000095" footer="0.49212598450000095"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3265,7 +3267,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225126"/>
+          <c:x val="0.37032576667225142"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3283,9 +3285,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532354"/>
+          <c:y val="0.1574212893553236"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192159"/>
+          <c:h val="0.70464767616192181"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3595,11 +3597,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112524288"/>
-        <c:axId val="112620672"/>
+        <c:axId val="103743872"/>
+        <c:axId val="103744640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112524288"/>
+        <c:axId val="103743872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3633,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112620672"/>
+        <c:crossAx val="103744640"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3639,7 +3641,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112620672"/>
+        <c:axId val="103744640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3683,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112524288"/>
+        <c:crossAx val="103743872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3769,7 +3771,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500001" footer="0.492125984500001"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3806,7 +3808,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225153"/>
+          <c:x val="0.3703257666722517"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3824,9 +3826,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532368"/>
+          <c:y val="0.15742128935532376"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192192"/>
+          <c:h val="0.70464767616192203"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4136,11 +4138,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112707072"/>
-        <c:axId val="112708992"/>
+        <c:axId val="104379904"/>
+        <c:axId val="104381824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112707072"/>
+        <c:axId val="104379904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4174,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112708992"/>
+        <c:crossAx val="104381824"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4180,7 +4182,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112708992"/>
+        <c:axId val="104381824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4224,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112707072"/>
+        <c:crossAx val="104379904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4310,7 +4312,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4754,11 +4756,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5136,7 +5138,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
@@ -5304,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="73">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -6183,10 +6185,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6201,9 +6203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -6401,7 +6401,9 @@
       <c r="C3" s="73">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="73">
+        <v>2</v>
+      </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -6424,10 +6426,12 @@
       <c r="B4" s="76">
         <v>6</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="170">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="73">
+        <v>1</v>
+      </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -6450,10 +6454,12 @@
       <c r="B5" s="76">
         <v>7</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="170">
         <v>2</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="73">
+        <v>1</v>
+      </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -6476,10 +6482,12 @@
       <c r="B6" s="76">
         <v>8</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="170">
         <v>2</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="73">
+        <v>1</v>
+      </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -6502,10 +6510,12 @@
       <c r="B7" s="76">
         <v>9</v>
       </c>
-      <c r="C7" s="76">
-        <v>10</v>
-      </c>
-      <c r="D7" s="34"/>
+      <c r="C7" s="171">
+        <v>5</v>
+      </c>
+      <c r="D7" s="76">
+        <v>2</v>
+      </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -6531,7 +6541,9 @@
       <c r="C8" s="73">
         <v>8</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="73">
+        <v>8</v>
+      </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -6557,7 +6569,9 @@
       <c r="C9" s="73">
         <v>5</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="73">
+        <v>5</v>
+      </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -6583,7 +6597,9 @@
       <c r="C10" s="73">
         <v>5</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="73">
+        <v>5</v>
+      </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -6609,7 +6625,9 @@
       <c r="C11" s="73">
         <v>3</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="73">
+        <v>3</v>
+      </c>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
@@ -6635,7 +6653,9 @@
       <c r="C12" s="73">
         <v>3</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="73">
+        <v>3</v>
+      </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
@@ -6659,9 +6679,11 @@
         <v>15</v>
       </c>
       <c r="C13" s="73">
-        <v>8</v>
-      </c>
-      <c r="D13" s="112"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="73">
+        <v>13</v>
+      </c>
       <c r="E13" s="112"/>
       <c r="F13" s="112"/>
       <c r="G13" s="112"/>
@@ -6687,7 +6709,9 @@
       <c r="C14" s="73">
         <v>3</v>
       </c>
-      <c r="D14" s="145"/>
+      <c r="D14" s="73">
+        <v>3</v>
+      </c>
       <c r="E14" s="145"/>
       <c r="F14" s="145"/>
       <c r="G14" s="145"/>
@@ -6754,9 +6778,9 @@
         <f t="array" ref="C17">IF(ISBLANK(C3:C14),NA(), SUM(C3:C14))</f>
         <v>53</v>
       </c>
-      <c r="D17" s="39" t="e">
+      <c r="D17" s="39">
         <f t="array" ref="D17">IF(ISBLANK(D3:D14), NA(), SUM(D3:D14))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="E17" s="39" t="e">
         <f t="array" ref="E17">IF(ISBLANK(E3:E14), NA(), SUM(E3:E14))</f>
@@ -6923,9 +6947,9 @@
         <v>38</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="39" t="e">
+      <c r="D18" s="39">
         <f>C17-D17</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="E18" s="39" t="e">
         <f t="shared" ref="E18:R18" si="0">D17-E17</f>
@@ -7165,9 +7189,9 @@
         <f>1-C17/$C$17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="59" t="e">
+      <c r="D20" s="59">
         <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
-        <v>#N/A</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="E20" s="59" t="e">
         <f t="shared" si="2"/>
@@ -8527,91 +8551,91 @@
       <c r="R85" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 O14 D3:R13">
-    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:B13 O14 E3:R13">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10847,42 +10871,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12877,50 +12901,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15040,50 +15064,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1593,6 +1593,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1617,10 +1623,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2185,7 +2188,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225087"/>
+          <c:x val="0.37032576667225098"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2202,10 +2205,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859858E-2"/>
-          <c:y val="0.15742128935532335"/>
+          <c:x val="5.5640078243859852E-2"/>
+          <c:y val="0.15742128935532343"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192114"/>
+          <c:h val="0.70464767616192125"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2314,10 +2317,10 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2515,11 +2518,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104142720"/>
-        <c:axId val="104157184"/>
+        <c:axId val="112138112"/>
+        <c:axId val="112152576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104142720"/>
+        <c:axId val="112138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2554,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104157184"/>
+        <c:crossAx val="112152576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2559,7 +2562,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104157184"/>
+        <c:axId val="112152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2604,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104142720"/>
+        <c:crossAx val="112138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2689,7 +2692,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000083" footer="0.49212598450000083"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000089" footer="0.49212598450000089"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2726,7 +2729,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225109"/>
+          <c:x val="0.37032576667225126"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2744,9 +2747,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532348"/>
+          <c:y val="0.15742128935532354"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192137"/>
+          <c:h val="0.70464767616192159"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3056,11 +3059,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104444672"/>
-        <c:axId val="104446592"/>
+        <c:axId val="112841472"/>
+        <c:axId val="112843392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104444672"/>
+        <c:axId val="112841472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3095,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104446592"/>
+        <c:crossAx val="112843392"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3100,7 +3103,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104446592"/>
+        <c:axId val="112843392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3145,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104444672"/>
+        <c:crossAx val="112841472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3230,7 +3233,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000095" footer="0.49212598450000095"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500001" footer="0.492125984500001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3267,7 +3270,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225142"/>
+          <c:x val="0.37032576667225153"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3285,9 +3288,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553236"/>
+          <c:y val="0.15742128935532368"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192181"/>
+          <c:h val="0.70464767616192192"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3597,11 +3600,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103743872"/>
-        <c:axId val="103744640"/>
+        <c:axId val="112720896"/>
+        <c:axId val="112723072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103743872"/>
+        <c:axId val="112720896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,7 +3636,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103744640"/>
+        <c:crossAx val="112723072"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3641,7 +3644,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103744640"/>
+        <c:axId val="112723072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,7 +3686,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103743872"/>
+        <c:crossAx val="112720896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3771,7 +3774,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3808,7 +3811,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722517"/>
+          <c:x val="0.37032576667225187"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3826,9 +3829,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532376"/>
+          <c:y val="0.15742128935532382"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192203"/>
+          <c:h val="0.70464767616192214"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4138,11 +4141,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104379904"/>
-        <c:axId val="104381824"/>
+        <c:axId val="112903680"/>
+        <c:axId val="112905600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104379904"/>
+        <c:axId val="112903680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4177,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104381824"/>
+        <c:crossAx val="112905600"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4182,7 +4185,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104381824"/>
+        <c:axId val="112905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4227,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104379904"/>
+        <c:crossAx val="112903680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4312,7 +4315,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4784,10 +4787,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="167"/>
+      <c r="E1" s="169"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4799,10 +4802,10 @@
       <c r="A2" s="65"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="169"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="26"/>
       <c r="G2" s="60"/>
       <c r="H2" s="3"/>
@@ -4818,8 +4821,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="26"/>
       <c r="G3" s="60"/>
       <c r="H3" s="3"/>
@@ -4827,9 +4830,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6203,7 +6206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -6401,10 +6406,12 @@
       <c r="C3" s="73">
         <v>2</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="162">
         <v>2</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="162">
+        <v>1</v>
+      </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="43"/>
@@ -6426,13 +6433,15 @@
       <c r="B4" s="76">
         <v>6</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="162">
         <v>2</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="162">
         <v>1</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="162">
+        <v>1</v>
+      </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="43"/>
@@ -6454,13 +6463,15 @@
       <c r="B5" s="76">
         <v>7</v>
       </c>
-      <c r="C5" s="170">
+      <c r="C5" s="162">
         <v>2</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="162">
         <v>1</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="162">
+        <v>1</v>
+      </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="43"/>
@@ -6482,13 +6493,15 @@
       <c r="B6" s="76">
         <v>8</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="172">
         <v>2</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="162">
+        <v>2</v>
+      </c>
+      <c r="E6" s="162">
         <v>1</v>
       </c>
-      <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="43"/>
@@ -6510,13 +6523,15 @@
       <c r="B7" s="76">
         <v>9</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="163">
         <v>5</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="162">
         <v>2</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="163">
+        <v>1</v>
+      </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
@@ -6544,7 +6559,9 @@
       <c r="D8" s="73">
         <v>8</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="73">
+        <v>8</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
@@ -6572,7 +6589,9 @@
       <c r="D9" s="73">
         <v>5</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="73">
+        <v>5</v>
+      </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="35"/>
@@ -6600,7 +6619,9 @@
       <c r="D10" s="73">
         <v>5</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="73">
+        <v>5</v>
+      </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
@@ -6628,7 +6649,9 @@
       <c r="D11" s="73">
         <v>3</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="73">
+        <v>3</v>
+      </c>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
       <c r="H11" s="112"/>
@@ -6656,7 +6679,9 @@
       <c r="D12" s="73">
         <v>3</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="73">
+        <v>3</v>
+      </c>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
       <c r="H12" s="112"/>
@@ -6684,7 +6709,9 @@
       <c r="D13" s="73">
         <v>13</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="73">
+        <v>13</v>
+      </c>
       <c r="F13" s="112"/>
       <c r="G13" s="112"/>
       <c r="H13" s="112"/>
@@ -6712,7 +6739,9 @@
       <c r="D14" s="73">
         <v>3</v>
       </c>
-      <c r="E14" s="145"/>
+      <c r="E14" s="73">
+        <v>3</v>
+      </c>
       <c r="F14" s="145"/>
       <c r="G14" s="145"/>
       <c r="H14" s="145"/>
@@ -6780,11 +6809,11 @@
       </c>
       <c r="D17" s="39">
         <f t="array" ref="D17">IF(ISBLANK(D3:D14), NA(), SUM(D3:D14))</f>
-        <v>47</v>
-      </c>
-      <c r="E17" s="39" t="e">
+        <v>48</v>
+      </c>
+      <c r="E17" s="39">
         <f t="array" ref="E17">IF(ISBLANK(E3:E14), NA(), SUM(E3:E14))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="F17" s="39" t="e">
         <f t="array" ref="F17">IF(ISBLANK(F3:F14), NA(), SUM(F3:F14))</f>
@@ -6949,11 +6978,11 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39">
         <f>C17-D17</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="39" t="e">
+        <v>5</v>
+      </c>
+      <c r="E18" s="39">
         <f t="shared" ref="E18:R18" si="0">D17-E17</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="F18" s="39" t="e">
         <f t="shared" si="0"/>
@@ -7191,11 +7220,11 @@
       </c>
       <c r="D20" s="59">
         <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
-        <v>0.1132075471698113</v>
-      </c>
-      <c r="E20" s="59" t="e">
+        <v>9.4339622641509413E-2</v>
+      </c>
+      <c r="E20" s="59">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.15094339622641506</v>
       </c>
       <c r="F20" s="59" t="e">
         <f t="shared" si="2"/>
@@ -8551,7 +8580,7 @@
       <c r="R85" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 O14 E3:R13">
+  <conditionalFormatting sqref="A3:B13 O14 F3:R13">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1599,6 +1599,9 @@
     <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1623,8 +1626,8 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2188,7 +2191,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225098"/>
+          <c:x val="0.37032576667225109"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2205,10 +2208,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5640078243859852E-2"/>
-          <c:y val="0.15742128935532343"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532348"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192125"/>
+          <c:h val="0.70464767616192137"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2323,7 +2326,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2518,11 +2521,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112138112"/>
-        <c:axId val="112152576"/>
+        <c:axId val="111089536"/>
+        <c:axId val="111104000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112138112"/>
+        <c:axId val="111089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2557,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112152576"/>
+        <c:crossAx val="111104000"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2562,7 +2565,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112152576"/>
+        <c:axId val="111104000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2607,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112138112"/>
+        <c:crossAx val="111089536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2692,7 +2695,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000089" footer="0.49212598450000089"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000095" footer="0.49212598450000095"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2729,7 +2732,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225126"/>
+          <c:x val="0.37032576667225142"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2747,9 +2750,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532354"/>
+          <c:y val="0.1574212893553236"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192159"/>
+          <c:h val="0.70464767616192181"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3233,7 +3236,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500001" footer="0.492125984500001"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3270,7 +3273,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225153"/>
+          <c:x val="0.3703257666722517"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3288,9 +3291,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532368"/>
+          <c:y val="0.15742128935532376"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192192"/>
+          <c:h val="0.70464767616192203"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3600,11 +3603,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112720896"/>
-        <c:axId val="112723072"/>
+        <c:axId val="112716800"/>
+        <c:axId val="112821376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112720896"/>
+        <c:axId val="112716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3639,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112723072"/>
+        <c:crossAx val="112821376"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3644,7 +3647,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112723072"/>
+        <c:axId val="112821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3686,7 +3689,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112720896"/>
+        <c:crossAx val="112716800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3774,7 +3777,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3811,7 +3814,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225187"/>
+          <c:x val="0.37032576667225198"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3829,9 +3832,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532382"/>
+          <c:y val="0.1574212893553239"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192214"/>
+          <c:h val="0.70464767616192225"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4141,11 +4144,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112903680"/>
-        <c:axId val="112905600"/>
+        <c:axId val="112899584"/>
+        <c:axId val="112901504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112903680"/>
+        <c:axId val="112899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4180,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112905600"/>
+        <c:crossAx val="112901504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4185,7 +4188,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112905600"/>
+        <c:axId val="112901504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4230,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112903680"/>
+        <c:crossAx val="112899584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4315,7 +4318,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4787,10 +4790,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169"/>
+      <c r="E1" s="170"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4802,10 +4805,10 @@
       <c r="A2" s="65"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="171"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="26"/>
       <c r="G2" s="60"/>
       <c r="H2" s="3"/>
@@ -4821,8 +4824,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="26"/>
       <c r="G3" s="60"/>
       <c r="H3" s="3"/>
@@ -4830,9 +4833,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6207,7 +6210,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6412,7 +6415,9 @@
       <c r="E3" s="162">
         <v>1</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="173">
+        <v>1</v>
+      </c>
       <c r="G3" s="34"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -6442,7 +6447,9 @@
       <c r="E4" s="162">
         <v>1</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="173">
+        <v>1</v>
+      </c>
       <c r="G4" s="34"/>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -6472,7 +6479,9 @@
       <c r="E5" s="162">
         <v>1</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="173">
+        <v>1</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
@@ -6493,7 +6502,7 @@
       <c r="B6" s="76">
         <v>8</v>
       </c>
-      <c r="C6" s="172">
+      <c r="C6" s="164">
         <v>2</v>
       </c>
       <c r="D6" s="162">
@@ -6502,7 +6511,9 @@
       <c r="E6" s="162">
         <v>1</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="173">
+        <v>1</v>
+      </c>
       <c r="G6" s="34"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -6532,7 +6543,9 @@
       <c r="E7" s="163">
         <v>1</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="173">
+        <v>0</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -6562,7 +6575,9 @@
       <c r="E8" s="73">
         <v>8</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="73">
+        <v>8</v>
+      </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -6592,7 +6607,9 @@
       <c r="E9" s="73">
         <v>5</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="73">
+        <v>5</v>
+      </c>
       <c r="G9" s="43"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -6622,7 +6639,9 @@
       <c r="E10" s="73">
         <v>5</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="73">
+        <v>5</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -6652,7 +6671,9 @@
       <c r="E11" s="73">
         <v>3</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="73">
+        <v>3</v>
+      </c>
       <c r="G11" s="73"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
@@ -6682,7 +6703,9 @@
       <c r="E12" s="73">
         <v>3</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="73">
+        <v>3</v>
+      </c>
       <c r="G12" s="73"/>
       <c r="H12" s="112"/>
       <c r="I12" s="112"/>
@@ -6709,10 +6732,12 @@
       <c r="D13" s="73">
         <v>13</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="162">
         <v>13</v>
       </c>
-      <c r="F13" s="112"/>
+      <c r="F13" s="162">
+        <v>11</v>
+      </c>
       <c r="G13" s="112"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
@@ -6742,7 +6767,9 @@
       <c r="E14" s="73">
         <v>3</v>
       </c>
-      <c r="F14" s="145"/>
+      <c r="F14" s="73">
+        <v>3</v>
+      </c>
       <c r="G14" s="145"/>
       <c r="H14" s="145"/>
       <c r="I14" s="145"/>
@@ -6815,9 +6842,9 @@
         <f t="array" ref="E17">IF(ISBLANK(E3:E14), NA(), SUM(E3:E14))</f>
         <v>45</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="39">
         <f t="array" ref="F17">IF(ISBLANK(F3:F14), NA(), SUM(F3:F14))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="G17" s="39" t="e">
         <f t="array" ref="G17">IF(ISBLANK(G3:G14), NA(), SUM(G3:G14))</f>
@@ -6984,9 +7011,9 @@
         <f t="shared" ref="E18:R18" si="0">D17-E17</f>
         <v>3</v>
       </c>
-      <c r="F18" s="39" t="e">
+      <c r="F18" s="39">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="G18" s="39" t="e">
         <f t="shared" si="0"/>
@@ -7226,9 +7253,9 @@
         <f t="shared" si="2"/>
         <v>0.15094339622641506</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="59">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.20754716981132071</v>
       </c>
       <c r="G20" s="59" t="e">
         <f t="shared" si="2"/>
@@ -8580,7 +8607,7 @@
       <c r="R85" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 O14 F3:R13">
+  <conditionalFormatting sqref="A3:B13 O14 G3:R13 F3:F7">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1599,6 +1599,15 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1622,15 +1631,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1679,7 +1679,35 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2194,7 +2222,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225126"/>
+          <c:x val="0.37032576667225142"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2212,9 +2240,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532354"/>
+          <c:y val="0.1574212893553236"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192159"/>
+          <c:h val="0.70464767616192181"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2335,10 +2363,10 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -2524,11 +2552,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100603776"/>
-        <c:axId val="100618240"/>
+        <c:axId val="104994688"/>
+        <c:axId val="105009152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100603776"/>
+        <c:axId val="104994688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2588,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100618240"/>
+        <c:crossAx val="105009152"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2568,7 +2596,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100618240"/>
+        <c:axId val="105009152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2638,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100603776"/>
+        <c:crossAx val="104994688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2698,7 +2726,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500001" footer="0.492125984500001"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2735,7 +2763,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225153"/>
+          <c:x val="0.3703257666722517"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2753,9 +2781,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532368"/>
+          <c:y val="0.15742128935532376"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192192"/>
+          <c:h val="0.70464767616192203"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3065,11 +3093,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104313600"/>
-        <c:axId val="104315520"/>
+        <c:axId val="105698048"/>
+        <c:axId val="105699968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104313600"/>
+        <c:axId val="105698048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3129,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104315520"/>
+        <c:crossAx val="105699968"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3109,7 +3137,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104315520"/>
+        <c:axId val="105699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,7 +3179,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104313600"/>
+        <c:crossAx val="105698048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3239,7 +3267,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3276,7 +3304,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225187"/>
+          <c:x val="0.37032576667225198"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3294,9 +3322,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532382"/>
+          <c:y val="0.1574212893553239"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192214"/>
+          <c:h val="0.70464767616192225"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3606,11 +3634,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100467072"/>
-        <c:axId val="100467840"/>
+        <c:axId val="105577472"/>
+        <c:axId val="105579648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100467072"/>
+        <c:axId val="105577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +3670,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100467840"/>
+        <c:crossAx val="105579648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3650,7 +3678,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100467840"/>
+        <c:axId val="105579648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,7 +3720,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100467072"/>
+        <c:crossAx val="105577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3780,7 +3808,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3817,7 +3845,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225209"/>
+          <c:x val="0.37032576667225225"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3835,9 +3863,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532396"/>
+          <c:y val="0.15742128935532401"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192236"/>
+          <c:h val="0.70464767616192259"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4147,11 +4175,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103069184"/>
-        <c:axId val="103071104"/>
+        <c:axId val="105760256"/>
+        <c:axId val="105762176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103069184"/>
+        <c:axId val="105760256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4211,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103071104"/>
+        <c:crossAx val="105762176"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4191,7 +4219,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103071104"/>
+        <c:axId val="105762176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4261,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103069184"/>
+        <c:crossAx val="105760256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4321,7 +4349,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4793,10 +4821,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4808,10 +4836,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="171"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4827,8 +4855,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4836,9 +4864,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6194,10 +6222,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="57" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6213,7 +6241,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6424,17 +6452,21 @@
       <c r="G3" s="161">
         <v>1</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="174"/>
+      <c r="H3" s="164">
+        <v>0</v>
+      </c>
+      <c r="I3" s="164">
+        <v>0</v>
+      </c>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="166"/>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
@@ -6458,17 +6490,21 @@
       <c r="G4" s="161">
         <v>1</v>
       </c>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="174"/>
+      <c r="H4" s="164">
+        <v>0</v>
+      </c>
+      <c r="I4" s="164">
+        <v>0</v>
+      </c>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="166"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="80" t="s">
@@ -6492,17 +6528,21 @@
       <c r="G5" s="161">
         <v>1</v>
       </c>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="174"/>
+      <c r="H5" s="164">
+        <v>0</v>
+      </c>
+      <c r="I5" s="164">
+        <v>0</v>
+      </c>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="166"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
@@ -6526,17 +6566,21 @@
       <c r="G6" s="161">
         <v>1</v>
       </c>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="174"/>
+      <c r="H6" s="164">
+        <v>0</v>
+      </c>
+      <c r="I6" s="164">
+        <v>0</v>
+      </c>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="166"/>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
@@ -6560,8 +6604,12 @@
       <c r="G7" s="72">
         <v>0</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="H7" s="111">
+        <v>0</v>
+      </c>
+      <c r="I7" s="111">
+        <v>0</v>
+      </c>
       <c r="J7" s="111"/>
       <c r="K7" s="111"/>
       <c r="L7" s="111"/>
@@ -6594,8 +6642,12 @@
       <c r="G8" s="161">
         <v>8</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="H8" s="161">
+        <v>7</v>
+      </c>
+      <c r="I8" s="161">
+        <v>6</v>
+      </c>
       <c r="J8" s="111"/>
       <c r="K8" s="111"/>
       <c r="L8" s="111"/>
@@ -6628,8 +6680,12 @@
       <c r="G9" s="161">
         <v>5</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
+      <c r="H9" s="161">
+        <v>4</v>
+      </c>
+      <c r="I9" s="161">
+        <v>3</v>
+      </c>
       <c r="J9" s="111"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
@@ -6662,8 +6718,12 @@
       <c r="G10" s="72">
         <v>5</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="H10" s="111">
+        <v>5</v>
+      </c>
+      <c r="I10" s="161">
+        <v>5</v>
+      </c>
       <c r="J10" s="111"/>
       <c r="K10" s="111"/>
       <c r="L10" s="111"/>
@@ -6696,8 +6756,12 @@
       <c r="G11" s="72">
         <v>3</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
+      <c r="H11" s="111">
+        <v>3</v>
+      </c>
+      <c r="I11" s="111">
+        <v>3</v>
+      </c>
       <c r="J11" s="111"/>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
@@ -6730,8 +6794,12 @@
       <c r="G12" s="72">
         <v>3</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
+      <c r="H12" s="111">
+        <v>3</v>
+      </c>
+      <c r="I12" s="111">
+        <v>3</v>
+      </c>
       <c r="J12" s="111"/>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
@@ -6764,8 +6832,12 @@
       <c r="G13" s="161">
         <v>8</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
+      <c r="H13" s="161">
+        <v>6</v>
+      </c>
+      <c r="I13" s="161">
+        <v>4</v>
+      </c>
       <c r="J13" s="111"/>
       <c r="K13" s="111"/>
       <c r="L13" s="111"/>
@@ -6798,8 +6870,12 @@
       <c r="G14" s="72">
         <v>3</v>
       </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
+      <c r="H14" s="144">
+        <v>3</v>
+      </c>
+      <c r="I14" s="144">
+        <v>3</v>
+      </c>
       <c r="J14" s="144"/>
       <c r="K14" s="144"/>
       <c r="L14" s="144"/>
@@ -6877,13 +6953,13 @@
         <f t="array" ref="G17">IF(ISBLANK(G3:G14), NA(), SUM(G3:G14))</f>
         <v>39</v>
       </c>
-      <c r="H17" s="38" t="e">
+      <c r="H17" s="38">
         <f t="array" ref="H17">IF(ISBLANK(H3:H14), NA(), SUM(H3:H14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="38" t="e">
+        <v>31</v>
+      </c>
+      <c r="I17" s="38">
         <f t="array" ref="I17">IF(ISBLANK(I3:I14), NA(), SUM(I3:I14))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="J17" s="38" t="e">
         <f t="array" ref="J17">IF(ISBLANK(J3:J14), NA(), SUM(J3:J14))</f>
@@ -7046,13 +7122,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H18" s="38" t="e">
+      <c r="H18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="38" t="e">
+        <v>8</v>
+      </c>
+      <c r="I18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="J18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -7288,13 +7364,13 @@
         <f t="shared" si="2"/>
         <v>0.26415094339622647</v>
       </c>
-      <c r="H20" s="58" t="e">
+      <c r="H20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="58" t="e">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="I20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="J20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -8634,91 +8710,91 @@
       <c r="R85" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 O14 H3:R13 F3:G7 G13">
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="53" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="49" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="47" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="45" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="43" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8734,7 +8810,7 @@
   <dimension ref="A1:DP81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10954,42 +11030,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12984,50 +13060,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15147,50 +15223,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -6240,9 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1679,7 +1679,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2222,7 +2236,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225142"/>
+          <c:x val="0.37032576667225153"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2240,9 +2254,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553236"/>
+          <c:y val="0.15742128935532368"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192181"/>
+          <c:h val="0.70464767616192192"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2369,7 +2383,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2552,11 +2566,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104994688"/>
-        <c:axId val="105009152"/>
+        <c:axId val="111286144"/>
+        <c:axId val="111300608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104994688"/>
+        <c:axId val="111286144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2602,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105009152"/>
+        <c:crossAx val="111300608"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2596,7 +2610,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105009152"/>
+        <c:axId val="111300608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2652,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104994688"/>
+        <c:crossAx val="111286144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2726,7 +2740,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000106" footer="0.49212598450000106"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2763,7 +2777,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722517"/>
+          <c:x val="0.37032576667225187"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2781,9 +2795,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532376"/>
+          <c:y val="0.15742128935532382"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192203"/>
+          <c:h val="0.70464767616192214"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3093,11 +3107,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105698048"/>
-        <c:axId val="105699968"/>
+        <c:axId val="112636672"/>
+        <c:axId val="112638592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105698048"/>
+        <c:axId val="112636672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +3143,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105699968"/>
+        <c:crossAx val="112638592"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3137,7 +3151,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105699968"/>
+        <c:axId val="112638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,7 +3193,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105698048"/>
+        <c:crossAx val="112636672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3267,7 +3281,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3304,7 +3318,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225198"/>
+          <c:x val="0.37032576667225209"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3322,9 +3336,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553239"/>
+          <c:y val="0.15742128935532396"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192225"/>
+          <c:h val="0.70464767616192236"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3634,11 +3648,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105577472"/>
-        <c:axId val="105579648"/>
+        <c:axId val="111214976"/>
+        <c:axId val="111215744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105577472"/>
+        <c:axId val="111214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3684,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105579648"/>
+        <c:crossAx val="111215744"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3678,7 +3692,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105579648"/>
+        <c:axId val="111215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +3734,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105577472"/>
+        <c:crossAx val="111214976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3808,7 +3822,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3845,7 +3859,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225225"/>
+          <c:x val="0.37032576667225242"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3863,9 +3877,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532401"/>
+          <c:y val="0.15742128935532407"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192259"/>
+          <c:h val="0.70464767616192281"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4175,11 +4189,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105760256"/>
-        <c:axId val="105762176"/>
+        <c:axId val="112772608"/>
+        <c:axId val="112774528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105760256"/>
+        <c:axId val="112772608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4225,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105762176"/>
+        <c:crossAx val="112774528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4219,7 +4233,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105762176"/>
+        <c:axId val="112774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,7 +4275,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105760256"/>
+        <c:crossAx val="112772608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4349,7 +4363,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6222,10 +6236,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="61" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6240,7 +6254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -6456,7 +6472,9 @@
       <c r="I3" s="164">
         <v>0</v>
       </c>
-      <c r="J3" s="164"/>
+      <c r="J3" s="164">
+        <v>0</v>
+      </c>
       <c r="K3" s="164"/>
       <c r="L3" s="164"/>
       <c r="M3" s="164"/>
@@ -6494,7 +6512,9 @@
       <c r="I4" s="164">
         <v>0</v>
       </c>
-      <c r="J4" s="164"/>
+      <c r="J4" s="164">
+        <v>0</v>
+      </c>
       <c r="K4" s="164"/>
       <c r="L4" s="164"/>
       <c r="M4" s="164"/>
@@ -6532,7 +6552,9 @@
       <c r="I5" s="164">
         <v>0</v>
       </c>
-      <c r="J5" s="164"/>
+      <c r="J5" s="164">
+        <v>0</v>
+      </c>
       <c r="K5" s="164"/>
       <c r="L5" s="164"/>
       <c r="M5" s="164"/>
@@ -6570,7 +6592,9 @@
       <c r="I6" s="164">
         <v>0</v>
       </c>
-      <c r="J6" s="164"/>
+      <c r="J6" s="164">
+        <v>0</v>
+      </c>
       <c r="K6" s="164"/>
       <c r="L6" s="164"/>
       <c r="M6" s="164"/>
@@ -6608,7 +6632,9 @@
       <c r="I7" s="111">
         <v>0</v>
       </c>
-      <c r="J7" s="111"/>
+      <c r="J7" s="111">
+        <v>0</v>
+      </c>
       <c r="K7" s="111"/>
       <c r="L7" s="111"/>
       <c r="M7" s="111"/>
@@ -6646,8 +6672,10 @@
       <c r="I8" s="161">
         <v>6</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="J8" s="161">
+        <v>5</v>
+      </c>
+      <c r="K8" s="161"/>
       <c r="L8" s="111"/>
       <c r="M8" s="111"/>
       <c r="N8" s="111"/>
@@ -6684,8 +6712,10 @@
       <c r="I9" s="161">
         <v>3</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
+      <c r="J9" s="161">
+        <v>2</v>
+      </c>
+      <c r="K9" s="161"/>
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
@@ -6722,8 +6752,10 @@
       <c r="I10" s="161">
         <v>5</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
+      <c r="J10" s="161">
+        <v>4</v>
+      </c>
+      <c r="K10" s="161"/>
       <c r="L10" s="111"/>
       <c r="M10" s="111"/>
       <c r="N10" s="111"/>
@@ -6760,7 +6792,9 @@
       <c r="I11" s="111">
         <v>3</v>
       </c>
-      <c r="J11" s="111"/>
+      <c r="J11" s="111">
+        <v>3</v>
+      </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="111"/>
@@ -6798,7 +6832,9 @@
       <c r="I12" s="111">
         <v>3</v>
       </c>
-      <c r="J12" s="111"/>
+      <c r="J12" s="111">
+        <v>3</v>
+      </c>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
       <c r="M12" s="111"/>
@@ -6836,8 +6872,10 @@
       <c r="I13" s="161">
         <v>4</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
+      <c r="J13" s="161">
+        <v>2</v>
+      </c>
+      <c r="K13" s="161"/>
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
       <c r="N13" s="111"/>
@@ -6874,7 +6912,9 @@
       <c r="I14" s="144">
         <v>3</v>
       </c>
-      <c r="J14" s="144"/>
+      <c r="J14" s="144">
+        <v>3</v>
+      </c>
       <c r="K14" s="144"/>
       <c r="L14" s="144"/>
       <c r="M14" s="144"/>
@@ -6959,9 +6999,9 @@
         <f t="array" ref="I17">IF(ISBLANK(I3:I14), NA(), SUM(I3:I14))</f>
         <v>27</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="38">
         <f t="array" ref="J17">IF(ISBLANK(J3:J14), NA(), SUM(J3:J14))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="K17" s="38" t="e">
         <f t="array" ref="K17">IF(ISBLANK(K3:K14), NA(), SUM(K3:K14))</f>
@@ -7128,9 +7168,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J18" s="38" t="e">
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="K18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -7370,9 +7410,9 @@
         <f t="shared" si="2"/>
         <v>0.49056603773584906</v>
       </c>
-      <c r="J20" s="58" t="e">
+      <c r="J20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="K20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -8709,90 +8749,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="55" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11028,42 +11068,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13058,50 +13098,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15221,50 +15261,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1631,6 +1631,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2236,7 +2242,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225153"/>
+          <c:x val="0.3703257666722517"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2254,9 +2260,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532368"/>
+          <c:y val="0.15742128935532376"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192192"/>
+          <c:h val="0.70464767616192203"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2386,7 +2392,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2566,11 +2572,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111286144"/>
-        <c:axId val="111300608"/>
+        <c:axId val="113448832"/>
+        <c:axId val="113463296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111286144"/>
+        <c:axId val="113448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2608,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111300608"/>
+        <c:crossAx val="113463296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2610,7 +2616,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111300608"/>
+        <c:axId val="113463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2658,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111286144"/>
+        <c:crossAx val="113448832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,7 +2746,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000111" footer="0.49212598450000111"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2777,7 +2783,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225187"/>
+          <c:x val="0.37032576667225198"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2795,9 +2801,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532382"/>
+          <c:y val="0.1574212893553239"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192214"/>
+          <c:h val="0.70464767616192225"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3107,11 +3113,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112636672"/>
-        <c:axId val="112638592"/>
+        <c:axId val="113754880"/>
+        <c:axId val="113756800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112636672"/>
+        <c:axId val="113754880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3149,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112638592"/>
+        <c:crossAx val="113756800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3151,7 +3157,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112638592"/>
+        <c:axId val="113756800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3199,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112636672"/>
+        <c:crossAx val="113754880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,7 +3287,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3318,7 +3324,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225209"/>
+          <c:x val="0.37032576667225225"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3336,9 +3342,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532396"/>
+          <c:y val="0.15742128935532401"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192236"/>
+          <c:h val="0.70464767616192259"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3648,11 +3654,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111214976"/>
-        <c:axId val="111215744"/>
+        <c:axId val="113441792"/>
+        <c:axId val="113640576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111214976"/>
+        <c:axId val="113441792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3690,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111215744"/>
+        <c:crossAx val="113640576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3692,7 +3698,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111215744"/>
+        <c:axId val="113640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3740,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111214976"/>
+        <c:crossAx val="113441792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3822,7 +3828,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3859,7 +3865,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225242"/>
+          <c:x val="0.37032576667225253"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3877,9 +3883,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532407"/>
+          <c:y val="0.15742128935532415"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192281"/>
+          <c:h val="0.70464767616192292"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4189,11 +4195,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112772608"/>
-        <c:axId val="112774528"/>
+        <c:axId val="113821184"/>
+        <c:axId val="113823104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112772608"/>
+        <c:axId val="113821184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4225,7 +4231,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112774528"/>
+        <c:crossAx val="113823104"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4233,7 +4239,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112774528"/>
+        <c:axId val="113823104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,7 +4281,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112772608"/>
+        <c:crossAx val="113821184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4363,7 +4369,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6254,8 +6260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6475,7 +6481,9 @@
       <c r="J3" s="164">
         <v>0</v>
       </c>
-      <c r="K3" s="164"/>
+      <c r="K3" s="164">
+        <v>0</v>
+      </c>
       <c r="L3" s="164"/>
       <c r="M3" s="164"/>
       <c r="N3" s="164"/>
@@ -6515,7 +6523,9 @@
       <c r="J4" s="164">
         <v>0</v>
       </c>
-      <c r="K4" s="164"/>
+      <c r="K4" s="164">
+        <v>0</v>
+      </c>
       <c r="L4" s="164"/>
       <c r="M4" s="164"/>
       <c r="N4" s="164"/>
@@ -6555,8 +6565,10 @@
       <c r="J5" s="164">
         <v>0</v>
       </c>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
+      <c r="K5" s="164">
+        <v>0</v>
+      </c>
+      <c r="L5" s="175"/>
       <c r="M5" s="164"/>
       <c r="N5" s="164"/>
       <c r="O5" s="165"/>
@@ -6595,8 +6607,10 @@
       <c r="J6" s="164">
         <v>0</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
+      <c r="K6" s="164">
+        <v>0</v>
+      </c>
+      <c r="L6" s="175"/>
       <c r="M6" s="164"/>
       <c r="N6" s="164"/>
       <c r="O6" s="165"/>
@@ -6635,8 +6649,10 @@
       <c r="J7" s="111">
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
+      <c r="K7" s="111">
+        <v>0</v>
+      </c>
+      <c r="L7" s="163"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="143"/>
@@ -6675,8 +6691,10 @@
       <c r="J8" s="161">
         <v>5</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="111"/>
+      <c r="K8" s="161">
+        <v>4</v>
+      </c>
+      <c r="L8" s="163"/>
       <c r="M8" s="111"/>
       <c r="N8" s="111"/>
       <c r="O8" s="143"/>
@@ -6715,8 +6733,10 @@
       <c r="J9" s="161">
         <v>2</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="111"/>
+      <c r="K9" s="161">
+        <v>1</v>
+      </c>
+      <c r="L9" s="163"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
       <c r="O9" s="143"/>
@@ -6755,8 +6775,10 @@
       <c r="J10" s="161">
         <v>4</v>
       </c>
-      <c r="K10" s="161"/>
-      <c r="L10" s="111"/>
+      <c r="K10" s="161">
+        <v>3</v>
+      </c>
+      <c r="L10" s="163"/>
       <c r="M10" s="111"/>
       <c r="N10" s="111"/>
       <c r="O10" s="143"/>
@@ -6795,8 +6817,10 @@
       <c r="J11" s="111">
         <v>3</v>
       </c>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
+      <c r="K11" s="111">
+        <v>3</v>
+      </c>
+      <c r="L11" s="163"/>
       <c r="M11" s="111"/>
       <c r="N11" s="111"/>
       <c r="O11" s="143"/>
@@ -6835,8 +6859,10 @@
       <c r="J12" s="111">
         <v>3</v>
       </c>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
+      <c r="K12" s="111">
+        <v>3</v>
+      </c>
+      <c r="L12" s="163"/>
       <c r="M12" s="111"/>
       <c r="N12" s="111"/>
       <c r="O12" s="143"/>
@@ -6875,8 +6901,10 @@
       <c r="J13" s="161">
         <v>2</v>
       </c>
-      <c r="K13" s="161"/>
-      <c r="L13" s="111"/>
+      <c r="K13" s="161">
+        <v>1</v>
+      </c>
+      <c r="L13" s="163"/>
       <c r="M13" s="111"/>
       <c r="N13" s="111"/>
       <c r="O13" s="143"/>
@@ -6915,8 +6943,10 @@
       <c r="J14" s="144">
         <v>3</v>
       </c>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
+      <c r="K14" s="144">
+        <v>3</v>
+      </c>
+      <c r="L14" s="176"/>
       <c r="M14" s="144"/>
       <c r="N14" s="144"/>
       <c r="O14" s="143"/>
@@ -7003,9 +7033,9 @@
         <f t="array" ref="J17">IF(ISBLANK(J3:J14), NA(), SUM(J3:J14))</f>
         <v>22</v>
       </c>
-      <c r="K17" s="38" t="e">
+      <c r="K17" s="38">
         <f t="array" ref="K17">IF(ISBLANK(K3:K14), NA(), SUM(K3:K14))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="L17" s="38" t="e">
         <f t="array" ref="L17">IF(ISBLANK(L3:L14), NA(), SUM(L3:L14))</f>
@@ -7172,9 +7202,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K18" s="38" t="e">
+      <c r="K18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="L18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -7193,7 +7223,7 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="38" t="e">
-        <f t="shared" si="0"/>
+        <f>O17-P17</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="38" t="e">
@@ -7317,63 +7347,63 @@
         <v>53</v>
       </c>
       <c r="D19" s="46">
-        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>49.466666666666669</v>
       </c>
       <c r="E19" s="46">
-        <f t="shared" si="1"/>
+        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>45.933333333333337</v>
       </c>
       <c r="F19" s="46">
-        <f t="shared" si="1"/>
+        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>42.400000000000006</v>
       </c>
       <c r="G19" s="46">
-        <f t="shared" si="1"/>
+        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>38.866666666666674</v>
       </c>
       <c r="H19" s="46">
-        <f t="shared" si="1"/>
+        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>35.333333333333343</v>
       </c>
       <c r="I19" s="46">
-        <f t="shared" si="1"/>
+        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>31.800000000000011</v>
       </c>
       <c r="J19" s="46">
-        <f t="shared" si="1"/>
+        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>28.26666666666668</v>
       </c>
       <c r="K19" s="46">
-        <f t="shared" si="1"/>
+        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>24.733333333333348</v>
       </c>
       <c r="L19" s="46">
-        <f t="shared" si="1"/>
+        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>21.200000000000017</v>
       </c>
       <c r="M19" s="46">
-        <f t="shared" si="1"/>
+        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>17.666666666666686</v>
       </c>
       <c r="N19" s="46">
-        <f t="shared" si="1"/>
+        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>14.133333333333352</v>
       </c>
       <c r="O19" s="46">
-        <f t="shared" si="1"/>
+        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>10.600000000000019</v>
       </c>
       <c r="P19" s="46">
-        <f t="shared" si="1"/>
+        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>7.066666666666686</v>
       </c>
       <c r="Q19" s="46">
-        <f t="shared" si="1"/>
+        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>3.5333333333333528</v>
       </c>
       <c r="R19" s="52">
-        <f t="shared" si="1"/>
+        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>1.9539925233402755E-14</v>
       </c>
     </row>
@@ -7387,63 +7417,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
         <v>9.4339622641509413E-2</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.15094339622641506</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20754716981132071</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.26415094339622647</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41509433962264153</v>
       </c>
       <c r="I20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.49056603773584906</v>
       </c>
       <c r="J20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.58490566037735847</v>
       </c>
-      <c r="K20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="K20" s="58">
+        <f t="shared" si="1"/>
+        <v>0.66037735849056611</v>
       </c>
       <c r="L20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="N20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="O20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="P20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8749,90 +8779,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="61" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="59" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="57" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="55" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="53" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="47" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="45" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8847,8 +8877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11068,42 +11098,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13098,50 +13128,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15261,50 +15291,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1631,12 +1631,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1685,35 +1679,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
@@ -2242,7 +2208,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722517"/>
+          <c:x val="0.37032576667225187"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2260,9 +2226,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532376"/>
+          <c:y val="0.15742128935532382"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192203"/>
+          <c:h val="0.70464767616192214"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2395,7 +2361,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -2572,11 +2538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113448832"/>
-        <c:axId val="113463296"/>
+        <c:axId val="98305920"/>
+        <c:axId val="98320384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113448832"/>
+        <c:axId val="98305920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113463296"/>
+        <c:crossAx val="98320384"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2616,7 +2582,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113463296"/>
+        <c:axId val="98320384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2624,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113448832"/>
+        <c:crossAx val="98305920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,7 +2712,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000117" footer="0.49212598450000117"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2783,7 +2749,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225198"/>
+          <c:x val="0.37032576667225209"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2801,9 +2767,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553239"/>
+          <c:y val="0.15742128935532396"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192225"/>
+          <c:h val="0.70464767616192236"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3113,11 +3079,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113754880"/>
-        <c:axId val="113756800"/>
+        <c:axId val="98689792"/>
+        <c:axId val="98691712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113754880"/>
+        <c:axId val="98689792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3115,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113756800"/>
+        <c:crossAx val="98691712"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3157,7 +3123,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113756800"/>
+        <c:axId val="98691712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3165,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113754880"/>
+        <c:crossAx val="98689792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3287,7 +3253,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3324,7 +3290,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225225"/>
+          <c:x val="0.37032576667225242"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3342,9 +3308,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532401"/>
+          <c:y val="0.15742128935532407"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192259"/>
+          <c:h val="0.70464767616192281"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3654,11 +3620,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113441792"/>
-        <c:axId val="113640576"/>
+        <c:axId val="98565120"/>
+        <c:axId val="98567296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113441792"/>
+        <c:axId val="98565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,7 +3656,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113640576"/>
+        <c:crossAx val="98567296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3698,7 +3664,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113640576"/>
+        <c:axId val="98567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,7 +3706,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113441792"/>
+        <c:crossAx val="98565120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,7 +3794,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3865,7 +3831,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225253"/>
+          <c:x val="0.3703257666722527"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3883,9 +3849,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532415"/>
+          <c:y val="0.15742128935532423"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192292"/>
+          <c:h val="0.70464767616192303"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4195,11 +4161,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113821184"/>
-        <c:axId val="113823104"/>
+        <c:axId val="98752000"/>
+        <c:axId val="98753920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113821184"/>
+        <c:axId val="98752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,7 +4197,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113823104"/>
+        <c:crossAx val="98753920"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4239,7 +4205,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113823104"/>
+        <c:axId val="98753920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4247,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113821184"/>
+        <c:crossAx val="98752000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4369,7 +4335,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6242,10 +6208,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6261,7 +6227,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6484,7 +6450,9 @@
       <c r="K3" s="164">
         <v>0</v>
       </c>
-      <c r="L3" s="164"/>
+      <c r="L3" s="164">
+        <v>0</v>
+      </c>
       <c r="M3" s="164"/>
       <c r="N3" s="164"/>
       <c r="O3" s="165"/>
@@ -6526,7 +6494,9 @@
       <c r="K4" s="164">
         <v>0</v>
       </c>
-      <c r="L4" s="164"/>
+      <c r="L4" s="164">
+        <v>0</v>
+      </c>
       <c r="M4" s="164"/>
       <c r="N4" s="164"/>
       <c r="O4" s="165"/>
@@ -6568,7 +6538,9 @@
       <c r="K5" s="164">
         <v>0</v>
       </c>
-      <c r="L5" s="175"/>
+      <c r="L5" s="164">
+        <v>0</v>
+      </c>
       <c r="M5" s="164"/>
       <c r="N5" s="164"/>
       <c r="O5" s="165"/>
@@ -6610,7 +6582,9 @@
       <c r="K6" s="164">
         <v>0</v>
       </c>
-      <c r="L6" s="175"/>
+      <c r="L6" s="164">
+        <v>0</v>
+      </c>
       <c r="M6" s="164"/>
       <c r="N6" s="164"/>
       <c r="O6" s="165"/>
@@ -6652,7 +6626,9 @@
       <c r="K7" s="111">
         <v>0</v>
       </c>
-      <c r="L7" s="163"/>
+      <c r="L7" s="111">
+        <v>0</v>
+      </c>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="143"/>
@@ -6694,7 +6670,9 @@
       <c r="K8" s="161">
         <v>4</v>
       </c>
-      <c r="L8" s="163"/>
+      <c r="L8" s="161">
+        <v>3</v>
+      </c>
       <c r="M8" s="111"/>
       <c r="N8" s="111"/>
       <c r="O8" s="143"/>
@@ -6736,7 +6714,9 @@
       <c r="K9" s="161">
         <v>1</v>
       </c>
-      <c r="L9" s="163"/>
+      <c r="L9" s="161">
+        <v>1</v>
+      </c>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
       <c r="O9" s="143"/>
@@ -6778,7 +6758,9 @@
       <c r="K10" s="161">
         <v>3</v>
       </c>
-      <c r="L10" s="163"/>
+      <c r="L10" s="161">
+        <v>2</v>
+      </c>
       <c r="M10" s="111"/>
       <c r="N10" s="111"/>
       <c r="O10" s="143"/>
@@ -6820,7 +6802,9 @@
       <c r="K11" s="111">
         <v>3</v>
       </c>
-      <c r="L11" s="163"/>
+      <c r="L11" s="111">
+        <v>3</v>
+      </c>
       <c r="M11" s="111"/>
       <c r="N11" s="111"/>
       <c r="O11" s="143"/>
@@ -6862,7 +6846,9 @@
       <c r="K12" s="111">
         <v>3</v>
       </c>
-      <c r="L12" s="163"/>
+      <c r="L12" s="111">
+        <v>3</v>
+      </c>
       <c r="M12" s="111"/>
       <c r="N12" s="111"/>
       <c r="O12" s="143"/>
@@ -6904,7 +6890,9 @@
       <c r="K13" s="161">
         <v>1</v>
       </c>
-      <c r="L13" s="163"/>
+      <c r="L13" s="161">
+        <v>1</v>
+      </c>
       <c r="M13" s="111"/>
       <c r="N13" s="111"/>
       <c r="O13" s="143"/>
@@ -6946,7 +6934,9 @@
       <c r="K14" s="144">
         <v>3</v>
       </c>
-      <c r="L14" s="176"/>
+      <c r="L14" s="144">
+        <v>3</v>
+      </c>
       <c r="M14" s="144"/>
       <c r="N14" s="144"/>
       <c r="O14" s="143"/>
@@ -7037,9 +7027,9 @@
         <f t="array" ref="K17">IF(ISBLANK(K3:K14), NA(), SUM(K3:K14))</f>
         <v>18</v>
       </c>
-      <c r="L17" s="38" t="e">
+      <c r="L17" s="38">
         <f t="array" ref="L17">IF(ISBLANK(L3:L14), NA(), SUM(L3:L14))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="M17" s="38" t="e">
         <f t="array" ref="M17">IF(ISBLANK(M3:M14), NA(), SUM(M3:M14))</f>
@@ -7206,9 +7196,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L18" s="38" t="e">
+      <c r="L18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="M18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -7347,63 +7337,63 @@
         <v>53</v>
       </c>
       <c r="D19" s="46">
-        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>49.466666666666669</v>
       </c>
       <c r="E19" s="46">
-        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>45.933333333333337</v>
       </c>
       <c r="F19" s="46">
-        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>42.400000000000006</v>
       </c>
       <c r="G19" s="46">
-        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>38.866666666666674</v>
       </c>
       <c r="H19" s="46">
-        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.333333333333343</v>
       </c>
       <c r="I19" s="46">
-        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>31.800000000000011</v>
       </c>
       <c r="J19" s="46">
-        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>28.26666666666668</v>
       </c>
       <c r="K19" s="46">
-        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>24.733333333333348</v>
       </c>
       <c r="L19" s="46">
-        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>21.200000000000017</v>
       </c>
       <c r="M19" s="46">
-        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>17.666666666666686</v>
       </c>
       <c r="N19" s="46">
-        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>14.133333333333352</v>
       </c>
       <c r="O19" s="46">
-        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>10.600000000000019</v>
       </c>
       <c r="P19" s="46">
-        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>7.066666666666686</v>
       </c>
       <c r="Q19" s="46">
-        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.5333333333333528</v>
       </c>
       <c r="R19" s="52">
-        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.9539925233402755E-14</v>
       </c>
     </row>
@@ -7417,63 +7407,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
         <v>9.4339622641509413E-2</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15094339622641506</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20754716981132071</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26415094339622647</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41509433962264153</v>
       </c>
       <c r="I20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49056603773584906</v>
       </c>
       <c r="J20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58490566037735847</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66037735849056611</v>
       </c>
-      <c r="L20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="L20" s="58">
+        <f t="shared" si="2"/>
+        <v>0.69811320754716988</v>
+      </c>
+      <c r="M20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="N20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="O20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="P20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="R20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8779,90 +8769,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11098,42 +11088,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="61" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="59" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13128,50 +13118,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="45" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15291,50 +15281,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -2208,7 +2208,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225187"/>
+          <c:x val="0.37032576667225198"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2226,9 +2226,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532382"/>
+          <c:y val="0.1574212893553239"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192214"/>
+          <c:h val="0.70464767616192225"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2364,7 +2364,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2538,11 +2538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98305920"/>
-        <c:axId val="98320384"/>
+        <c:axId val="109516672"/>
+        <c:axId val="109531136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98305920"/>
+        <c:axId val="109516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98320384"/>
+        <c:crossAx val="109531136"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2582,7 +2582,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98320384"/>
+        <c:axId val="109531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2624,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98305920"/>
+        <c:crossAx val="109516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,7 +2712,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000122" footer="0.49212598450000122"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2749,7 +2749,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225209"/>
+          <c:x val="0.37032576667225225"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2767,9 +2767,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532396"/>
+          <c:y val="0.15742128935532401"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192236"/>
+          <c:h val="0.70464767616192259"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3079,11 +3079,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98689792"/>
-        <c:axId val="98691712"/>
+        <c:axId val="109818624"/>
+        <c:axId val="109820544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98689792"/>
+        <c:axId val="109818624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3115,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98691712"/>
+        <c:crossAx val="109820544"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3123,7 +3123,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98691712"/>
+        <c:axId val="109820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3165,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98689792"/>
+        <c:crossAx val="109818624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3253,7 +3253,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3290,7 +3290,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225242"/>
+          <c:x val="0.37032576667225253"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3308,9 +3308,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532407"/>
+          <c:y val="0.15742128935532415"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192281"/>
+          <c:h val="0.70464767616192292"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3620,11 +3620,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98565120"/>
-        <c:axId val="98567296"/>
+        <c:axId val="109894656"/>
+        <c:axId val="109900928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98565120"/>
+        <c:axId val="109894656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3656,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98567296"/>
+        <c:crossAx val="109900928"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3664,7 +3664,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98567296"/>
+        <c:axId val="109900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +3706,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98565120"/>
+        <c:crossAx val="109894656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3794,7 +3794,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3831,7 +3831,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722527"/>
+          <c:x val="0.37032576667225287"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3849,9 +3849,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532423"/>
+          <c:y val="0.15742128935532429"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192303"/>
+          <c:h val="0.70464767616192314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4161,11 +4161,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98752000"/>
-        <c:axId val="98753920"/>
+        <c:axId val="109954560"/>
+        <c:axId val="109956480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98752000"/>
+        <c:axId val="109954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4197,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98753920"/>
+        <c:crossAx val="109956480"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4205,7 +4205,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98753920"/>
+        <c:axId val="109956480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +4247,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98752000"/>
+        <c:crossAx val="109954560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4335,7 +4335,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6226,8 +6226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6453,7 +6453,9 @@
       <c r="L3" s="164">
         <v>0</v>
       </c>
-      <c r="M3" s="164"/>
+      <c r="M3" s="164">
+        <v>0</v>
+      </c>
       <c r="N3" s="164"/>
       <c r="O3" s="165"/>
       <c r="P3" s="164"/>
@@ -6497,7 +6499,9 @@
       <c r="L4" s="164">
         <v>0</v>
       </c>
-      <c r="M4" s="164"/>
+      <c r="M4" s="164">
+        <v>0</v>
+      </c>
       <c r="N4" s="164"/>
       <c r="O4" s="165"/>
       <c r="P4" s="164"/>
@@ -6541,7 +6545,9 @@
       <c r="L5" s="164">
         <v>0</v>
       </c>
-      <c r="M5" s="164"/>
+      <c r="M5" s="164">
+        <v>0</v>
+      </c>
       <c r="N5" s="164"/>
       <c r="O5" s="165"/>
       <c r="P5" s="164"/>
@@ -6585,7 +6591,9 @@
       <c r="L6" s="164">
         <v>0</v>
       </c>
-      <c r="M6" s="164"/>
+      <c r="M6" s="164">
+        <v>0</v>
+      </c>
       <c r="N6" s="164"/>
       <c r="O6" s="165"/>
       <c r="P6" s="164"/>
@@ -6629,7 +6637,9 @@
       <c r="L7" s="111">
         <v>0</v>
       </c>
-      <c r="M7" s="111"/>
+      <c r="M7" s="111">
+        <v>0</v>
+      </c>
       <c r="N7" s="111"/>
       <c r="O7" s="143"/>
       <c r="P7" s="111"/>
@@ -6673,7 +6683,9 @@
       <c r="L8" s="161">
         <v>3</v>
       </c>
-      <c r="M8" s="111"/>
+      <c r="M8" s="111">
+        <v>2</v>
+      </c>
       <c r="N8" s="111"/>
       <c r="O8" s="143"/>
       <c r="P8" s="111"/>
@@ -6717,7 +6729,9 @@
       <c r="L9" s="161">
         <v>1</v>
       </c>
-      <c r="M9" s="111"/>
+      <c r="M9" s="111">
+        <v>1</v>
+      </c>
       <c r="N9" s="111"/>
       <c r="O9" s="143"/>
       <c r="P9" s="111"/>
@@ -6761,7 +6775,9 @@
       <c r="L10" s="161">
         <v>2</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="111">
+        <v>1</v>
+      </c>
       <c r="N10" s="111"/>
       <c r="O10" s="143"/>
       <c r="P10" s="111"/>
@@ -6805,7 +6821,9 @@
       <c r="L11" s="111">
         <v>3</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="111">
+        <v>3</v>
+      </c>
       <c r="N11" s="111"/>
       <c r="O11" s="143"/>
       <c r="P11" s="111"/>
@@ -6849,7 +6867,9 @@
       <c r="L12" s="111">
         <v>3</v>
       </c>
-      <c r="M12" s="111"/>
+      <c r="M12" s="111">
+        <v>3</v>
+      </c>
       <c r="N12" s="111"/>
       <c r="O12" s="143"/>
       <c r="P12" s="111"/>
@@ -6893,7 +6913,9 @@
       <c r="L13" s="161">
         <v>1</v>
       </c>
-      <c r="M13" s="111"/>
+      <c r="M13" s="111">
+        <v>0</v>
+      </c>
       <c r="N13" s="111"/>
       <c r="O13" s="143"/>
       <c r="P13" s="111"/>
@@ -6937,7 +6959,9 @@
       <c r="L14" s="144">
         <v>3</v>
       </c>
-      <c r="M14" s="144"/>
+      <c r="M14" s="144">
+        <v>3</v>
+      </c>
       <c r="N14" s="144"/>
       <c r="O14" s="143"/>
       <c r="P14" s="144"/>
@@ -7031,9 +7055,9 @@
         <f t="array" ref="L17">IF(ISBLANK(L3:L14), NA(), SUM(L3:L14))</f>
         <v>16</v>
       </c>
-      <c r="M17" s="38" t="e">
+      <c r="M17" s="38">
         <f t="array" ref="M17">IF(ISBLANK(M3:M14), NA(), SUM(M3:M14))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="N17" s="38" t="e">
         <f t="array" ref="N17">IF(ISBLANK(N3:N14), NA(), SUM(N3:N14))</f>
@@ -7200,9 +7224,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M18" s="38" t="e">
+      <c r="M18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="N18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -7442,9 +7466,9 @@
         <f t="shared" si="2"/>
         <v>0.69811320754716988</v>
       </c>
-      <c r="M20" s="58" t="e">
+      <c r="M20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="N20" s="58" t="e">
         <f t="shared" si="2"/>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1631,6 +1631,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1679,7 +1685,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2208,7 +2228,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225198"/>
+          <c:x val="0.37032576667225209"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2226,9 +2246,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553239"/>
+          <c:y val="0.15742128935532396"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192225"/>
+          <c:h val="0.70464767616192236"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2367,10 +2387,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2538,11 +2558,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109516672"/>
-        <c:axId val="109531136"/>
+        <c:axId val="106043264"/>
+        <c:axId val="106057728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109516672"/>
+        <c:axId val="106043264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2594,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109531136"/>
+        <c:crossAx val="106057728"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2582,7 +2602,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109531136"/>
+        <c:axId val="106057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2644,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109516672"/>
+        <c:crossAx val="106043264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,7 +2732,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000128" footer="0.49212598450000128"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2749,7 +2769,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225225"/>
+          <c:x val="0.37032576667225242"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2767,9 +2787,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532401"/>
+          <c:y val="0.15742128935532407"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192259"/>
+          <c:h val="0.70464767616192281"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3079,11 +3099,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109818624"/>
-        <c:axId val="109820544"/>
+        <c:axId val="107795200"/>
+        <c:axId val="107797120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109818624"/>
+        <c:axId val="107795200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3135,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109820544"/>
+        <c:crossAx val="107797120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3123,7 +3143,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109820544"/>
+        <c:axId val="107797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3185,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109818624"/>
+        <c:crossAx val="107795200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3253,7 +3273,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3290,7 +3310,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225253"/>
+          <c:x val="0.3703257666722527"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3308,9 +3328,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532415"/>
+          <c:y val="0.15742128935532423"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192292"/>
+          <c:h val="0.70464767616192303"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3620,11 +3640,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109894656"/>
-        <c:axId val="109900928"/>
+        <c:axId val="107670528"/>
+        <c:axId val="107775104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109894656"/>
+        <c:axId val="107670528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3676,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109900928"/>
+        <c:crossAx val="107775104"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3664,7 +3684,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109900928"/>
+        <c:axId val="107775104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +3726,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109894656"/>
+        <c:crossAx val="107670528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3794,7 +3814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3831,7 +3851,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225287"/>
+          <c:x val="0.37032576667225298"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3849,9 +3869,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532429"/>
+          <c:y val="0.15742128935532435"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192314"/>
+          <c:h val="0.70464767616192325"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4161,11 +4181,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109954560"/>
-        <c:axId val="109956480"/>
+        <c:axId val="107857408"/>
+        <c:axId val="107859328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109954560"/>
+        <c:axId val="107857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4217,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109956480"/>
+        <c:crossAx val="107859328"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4205,7 +4225,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109956480"/>
+        <c:axId val="107859328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +4267,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109954560"/>
+        <c:crossAx val="107857408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4335,7 +4355,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6208,10 +6228,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6226,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6456,8 +6476,12 @@
       <c r="M3" s="164">
         <v>0</v>
       </c>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
+      <c r="N3" s="164">
+        <v>0</v>
+      </c>
+      <c r="O3" s="165">
+        <v>0</v>
+      </c>
       <c r="P3" s="164"/>
       <c r="Q3" s="164"/>
       <c r="R3" s="166"/>
@@ -6502,8 +6526,12 @@
       <c r="M4" s="164">
         <v>0</v>
       </c>
-      <c r="N4" s="164"/>
-      <c r="O4" s="165"/>
+      <c r="N4" s="164">
+        <v>0</v>
+      </c>
+      <c r="O4" s="165">
+        <v>0</v>
+      </c>
       <c r="P4" s="164"/>
       <c r="Q4" s="164"/>
       <c r="R4" s="166"/>
@@ -6548,8 +6576,12 @@
       <c r="M5" s="164">
         <v>0</v>
       </c>
-      <c r="N5" s="164"/>
-      <c r="O5" s="165"/>
+      <c r="N5" s="164">
+        <v>0</v>
+      </c>
+      <c r="O5" s="165">
+        <v>0</v>
+      </c>
       <c r="P5" s="164"/>
       <c r="Q5" s="164"/>
       <c r="R5" s="166"/>
@@ -6594,8 +6626,12 @@
       <c r="M6" s="164">
         <v>0</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="165"/>
+      <c r="N6" s="164">
+        <v>0</v>
+      </c>
+      <c r="O6" s="165">
+        <v>0</v>
+      </c>
       <c r="P6" s="164"/>
       <c r="Q6" s="164"/>
       <c r="R6" s="166"/>
@@ -6640,8 +6676,12 @@
       <c r="M7" s="111">
         <v>0</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="143"/>
+      <c r="N7" s="111">
+        <v>0</v>
+      </c>
+      <c r="O7" s="143">
+        <v>0</v>
+      </c>
       <c r="P7" s="111"/>
       <c r="Q7" s="111"/>
       <c r="R7" s="91"/>
@@ -6683,11 +6723,15 @@
       <c r="L8" s="161">
         <v>3</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="161">
         <v>2</v>
       </c>
-      <c r="N8" s="111"/>
-      <c r="O8" s="143"/>
+      <c r="N8" s="161">
+        <v>1</v>
+      </c>
+      <c r="O8" s="175">
+        <v>1</v>
+      </c>
       <c r="P8" s="111"/>
       <c r="Q8" s="111"/>
       <c r="R8" s="91"/>
@@ -6729,11 +6773,15 @@
       <c r="L9" s="161">
         <v>1</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="161">
         <v>1</v>
       </c>
-      <c r="N9" s="111"/>
-      <c r="O9" s="143"/>
+      <c r="N9" s="111">
+        <v>0</v>
+      </c>
+      <c r="O9" s="143">
+        <v>0</v>
+      </c>
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
       <c r="R9" s="91"/>
@@ -6775,11 +6823,15 @@
       <c r="L10" s="161">
         <v>2</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="161">
         <v>1</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="143"/>
+      <c r="N10" s="111">
+        <v>0</v>
+      </c>
+      <c r="O10" s="143">
+        <v>0</v>
+      </c>
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
       <c r="R10" s="91"/>
@@ -6821,11 +6873,15 @@
       <c r="L11" s="111">
         <v>3</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="163">
         <v>3</v>
       </c>
-      <c r="N11" s="111"/>
-      <c r="O11" s="143"/>
+      <c r="N11" s="161">
+        <v>3</v>
+      </c>
+      <c r="O11" s="175">
+        <v>3</v>
+      </c>
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
@@ -6867,11 +6923,15 @@
       <c r="L12" s="111">
         <v>3</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="163">
         <v>3</v>
       </c>
-      <c r="N12" s="111"/>
-      <c r="O12" s="143"/>
+      <c r="N12" s="161">
+        <v>3</v>
+      </c>
+      <c r="O12" s="175">
+        <v>3</v>
+      </c>
       <c r="P12" s="111"/>
       <c r="Q12" s="111"/>
       <c r="R12" s="91"/>
@@ -6916,8 +6976,12 @@
       <c r="M13" s="111">
         <v>0</v>
       </c>
-      <c r="N13" s="111"/>
-      <c r="O13" s="143"/>
+      <c r="N13" s="111">
+        <v>0</v>
+      </c>
+      <c r="O13" s="143">
+        <v>0</v>
+      </c>
       <c r="P13" s="111"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="91"/>
@@ -6962,8 +7026,12 @@
       <c r="M14" s="144">
         <v>3</v>
       </c>
-      <c r="N14" s="144"/>
-      <c r="O14" s="143"/>
+      <c r="N14" s="144">
+        <v>3</v>
+      </c>
+      <c r="O14" s="176">
+        <v>3</v>
+      </c>
       <c r="P14" s="144"/>
       <c r="Q14" s="144"/>
       <c r="R14" s="145"/>
@@ -7059,13 +7127,13 @@
         <f t="array" ref="M17">IF(ISBLANK(M3:M14), NA(), SUM(M3:M14))</f>
         <v>13</v>
       </c>
-      <c r="N17" s="38" t="e">
+      <c r="N17" s="38">
         <f t="array" ref="N17">IF(ISBLANK(N3:N14), NA(), SUM(N3:N14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="38" t="e">
+        <v>10</v>
+      </c>
+      <c r="O17" s="38">
         <f t="array" ref="O17">IF(ISBLANK(O3:O14), NA(), SUM(O3:O14))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="P17" s="38" t="e">
         <f t="array" ref="P17">IF(ISBLANK(P3:P14), NA(), SUM(P3:P14))</f>
@@ -7228,13 +7296,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N18" s="38" t="e">
+      <c r="N18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="38" t="e">
+        <v>3</v>
+      </c>
+      <c r="O18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P18" s="38" t="e">
         <f>O17-P17</f>
@@ -7470,13 +7538,13 @@
         <f t="shared" si="2"/>
         <v>0.75471698113207553</v>
       </c>
-      <c r="N20" s="58" t="e">
+      <c r="N20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="58" t="e">
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="O20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="P20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -8793,90 +8861,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="29" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11112,42 +11180,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="31" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13142,50 +13210,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15305,50 +15373,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -31,7 +31,7 @@
     <definedName name="_Toc347234369" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$14:$Z$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$14:$Z$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$12:$Z$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>Itération</t>
   </si>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1541,12 +1541,6 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1633,9 +1627,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,119 +1676,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -2258,7 +2137,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 1'!$B$17</c:f>
+              <c:f>'Iteration 1'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2349,51 +2228,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$C$17:$R$17</c:f>
+              <c:f>'Iteration 1'!$C$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -2410,7 +2289,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 1'!$B$19</c:f>
+              <c:f>'Iteration 1'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2501,57 +2380,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$C$19:$R$19</c:f>
+              <c:f>'Iteration 1'!$C$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>53</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.466666666666669</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.933333333333337</c:v>
+                  <c:v>43.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.400000000000006</c:v>
+                  <c:v>39.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.866666666666674</c:v>
+                  <c:v>36.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.333333333333343</c:v>
+                  <c:v>33.333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.800000000000011</c:v>
+                  <c:v>29.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.26666666666668</c:v>
+                  <c:v>26.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.733333333333348</c:v>
+                  <c:v>23.333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.200000000000017</c:v>
+                  <c:v>19.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.666666666666686</c:v>
+                  <c:v>16.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.133333333333352</c:v>
+                  <c:v>13.333333333333327</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.600000000000019</c:v>
+                  <c:v>9.9999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.066666666666686</c:v>
+                  <c:v>6.666666666666659</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5333333333333528</c:v>
+                  <c:v>3.3333333333333255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9539925233402755E-14</c:v>
+                  <c:v>-7.9936057773011271E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,13 +4246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4827,10 +4706,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="172"/>
+      <c r="E1" s="170"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4842,10 +4721,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="174"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4861,8 +4740,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4870,9 +4749,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -4897,16 +4776,16 @@
       <c r="E5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="146" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="144" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -4923,7 +4802,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1">
-      <c r="A6" s="147"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
@@ -5000,7 +4879,7 @@
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="151"/>
+      <c r="I9" s="149"/>
       <c r="J9" s="22"/>
       <c r="K9" s="11"/>
     </row>
@@ -5021,7 +4900,7 @@
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="151"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="22"/>
       <c r="K10" s="11"/>
     </row>
@@ -5029,16 +4908,16 @@
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148">
+      <c r="E11" s="153"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146">
         <f>SUM(G12:G24)</f>
         <v>56</v>
       </c>
-      <c r="H11" s="156"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -5068,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="152"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="76"/>
       <c r="K12" s="125"/>
       <c r="L12" s="126"/>
@@ -5097,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="153"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="74"/>
       <c r="K13" s="71"/>
       <c r="L13" s="77"/>
@@ -5415,7 +5294,7 @@
         <f>SUM(G26:G35)</f>
         <v>48</v>
       </c>
-      <c r="H25" s="149"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
@@ -5671,7 +5550,7 @@
         <f>SUM(G37:G45)</f>
         <v>55</v>
       </c>
-      <c r="H36" s="149"/>
+      <c r="H36" s="147"/>
       <c r="I36" s="120"/>
       <c r="J36" s="121"/>
       <c r="K36" s="119"/>
@@ -5900,7 +5779,7 @@
         <f>SUM(G47:G52)</f>
         <v>45</v>
       </c>
-      <c r="H46" s="150"/>
+      <c r="H46" s="148"/>
       <c r="I46" s="120"/>
       <c r="J46" s="121"/>
       <c r="K46" s="124"/>
@@ -6067,7 +5946,7 @@
       <c r="G53" s="33">
         <v>50</v>
       </c>
-      <c r="H53" s="149"/>
+      <c r="H53" s="147"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
@@ -6228,10 +6107,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="61" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6244,10 +6123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP85"/>
+  <dimension ref="A1:DP84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6446,45 +6325,47 @@
       <c r="C3" s="72">
         <v>2</v>
       </c>
-      <c r="D3" s="161">
+      <c r="D3" s="159">
         <v>2</v>
       </c>
-      <c r="E3" s="161">
+      <c r="E3" s="159">
         <v>1</v>
       </c>
-      <c r="F3" s="161">
+      <c r="F3" s="159">
         <v>1</v>
       </c>
-      <c r="G3" s="161">
+      <c r="G3" s="159">
         <v>1</v>
       </c>
-      <c r="H3" s="164">
+      <c r="H3" s="162">
         <v>0</v>
       </c>
-      <c r="I3" s="164">
+      <c r="I3" s="162">
         <v>0</v>
       </c>
-      <c r="J3" s="164">
+      <c r="J3" s="162">
         <v>0</v>
       </c>
-      <c r="K3" s="164">
+      <c r="K3" s="162">
         <v>0</v>
       </c>
-      <c r="L3" s="164">
+      <c r="L3" s="162">
         <v>0</v>
       </c>
-      <c r="M3" s="164">
+      <c r="M3" s="162">
         <v>0</v>
       </c>
-      <c r="N3" s="164">
+      <c r="N3" s="162">
         <v>0</v>
       </c>
-      <c r="O3" s="165">
+      <c r="O3" s="163">
         <v>0</v>
       </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="166"/>
+      <c r="P3" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="164"/>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
@@ -6493,48 +6374,50 @@
       <c r="B4" s="75">
         <v>6</v>
       </c>
-      <c r="C4" s="161">
+      <c r="C4" s="159">
         <v>2</v>
       </c>
-      <c r="D4" s="161">
+      <c r="D4" s="159">
         <v>1</v>
       </c>
-      <c r="E4" s="161">
+      <c r="E4" s="159">
         <v>1</v>
       </c>
-      <c r="F4" s="161">
+      <c r="F4" s="159">
         <v>1</v>
       </c>
-      <c r="G4" s="161">
+      <c r="G4" s="159">
         <v>1</v>
       </c>
-      <c r="H4" s="164">
+      <c r="H4" s="162">
         <v>0</v>
       </c>
-      <c r="I4" s="164">
+      <c r="I4" s="162">
         <v>0</v>
       </c>
-      <c r="J4" s="164">
+      <c r="J4" s="162">
         <v>0</v>
       </c>
-      <c r="K4" s="164">
+      <c r="K4" s="162">
         <v>0</v>
       </c>
-      <c r="L4" s="164">
+      <c r="L4" s="162">
         <v>0</v>
       </c>
-      <c r="M4" s="164">
+      <c r="M4" s="162">
         <v>0</v>
       </c>
-      <c r="N4" s="164">
+      <c r="N4" s="162">
         <v>0</v>
       </c>
-      <c r="O4" s="165">
+      <c r="O4" s="163">
         <v>0</v>
       </c>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="166"/>
+      <c r="P4" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="164"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="80" t="s">
@@ -6543,48 +6426,50 @@
       <c r="B5" s="75">
         <v>7</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="159">
         <v>2</v>
       </c>
-      <c r="D5" s="161">
+      <c r="D5" s="159">
         <v>1</v>
       </c>
-      <c r="E5" s="161">
+      <c r="E5" s="159">
         <v>1</v>
       </c>
-      <c r="F5" s="161">
+      <c r="F5" s="159">
         <v>1</v>
       </c>
-      <c r="G5" s="161">
+      <c r="G5" s="159">
         <v>1</v>
       </c>
-      <c r="H5" s="164">
+      <c r="H5" s="162">
         <v>0</v>
       </c>
-      <c r="I5" s="164">
+      <c r="I5" s="162">
         <v>0</v>
       </c>
-      <c r="J5" s="164">
+      <c r="J5" s="162">
         <v>0</v>
       </c>
-      <c r="K5" s="164">
+      <c r="K5" s="162">
         <v>0</v>
       </c>
-      <c r="L5" s="164">
+      <c r="L5" s="162">
         <v>0</v>
       </c>
-      <c r="M5" s="164">
+      <c r="M5" s="162">
         <v>0</v>
       </c>
-      <c r="N5" s="164">
+      <c r="N5" s="162">
         <v>0</v>
       </c>
-      <c r="O5" s="165">
+      <c r="O5" s="163">
         <v>0</v>
       </c>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="166"/>
+      <c r="P5" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="164"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
@@ -6593,48 +6478,50 @@
       <c r="B6" s="75">
         <v>8</v>
       </c>
-      <c r="C6" s="163">
+      <c r="C6" s="161">
         <v>2</v>
       </c>
-      <c r="D6" s="161">
+      <c r="D6" s="159">
         <v>2</v>
       </c>
-      <c r="E6" s="161">
+      <c r="E6" s="159">
         <v>1</v>
       </c>
-      <c r="F6" s="161">
+      <c r="F6" s="159">
         <v>1</v>
       </c>
-      <c r="G6" s="161">
+      <c r="G6" s="159">
         <v>1</v>
       </c>
-      <c r="H6" s="164">
+      <c r="H6" s="162">
         <v>0</v>
       </c>
-      <c r="I6" s="164">
+      <c r="I6" s="162">
         <v>0</v>
       </c>
-      <c r="J6" s="164">
+      <c r="J6" s="162">
         <v>0</v>
       </c>
-      <c r="K6" s="164">
+      <c r="K6" s="162">
         <v>0</v>
       </c>
-      <c r="L6" s="164">
+      <c r="L6" s="162">
         <v>0</v>
       </c>
-      <c r="M6" s="164">
+      <c r="M6" s="162">
         <v>0</v>
       </c>
-      <c r="N6" s="164">
+      <c r="N6" s="162">
         <v>0</v>
       </c>
-      <c r="O6" s="165">
+      <c r="O6" s="163">
         <v>0</v>
       </c>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="166"/>
+      <c r="P6" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="164"/>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
@@ -6643,16 +6530,16 @@
       <c r="B7" s="75">
         <v>9</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="160">
         <v>5</v>
       </c>
-      <c r="D7" s="161">
+      <c r="D7" s="159">
         <v>2</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="160">
         <v>1</v>
       </c>
-      <c r="F7" s="163">
+      <c r="F7" s="161">
         <v>0</v>
       </c>
       <c r="G7" s="72">
@@ -6682,7 +6569,9 @@
       <c r="O7" s="143">
         <v>0</v>
       </c>
-      <c r="P7" s="111"/>
+      <c r="P7" s="111">
+        <v>0</v>
+      </c>
       <c r="Q7" s="111"/>
       <c r="R7" s="91"/>
     </row>
@@ -6705,34 +6594,36 @@
       <c r="F8" s="72">
         <v>8</v>
       </c>
-      <c r="G8" s="161">
+      <c r="G8" s="159">
         <v>8</v>
       </c>
-      <c r="H8" s="161">
+      <c r="H8" s="159">
         <v>7</v>
       </c>
-      <c r="I8" s="161">
+      <c r="I8" s="159">
         <v>6</v>
       </c>
-      <c r="J8" s="161">
+      <c r="J8" s="159">
         <v>5</v>
       </c>
-      <c r="K8" s="161">
+      <c r="K8" s="159">
         <v>4</v>
       </c>
-      <c r="L8" s="161">
+      <c r="L8" s="159">
         <v>3</v>
       </c>
-      <c r="M8" s="161">
+      <c r="M8" s="159">
         <v>2</v>
       </c>
-      <c r="N8" s="161">
+      <c r="N8" s="159">
         <v>1</v>
       </c>
-      <c r="O8" s="175">
+      <c r="O8" s="173">
         <v>1</v>
       </c>
-      <c r="P8" s="111"/>
+      <c r="P8" s="159">
+        <v>1</v>
+      </c>
       <c r="Q8" s="111"/>
       <c r="R8" s="91"/>
     </row>
@@ -6755,25 +6646,25 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="161">
+      <c r="G9" s="159">
         <v>5</v>
       </c>
-      <c r="H9" s="161">
+      <c r="H9" s="159">
         <v>4</v>
       </c>
-      <c r="I9" s="161">
+      <c r="I9" s="159">
         <v>3</v>
       </c>
-      <c r="J9" s="161">
+      <c r="J9" s="159">
         <v>2</v>
       </c>
-      <c r="K9" s="161">
+      <c r="K9" s="159">
         <v>1</v>
       </c>
-      <c r="L9" s="161">
+      <c r="L9" s="159">
         <v>1</v>
       </c>
-      <c r="M9" s="161">
+      <c r="M9" s="159">
         <v>1</v>
       </c>
       <c r="N9" s="111">
@@ -6782,7 +6673,9 @@
       <c r="O9" s="143">
         <v>0</v>
       </c>
-      <c r="P9" s="111"/>
+      <c r="P9" s="111">
+        <v>0</v>
+      </c>
       <c r="Q9" s="111"/>
       <c r="R9" s="91"/>
     </row>
@@ -6811,19 +6704,19 @@
       <c r="H10" s="111">
         <v>5</v>
       </c>
-      <c r="I10" s="161">
+      <c r="I10" s="159">
         <v>5</v>
       </c>
-      <c r="J10" s="161">
+      <c r="J10" s="159">
         <v>4</v>
       </c>
-      <c r="K10" s="161">
+      <c r="K10" s="159">
         <v>3</v>
       </c>
-      <c r="L10" s="161">
+      <c r="L10" s="159">
         <v>2</v>
       </c>
-      <c r="M10" s="161">
+      <c r="M10" s="159">
         <v>1</v>
       </c>
       <c r="N10" s="111">
@@ -6832,7 +6725,9 @@
       <c r="O10" s="143">
         <v>0</v>
       </c>
-      <c r="P10" s="111"/>
+      <c r="P10" s="111">
+        <v>0</v>
+      </c>
       <c r="Q10" s="111"/>
       <c r="R10" s="91"/>
     </row>
@@ -6873,16 +6768,18 @@
       <c r="L11" s="111">
         <v>3</v>
       </c>
-      <c r="M11" s="163">
+      <c r="M11" s="161">
         <v>3</v>
       </c>
       <c r="N11" s="161">
         <v>3</v>
       </c>
-      <c r="O11" s="175">
+      <c r="O11" s="173">
         <v>3</v>
       </c>
-      <c r="P11" s="111"/>
+      <c r="P11" s="161">
+        <v>3</v>
+      </c>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
     </row>
@@ -6923,16 +6820,18 @@
       <c r="L12" s="111">
         <v>3</v>
       </c>
-      <c r="M12" s="163">
+      <c r="M12" s="161">
         <v>3</v>
       </c>
       <c r="N12" s="161">
         <v>3</v>
       </c>
-      <c r="O12" s="175">
+      <c r="O12" s="173">
         <v>3</v>
       </c>
-      <c r="P12" s="111"/>
+      <c r="P12" s="161">
+        <v>3</v>
+      </c>
       <c r="Q12" s="111"/>
       <c r="R12" s="91"/>
     </row>
@@ -6949,28 +6848,28 @@
       <c r="D13" s="72">
         <v>13</v>
       </c>
-      <c r="E13" s="161">
+      <c r="E13" s="159">
         <v>13</v>
       </c>
-      <c r="F13" s="161">
+      <c r="F13" s="159">
         <v>11</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="159">
         <v>8</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="159">
         <v>6</v>
       </c>
-      <c r="I13" s="161">
+      <c r="I13" s="159">
         <v>4</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="159">
         <v>2</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="159">
         <v>1</v>
       </c>
-      <c r="L13" s="161">
+      <c r="L13" s="159">
         <v>1</v>
       </c>
       <c r="M13" s="111">
@@ -6982,59 +6881,31 @@
       <c r="O13" s="143">
         <v>0</v>
       </c>
-      <c r="P13" s="111"/>
+      <c r="P13" s="111">
+        <v>0</v>
+      </c>
       <c r="Q13" s="111"/>
       <c r="R13" s="91"/>
     </row>
-    <row r="14" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="68">
-        <v>16</v>
-      </c>
-      <c r="C14" s="72">
-        <v>3</v>
-      </c>
-      <c r="D14" s="72">
-        <v>3</v>
-      </c>
-      <c r="E14" s="72">
-        <v>3</v>
-      </c>
-      <c r="F14" s="72">
-        <v>3</v>
-      </c>
-      <c r="G14" s="72">
-        <v>3</v>
-      </c>
-      <c r="H14" s="144">
-        <v>3</v>
-      </c>
-      <c r="I14" s="144">
-        <v>3</v>
-      </c>
-      <c r="J14" s="144">
-        <v>3</v>
-      </c>
-      <c r="K14" s="144">
-        <v>3</v>
-      </c>
-      <c r="L14" s="144">
-        <v>3</v>
-      </c>
-      <c r="M14" s="144">
-        <v>3</v>
-      </c>
-      <c r="N14" s="144">
-        <v>3</v>
-      </c>
-      <c r="O14" s="176">
-        <v>3</v>
-      </c>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="145"/>
+    <row r="14" spans="1:120">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="38"/>
@@ -7057,94 +6928,243 @@
       <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:120">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="51"/>
-    </row>
-    <row r="17" spans="1:120">
-      <c r="A17" s="54" t="s">
+      <c r="A16" s="54" t="s">
         <v>36</v>
       </c>
+      <c r="B16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="38">
+        <f t="array" ref="C16">IF(ISBLANK(C3:C13),NA(), SUM(C3:C13))</f>
+        <v>50</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="array" ref="D16">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
+        <v>45</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="array" ref="E16">IF(ISBLANK(E3:E13), NA(), SUM(E3:E13))</f>
+        <v>42</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="array" ref="F16">IF(ISBLANK(F3:F13), NA(), SUM(F3:F13))</f>
+        <v>39</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="array" ref="G16">IF(ISBLANK(G3:G13), NA(), SUM(G3:G13))</f>
+        <v>36</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="array" ref="H16">IF(ISBLANK(H3:H13), NA(), SUM(H3:H13))</f>
+        <v>28</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="array" ref="I16">IF(ISBLANK(I3:I13), NA(), SUM(I3:I13))</f>
+        <v>24</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="array" ref="J16">IF(ISBLANK(J3:J13), NA(), SUM(J3:J13))</f>
+        <v>19</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="array" ref="K16">IF(ISBLANK(K3:K13), NA(), SUM(K3:K13))</f>
+        <v>15</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="array" ref="L16">IF(ISBLANK(L3:L13), NA(), SUM(L3:L13))</f>
+        <v>13</v>
+      </c>
+      <c r="M16" s="38">
+        <f t="array" ref="M16">IF(ISBLANK(M3:M13), NA(), SUM(M3:M13))</f>
+        <v>10</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="array" ref="N16">IF(ISBLANK(N3:N13), NA(), SUM(N3:N13))</f>
+        <v>7</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="array" ref="O16">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
+        <v>7</v>
+      </c>
+      <c r="P16" s="38">
+        <f t="array" ref="P16">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
+        <v>7</v>
+      </c>
+      <c r="Q16" s="38" t="e">
+        <f t="array" ref="Q16">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="38" t="e">
+        <f t="array" ref="R16">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="38"/>
+      <c r="CB16" s="38"/>
+      <c r="CC16" s="38"/>
+      <c r="CD16" s="38"/>
+      <c r="CE16" s="38"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
+      <c r="CI16" s="38"/>
+      <c r="CJ16" s="38"/>
+      <c r="CK16" s="38"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="38"/>
+      <c r="CT16" s="38"/>
+      <c r="CU16" s="38"/>
+      <c r="CV16" s="38"/>
+      <c r="CW16" s="38"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="38"/>
+      <c r="CZ16" s="38"/>
+      <c r="DA16" s="38"/>
+      <c r="DB16" s="38"/>
+      <c r="DC16" s="38"/>
+      <c r="DD16" s="38"/>
+      <c r="DE16" s="38"/>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="38"/>
+      <c r="DH16" s="38"/>
+      <c r="DI16" s="38"/>
+      <c r="DJ16" s="38"/>
+      <c r="DK16" s="38"/>
+      <c r="DL16" s="38"/>
+      <c r="DM16" s="38"/>
+      <c r="DN16" s="38"/>
+      <c r="DO16" s="38"/>
+      <c r="DP16" s="38"/>
+    </row>
+    <row r="17" spans="1:120" ht="25.5">
+      <c r="A17" s="38"/>
       <c r="B17" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="38">
-        <f t="array" ref="C17">IF(ISBLANK(C3:C14),NA(), SUM(C3:C14))</f>
-        <v>53</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C17" s="38"/>
       <c r="D17" s="38">
-        <f t="array" ref="D17">IF(ISBLANK(D3:D14), NA(), SUM(D3:D14))</f>
-        <v>48</v>
+        <f>C16-D16</f>
+        <v>5</v>
       </c>
       <c r="E17" s="38">
-        <f t="array" ref="E17">IF(ISBLANK(E3:E14), NA(), SUM(E3:E14))</f>
-        <v>45</v>
+        <f t="shared" ref="E17:R17" si="0">D16-E16</f>
+        <v>3</v>
       </c>
       <c r="F17" s="38">
-        <f t="array" ref="F17">IF(ISBLANK(F3:F14), NA(), SUM(F3:F14))</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G17" s="38">
-        <f t="array" ref="G17">IF(ISBLANK(G3:G14), NA(), SUM(G3:G14))</f>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H17" s="38">
-        <f t="array" ref="H17">IF(ISBLANK(H3:H14), NA(), SUM(H3:H14))</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I17" s="38">
-        <f t="array" ref="I17">IF(ISBLANK(I3:I14), NA(), SUM(I3:I14))</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="J17" s="38">
-        <f t="array" ref="J17">IF(ISBLANK(J3:J14), NA(), SUM(J3:J14))</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="K17" s="38">
-        <f t="array" ref="K17">IF(ISBLANK(K3:K14), NA(), SUM(K3:K14))</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L17" s="38">
-        <f t="array" ref="L17">IF(ISBLANK(L3:L14), NA(), SUM(L3:L14))</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M17" s="38">
-        <f t="array" ref="M17">IF(ISBLANK(M3:M14), NA(), SUM(M3:M14))</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="N17" s="38">
-        <f t="array" ref="N17">IF(ISBLANK(N3:N14), NA(), SUM(N3:N14))</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O17" s="38">
-        <f t="array" ref="O17">IF(ISBLANK(O3:O14), NA(), SUM(O3:O14))</f>
-        <v>10</v>
-      </c>
-      <c r="P17" s="38" t="e">
-        <f t="array" ref="P17">IF(ISBLANK(P3:P14), NA(), SUM(P3:P14))</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <f>O16-P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="38" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="38" t="e">
-        <f t="array" ref="Q17">IF(ISBLANK(Q3:Q14), NA(), SUM(Q3:Q14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="38" t="e">
-        <f t="array" ref="R17">IF(ISBLANK(R3:R14), NA(), SUM(R3:R14))</f>
+      <c r="R17" s="51" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="S17" s="38"/>
@@ -7250,320 +7270,171 @@
       <c r="DO17" s="38"/>
       <c r="DP17" s="38"/>
     </row>
-    <row r="18" spans="1:120" ht="25.5">
+    <row r="18" spans="1:120">
       <c r="A18" s="38"/>
-      <c r="B18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <f>C17-D17</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" ref="E18:R18" si="0">D17-E17</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J18" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L18" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M18" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N18" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O18" s="38">
-        <f t="shared" si="0"/>
+      <c r="B18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="45">
+        <f>C16</f>
+        <v>50</v>
+      </c>
+      <c r="D18" s="46">
+        <f>C18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="E18" s="46">
+        <f>D18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="F18" s="46">
+        <f>E18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="G18" s="46">
+        <f>F18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>36.666666666666657</v>
+      </c>
+      <c r="H18" s="46">
+        <f>G18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>33.333333333333321</v>
+      </c>
+      <c r="I18" s="46">
+        <f>H18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>29.999999999999989</v>
+      </c>
+      <c r="J18" s="46">
+        <f>I18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>26.666666666666657</v>
+      </c>
+      <c r="K18" s="46">
+        <f>J18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>23.333333333333325</v>
+      </c>
+      <c r="L18" s="46">
+        <f>K18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>19.999999999999993</v>
+      </c>
+      <c r="M18" s="46">
+        <f>L18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>16.666666666666661</v>
+      </c>
+      <c r="N18" s="46">
+        <f>M18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>13.333333333333327</v>
+      </c>
+      <c r="O18" s="46">
+        <f>N18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="P18" s="46">
+        <f>O18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>6.666666666666659</v>
+      </c>
+      <c r="Q18" s="46">
+        <f>P18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>3.3333333333333255</v>
+      </c>
+      <c r="R18" s="52">
+        <f>Q18-$C$16/COUNTA($C$2:$Q$2)</f>
+        <v>-7.9936057773011271E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:120" s="56" customFormat="1">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="58">
+        <f>1-C16/$C$16</f>
         <v>0</v>
       </c>
-      <c r="P18" s="38" t="e">
-        <f>O17-P17</f>
+      <c r="D19" s="58">
+        <f t="shared" ref="D19:R19" si="1">1-D16/$C$16</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="I19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="J19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="K19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="L19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="M19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+      <c r="O19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+      <c r="P19" s="58">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+      <c r="Q19" s="58" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="38" t="e">
-        <f t="shared" si="0"/>
+      <c r="R19" s="58" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BJ18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="38"/>
-      <c r="BM18" s="38"/>
-      <c r="BN18" s="38"/>
-      <c r="BO18" s="38"/>
-      <c r="BP18" s="38"/>
-      <c r="BQ18" s="38"/>
-      <c r="BR18" s="38"/>
-      <c r="BS18" s="38"/>
-      <c r="BT18" s="38"/>
-      <c r="BU18" s="38"/>
-      <c r="BV18" s="38"/>
-      <c r="BW18" s="38"/>
-      <c r="BX18" s="38"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="38"/>
-      <c r="CA18" s="38"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="38"/>
-      <c r="CF18" s="38"/>
-      <c r="CG18" s="38"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="38"/>
-      <c r="CJ18" s="38"/>
-      <c r="CK18" s="38"/>
-      <c r="CL18" s="38"/>
-      <c r="CM18" s="38"/>
-      <c r="CN18" s="38"/>
-      <c r="CO18" s="38"/>
-      <c r="CP18" s="38"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="38"/>
-      <c r="CS18" s="38"/>
-      <c r="CT18" s="38"/>
-      <c r="CU18" s="38"/>
-      <c r="CV18" s="38"/>
-      <c r="CW18" s="38"/>
-      <c r="CX18" s="38"/>
-      <c r="CY18" s="38"/>
-      <c r="CZ18" s="38"/>
-      <c r="DA18" s="38"/>
-      <c r="DB18" s="38"/>
-      <c r="DC18" s="38"/>
-      <c r="DD18" s="38"/>
-      <c r="DE18" s="38"/>
-      <c r="DF18" s="38"/>
-      <c r="DG18" s="38"/>
-      <c r="DH18" s="38"/>
-      <c r="DI18" s="38"/>
-      <c r="DJ18" s="38"/>
-      <c r="DK18" s="38"/>
-      <c r="DL18" s="38"/>
-      <c r="DM18" s="38"/>
-      <c r="DN18" s="38"/>
-      <c r="DO18" s="38"/>
-      <c r="DP18" s="38"/>
-    </row>
-    <row r="19" spans="1:120">
-      <c r="A19" s="38"/>
-      <c r="B19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="45">
-        <f>C17</f>
-        <v>53</v>
-      </c>
-      <c r="D19" s="46">
-        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>49.466666666666669</v>
-      </c>
-      <c r="E19" s="46">
-        <f t="shared" si="1"/>
-        <v>45.933333333333337</v>
-      </c>
-      <c r="F19" s="46">
-        <f t="shared" si="1"/>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="G19" s="46">
-        <f t="shared" si="1"/>
-        <v>38.866666666666674</v>
-      </c>
-      <c r="H19" s="46">
-        <f t="shared" si="1"/>
-        <v>35.333333333333343</v>
-      </c>
-      <c r="I19" s="46">
-        <f t="shared" si="1"/>
-        <v>31.800000000000011</v>
-      </c>
-      <c r="J19" s="46">
-        <f t="shared" si="1"/>
-        <v>28.26666666666668</v>
-      </c>
-      <c r="K19" s="46">
-        <f t="shared" si="1"/>
-        <v>24.733333333333348</v>
-      </c>
-      <c r="L19" s="46">
-        <f t="shared" si="1"/>
-        <v>21.200000000000017</v>
-      </c>
-      <c r="M19" s="46">
-        <f t="shared" si="1"/>
-        <v>17.666666666666686</v>
-      </c>
-      <c r="N19" s="46">
-        <f t="shared" si="1"/>
-        <v>14.133333333333352</v>
-      </c>
-      <c r="O19" s="46">
-        <f t="shared" si="1"/>
-        <v>10.600000000000019</v>
-      </c>
-      <c r="P19" s="46">
-        <f t="shared" si="1"/>
-        <v>7.066666666666686</v>
-      </c>
-      <c r="Q19" s="46">
-        <f t="shared" si="1"/>
-        <v>3.5333333333333528</v>
-      </c>
-      <c r="R19" s="52">
-        <f t="shared" si="1"/>
-        <v>1.9539925233402755E-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" s="56" customFormat="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="58">
-        <f>1-C17/$C$17</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
-        <v>9.4339622641509413E-2</v>
-      </c>
-      <c r="E20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.15094339622641506</v>
-      </c>
-      <c r="F20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.20754716981132071</v>
-      </c>
-      <c r="G20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.26415094339622647</v>
-      </c>
-      <c r="H20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="I20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="J20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.58490566037735847</v>
-      </c>
-      <c r="K20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.66037735849056611</v>
-      </c>
-      <c r="L20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.69811320754716988</v>
-      </c>
-      <c r="M20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.75471698113207553</v>
-      </c>
-      <c r="N20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.81132075471698117</v>
-      </c>
-      <c r="O20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.81132075471698117</v>
-      </c>
-      <c r="P20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
+    </row>
+    <row r="20" spans="1:120">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:120">
       <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -7583,7 +7454,7 @@
       <c r="A22" s="38"/>
       <c r="B22" s="43"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -7601,7 +7472,7 @@
     </row>
     <row r="23" spans="1:120">
       <c r="A23" s="38"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -8839,112 +8710,20 @@
       <c r="Q84" s="38"/>
       <c r="R84" s="38"/>
     </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 O14 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:B13 F3:G7 G13 H3:R13">
+    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A12 B5:B13 A4:A5">
-    <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B4:B13 A3:A7 A11:A13">
+    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7 A12:A13">
-    <cfRule type="expression" dxfId="55" priority="29" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B13">
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7 A12:A14">
-    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A4 A6 A11:A12 A14">
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A4 A6 A12:A14">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9149,7 +8928,7 @@
       <c r="DO2" s="41"/>
       <c r="DP2" s="41"/>
     </row>
-    <row r="3" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
@@ -9175,7 +8954,7 @@
       <c r="Q3" s="42"/>
       <c r="R3" s="48"/>
     </row>
-    <row r="4" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>58</v>
       </c>
@@ -9201,7 +8980,7 @@
       <c r="Q4" s="42"/>
       <c r="R4" s="48"/>
     </row>
-    <row r="5" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="92" t="s">
         <v>56</v>
       </c>
@@ -9223,7 +9002,7 @@
       <c r="Q5" s="98"/>
       <c r="R5" s="48"/>
     </row>
-    <row r="6" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="82" t="s">
         <v>73</v>
       </c>
@@ -9249,7 +9028,7 @@
       <c r="Q6" s="108"/>
       <c r="R6" s="108"/>
     </row>
-    <row r="7" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>60</v>
       </c>
@@ -9275,7 +9054,7 @@
       <c r="Q7" s="99"/>
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
         <v>59</v>
       </c>
@@ -9301,7 +9080,7 @@
       <c r="Q8" s="99"/>
       <c r="R8" s="49"/>
     </row>
-    <row r="9" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="92" t="s">
         <v>62</v>
       </c>
@@ -9323,7 +9102,7 @@
       <c r="Q9" s="95"/>
       <c r="R9" s="49"/>
     </row>
-    <row r="10" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
         <v>88</v>
       </c>
@@ -9349,7 +9128,7 @@
       <c r="Q10" s="108"/>
       <c r="R10" s="108"/>
     </row>
-    <row r="11" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
         <v>66</v>
       </c>
@@ -11180,42 +10959,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="34" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11572,7 +11351,7 @@
       <c r="A9" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="158">
+      <c r="B9" s="156">
         <v>30</v>
       </c>
       <c r="C9" s="104">
@@ -11594,7 +11373,7 @@
       <c r="Q9" s="114"/>
       <c r="R9" s="115"/>
     </row>
-    <row r="10" spans="1:120" s="159" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
         <v>86</v>
       </c>
@@ -11619,108 +11398,108 @@
       <c r="P10" s="108"/>
       <c r="Q10" s="108"/>
       <c r="R10" s="108"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
-      <c r="AM10" s="160"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="160"/>
-      <c r="BA10" s="160"/>
-      <c r="BB10" s="160"/>
-      <c r="BC10" s="160"/>
-      <c r="BD10" s="160"/>
-      <c r="BE10" s="160"/>
-      <c r="BF10" s="160"/>
-      <c r="BG10" s="160"/>
-      <c r="BH10" s="160"/>
-      <c r="BI10" s="160"/>
-      <c r="BJ10" s="160"/>
-      <c r="BK10" s="160"/>
-      <c r="BL10" s="160"/>
-      <c r="BM10" s="160"/>
-      <c r="BN10" s="160"/>
-      <c r="BO10" s="160"/>
-      <c r="BP10" s="160"/>
-      <c r="BQ10" s="160"/>
-      <c r="BR10" s="160"/>
-      <c r="BS10" s="160"/>
-      <c r="BT10" s="160"/>
-      <c r="BU10" s="160"/>
-      <c r="BV10" s="160"/>
-      <c r="BW10" s="160"/>
-      <c r="BX10" s="160"/>
-      <c r="BY10" s="160"/>
-      <c r="BZ10" s="160"/>
-      <c r="CA10" s="160"/>
-      <c r="CB10" s="160"/>
-      <c r="CC10" s="160"/>
-      <c r="CD10" s="160"/>
-      <c r="CE10" s="160"/>
-      <c r="CF10" s="160"/>
-      <c r="CG10" s="160"/>
-      <c r="CH10" s="160"/>
-      <c r="CI10" s="160"/>
-      <c r="CJ10" s="160"/>
-      <c r="CK10" s="160"/>
-      <c r="CL10" s="160"/>
-      <c r="CM10" s="160"/>
-      <c r="CN10" s="160"/>
-      <c r="CO10" s="160"/>
-      <c r="CP10" s="160"/>
-      <c r="CQ10" s="160"/>
-      <c r="CR10" s="160"/>
-      <c r="CS10" s="160"/>
-      <c r="CT10" s="160"/>
-      <c r="CU10" s="160"/>
-      <c r="CV10" s="160"/>
-      <c r="CW10" s="160"/>
-      <c r="CX10" s="160"/>
-      <c r="CY10" s="160"/>
-      <c r="CZ10" s="160"/>
-      <c r="DA10" s="160"/>
-      <c r="DB10" s="160"/>
-      <c r="DC10" s="160"/>
-      <c r="DD10" s="160"/>
-      <c r="DE10" s="160"/>
-      <c r="DF10" s="160"/>
-      <c r="DG10" s="160"/>
-      <c r="DH10" s="160"/>
-      <c r="DI10" s="160"/>
-      <c r="DJ10" s="160"/>
-      <c r="DK10" s="160"/>
-      <c r="DL10" s="160"/>
-      <c r="DM10" s="160"/>
-      <c r="DN10" s="160"/>
-      <c r="DO10" s="160"/>
-      <c r="DP10" s="160"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="158"/>
+      <c r="AO10" s="158"/>
+      <c r="AP10" s="158"/>
+      <c r="AQ10" s="158"/>
+      <c r="AR10" s="158"/>
+      <c r="AS10" s="158"/>
+      <c r="AT10" s="158"/>
+      <c r="AU10" s="158"/>
+      <c r="AV10" s="158"/>
+      <c r="AW10" s="158"/>
+      <c r="AX10" s="158"/>
+      <c r="AY10" s="158"/>
+      <c r="AZ10" s="158"/>
+      <c r="BA10" s="158"/>
+      <c r="BB10" s="158"/>
+      <c r="BC10" s="158"/>
+      <c r="BD10" s="158"/>
+      <c r="BE10" s="158"/>
+      <c r="BF10" s="158"/>
+      <c r="BG10" s="158"/>
+      <c r="BH10" s="158"/>
+      <c r="BI10" s="158"/>
+      <c r="BJ10" s="158"/>
+      <c r="BK10" s="158"/>
+      <c r="BL10" s="158"/>
+      <c r="BM10" s="158"/>
+      <c r="BN10" s="158"/>
+      <c r="BO10" s="158"/>
+      <c r="BP10" s="158"/>
+      <c r="BQ10" s="158"/>
+      <c r="BR10" s="158"/>
+      <c r="BS10" s="158"/>
+      <c r="BT10" s="158"/>
+      <c r="BU10" s="158"/>
+      <c r="BV10" s="158"/>
+      <c r="BW10" s="158"/>
+      <c r="BX10" s="158"/>
+      <c r="BY10" s="158"/>
+      <c r="BZ10" s="158"/>
+      <c r="CA10" s="158"/>
+      <c r="CB10" s="158"/>
+      <c r="CC10" s="158"/>
+      <c r="CD10" s="158"/>
+      <c r="CE10" s="158"/>
+      <c r="CF10" s="158"/>
+      <c r="CG10" s="158"/>
+      <c r="CH10" s="158"/>
+      <c r="CI10" s="158"/>
+      <c r="CJ10" s="158"/>
+      <c r="CK10" s="158"/>
+      <c r="CL10" s="158"/>
+      <c r="CM10" s="158"/>
+      <c r="CN10" s="158"/>
+      <c r="CO10" s="158"/>
+      <c r="CP10" s="158"/>
+      <c r="CQ10" s="158"/>
+      <c r="CR10" s="158"/>
+      <c r="CS10" s="158"/>
+      <c r="CT10" s="158"/>
+      <c r="CU10" s="158"/>
+      <c r="CV10" s="158"/>
+      <c r="CW10" s="158"/>
+      <c r="CX10" s="158"/>
+      <c r="CY10" s="158"/>
+      <c r="CZ10" s="158"/>
+      <c r="DA10" s="158"/>
+      <c r="DB10" s="158"/>
+      <c r="DC10" s="158"/>
+      <c r="DD10" s="158"/>
+      <c r="DE10" s="158"/>
+      <c r="DF10" s="158"/>
+      <c r="DG10" s="158"/>
+      <c r="DH10" s="158"/>
+      <c r="DI10" s="158"/>
+      <c r="DJ10" s="158"/>
+      <c r="DK10" s="158"/>
+      <c r="DL10" s="158"/>
+      <c r="DM10" s="158"/>
+      <c r="DN10" s="158"/>
+      <c r="DO10" s="158"/>
+      <c r="DP10" s="158"/>
     </row>
     <row r="11" spans="1:120">
       <c r="A11" s="38"/>
@@ -13210,50 +12989,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13465,7 +13244,7 @@
       <c r="B3" s="75">
         <v>33</v>
       </c>
-      <c r="C3" s="157">
+      <c r="C3" s="155">
         <v>10</v>
       </c>
       <c r="D3" s="34"/>
@@ -15373,50 +15152,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900" activeTab="1"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -31,18 +31,18 @@
     <definedName name="_Toc347234369" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$14:$Z$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$12:$Z$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$14:$Z$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -357,12 +357,6 @@
     <t>ITERATION 3 : du 27/05 au 14/06 (3 semaines, 55jh)</t>
   </si>
   <si>
-    <t>ITERATION 2 : du 06/05 au 24/05 (3 semaines, 48jh)</t>
-  </si>
-  <si>
-    <t>ITERATION 1 : du 15/04 au 03/05 (3 semaines, 56jh)</t>
-  </si>
-  <si>
     <t>PHASE DE CADRAGE : du 02/04 au 12/04 (2 semaines, 40jh)</t>
   </si>
   <si>
@@ -385,6 +379,12 @@
   </si>
   <si>
     <t>Adapter le modèle de la collection numérique (admin)</t>
+  </si>
+  <si>
+    <t>ITERATION 1 : du 15/04 au 03/05 (3 semaines, 50jh)</t>
+  </si>
+  <si>
+    <t>ITERATION 2 : du 06/05 au 24/05 (3 semaines, 60jh)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,11 +700,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1122,7 +1117,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1374,21 +1369,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1401,22 +1387,16 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1428,9 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1448,10 +1425,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,24 +1561,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1626,8 +1603,8 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1676,35 +1653,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -2107,7 +2056,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225209"/>
+          <c:x val="0.37032576667225225"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2125,9 +2074,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532396"/>
+          <c:y val="0.15742128935532401"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192236"/>
+          <c:h val="0.70464767616192259"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2137,7 +2086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 1'!$B$16</c:f>
+              <c:f>'Iteration 1'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2228,57 +2177,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$C$16:$R$16</c:f>
+              <c:f>'Iteration 1'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2238,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 1'!$B$18</c:f>
+              <c:f>'Iteration 1'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2380,68 +2329,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$C$18:$R$18</c:f>
+              <c:f>'Iteration 1'!$C$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>41.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.333333333333329</c:v>
+                  <c:v>38.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.999999999999993</c:v>
+                  <c:v>35.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.666666666666657</c:v>
+                  <c:v>32.26666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.333333333333321</c:v>
+                  <c:v>29.333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.999999999999989</c:v>
+                  <c:v>26.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.666666666666657</c:v>
+                  <c:v>23.466666666666679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.333333333333325</c:v>
+                  <c:v>20.533333333333346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.999999999999993</c:v>
+                  <c:v>17.600000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.666666666666661</c:v>
+                  <c:v>14.666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.333333333333327</c:v>
+                  <c:v>11.733333333333345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9999999999999929</c:v>
+                  <c:v>8.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.666666666666659</c:v>
+                  <c:v>5.8666666666666778</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3333333333333255</c:v>
+                  <c:v>2.9333333333333447</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.9936057773011271E-15</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106043264"/>
-        <c:axId val="106057728"/>
+        <c:axId val="109111168"/>
+        <c:axId val="109465600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106043264"/>
+        <c:axId val="109111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106057728"/>
+        <c:crossAx val="109465600"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2481,7 +2430,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106057728"/>
+        <c:axId val="109465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2472,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106043264"/>
+        <c:crossAx val="109111168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,7 +2560,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000133" footer="0.49212598450000133"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2648,7 +2597,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225242"/>
+          <c:x val="0.37032576667225253"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2666,9 +2615,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532407"/>
+          <c:y val="0.15742128935532415"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192281"/>
+          <c:h val="0.70464767616192292"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2678,7 +2627,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$13</c:f>
+              <c:f>'Iteration 2'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2712,56 +2661,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>41400</c:v>
+                  <c:v>41407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41401</c:v>
+                  <c:v>41408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41402</c:v>
+                  <c:v>41409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41403</c:v>
+                  <c:v>41410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41404</c:v>
+                  <c:v>41411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41407</c:v>
+                  <c:v>41414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41408</c:v>
+                  <c:v>41415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41409</c:v>
+                  <c:v>41416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41410</c:v>
+                  <c:v>41417</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41411</c:v>
+                  <c:v>41418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>41421</c:v>
                 </c:pt>
               </c:numCache>
@@ -2769,12 +2703,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$13:$R$13</c:f>
+              <c:f>'Iteration 2'!$C$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2830,7 +2764,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$15</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2864,56 +2798,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>41400</c:v>
+                  <c:v>41407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41401</c:v>
+                  <c:v>41408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41402</c:v>
+                  <c:v>41409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41403</c:v>
+                  <c:v>41410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41404</c:v>
+                  <c:v>41411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41407</c:v>
+                  <c:v>41414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41408</c:v>
+                  <c:v>41415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41409</c:v>
+                  <c:v>41416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41410</c:v>
+                  <c:v>41417</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41411</c:v>
+                  <c:v>41418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>41421</c:v>
                 </c:pt>
               </c:numCache>
@@ -2921,68 +2840,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$15:$R$15</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>45</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>45.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>39.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>34.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>28.499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>22.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>17.099999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>11.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>5.6999999999999913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>-8.8817841970012523E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>-5.7000000000000091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>-11.400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>-17.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>-22.800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-28.500000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107795200"/>
-        <c:axId val="107797120"/>
+        <c:axId val="109748992"/>
+        <c:axId val="109750912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107795200"/>
+        <c:axId val="109748992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +2933,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107797120"/>
+        <c:crossAx val="109750912"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3022,7 +2941,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107797120"/>
+        <c:axId val="109750912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +2983,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107795200"/>
+        <c:crossAx val="109748992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,7 +3071,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3189,7 +3108,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722527"/>
+          <c:x val="0.37032576667225287"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3207,9 +3126,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532423"/>
+          <c:y val="0.15742128935532429"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192303"/>
+          <c:h val="0.70464767616192314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3519,11 +3438,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107670528"/>
-        <c:axId val="107775104"/>
+        <c:axId val="109693952"/>
+        <c:axId val="109696128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107670528"/>
+        <c:axId val="109693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3474,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107775104"/>
+        <c:crossAx val="109696128"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3563,7 +3482,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107775104"/>
+        <c:axId val="109696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3524,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107670528"/>
+        <c:crossAx val="109693952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3693,7 +3612,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3730,7 +3649,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225298"/>
+          <c:x val="0.37032576667225309"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3748,9 +3667,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532435"/>
+          <c:y val="0.15742128935532443"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192325"/>
+          <c:h val="0.70464767616192336"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4060,11 +3979,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107857408"/>
-        <c:axId val="107859328"/>
+        <c:axId val="109815296"/>
+        <c:axId val="109817216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107857408"/>
+        <c:axId val="109815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4015,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107859328"/>
+        <c:crossAx val="109817216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4104,7 +4023,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107859328"/>
+        <c:axId val="109817216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4065,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107857408"/>
+        <c:crossAx val="109815296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4234,7 +4153,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4246,13 +4165,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4283,13 +4202,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4678,11 +4597,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4706,10 +4625,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="170"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4721,10 +4640,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="172"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4740,8 +4659,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4749,9 +4668,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="167"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -4776,16 +4695,16 @@
       <c r="E5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="138" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -4802,11 +4721,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1">
-      <c r="A6" s="145"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4879,7 +4798,7 @@
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="149"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="22"/>
       <c r="K9" s="11"/>
     </row>
@@ -4900,7 +4819,7 @@
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="149"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="22"/>
       <c r="K10" s="11"/>
     </row>
@@ -4908,16 +4827,16 @@
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146">
-        <f>SUM(G12:G24)</f>
-        <v>56</v>
-      </c>
-      <c r="H11" s="154"/>
+      <c r="D11" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="147"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140">
+        <f>SUM(G12:G22)</f>
+        <v>50</v>
+      </c>
+      <c r="H11" s="148"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -4947,11 +4866,11 @@
         <v>2</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="150"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:13" s="78" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="75">
@@ -4964,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
@@ -4976,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="151"/>
+      <c r="I13" s="145"/>
       <c r="J13" s="74"/>
       <c r="K13" s="71"/>
       <c r="L13" s="77"/>
@@ -5051,12 +4970,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="105" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="75">
@@ -5080,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>51</v>
@@ -5154,170 +5073,170 @@
       <c r="J19" s="74"/>
       <c r="K19" s="71"/>
     </row>
-    <row r="20" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="75">
+    <row r="20" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A20" s="68">
         <v>13</v>
       </c>
       <c r="B20" s="69">
         <v>1</v>
       </c>
       <c r="C20" s="68">
-        <v>1</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>97</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F20" s="72" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="72">
-        <v>3</v>
-      </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="71"/>
-    </row>
-    <row r="21" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A21" s="75">
+        <v>13</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="68">
         <v>14</v>
       </c>
       <c r="B21" s="69">
         <v>1</v>
       </c>
-      <c r="C21" s="68">
-        <v>2</v>
-      </c>
+      <c r="C21" s="68"/>
       <c r="D21" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>51</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E21" s="70"/>
       <c r="F21" s="72" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G21" s="72">
         <v>3</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A22" s="68">
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="71"/>
+    </row>
+    <row r="22" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="75">
         <v>15</v>
       </c>
       <c r="B22" s="69">
         <v>1</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="68"/>
+      <c r="D22" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="72">
+        <v>3</v>
+      </c>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
+        <f>SUM(G24:G35)</f>
+        <v>60</v>
+      </c>
+      <c r="H23" s="141"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A24" s="68">
+        <v>16</v>
+      </c>
+      <c r="B24" s="69">
         <v>2</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="72">
-        <v>13</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="68">
-        <v>16</v>
-      </c>
-      <c r="B23" s="69">
-        <v>1</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="72">
-        <v>3</v>
-      </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="75">
-        <v>17</v>
-      </c>
-      <c r="B24" s="69">
-        <v>1</v>
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="71"/>
       <c r="F24" s="72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24" s="72">
-        <v>3</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="71"/>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33">
-        <f>SUM(G26:G35)</f>
-        <v>48</v>
-      </c>
-      <c r="H25" s="147"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" s="77" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="75">
+        <v>17</v>
+      </c>
+      <c r="B25" s="69">
+        <v>1</v>
+      </c>
+      <c r="C25" s="68">
+        <v>1</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="72">
+        <v>4</v>
+      </c>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A26" s="68">
+      <c r="A26" s="75">
         <v>18</v>
       </c>
       <c r="B26" s="69">
+        <v>1</v>
+      </c>
+      <c r="C26" s="68">
         <v>2</v>
       </c>
-      <c r="C26" s="68"/>
       <c r="D26" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="71"/>
+        <v>96</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F26" s="72" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G26" s="72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -5344,7 +5263,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -5355,14 +5274,14 @@
       <c r="A28" s="75"/>
       <c r="B28" s="79"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -5451,14 +5370,14 @@
       <c r="A32" s="75"/>
       <c r="B32" s="79"/>
       <c r="C32" s="75"/>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="11"/>
@@ -5482,7 +5401,7 @@
         <v>75</v>
       </c>
       <c r="G33" s="72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -5550,10 +5469,10 @@
         <f>SUM(G37:G45)</f>
         <v>55</v>
       </c>
-      <c r="H36" s="147"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="119"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="113"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
@@ -5584,14 +5503,14 @@
       <c r="A38" s="75"/>
       <c r="B38" s="69"/>
       <c r="C38" s="68"/>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="22"/>
@@ -5651,14 +5570,14 @@
       <c r="A41" s="75"/>
       <c r="B41" s="69"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="22"/>
@@ -5756,13 +5675,13 @@
       <c r="F45" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="117">
+      <c r="G45" s="111">
         <v>3</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
     </row>
@@ -5779,10 +5698,10 @@
         <f>SUM(G47:G52)</f>
         <v>45</v>
       </c>
-      <c r="H46" s="148"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="124"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="118"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1">
       <c r="A47" s="75">
@@ -5799,11 +5718,11 @@
       <c r="F47" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="117">
+      <c r="G47" s="111">
         <v>10</v>
       </c>
       <c r="H47" s="30"/>
-      <c r="I47" s="123"/>
+      <c r="I47" s="117"/>
       <c r="J47" s="61"/>
       <c r="K47" s="62"/>
     </row>
@@ -5814,7 +5733,7 @@
       <c r="B48" s="79">
         <v>4</v>
       </c>
-      <c r="C48" s="111">
+      <c r="C48" s="105">
         <v>4</v>
       </c>
       <c r="D48" s="84" t="s">
@@ -5826,7 +5745,7 @@
       <c r="F48" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="109">
+      <c r="G48" s="103">
         <v>2</v>
       </c>
       <c r="H48" s="19"/>
@@ -5926,7 +5845,7 @@
       <c r="F52" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="110">
+      <c r="G52" s="104">
         <v>3</v>
       </c>
       <c r="H52" s="30"/>
@@ -5946,7 +5865,7 @@
       <c r="G53" s="33">
         <v>50</v>
       </c>
-      <c r="H53" s="147"/>
+      <c r="H53" s="141"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
@@ -5978,97 +5897,97 @@
       <c r="A55" s="75">
         <v>40</v>
       </c>
-      <c r="B55" s="128" t="s">
+      <c r="B55" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="130" t="s">
+      <c r="C55" s="123"/>
+      <c r="D55" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="131"/>
+      <c r="E55" s="125"/>
       <c r="F55" s="85" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="85"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="134"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="128"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="141"/>
-      <c r="K56" s="139"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="133"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="127"/>
-      <c r="B57" s="136"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="105"/>
+      <c r="D57" s="100"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="135"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="129"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="127"/>
-      <c r="B58" s="136"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="130"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="105"/>
+      <c r="D58" s="100"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="135"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="129"/>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="127"/>
-      <c r="B59" s="136"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="105"/>
+      <c r="D59" s="100"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="135"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="127"/>
-      <c r="B60" s="136"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="105"/>
+      <c r="D60" s="100"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="135"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="129"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="127"/>
-      <c r="B61" s="136"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="105"/>
+      <c r="D61" s="100"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="135"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="129"/>
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="I62" s="133"/>
+      <c r="I62" s="127"/>
     </row>
     <row r="84" ht="9.75" customHeight="1"/>
     <row r="303" spans="1:1" ht="15">
@@ -6106,11 +6025,11 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D21:D22 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 A27:A33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E22 D15 D23:E23 A13:A24 D28 D30 E28:E33">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="D26 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 D20:E21 E25:E26 A25:A33 D28 D30 E28:E33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D15 A13:A22">
+    <cfRule type="expression" dxfId="13" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6123,10 +6042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP84"/>
+  <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6325,99 +6244,107 @@
       <c r="C3" s="72">
         <v>2</v>
       </c>
-      <c r="D3" s="159">
+      <c r="D3" s="153">
         <v>2</v>
       </c>
-      <c r="E3" s="159">
+      <c r="E3" s="153">
         <v>1</v>
       </c>
-      <c r="F3" s="159">
+      <c r="F3" s="153">
         <v>1</v>
       </c>
-      <c r="G3" s="159">
+      <c r="G3" s="153">
         <v>1</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="156">
         <v>0</v>
       </c>
-      <c r="I3" s="162">
+      <c r="I3" s="156">
         <v>0</v>
       </c>
-      <c r="J3" s="162">
+      <c r="J3" s="156">
         <v>0</v>
       </c>
-      <c r="K3" s="162">
+      <c r="K3" s="156">
         <v>0</v>
       </c>
-      <c r="L3" s="162">
+      <c r="L3" s="156">
         <v>0</v>
       </c>
-      <c r="M3" s="162">
+      <c r="M3" s="156">
         <v>0</v>
       </c>
-      <c r="N3" s="162">
+      <c r="N3" s="156">
         <v>0</v>
       </c>
-      <c r="O3" s="163">
+      <c r="O3" s="157">
         <v>0</v>
       </c>
-      <c r="P3" s="162">
+      <c r="P3" s="156">
         <v>0</v>
       </c>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="164"/>
+      <c r="Q3" s="156">
+        <v>0</v>
+      </c>
+      <c r="R3" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
       </c>
-      <c r="C4" s="159">
+      <c r="C4" s="153">
         <v>2</v>
       </c>
-      <c r="D4" s="159">
+      <c r="D4" s="153">
         <v>1</v>
       </c>
-      <c r="E4" s="159">
+      <c r="E4" s="153">
         <v>1</v>
       </c>
-      <c r="F4" s="159">
+      <c r="F4" s="153">
         <v>1</v>
       </c>
-      <c r="G4" s="159">
+      <c r="G4" s="153">
         <v>1</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="156">
         <v>0</v>
       </c>
-      <c r="I4" s="162">
+      <c r="I4" s="156">
         <v>0</v>
       </c>
-      <c r="J4" s="162">
+      <c r="J4" s="156">
         <v>0</v>
       </c>
-      <c r="K4" s="162">
+      <c r="K4" s="156">
         <v>0</v>
       </c>
-      <c r="L4" s="162">
+      <c r="L4" s="156">
         <v>0</v>
       </c>
-      <c r="M4" s="162">
+      <c r="M4" s="156">
         <v>0</v>
       </c>
-      <c r="N4" s="162">
+      <c r="N4" s="156">
         <v>0</v>
       </c>
-      <c r="O4" s="163">
+      <c r="O4" s="157">
         <v>0</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="156">
         <v>0</v>
       </c>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="164"/>
+      <c r="Q4" s="156">
+        <v>0</v>
+      </c>
+      <c r="R4" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="80" t="s">
@@ -6426,50 +6353,54 @@
       <c r="B5" s="75">
         <v>7</v>
       </c>
-      <c r="C5" s="159">
+      <c r="C5" s="153">
         <v>2</v>
       </c>
-      <c r="D5" s="159">
+      <c r="D5" s="153">
         <v>1</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="153">
         <v>1</v>
       </c>
-      <c r="F5" s="159">
+      <c r="F5" s="153">
         <v>1</v>
       </c>
-      <c r="G5" s="159">
+      <c r="G5" s="153">
         <v>1</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="156">
         <v>0</v>
       </c>
-      <c r="I5" s="162">
+      <c r="I5" s="156">
         <v>0</v>
       </c>
-      <c r="J5" s="162">
+      <c r="J5" s="156">
         <v>0</v>
       </c>
-      <c r="K5" s="162">
+      <c r="K5" s="156">
         <v>0</v>
       </c>
-      <c r="L5" s="162">
+      <c r="L5" s="156">
         <v>0</v>
       </c>
-      <c r="M5" s="162">
+      <c r="M5" s="156">
         <v>0</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="156">
         <v>0</v>
       </c>
-      <c r="O5" s="163">
+      <c r="O5" s="157">
         <v>0</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="156">
         <v>0</v>
       </c>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="164"/>
+      <c r="Q5" s="156">
+        <v>0</v>
+      </c>
+      <c r="R5" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
@@ -6478,106 +6409,114 @@
       <c r="B6" s="75">
         <v>8</v>
       </c>
-      <c r="C6" s="161">
+      <c r="C6" s="155">
         <v>2</v>
       </c>
-      <c r="D6" s="159">
+      <c r="D6" s="153">
         <v>2</v>
       </c>
-      <c r="E6" s="159">
+      <c r="E6" s="153">
         <v>1</v>
       </c>
-      <c r="F6" s="159">
+      <c r="F6" s="153">
         <v>1</v>
       </c>
-      <c r="G6" s="159">
+      <c r="G6" s="153">
         <v>1</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="156">
         <v>0</v>
       </c>
-      <c r="I6" s="162">
+      <c r="I6" s="156">
         <v>0</v>
       </c>
-      <c r="J6" s="162">
+      <c r="J6" s="156">
         <v>0</v>
       </c>
-      <c r="K6" s="162">
+      <c r="K6" s="156">
         <v>0</v>
       </c>
-      <c r="L6" s="162">
+      <c r="L6" s="156">
         <v>0</v>
       </c>
-      <c r="M6" s="162">
+      <c r="M6" s="156">
         <v>0</v>
       </c>
-      <c r="N6" s="162">
+      <c r="N6" s="156">
         <v>0</v>
       </c>
-      <c r="O6" s="163">
+      <c r="O6" s="157">
         <v>0</v>
       </c>
-      <c r="P6" s="162">
+      <c r="P6" s="156">
         <v>0</v>
       </c>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="164"/>
+      <c r="Q6" s="156">
+        <v>0</v>
+      </c>
+      <c r="R6" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
       </c>
-      <c r="C7" s="160">
+      <c r="C7" s="154">
         <v>5</v>
       </c>
-      <c r="D7" s="159">
+      <c r="D7" s="153">
         <v>2</v>
       </c>
-      <c r="E7" s="160">
+      <c r="E7" s="154">
         <v>1</v>
       </c>
-      <c r="F7" s="161">
+      <c r="F7" s="155">
         <v>0</v>
       </c>
       <c r="G7" s="72">
         <v>0</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="105">
         <v>0</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="105">
         <v>0</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="105">
         <v>0</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="105">
         <v>0</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="105">
         <v>0</v>
       </c>
-      <c r="M7" s="111">
+      <c r="M7" s="105">
         <v>0</v>
       </c>
-      <c r="N7" s="111">
+      <c r="N7" s="105">
         <v>0</v>
       </c>
-      <c r="O7" s="143">
+      <c r="O7" s="137">
         <v>0</v>
       </c>
-      <c r="P7" s="111">
+      <c r="P7" s="105">
         <v>0</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="91"/>
+      <c r="Q7" s="105">
+        <v>0</v>
+      </c>
+      <c r="R7" s="105">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6594,38 +6533,42 @@
       <c r="F8" s="72">
         <v>8</v>
       </c>
-      <c r="G8" s="159">
+      <c r="G8" s="153">
         <v>8</v>
       </c>
-      <c r="H8" s="159">
+      <c r="H8" s="153">
         <v>7</v>
       </c>
-      <c r="I8" s="159">
+      <c r="I8" s="153">
         <v>6</v>
       </c>
-      <c r="J8" s="159">
+      <c r="J8" s="153">
         <v>5</v>
       </c>
-      <c r="K8" s="159">
+      <c r="K8" s="153">
         <v>4</v>
       </c>
-      <c r="L8" s="159">
+      <c r="L8" s="153">
         <v>3</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="153">
         <v>2</v>
       </c>
-      <c r="N8" s="159">
+      <c r="N8" s="153">
         <v>1</v>
       </c>
-      <c r="O8" s="173">
+      <c r="O8" s="158">
         <v>1</v>
       </c>
-      <c r="P8" s="159">
+      <c r="P8" s="153">
         <v>1</v>
       </c>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="91"/>
+      <c r="Q8" s="155">
+        <v>0</v>
+      </c>
+      <c r="R8" s="155">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
@@ -6646,38 +6589,42 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="159">
+      <c r="G9" s="153">
         <v>5</v>
       </c>
-      <c r="H9" s="159">
+      <c r="H9" s="153">
         <v>4</v>
       </c>
-      <c r="I9" s="159">
+      <c r="I9" s="153">
         <v>3</v>
       </c>
-      <c r="J9" s="159">
+      <c r="J9" s="153">
         <v>2</v>
       </c>
-      <c r="K9" s="159">
+      <c r="K9" s="153">
         <v>1</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="153">
         <v>1</v>
       </c>
-      <c r="M9" s="159">
+      <c r="M9" s="153">
         <v>1</v>
       </c>
-      <c r="N9" s="111">
+      <c r="N9" s="105">
         <v>0</v>
       </c>
-      <c r="O9" s="143">
+      <c r="O9" s="137">
         <v>0</v>
       </c>
-      <c r="P9" s="111">
+      <c r="P9" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="105">
+        <v>1</v>
+      </c>
+      <c r="R9" s="105">
         <v>0</v>
       </c>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:120" ht="24.95" customHeight="1">
       <c r="A10" s="82" t="s">
@@ -6701,191 +6648,2414 @@
       <c r="G10" s="72">
         <v>5</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="105">
         <v>5</v>
       </c>
-      <c r="I10" s="159">
+      <c r="I10" s="153">
         <v>5</v>
       </c>
-      <c r="J10" s="159">
+      <c r="J10" s="153">
         <v>4</v>
       </c>
-      <c r="K10" s="159">
+      <c r="K10" s="153">
         <v>3</v>
       </c>
-      <c r="L10" s="159">
+      <c r="L10" s="153">
         <v>2</v>
       </c>
-      <c r="M10" s="159">
+      <c r="M10" s="153">
         <v>1</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="105">
         <v>0</v>
       </c>
-      <c r="O10" s="143">
+      <c r="O10" s="137">
         <v>0</v>
       </c>
-      <c r="P10" s="111">
+      <c r="P10" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="105">
+        <v>1</v>
+      </c>
+      <c r="R10" s="105">
         <v>0</v>
       </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="91"/>
-    </row>
-    <row r="11" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="82" t="s">
+    </row>
+    <row r="11" spans="1:120" s="136" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="68">
+        <v>13</v>
+      </c>
+      <c r="C11" s="72">
+        <v>13</v>
+      </c>
+      <c r="D11" s="72">
+        <v>13</v>
+      </c>
+      <c r="E11" s="153">
+        <v>13</v>
+      </c>
+      <c r="F11" s="153">
+        <v>11</v>
+      </c>
+      <c r="G11" s="153">
+        <v>8</v>
+      </c>
+      <c r="H11" s="153">
+        <v>6</v>
+      </c>
+      <c r="I11" s="153">
+        <v>4</v>
+      </c>
+      <c r="J11" s="153">
+        <v>2</v>
+      </c>
+      <c r="K11" s="153">
+        <v>1</v>
+      </c>
+      <c r="L11" s="153">
+        <v>1</v>
+      </c>
+      <c r="M11" s="105">
+        <v>0</v>
+      </c>
+      <c r="N11" s="105">
+        <v>0</v>
+      </c>
+      <c r="O11" s="137">
+        <v>0</v>
+      </c>
+      <c r="P11" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="105">
+        <v>0</v>
+      </c>
+      <c r="R11" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="1:120">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="51"/>
+    </row>
+    <row r="14" spans="1:120">
+      <c r="A14" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="38">
+        <f t="array" ref="C14">IF(ISBLANK(C3:C11),NA(), SUM(C3:C11))</f>
+        <v>44</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="array" ref="D14">IF(ISBLANK(D3:D11), NA(), SUM(D3:D11))</f>
+        <v>39</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="array" ref="E14">IF(ISBLANK(E3:E11), NA(), SUM(E3:E11))</f>
+        <v>36</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="array" ref="F14">IF(ISBLANK(F3:F11), NA(), SUM(F3:F11))</f>
+        <v>33</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="array" ref="G14">IF(ISBLANK(G3:G11), NA(), SUM(G3:G11))</f>
+        <v>30</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="array" ref="H14">IF(ISBLANK(H3:H11), NA(), SUM(H3:H11))</f>
+        <v>22</v>
+      </c>
+      <c r="I14" s="38">
+        <f t="array" ref="I14">IF(ISBLANK(I3:I11), NA(), SUM(I3:I11))</f>
+        <v>18</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="array" ref="J14">IF(ISBLANK(J3:J11), NA(), SUM(J3:J11))</f>
+        <v>13</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="array" ref="K14">IF(ISBLANK(K3:K11), NA(), SUM(K3:K11))</f>
+        <v>9</v>
+      </c>
+      <c r="L14" s="38">
+        <f t="array" ref="L14">IF(ISBLANK(L3:L11), NA(), SUM(L3:L11))</f>
+        <v>7</v>
+      </c>
+      <c r="M14" s="38">
+        <f t="array" ref="M14">IF(ISBLANK(M3:M11), NA(), SUM(M3:M11))</f>
+        <v>4</v>
+      </c>
+      <c r="N14" s="38">
+        <f t="array" ref="N14">IF(ISBLANK(N3:N11), NA(), SUM(N3:N11))</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="38">
+        <f t="array" ref="O14">IF(ISBLANK(O3:O11), NA(), SUM(O3:O11))</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="38">
+        <f t="array" ref="P14">IF(ISBLANK(P3:P11), NA(), SUM(P3:P11))</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="38">
+        <f t="array" ref="Q14">IF(ISBLANK(Q3:Q11), NA(), SUM(Q3:Q11))</f>
+        <v>2</v>
+      </c>
+      <c r="R14" s="38">
+        <f t="array" ref="R14">IF(ISBLANK(R3:R11), NA(), SUM(R3:R11))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="38"/>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="38"/>
+      <c r="BT14" s="38"/>
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="38"/>
+      <c r="BW14" s="38"/>
+      <c r="BX14" s="38"/>
+      <c r="BY14" s="38"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="38"/>
+      <c r="CB14" s="38"/>
+      <c r="CC14" s="38"/>
+      <c r="CD14" s="38"/>
+      <c r="CE14" s="38"/>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="38"/>
+      <c r="CH14" s="38"/>
+      <c r="CI14" s="38"/>
+      <c r="CJ14" s="38"/>
+      <c r="CK14" s="38"/>
+      <c r="CL14" s="38"/>
+      <c r="CM14" s="38"/>
+      <c r="CN14" s="38"/>
+      <c r="CO14" s="38"/>
+      <c r="CP14" s="38"/>
+      <c r="CQ14" s="38"/>
+      <c r="CR14" s="38"/>
+      <c r="CS14" s="38"/>
+      <c r="CT14" s="38"/>
+      <c r="CU14" s="38"/>
+      <c r="CV14" s="38"/>
+      <c r="CW14" s="38"/>
+      <c r="CX14" s="38"/>
+      <c r="CY14" s="38"/>
+      <c r="CZ14" s="38"/>
+      <c r="DA14" s="38"/>
+      <c r="DB14" s="38"/>
+      <c r="DC14" s="38"/>
+      <c r="DD14" s="38"/>
+      <c r="DE14" s="38"/>
+      <c r="DF14" s="38"/>
+      <c r="DG14" s="38"/>
+      <c r="DH14" s="38"/>
+      <c r="DI14" s="38"/>
+      <c r="DJ14" s="38"/>
+      <c r="DK14" s="38"/>
+      <c r="DL14" s="38"/>
+      <c r="DM14" s="38"/>
+      <c r="DN14" s="38"/>
+      <c r="DO14" s="38"/>
+      <c r="DP14" s="38"/>
+    </row>
+    <row r="15" spans="1:120" ht="25.5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
+        <f>C14-D14</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" ref="E15:R15" si="0">D14-E14</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L15" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="38">
+        <f>O14-P14</f>
+        <v>-2</v>
+      </c>
+      <c r="Q15" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="38"/>
+      <c r="BW15" s="38"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="38"/>
+      <c r="CC15" s="38"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="38"/>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="38"/>
+      <c r="CK15" s="38"/>
+      <c r="CL15" s="38"/>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="38"/>
+      <c r="CO15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="38"/>
+      <c r="CS15" s="38"/>
+      <c r="CT15" s="38"/>
+      <c r="CU15" s="38"/>
+      <c r="CV15" s="38"/>
+      <c r="CW15" s="38"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="38"/>
+      <c r="CZ15" s="38"/>
+      <c r="DA15" s="38"/>
+      <c r="DB15" s="38"/>
+      <c r="DC15" s="38"/>
+      <c r="DD15" s="38"/>
+      <c r="DE15" s="38"/>
+      <c r="DF15" s="38"/>
+      <c r="DG15" s="38"/>
+      <c r="DH15" s="38"/>
+      <c r="DI15" s="38"/>
+      <c r="DJ15" s="38"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+    </row>
+    <row r="16" spans="1:120">
+      <c r="A16" s="38"/>
+      <c r="B16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="45">
+        <f>C14</f>
+        <v>44</v>
+      </c>
+      <c r="D16" s="46">
+        <f>C16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>41.06666666666667</v>
+      </c>
+      <c r="E16" s="46">
+        <f>D16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>38.13333333333334</v>
+      </c>
+      <c r="F16" s="46">
+        <f>E16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>35.20000000000001</v>
+      </c>
+      <c r="G16" s="46">
+        <f>F16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>32.26666666666668</v>
+      </c>
+      <c r="H16" s="46">
+        <f>G16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>29.333333333333346</v>
+      </c>
+      <c r="I16" s="46">
+        <f>H16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>26.400000000000013</v>
+      </c>
+      <c r="J16" s="46">
+        <f>I16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>23.466666666666679</v>
+      </c>
+      <c r="K16" s="46">
+        <f>J16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>20.533333333333346</v>
+      </c>
+      <c r="L16" s="46">
+        <f>K16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>17.600000000000012</v>
+      </c>
+      <c r="M16" s="46">
+        <f>L16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>14.666666666666679</v>
+      </c>
+      <c r="N16" s="46">
+        <f>M16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>11.733333333333345</v>
+      </c>
+      <c r="O16" s="46">
+        <f>N16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="P16" s="46">
+        <f>O16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>5.8666666666666778</v>
+      </c>
+      <c r="Q16" s="46">
+        <f>P16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>2.9333333333333447</v>
+      </c>
+      <c r="R16" s="52">
+        <f>Q16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>1.1546319456101628E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="56" customFormat="1">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="58">
+        <f>1-C14/$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="58">
+        <f t="shared" ref="D17:R17" si="1">1-D14/$C$14</f>
+        <v>0.11363636363636365</v>
+      </c>
+      <c r="E17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818177</v>
+      </c>
+      <c r="F17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.31818181818181823</v>
+      </c>
+      <c r="H17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.59090909090909083</v>
+      </c>
+      <c r="J17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="K17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="L17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.84090909090909094</v>
+      </c>
+      <c r="M17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="O17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="P17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.93181818181818188</v>
+      </c>
+      <c r="Q17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="R17" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="38"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
+    <cfRule type="expression" dxfId="11" priority="53" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="54" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
+    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="32" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DP83"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="36" customWidth="1"/>
+    <col min="3" max="18" width="10.7109375" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:120">
+      <c r="C1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="47"/>
+    </row>
+    <row r="2" spans="1:120">
+      <c r="A2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="39">
+        <v>41407</v>
+      </c>
+      <c r="D2" s="39">
+        <v>41408</v>
+      </c>
+      <c r="E2" s="39">
+        <v>41409</v>
+      </c>
+      <c r="F2" s="39">
+        <v>41410</v>
+      </c>
+      <c r="G2" s="39">
+        <v>41411</v>
+      </c>
+      <c r="H2" s="39">
+        <v>41414</v>
+      </c>
+      <c r="I2" s="39">
+        <v>41415</v>
+      </c>
+      <c r="J2" s="39">
+        <v>41416</v>
+      </c>
+      <c r="K2" s="39">
+        <v>41417</v>
+      </c>
+      <c r="L2" s="39">
+        <v>41418</v>
+      </c>
+      <c r="M2" s="39">
+        <v>41421</v>
+      </c>
+      <c r="N2" s="39">
+        <v>41422</v>
+      </c>
+      <c r="O2" s="39">
+        <v>41423</v>
+      </c>
+      <c r="P2" s="39">
+        <v>41424</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>41425</v>
+      </c>
+      <c r="R2" s="39">
+        <v>41428</v>
+      </c>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="41"/>
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="41"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
+      <c r="BV2" s="41"/>
+      <c r="BW2" s="41"/>
+      <c r="BX2" s="41"/>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="41"/>
+      <c r="CA2" s="41"/>
+      <c r="CB2" s="41"/>
+      <c r="CC2" s="41"/>
+      <c r="CD2" s="41"/>
+      <c r="CE2" s="41"/>
+      <c r="CF2" s="41"/>
+      <c r="CG2" s="41"/>
+      <c r="CH2" s="41"/>
+      <c r="CI2" s="41"/>
+      <c r="CJ2" s="41"/>
+      <c r="CK2" s="41"/>
+      <c r="CL2" s="41"/>
+      <c r="CM2" s="41"/>
+      <c r="CN2" s="41"/>
+      <c r="CO2" s="41"/>
+      <c r="CP2" s="41"/>
+      <c r="CQ2" s="41"/>
+      <c r="CR2" s="41"/>
+      <c r="CS2" s="41"/>
+      <c r="CT2" s="41"/>
+      <c r="CU2" s="41"/>
+      <c r="CV2" s="41"/>
+      <c r="CW2" s="41"/>
+      <c r="CX2" s="41"/>
+      <c r="CY2" s="41"/>
+      <c r="CZ2" s="41"/>
+      <c r="DA2" s="41"/>
+      <c r="DB2" s="41"/>
+      <c r="DC2" s="41"/>
+      <c r="DD2" s="41"/>
+      <c r="DE2" s="41"/>
+      <c r="DF2" s="41"/>
+      <c r="DG2" s="41"/>
+      <c r="DH2" s="41"/>
+      <c r="DI2" s="41"/>
+      <c r="DJ2" s="41"/>
+      <c r="DK2" s="41"/>
+      <c r="DL2" s="41"/>
+      <c r="DM2" s="41"/>
+      <c r="DN2" s="41"/>
+      <c r="DO2" s="41"/>
+      <c r="DP2" s="41"/>
+    </row>
+    <row r="3" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="68">
+        <v>16</v>
+      </c>
+      <c r="C3" s="97">
+        <v>10</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="48"/>
+    </row>
+    <row r="4" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="75">
-        <v>13</v>
-      </c>
-      <c r="C11" s="72">
+      <c r="B4" s="75">
+        <v>17</v>
+      </c>
+      <c r="C4" s="97">
+        <v>4</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="48"/>
+    </row>
+    <row r="5" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="75">
+        <v>18</v>
+      </c>
+      <c r="C5" s="97">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="48"/>
+    </row>
+    <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="75">
+        <v>19</v>
+      </c>
+      <c r="C6" s="97">
+        <v>6</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="48"/>
+    </row>
+    <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="75">
+        <v>20</v>
+      </c>
+      <c r="C8" s="97">
+        <v>6</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+    </row>
+    <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="75">
+        <v>21</v>
+      </c>
+      <c r="C9" s="97">
+        <v>6</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="75">
+        <v>22</v>
+      </c>
+      <c r="C10" s="99">
+        <v>6</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="75">
+        <v>23</v>
+      </c>
+      <c r="C12" s="97">
+        <v>12</v>
+      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+    </row>
+    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="68">
+        <v>24</v>
+      </c>
+      <c r="C13" s="97">
         <v>3</v>
       </c>
-      <c r="D11" s="72">
-        <v>3</v>
-      </c>
-      <c r="E11" s="72">
-        <v>3</v>
-      </c>
-      <c r="F11" s="72">
-        <v>3</v>
-      </c>
-      <c r="G11" s="72">
-        <v>3</v>
-      </c>
-      <c r="H11" s="111">
-        <v>3</v>
-      </c>
-      <c r="I11" s="111">
-        <v>3</v>
-      </c>
-      <c r="J11" s="111">
-        <v>3</v>
-      </c>
-      <c r="K11" s="111">
-        <v>3</v>
-      </c>
-      <c r="L11" s="111">
-        <v>3</v>
-      </c>
-      <c r="M11" s="161">
-        <v>3</v>
-      </c>
-      <c r="N11" s="161">
-        <v>3</v>
-      </c>
-      <c r="O11" s="173">
-        <v>3</v>
-      </c>
-      <c r="P11" s="161">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="91"/>
-    </row>
-    <row r="12" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="75">
-        <v>14</v>
-      </c>
-      <c r="C12" s="72">
-        <v>3</v>
-      </c>
-      <c r="D12" s="72">
-        <v>3</v>
-      </c>
-      <c r="E12" s="72">
-        <v>3</v>
-      </c>
-      <c r="F12" s="72">
-        <v>3</v>
-      </c>
-      <c r="G12" s="72">
-        <v>3</v>
-      </c>
-      <c r="H12" s="111">
-        <v>3</v>
-      </c>
-      <c r="I12" s="111">
-        <v>3</v>
-      </c>
-      <c r="J12" s="111">
-        <v>3</v>
-      </c>
-      <c r="K12" s="111">
-        <v>3</v>
-      </c>
-      <c r="L12" s="111">
-        <v>3</v>
-      </c>
-      <c r="M12" s="161">
-        <v>3</v>
-      </c>
-      <c r="N12" s="161">
-        <v>3</v>
-      </c>
-      <c r="O12" s="173">
-        <v>3</v>
-      </c>
-      <c r="P12" s="161">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="91"/>
-    </row>
-    <row r="13" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="68">
-        <v>15</v>
-      </c>
-      <c r="C13" s="72">
-        <v>13</v>
-      </c>
-      <c r="D13" s="72">
-        <v>13</v>
-      </c>
-      <c r="E13" s="159">
-        <v>13</v>
-      </c>
-      <c r="F13" s="159">
-        <v>11</v>
-      </c>
-      <c r="G13" s="159">
-        <v>8</v>
-      </c>
-      <c r="H13" s="159">
-        <v>6</v>
-      </c>
-      <c r="I13" s="159">
-        <v>4</v>
-      </c>
-      <c r="J13" s="159">
-        <v>2</v>
-      </c>
-      <c r="K13" s="159">
-        <v>1</v>
-      </c>
-      <c r="L13" s="159">
-        <v>1</v>
-      </c>
-      <c r="M13" s="111">
-        <v>0</v>
-      </c>
-      <c r="N13" s="111">
-        <v>0</v>
-      </c>
-      <c r="O13" s="143">
-        <v>0</v>
-      </c>
-      <c r="P13" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="91"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="38"/>
@@ -6908,94 +9078,243 @@
       <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:120">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="51"/>
-    </row>
-    <row r="16" spans="1:120">
-      <c r="A16" s="54" t="s">
+      <c r="A15" s="54" t="s">
         <v>36</v>
       </c>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="38">
+        <f t="array" ref="C15">IF(ISBLANK(C3:C13), NA(), SUM(C3:C13))</f>
+        <v>57</v>
+      </c>
+      <c r="D15" s="38" t="e">
+        <f t="array" ref="D15">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="38" t="e">
+        <f t="array" ref="E15">IF(ISBLANK(E3:E13), NA(), SUM(E3:E13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="38" t="e">
+        <f t="array" ref="F15">IF(ISBLANK(F3:F13), NA(), SUM(F3:F13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="38" t="e">
+        <f t="array" ref="G15">IF(ISBLANK(G3:G13), NA(), SUM(G3:G13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="38" t="e">
+        <f t="array" ref="H15">IF(ISBLANK(H3:H13), NA(), SUM(H3:H13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="38" t="e">
+        <f t="array" ref="I15">IF(ISBLANK(I3:I13), NA(), SUM(I3:I13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="38" t="e">
+        <f t="array" ref="J15">IF(ISBLANK(J3:J13), NA(), SUM(J3:J13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="38" t="e">
+        <f t="array" ref="K15">IF(ISBLANK(K3:K13), NA(), SUM(K3:K13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="38" t="e">
+        <f t="array" ref="L15">IF(ISBLANK(L3:L13), NA(), SUM(L3:L13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="38" t="e">
+        <f t="array" ref="M15">IF(ISBLANK(M3:M13), NA(), SUM(M3:M13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="38" t="e">
+        <f t="array" ref="N15">IF(ISBLANK(N3:N13), NA(), SUM(N3:N13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="38" t="e">
+        <f t="array" ref="O15">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="38" t="e">
+        <f t="array" ref="P15">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="38" t="e">
+        <f t="array" ref="Q15">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="38" t="e">
+        <f t="array" ref="R15">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="38"/>
+      <c r="BW15" s="38"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="38"/>
+      <c r="CC15" s="38"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="38"/>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="38"/>
+      <c r="CK15" s="38"/>
+      <c r="CL15" s="38"/>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="38"/>
+      <c r="CO15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="38"/>
+      <c r="CS15" s="38"/>
+      <c r="CT15" s="38"/>
+      <c r="CU15" s="38"/>
+      <c r="CV15" s="38"/>
+      <c r="CW15" s="38"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="38"/>
+      <c r="CZ15" s="38"/>
+      <c r="DA15" s="38"/>
+      <c r="DB15" s="38"/>
+      <c r="DC15" s="38"/>
+      <c r="DD15" s="38"/>
+      <c r="DE15" s="38"/>
+      <c r="DF15" s="38"/>
+      <c r="DG15" s="38"/>
+      <c r="DH15" s="38"/>
+      <c r="DI15" s="38"/>
+      <c r="DJ15" s="38"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+    </row>
+    <row r="16" spans="1:120" ht="25.5">
+      <c r="A16" s="38"/>
       <c r="B16" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="38">
-        <f t="array" ref="C16">IF(ISBLANK(C3:C13),NA(), SUM(C3:C13))</f>
-        <v>50</v>
-      </c>
-      <c r="D16" s="38">
-        <f t="array" ref="D16">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
-        <v>45</v>
-      </c>
-      <c r="E16" s="38">
-        <f t="array" ref="E16">IF(ISBLANK(E3:E13), NA(), SUM(E3:E13))</f>
-        <v>42</v>
-      </c>
-      <c r="F16" s="38">
-        <f t="array" ref="F16">IF(ISBLANK(F3:F13), NA(), SUM(F3:F13))</f>
-        <v>39</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="array" ref="G16">IF(ISBLANK(G3:G13), NA(), SUM(G3:G13))</f>
-        <v>36</v>
-      </c>
-      <c r="H16" s="38">
-        <f t="array" ref="H16">IF(ISBLANK(H3:H13), NA(), SUM(H3:H13))</f>
-        <v>28</v>
-      </c>
-      <c r="I16" s="38">
-        <f t="array" ref="I16">IF(ISBLANK(I3:I13), NA(), SUM(I3:I13))</f>
-        <v>24</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="array" ref="J16">IF(ISBLANK(J3:J13), NA(), SUM(J3:J13))</f>
-        <v>19</v>
-      </c>
-      <c r="K16" s="38">
-        <f t="array" ref="K16">IF(ISBLANK(K3:K13), NA(), SUM(K3:K13))</f>
-        <v>15</v>
-      </c>
-      <c r="L16" s="38">
-        <f t="array" ref="L16">IF(ISBLANK(L3:L13), NA(), SUM(L3:L13))</f>
-        <v>13</v>
-      </c>
-      <c r="M16" s="38">
-        <f t="array" ref="M16">IF(ISBLANK(M3:M13), NA(), SUM(M3:M13))</f>
-        <v>10</v>
-      </c>
-      <c r="N16" s="38">
-        <f t="array" ref="N16">IF(ISBLANK(N3:N13), NA(), SUM(N3:N13))</f>
-        <v>7</v>
-      </c>
-      <c r="O16" s="38">
-        <f t="array" ref="O16">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
-        <v>7</v>
-      </c>
-      <c r="P16" s="38">
-        <f t="array" ref="P16">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="e">
+        <f>C15-D15</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="38" t="e">
+        <f t="shared" ref="E16:R16" si="0">D15-E15</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="Q16" s="38" t="e">
-        <f t="array" ref="Q16">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="38" t="e">
-        <f t="array" ref="R16">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+      <c r="R16" s="51" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="S16" s="38"/>
@@ -7101,320 +9420,171 @@
       <c r="DO16" s="38"/>
       <c r="DP16" s="38"/>
     </row>
-    <row r="17" spans="1:120" ht="25.5">
+    <row r="17" spans="1:18">
       <c r="A17" s="38"/>
-      <c r="B17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <f>C16-D16</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="38">
-        <f t="shared" ref="E17:R17" si="0">D16-E16</f>
-        <v>3</v>
-      </c>
-      <c r="F17" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H17" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I17" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K17" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L17" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M17" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="38">
-        <f t="shared" si="0"/>
+      <c r="B17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="45">
+        <f>C15</f>
+        <v>57</v>
+      </c>
+      <c r="D17" s="46">
+        <f>C17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>51.3</v>
+      </c>
+      <c r="E17" s="46">
+        <f>D17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>45.599999999999994</v>
+      </c>
+      <c r="F17" s="46">
+        <f>E17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>39.899999999999991</v>
+      </c>
+      <c r="G17" s="46">
+        <f>F17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>34.199999999999989</v>
+      </c>
+      <c r="H17" s="46">
+        <f>G17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>28.499999999999989</v>
+      </c>
+      <c r="I17" s="46">
+        <f>H17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>22.79999999999999</v>
+      </c>
+      <c r="J17" s="46">
+        <f>I17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>17.099999999999991</v>
+      </c>
+      <c r="K17" s="46">
+        <f>J17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>11.399999999999991</v>
+      </c>
+      <c r="L17" s="46">
+        <f>K17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>5.6999999999999913</v>
+      </c>
+      <c r="M17" s="46">
+        <f>L17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-8.8817841970012523E-15</v>
+      </c>
+      <c r="N17" s="46">
+        <f>M17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-5.7000000000000091</v>
+      </c>
+      <c r="O17" s="46">
+        <f>N17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-11.400000000000009</v>
+      </c>
+      <c r="P17" s="46">
+        <f>O17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-17.100000000000009</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>P17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-22.800000000000008</v>
+      </c>
+      <c r="R17" s="52">
+        <f>Q17-$C$15/COUNTA($C$2:$L$2)</f>
+        <v>-28.500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="56" customFormat="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="58">
+        <f>1-C15/$C$15</f>
         <v>0</v>
       </c>
-      <c r="P17" s="38">
-        <f>O16-P16</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="38" t="e">
-        <f t="shared" si="0"/>
+      <c r="D18" s="58" t="e">
+        <f t="shared" ref="D18:R18" si="1">1-D15/$C$15</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="38"/>
-      <c r="BM17" s="38"/>
-      <c r="BN17" s="38"/>
-      <c r="BO17" s="38"/>
-      <c r="BP17" s="38"/>
-      <c r="BQ17" s="38"/>
-      <c r="BR17" s="38"/>
-      <c r="BS17" s="38"/>
-      <c r="BT17" s="38"/>
-      <c r="BU17" s="38"/>
-      <c r="BV17" s="38"/>
-      <c r="BW17" s="38"/>
-      <c r="BX17" s="38"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="38"/>
-      <c r="CA17" s="38"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="38"/>
-      <c r="CF17" s="38"/>
-      <c r="CG17" s="38"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="38"/>
-      <c r="CJ17" s="38"/>
-      <c r="CK17" s="38"/>
-      <c r="CL17" s="38"/>
-      <c r="CM17" s="38"/>
-      <c r="CN17" s="38"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="38"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="38"/>
-      <c r="CS17" s="38"/>
-      <c r="CT17" s="38"/>
-      <c r="CU17" s="38"/>
-      <c r="CV17" s="38"/>
-      <c r="CW17" s="38"/>
-      <c r="CX17" s="38"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="38"/>
-      <c r="DA17" s="38"/>
-      <c r="DB17" s="38"/>
-      <c r="DC17" s="38"/>
-      <c r="DD17" s="38"/>
-      <c r="DE17" s="38"/>
-      <c r="DF17" s="38"/>
-      <c r="DG17" s="38"/>
-      <c r="DH17" s="38"/>
-      <c r="DI17" s="38"/>
-      <c r="DJ17" s="38"/>
-      <c r="DK17" s="38"/>
-      <c r="DL17" s="38"/>
-      <c r="DM17" s="38"/>
-      <c r="DN17" s="38"/>
-      <c r="DO17" s="38"/>
-      <c r="DP17" s="38"/>
-    </row>
-    <row r="18" spans="1:120">
-      <c r="A18" s="38"/>
-      <c r="B18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="45">
-        <f>C16</f>
-        <v>50</v>
-      </c>
-      <c r="D18" s="46">
-        <f>C18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="E18" s="46">
-        <f>D18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>43.333333333333329</v>
-      </c>
-      <c r="F18" s="46">
-        <f>E18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>39.999999999999993</v>
-      </c>
-      <c r="G18" s="46">
-        <f>F18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>36.666666666666657</v>
-      </c>
-      <c r="H18" s="46">
-        <f>G18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>33.333333333333321</v>
-      </c>
-      <c r="I18" s="46">
-        <f>H18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>29.999999999999989</v>
-      </c>
-      <c r="J18" s="46">
-        <f>I18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>26.666666666666657</v>
-      </c>
-      <c r="K18" s="46">
-        <f>J18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>23.333333333333325</v>
-      </c>
-      <c r="L18" s="46">
-        <f>K18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>19.999999999999993</v>
-      </c>
-      <c r="M18" s="46">
-        <f>L18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N18" s="46">
-        <f>M18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>13.333333333333327</v>
-      </c>
-      <c r="O18" s="46">
-        <f>N18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="P18" s="46">
-        <f>O18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>6.666666666666659</v>
-      </c>
-      <c r="Q18" s="46">
-        <f>P18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>3.3333333333333255</v>
-      </c>
-      <c r="R18" s="52">
-        <f>Q18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>-7.9936057773011271E-15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" s="56" customFormat="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="58">
-        <f>1-C16/$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="58">
-        <f t="shared" ref="D19:R19" si="1">1-D16/$C$16</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="F19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="G19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="I19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="J19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="K19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="L19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="M19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="N19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.86</v>
-      </c>
-      <c r="O19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.86</v>
-      </c>
-      <c r="P19" s="58">
-        <f t="shared" si="1"/>
-        <v>0.86</v>
-      </c>
-      <c r="Q19" s="58" t="e">
+      <c r="E18" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="58" t="e">
+      <c r="F18" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:120">
+      <c r="G18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -7430,11 +9600,11 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="1:120">
+    <row r="21" spans="1:18">
       <c r="A21" s="38"/>
       <c r="B21" s="43"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -7450,9 +9620,9 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
     </row>
-    <row r="22" spans="1:120">
+    <row r="22" spans="1:18">
       <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -7470,7 +9640,7 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
     </row>
-    <row r="23" spans="1:120">
+    <row r="23" spans="1:18">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -7490,7 +9660,7 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
     </row>
-    <row r="24" spans="1:120">
+    <row r="24" spans="1:18">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -7510,7 +9680,7 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
     </row>
-    <row r="25" spans="1:120">
+    <row r="25" spans="1:18">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -7530,7 +9700,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
     </row>
-    <row r="26" spans="1:120">
+    <row r="26" spans="1:18">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -7550,7 +9720,7 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
     </row>
-    <row r="27" spans="1:120">
+    <row r="27" spans="1:18">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -7570,7 +9740,7 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
     </row>
-    <row r="28" spans="1:120">
+    <row r="28" spans="1:18">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -7590,7 +9760,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
     </row>
-    <row r="29" spans="1:120">
+    <row r="29" spans="1:18">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -7610,7 +9780,7 @@
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
     </row>
-    <row r="30" spans="1:120">
+    <row r="30" spans="1:18">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -7630,7 +9800,7 @@
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
     </row>
-    <row r="31" spans="1:120">
+    <row r="31" spans="1:18">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -7650,7 +9820,7 @@
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
     </row>
-    <row r="32" spans="1:120">
+    <row r="32" spans="1:18">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -8690,40 +10860,20 @@
       <c r="Q83" s="38"/>
       <c r="R83" s="38"/>
     </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:B13 F3:G7 G13 H3:R13">
-    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="E9:R11 D9:D10 D3:R7 D13:R13 A3:A13 A12:B12 B3:B6 B8:B13 E8:G8 E12:G12">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13 A3:A7 A11:A13">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B4:B6 A5">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8734,12 +10884,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP81"/>
+  <dimension ref="A1:DP77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8752,7 +10902,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -8778,52 +10928,52 @@
         <v>35</v>
       </c>
       <c r="C2" s="39">
-        <v>41400</v>
+        <v>41421</v>
       </c>
       <c r="D2" s="39">
-        <v>41401</v>
+        <v>41422</v>
       </c>
       <c r="E2" s="39">
-        <v>41402</v>
+        <v>41423</v>
       </c>
       <c r="F2" s="39">
-        <v>41403</v>
+        <v>41424</v>
       </c>
       <c r="G2" s="39">
-        <v>41404</v>
+        <v>41425</v>
       </c>
       <c r="H2" s="39">
-        <v>41407</v>
+        <v>41428</v>
       </c>
       <c r="I2" s="39">
-        <v>41408</v>
+        <v>41429</v>
       </c>
       <c r="J2" s="39">
-        <v>41409</v>
+        <v>41430</v>
       </c>
       <c r="K2" s="39">
-        <v>41410</v>
+        <v>41431</v>
       </c>
       <c r="L2" s="39">
-        <v>41411</v>
+        <v>41432</v>
       </c>
       <c r="M2" s="39">
-        <v>41414</v>
+        <v>41435</v>
       </c>
       <c r="N2" s="39">
-        <v>41415</v>
+        <v>41436</v>
       </c>
       <c r="O2" s="39">
-        <v>41416</v>
+        <v>41437</v>
       </c>
       <c r="P2" s="39">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="Q2" s="39">
-        <v>41418</v>
+        <v>41439</v>
       </c>
       <c r="R2" s="39">
-        <v>41421</v>
+        <v>41442</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -8928,760 +11078,599 @@
       <c r="DO2" s="41"/>
       <c r="DP2" s="41"/>
     </row>
-    <row r="3" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:120" ht="24.95" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="68">
-        <v>18</v>
-      </c>
-      <c r="C3" s="102">
+        <v>19</v>
+      </c>
+      <c r="B3" s="75">
+        <v>26</v>
+      </c>
+      <c r="C3" s="97">
         <v>10</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
       <c r="R3" s="48"/>
     </row>
-    <row r="4" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="75">
-        <v>19</v>
-      </c>
-      <c r="C4" s="102">
-        <v>4</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+    <row r="4" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A4" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
       <c r="R4" s="48"/>
     </row>
-    <row r="5" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+    <row r="5" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="75">
+        <v>27</v>
+      </c>
+      <c r="C5" s="97">
+        <v>5</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
       <c r="R5" s="48"/>
     </row>
-    <row r="6" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>73</v>
+    <row r="6" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A6" s="70" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="75">
-        <v>20</v>
-      </c>
-      <c r="C6" s="102">
-        <v>6</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-    </row>
-    <row r="7" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="75">
-        <v>21</v>
-      </c>
-      <c r="C7" s="102">
-        <v>6</v>
-      </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
+        <v>28</v>
+      </c>
+      <c r="C6" s="97">
+        <v>5</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="48"/>
+    </row>
+    <row r="7" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B8" s="75">
-        <v>22</v>
-      </c>
-      <c r="C8" s="102">
-        <v>6</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="97">
+        <v>12</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
       <c r="R8" s="49"/>
     </row>
-    <row r="9" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="49"/>
-    </row>
-    <row r="10" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A9" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="150">
+        <v>30</v>
+      </c>
+      <c r="C9" s="99">
+        <v>12</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="109"/>
+    </row>
+    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="75">
-        <v>23</v>
-      </c>
-      <c r="C10" s="102">
-        <v>10</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-    </row>
-    <row r="11" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="68">
-        <v>24</v>
-      </c>
-      <c r="C11" s="102">
-        <v>3</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="49"/>
-    </row>
-    <row r="12" spans="1:120">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="51"/>
-    </row>
-    <row r="13" spans="1:120">
-      <c r="A13" s="54" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C10" s="97">
+        <v>8</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="152"/>
+      <c r="AY10" s="152"/>
+      <c r="AZ10" s="152"/>
+      <c r="BA10" s="152"/>
+      <c r="BB10" s="152"/>
+      <c r="BC10" s="152"/>
+      <c r="BD10" s="152"/>
+      <c r="BE10" s="152"/>
+      <c r="BF10" s="152"/>
+      <c r="BG10" s="152"/>
+      <c r="BH10" s="152"/>
+      <c r="BI10" s="152"/>
+      <c r="BJ10" s="152"/>
+      <c r="BK10" s="152"/>
+      <c r="BL10" s="152"/>
+      <c r="BM10" s="152"/>
+      <c r="BN10" s="152"/>
+      <c r="BO10" s="152"/>
+      <c r="BP10" s="152"/>
+      <c r="BQ10" s="152"/>
+      <c r="BR10" s="152"/>
+      <c r="BS10" s="152"/>
+      <c r="BT10" s="152"/>
+      <c r="BU10" s="152"/>
+      <c r="BV10" s="152"/>
+      <c r="BW10" s="152"/>
+      <c r="BX10" s="152"/>
+      <c r="BY10" s="152"/>
+      <c r="BZ10" s="152"/>
+      <c r="CA10" s="152"/>
+      <c r="CB10" s="152"/>
+      <c r="CC10" s="152"/>
+      <c r="CD10" s="152"/>
+      <c r="CE10" s="152"/>
+      <c r="CF10" s="152"/>
+      <c r="CG10" s="152"/>
+      <c r="CH10" s="152"/>
+      <c r="CI10" s="152"/>
+      <c r="CJ10" s="152"/>
+      <c r="CK10" s="152"/>
+      <c r="CL10" s="152"/>
+      <c r="CM10" s="152"/>
+      <c r="CN10" s="152"/>
+      <c r="CO10" s="152"/>
+      <c r="CP10" s="152"/>
+      <c r="CQ10" s="152"/>
+      <c r="CR10" s="152"/>
+      <c r="CS10" s="152"/>
+      <c r="CT10" s="152"/>
+      <c r="CU10" s="152"/>
+      <c r="CV10" s="152"/>
+      <c r="CW10" s="152"/>
+      <c r="CX10" s="152"/>
+      <c r="CY10" s="152"/>
+      <c r="CZ10" s="152"/>
+      <c r="DA10" s="152"/>
+      <c r="DB10" s="152"/>
+      <c r="DC10" s="152"/>
+      <c r="DD10" s="152"/>
+      <c r="DE10" s="152"/>
+      <c r="DF10" s="152"/>
+      <c r="DG10" s="152"/>
+      <c r="DH10" s="152"/>
+      <c r="DI10" s="152"/>
+      <c r="DJ10" s="152"/>
+      <c r="DK10" s="152"/>
+      <c r="DL10" s="152"/>
+      <c r="DM10" s="152"/>
+      <c r="DN10" s="152"/>
+      <c r="DO10" s="152"/>
+      <c r="DP10" s="152"/>
+    </row>
+    <row r="11" spans="1:120">
+      <c r="A11" s="38"/>
+    </row>
+    <row r="12" spans="1:120" s="56" customFormat="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="38">
+        <f t="array" ref="C12">IF(ISBLANK(C3:C10), NA(), SUM(C3:C10))</f>
+        <v>52</v>
+      </c>
+      <c r="D12" s="38" t="e">
+        <f t="array" ref="D12">IF(ISBLANK(D3:D10), NA(), SUM(D3:D10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="38" t="e">
+        <f t="array" ref="E12">IF(ISBLANK(E3:E10), NA(), SUM(E3:E10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="38" t="e">
+        <f t="array" ref="F12">IF(ISBLANK(F3:F10), NA(), SUM(F3:F10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="38" t="e">
+        <f t="array" ref="G12">IF(ISBLANK(G3:G10), NA(), SUM(G3:G10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="38" t="e">
+        <f t="array" ref="H12">IF(ISBLANK(H3:H10), NA(), SUM(H3:H10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="38" t="e">
+        <f t="array" ref="I12">IF(ISBLANK(I3:I10), NA(), SUM(I3:I10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="38" t="e">
+        <f t="array" ref="J12">IF(ISBLANK(J3:J10), NA(), SUM(J3:J10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="38" t="e">
+        <f t="array" ref="K12">IF(ISBLANK(K3:K10), NA(), SUM(K3:K10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="38" t="e">
+        <f t="array" ref="L12">IF(ISBLANK(L3:L10), NA(), SUM(L3:L10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="38" t="e">
+        <f t="array" ref="M12">IF(ISBLANK(M3:M10), NA(), SUM(M3:M10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="38" t="e">
+        <f t="array" ref="N12">IF(ISBLANK(N3:N10), NA(), SUM(N3:N10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="38" t="e">
+        <f t="array" ref="O12">IF(ISBLANK(O3:O10), NA(), SUM(O3:O10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="38" t="e">
+        <f t="array" ref="P12">IF(ISBLANK(P3:P10), NA(), SUM(P3:P10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="38" t="e">
+        <f t="array" ref="Q12">IF(ISBLANK(Q3:Q10), NA(), SUM(Q3:Q10))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="38" t="e">
+        <f t="array" ref="R12">IF(ISBLANK(R3:R10), NA(), SUM(R3:R10))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:120" ht="25.5">
+      <c r="A13" s="38"/>
       <c r="B13" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="38">
-        <f t="array" ref="C13">IF(ISBLANK(C3:C11), NA(), SUM(C3:C11))</f>
-        <v>45</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C13" s="38"/>
       <c r="D13" s="38" t="e">
-        <f t="array" ref="D13">IF(ISBLANK(D3:D11), NA(), SUM(D3:D11))</f>
+        <f t="shared" ref="D13:R13" si="0">C12-D12</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="38" t="e">
-        <f t="array" ref="E13">IF(ISBLANK(E3:E11), NA(), SUM(E3:E11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="38" t="e">
-        <f t="array" ref="F13">IF(ISBLANK(F3:F11), NA(), SUM(F3:F11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="38" t="e">
-        <f t="array" ref="G13">IF(ISBLANK(G3:G11), NA(), SUM(G3:G11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="38" t="e">
-        <f t="array" ref="H13">IF(ISBLANK(H3:H11), NA(), SUM(H3:H11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="38" t="e">
-        <f t="array" ref="I13">IF(ISBLANK(I3:I11), NA(), SUM(I3:I11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="38" t="e">
-        <f t="array" ref="J13">IF(ISBLANK(J3:J11), NA(), SUM(J3:J11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="38" t="e">
-        <f t="array" ref="K13">IF(ISBLANK(K3:K11), NA(), SUM(K3:K11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="38" t="e">
-        <f t="array" ref="L13">IF(ISBLANK(L3:L11), NA(), SUM(L3:L11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="38" t="e">
-        <f t="array" ref="M13">IF(ISBLANK(M3:M11), NA(), SUM(M3:M11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="38" t="e">
-        <f t="array" ref="N13">IF(ISBLANK(N3:N11), NA(), SUM(N3:N11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="38" t="e">
-        <f t="array" ref="O13">IF(ISBLANK(O3:O11), NA(), SUM(O3:O11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="38" t="e">
-        <f t="array" ref="P13">IF(ISBLANK(P3:P11), NA(), SUM(P3:P11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="38" t="e">
-        <f t="array" ref="Q13">IF(ISBLANK(Q3:Q11), NA(), SUM(Q3:Q11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="38" t="e">
-        <f t="array" ref="R13">IF(ISBLANK(R3:R11), NA(), SUM(R3:R11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="38"/>
-      <c r="BK13" s="38"/>
-      <c r="BL13" s="38"/>
-      <c r="BM13" s="38"/>
-      <c r="BN13" s="38"/>
-      <c r="BO13" s="38"/>
-      <c r="BP13" s="38"/>
-      <c r="BQ13" s="38"/>
-      <c r="BR13" s="38"/>
-      <c r="BS13" s="38"/>
-      <c r="BT13" s="38"/>
-      <c r="BU13" s="38"/>
-      <c r="BV13" s="38"/>
-      <c r="BW13" s="38"/>
-      <c r="BX13" s="38"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
-      <c r="CA13" s="38"/>
-      <c r="CB13" s="38"/>
-      <c r="CC13" s="38"/>
-      <c r="CD13" s="38"/>
-      <c r="CE13" s="38"/>
-      <c r="CF13" s="38"/>
-      <c r="CG13" s="38"/>
-      <c r="CH13" s="38"/>
-      <c r="CI13" s="38"/>
-      <c r="CJ13" s="38"/>
-      <c r="CK13" s="38"/>
-      <c r="CL13" s="38"/>
-      <c r="CM13" s="38"/>
-      <c r="CN13" s="38"/>
-      <c r="CO13" s="38"/>
-      <c r="CP13" s="38"/>
-      <c r="CQ13" s="38"/>
-      <c r="CR13" s="38"/>
-      <c r="CS13" s="38"/>
-      <c r="CT13" s="38"/>
-      <c r="CU13" s="38"/>
-      <c r="CV13" s="38"/>
-      <c r="CW13" s="38"/>
-      <c r="CX13" s="38"/>
-      <c r="CY13" s="38"/>
-      <c r="CZ13" s="38"/>
-      <c r="DA13" s="38"/>
-      <c r="DB13" s="38"/>
-      <c r="DC13" s="38"/>
-      <c r="DD13" s="38"/>
-      <c r="DE13" s="38"/>
-      <c r="DF13" s="38"/>
-      <c r="DG13" s="38"/>
-      <c r="DH13" s="38"/>
-      <c r="DI13" s="38"/>
-      <c r="DJ13" s="38"/>
-      <c r="DK13" s="38"/>
-      <c r="DL13" s="38"/>
-      <c r="DM13" s="38"/>
-      <c r="DN13" s="38"/>
-      <c r="DO13" s="38"/>
-      <c r="DP13" s="38"/>
-    </row>
-    <row r="14" spans="1:120" ht="25.5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="e">
-        <f>C13-D13</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="38" t="e">
-        <f t="shared" ref="E14:R14" si="0">D13-E13</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="38" t="e">
+      <c r="F13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="38" t="e">
+      <c r="G13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="38" t="e">
+      <c r="H13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="38" t="e">
+      <c r="I13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="38" t="e">
+      <c r="J13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="38" t="e">
+      <c r="K13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="38" t="e">
+      <c r="L13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="38" t="e">
+      <c r="M13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="38" t="e">
+      <c r="N13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="38" t="e">
+      <c r="O13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="38" t="e">
+      <c r="P13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="51" t="e">
+      <c r="Q13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="38"/>
-      <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="38"/>
-      <c r="BM14" s="38"/>
-      <c r="BN14" s="38"/>
-      <c r="BO14" s="38"/>
-      <c r="BP14" s="38"/>
-      <c r="BQ14" s="38"/>
-      <c r="BR14" s="38"/>
-      <c r="BS14" s="38"/>
-      <c r="BT14" s="38"/>
-      <c r="BU14" s="38"/>
-      <c r="BV14" s="38"/>
-      <c r="BW14" s="38"/>
-      <c r="BX14" s="38"/>
-      <c r="BY14" s="38"/>
-      <c r="BZ14" s="38"/>
-      <c r="CA14" s="38"/>
-      <c r="CB14" s="38"/>
-      <c r="CC14" s="38"/>
-      <c r="CD14" s="38"/>
-      <c r="CE14" s="38"/>
-      <c r="CF14" s="38"/>
-      <c r="CG14" s="38"/>
-      <c r="CH14" s="38"/>
-      <c r="CI14" s="38"/>
-      <c r="CJ14" s="38"/>
-      <c r="CK14" s="38"/>
-      <c r="CL14" s="38"/>
-      <c r="CM14" s="38"/>
-      <c r="CN14" s="38"/>
-      <c r="CO14" s="38"/>
-      <c r="CP14" s="38"/>
-      <c r="CQ14" s="38"/>
-      <c r="CR14" s="38"/>
-      <c r="CS14" s="38"/>
-      <c r="CT14" s="38"/>
-      <c r="CU14" s="38"/>
-      <c r="CV14" s="38"/>
-      <c r="CW14" s="38"/>
-      <c r="CX14" s="38"/>
-      <c r="CY14" s="38"/>
-      <c r="CZ14" s="38"/>
-      <c r="DA14" s="38"/>
-      <c r="DB14" s="38"/>
-      <c r="DC14" s="38"/>
-      <c r="DD14" s="38"/>
-      <c r="DE14" s="38"/>
-      <c r="DF14" s="38"/>
-      <c r="DG14" s="38"/>
-      <c r="DH14" s="38"/>
-      <c r="DI14" s="38"/>
-      <c r="DJ14" s="38"/>
-      <c r="DK14" s="38"/>
-      <c r="DL14" s="38"/>
-      <c r="DM14" s="38"/>
-      <c r="DN14" s="38"/>
-      <c r="DO14" s="38"/>
-      <c r="DP14" s="38"/>
+      <c r="R13" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:120">
+      <c r="A14" s="38"/>
+      <c r="B14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="45">
+        <f>C12</f>
+        <v>52</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" ref="D14:R14" si="1">C14-$C$12/COUNTA($C$2:$Q$2)</f>
+        <v>48.533333333333331</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="1"/>
+        <v>45.066666666666663</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" si="1"/>
+        <v>41.599999999999994</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="1"/>
+        <v>38.133333333333326</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="1"/>
+        <v>34.666666666666657</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="1"/>
+        <v>31.199999999999989</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" si="1"/>
+        <v>27.73333333333332</v>
+      </c>
+      <c r="K14" s="46">
+        <f t="shared" si="1"/>
+        <v>24.266666666666652</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="1"/>
+        <v>20.799999999999983</v>
+      </c>
+      <c r="M14" s="46">
+        <f t="shared" si="1"/>
+        <v>17.333333333333314</v>
+      </c>
+      <c r="N14" s="46">
+        <f t="shared" si="1"/>
+        <v>13.866666666666648</v>
+      </c>
+      <c r="O14" s="46">
+        <f t="shared" si="1"/>
+        <v>10.399999999999981</v>
+      </c>
+      <c r="P14" s="46">
+        <f t="shared" si="1"/>
+        <v>6.933333333333314</v>
+      </c>
+      <c r="Q14" s="46">
+        <f t="shared" si="1"/>
+        <v>3.4666666666666472</v>
+      </c>
+      <c r="R14" s="52">
+        <f t="shared" si="1"/>
+        <v>-1.9539925233402755E-14</v>
+      </c>
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="38"/>
-      <c r="B15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="45">
-        <f>C13</f>
-        <v>45</v>
-      </c>
-      <c r="D15" s="46">
-        <f t="shared" ref="D15:R15" si="1">C15-$C$13/COUNTA($C$2:$Q$2)</f>
-        <v>42</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F15" s="46">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G15" s="46">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="H15" s="46">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I15" s="46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J15" s="46">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K15" s="46">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="L15" s="46">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M15" s="46">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N15" s="46">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O15" s="46">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="P15" s="46">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Q15" s="46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="52">
-        <f t="shared" si="1"/>
+      <c r="B15" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="58">
+        <f t="shared" ref="C15:R15" si="2">1-C12/$C$12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:120" s="56" customFormat="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="58">
-        <f>1-C13/$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="58" t="e">
-        <f t="shared" ref="D16:R16" si="2">1-D13/$C$13</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="58" t="e">
+      <c r="D15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="58" t="e">
+      <c r="E15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="58" t="e">
+      <c r="F15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="58" t="e">
+      <c r="G15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="58" t="e">
+      <c r="H15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="58" t="e">
+      <c r="I15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="58" t="e">
+      <c r="J15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="58" t="e">
+      <c r="K15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="58" t="e">
+      <c r="L15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="58" t="e">
+      <c r="M15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="58" t="e">
+      <c r="N15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="58" t="e">
+      <c r="O15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="58" t="e">
+      <c r="P15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="58" t="e">
+      <c r="Q15" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
+      <c r="R15" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120">
+      <c r="A16" s="38"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="38"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -9699,7 +11688,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="38"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -10877,124 +12866,52 @@
       <c r="Q77" s="38"/>
       <c r="R77" s="38"/>
     </row>
-    <row r="78" spans="1:18">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:R9 D7:D8 D3:R5 D11:R11 A3:A11 B3:B4 B6:B11">
-    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
+    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A11 B10:B11 B4 B6:B8">
-    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
+    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A10:B10 B4 B6:B8">
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="A5 A7">
+    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B3 B5:B6 B8:B10">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A4 A7">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 B3 B5:B6">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11005,12 +12922,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP77"/>
+  <dimension ref="A1:DP76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11023,7 +12940,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -11049,52 +12966,52 @@
         <v>35</v>
       </c>
       <c r="C2" s="39">
-        <v>41421</v>
+        <v>41442</v>
       </c>
       <c r="D2" s="39">
-        <v>41422</v>
+        <v>41443</v>
       </c>
       <c r="E2" s="39">
-        <v>41423</v>
+        <v>41444</v>
       </c>
       <c r="F2" s="39">
-        <v>41424</v>
+        <v>41445</v>
       </c>
       <c r="G2" s="39">
-        <v>41425</v>
+        <v>41446</v>
       </c>
       <c r="H2" s="39">
-        <v>41428</v>
+        <v>41449</v>
       </c>
       <c r="I2" s="39">
-        <v>41429</v>
+        <v>41450</v>
       </c>
       <c r="J2" s="39">
-        <v>41430</v>
+        <v>41451</v>
       </c>
       <c r="K2" s="39">
-        <v>41431</v>
+        <v>41452</v>
       </c>
       <c r="L2" s="39">
-        <v>41432</v>
+        <v>41453</v>
       </c>
       <c r="M2" s="39">
-        <v>41435</v>
+        <v>41456</v>
       </c>
       <c r="N2" s="39">
-        <v>41436</v>
+        <v>41457</v>
       </c>
       <c r="O2" s="39">
-        <v>41437</v>
+        <v>41458</v>
       </c>
       <c r="P2" s="39">
-        <v>41438</v>
+        <v>41459</v>
       </c>
       <c r="Q2" s="39">
-        <v>41439</v>
+        <v>41460</v>
       </c>
       <c r="R2" s="39">
-        <v>41442</v>
+        <v>41463</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -11201,2056 +13118,18 @@
     </row>
     <row r="3" spans="1:120" ht="24.95" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="75">
-        <v>26</v>
-      </c>
-      <c r="C3" s="102">
-        <v>10</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="48"/>
-    </row>
-    <row r="4" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A4" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="48"/>
-    </row>
-    <row r="5" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="75">
-        <v>27</v>
-      </c>
-      <c r="C5" s="102">
-        <v>5</v>
-      </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="48"/>
-    </row>
-    <row r="6" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="75">
-        <v>28</v>
-      </c>
-      <c r="C6" s="102">
-        <v>5</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="48"/>
-    </row>
-    <row r="7" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A7" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="49"/>
-    </row>
-    <row r="8" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="75">
-        <v>29</v>
-      </c>
-      <c r="C8" s="102">
-        <v>12</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="49"/>
-    </row>
-    <row r="9" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A9" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="156">
-        <v>30</v>
-      </c>
-      <c r="C9" s="104">
-        <v>12</v>
-      </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="115"/>
-    </row>
-    <row r="10" spans="1:120" s="157" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="75">
-        <v>31</v>
-      </c>
-      <c r="C10" s="102">
-        <v>8</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="158"/>
-      <c r="AO10" s="158"/>
-      <c r="AP10" s="158"/>
-      <c r="AQ10" s="158"/>
-      <c r="AR10" s="158"/>
-      <c r="AS10" s="158"/>
-      <c r="AT10" s="158"/>
-      <c r="AU10" s="158"/>
-      <c r="AV10" s="158"/>
-      <c r="AW10" s="158"/>
-      <c r="AX10" s="158"/>
-      <c r="AY10" s="158"/>
-      <c r="AZ10" s="158"/>
-      <c r="BA10" s="158"/>
-      <c r="BB10" s="158"/>
-      <c r="BC10" s="158"/>
-      <c r="BD10" s="158"/>
-      <c r="BE10" s="158"/>
-      <c r="BF10" s="158"/>
-      <c r="BG10" s="158"/>
-      <c r="BH10" s="158"/>
-      <c r="BI10" s="158"/>
-      <c r="BJ10" s="158"/>
-      <c r="BK10" s="158"/>
-      <c r="BL10" s="158"/>
-      <c r="BM10" s="158"/>
-      <c r="BN10" s="158"/>
-      <c r="BO10" s="158"/>
-      <c r="BP10" s="158"/>
-      <c r="BQ10" s="158"/>
-      <c r="BR10" s="158"/>
-      <c r="BS10" s="158"/>
-      <c r="BT10" s="158"/>
-      <c r="BU10" s="158"/>
-      <c r="BV10" s="158"/>
-      <c r="BW10" s="158"/>
-      <c r="BX10" s="158"/>
-      <c r="BY10" s="158"/>
-      <c r="BZ10" s="158"/>
-      <c r="CA10" s="158"/>
-      <c r="CB10" s="158"/>
-      <c r="CC10" s="158"/>
-      <c r="CD10" s="158"/>
-      <c r="CE10" s="158"/>
-      <c r="CF10" s="158"/>
-      <c r="CG10" s="158"/>
-      <c r="CH10" s="158"/>
-      <c r="CI10" s="158"/>
-      <c r="CJ10" s="158"/>
-      <c r="CK10" s="158"/>
-      <c r="CL10" s="158"/>
-      <c r="CM10" s="158"/>
-      <c r="CN10" s="158"/>
-      <c r="CO10" s="158"/>
-      <c r="CP10" s="158"/>
-      <c r="CQ10" s="158"/>
-      <c r="CR10" s="158"/>
-      <c r="CS10" s="158"/>
-      <c r="CT10" s="158"/>
-      <c r="CU10" s="158"/>
-      <c r="CV10" s="158"/>
-      <c r="CW10" s="158"/>
-      <c r="CX10" s="158"/>
-      <c r="CY10" s="158"/>
-      <c r="CZ10" s="158"/>
-      <c r="DA10" s="158"/>
-      <c r="DB10" s="158"/>
-      <c r="DC10" s="158"/>
-      <c r="DD10" s="158"/>
-      <c r="DE10" s="158"/>
-      <c r="DF10" s="158"/>
-      <c r="DG10" s="158"/>
-      <c r="DH10" s="158"/>
-      <c r="DI10" s="158"/>
-      <c r="DJ10" s="158"/>
-      <c r="DK10" s="158"/>
-      <c r="DL10" s="158"/>
-      <c r="DM10" s="158"/>
-      <c r="DN10" s="158"/>
-      <c r="DO10" s="158"/>
-      <c r="DP10" s="158"/>
-    </row>
-    <row r="11" spans="1:120">
-      <c r="A11" s="38"/>
-    </row>
-    <row r="12" spans="1:120" s="56" customFormat="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="38">
-        <f t="array" ref="C12">IF(ISBLANK(C3:C10), NA(), SUM(C3:C10))</f>
-        <v>52</v>
-      </c>
-      <c r="D12" s="38" t="e">
-        <f t="array" ref="D12">IF(ISBLANK(D3:D10), NA(), SUM(D3:D10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="38" t="e">
-        <f t="array" ref="E12">IF(ISBLANK(E3:E10), NA(), SUM(E3:E10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="38" t="e">
-        <f t="array" ref="F12">IF(ISBLANK(F3:F10), NA(), SUM(F3:F10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="38" t="e">
-        <f t="array" ref="G12">IF(ISBLANK(G3:G10), NA(), SUM(G3:G10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="38" t="e">
-        <f t="array" ref="H12">IF(ISBLANK(H3:H10), NA(), SUM(H3:H10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="38" t="e">
-        <f t="array" ref="I12">IF(ISBLANK(I3:I10), NA(), SUM(I3:I10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="38" t="e">
-        <f t="array" ref="J12">IF(ISBLANK(J3:J10), NA(), SUM(J3:J10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="38" t="e">
-        <f t="array" ref="K12">IF(ISBLANK(K3:K10), NA(), SUM(K3:K10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="38" t="e">
-        <f t="array" ref="L12">IF(ISBLANK(L3:L10), NA(), SUM(L3:L10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="38" t="e">
-        <f t="array" ref="M12">IF(ISBLANK(M3:M10), NA(), SUM(M3:M10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="38" t="e">
-        <f t="array" ref="N12">IF(ISBLANK(N3:N10), NA(), SUM(N3:N10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="38" t="e">
-        <f t="array" ref="O12">IF(ISBLANK(O3:O10), NA(), SUM(O3:O10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="38" t="e">
-        <f t="array" ref="P12">IF(ISBLANK(P3:P10), NA(), SUM(P3:P10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="38" t="e">
-        <f t="array" ref="Q12">IF(ISBLANK(Q3:Q10), NA(), SUM(Q3:Q10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="38" t="e">
-        <f t="array" ref="R12">IF(ISBLANK(R3:R10), NA(), SUM(R3:R10))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:120" ht="25.5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38" t="e">
-        <f t="shared" ref="D13:R13" si="0">C12-D12</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:120">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="45">
-        <f>C12</f>
-        <v>52</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" ref="D14:R14" si="1">C14-$C$12/COUNTA($C$2:$Q$2)</f>
-        <v>48.533333333333331</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="1"/>
-        <v>45.066666666666663</v>
-      </c>
-      <c r="F14" s="46">
-        <f t="shared" si="1"/>
-        <v>41.599999999999994</v>
-      </c>
-      <c r="G14" s="46">
-        <f t="shared" si="1"/>
-        <v>38.133333333333326</v>
-      </c>
-      <c r="H14" s="46">
-        <f t="shared" si="1"/>
-        <v>34.666666666666657</v>
-      </c>
-      <c r="I14" s="46">
-        <f t="shared" si="1"/>
-        <v>31.199999999999989</v>
-      </c>
-      <c r="J14" s="46">
-        <f t="shared" si="1"/>
-        <v>27.73333333333332</v>
-      </c>
-      <c r="K14" s="46">
-        <f t="shared" si="1"/>
-        <v>24.266666666666652</v>
-      </c>
-      <c r="L14" s="46">
-        <f t="shared" si="1"/>
-        <v>20.799999999999983</v>
-      </c>
-      <c r="M14" s="46">
-        <f t="shared" si="1"/>
-        <v>17.333333333333314</v>
-      </c>
-      <c r="N14" s="46">
-        <f t="shared" si="1"/>
-        <v>13.866666666666648</v>
-      </c>
-      <c r="O14" s="46">
-        <f t="shared" si="1"/>
-        <v>10.399999999999981</v>
-      </c>
-      <c r="P14" s="46">
-        <f t="shared" si="1"/>
-        <v>6.933333333333314</v>
-      </c>
-      <c r="Q14" s="46">
-        <f t="shared" si="1"/>
-        <v>3.4666666666666472</v>
-      </c>
-      <c r="R14" s="52">
-        <f t="shared" si="1"/>
-        <v>-1.9539925233402755E-14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:120">
-      <c r="A15" s="38"/>
-      <c r="B15" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="58">
-        <f t="shared" ref="C15:R15" si="2">1-C12/$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:120">
-      <c r="A16" s="38"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="38"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-    </row>
-    <row r="75" spans="1:18">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-    </row>
-    <row r="76" spans="1:18">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="27" priority="5" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP76"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="36" customWidth="1"/>
-    <col min="3" max="18" width="10.7109375" style="36" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:120">
-      <c r="C1" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="47"/>
-    </row>
-    <row r="2" spans="1:120">
-      <c r="A2" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="39">
-        <v>41442</v>
-      </c>
-      <c r="D2" s="39">
-        <v>41443</v>
-      </c>
-      <c r="E2" s="39">
-        <v>41444</v>
-      </c>
-      <c r="F2" s="39">
-        <v>41445</v>
-      </c>
-      <c r="G2" s="39">
-        <v>41446</v>
-      </c>
-      <c r="H2" s="39">
-        <v>41449</v>
-      </c>
-      <c r="I2" s="39">
-        <v>41450</v>
-      </c>
-      <c r="J2" s="39">
-        <v>41451</v>
-      </c>
-      <c r="K2" s="39">
-        <v>41452</v>
-      </c>
-      <c r="L2" s="39">
-        <v>41453</v>
-      </c>
-      <c r="M2" s="39">
-        <v>41456</v>
-      </c>
-      <c r="N2" s="39">
-        <v>41457</v>
-      </c>
-      <c r="O2" s="39">
-        <v>41458</v>
-      </c>
-      <c r="P2" s="39">
-        <v>41459</v>
-      </c>
-      <c r="Q2" s="39">
-        <v>41460</v>
-      </c>
-      <c r="R2" s="39">
-        <v>41463</v>
-      </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="41"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="41"/>
-      <c r="BV2" s="41"/>
-      <c r="BW2" s="41"/>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="41"/>
-      <c r="CB2" s="41"/>
-      <c r="CC2" s="41"/>
-      <c r="CD2" s="41"/>
-      <c r="CE2" s="41"/>
-      <c r="CF2" s="41"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="41"/>
-      <c r="CI2" s="41"/>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
-      <c r="CL2" s="41"/>
-      <c r="CM2" s="41"/>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="41"/>
-      <c r="CP2" s="41"/>
-      <c r="CQ2" s="41"/>
-      <c r="CR2" s="41"/>
-      <c r="CS2" s="41"/>
-      <c r="CT2" s="41"/>
-      <c r="CU2" s="41"/>
-      <c r="CV2" s="41"/>
-      <c r="CW2" s="41"/>
-      <c r="CX2" s="41"/>
-      <c r="CY2" s="41"/>
-      <c r="CZ2" s="41"/>
-      <c r="DA2" s="41"/>
-      <c r="DB2" s="41"/>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
-      <c r="DH2" s="41"/>
-      <c r="DI2" s="41"/>
-      <c r="DJ2" s="41"/>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
-    </row>
-    <row r="3" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="75">
         <v>33</v>
       </c>
-      <c r="C3" s="155">
+      <c r="C3" s="149">
         <v>10</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
@@ -13263,30 +13142,30 @@
       <c r="Q3" s="42"/>
       <c r="R3" s="48"/>
     </row>
-    <row r="4" spans="1:120" s="101" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:120" s="96" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="75">
         <v>34</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="110">
         <v>2</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
       <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
@@ -13296,13 +13175,13 @@
       <c r="B5" s="75">
         <v>35</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="97">
         <v>8</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
@@ -13322,13 +13201,13 @@
       <c r="B6" s="68">
         <v>36</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="97">
         <v>8</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -13348,23 +13227,23 @@
       <c r="B7" s="68">
         <v>37</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="97">
         <v>14</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:120">
@@ -15152,50 +15031,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -32,24 +32,24 @@
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$14:$Z$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$18:$Z$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>Itération</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>ITERATION 2 : du 06/05 au 24/05 (3 semaines, 60jh)</t>
+  </si>
+  <si>
+    <t>Validation (publication) des artefacts et médias</t>
+  </si>
+  <si>
+    <t>Modification d'un fichier uploadé</t>
+  </si>
+  <si>
+    <t>Suppression du ficer à la suppression du champ de type fichier</t>
+  </si>
+  <si>
+    <t>Revoir demande de droits</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1579,6 +1591,9 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1603,8 +1618,14 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1653,49 +1674,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -2056,7 +2035,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225225"/>
+          <c:x val="0.37032576667225242"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2074,9 +2053,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532401"/>
+          <c:y val="0.15742128935532407"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192259"/>
+          <c:h val="0.70464767616192281"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2386,11 +2365,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109111168"/>
-        <c:axId val="109465600"/>
+        <c:axId val="110360448"/>
+        <c:axId val="110637056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109111168"/>
+        <c:axId val="110360448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2401,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109465600"/>
+        <c:crossAx val="110637056"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2430,7 +2409,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109465600"/>
+        <c:axId val="110637056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2451,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109111168"/>
+        <c:crossAx val="110360448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2560,7 +2539,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000139" footer="0.49212598450000139"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2597,7 +2576,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225253"/>
+          <c:x val="0.3703257666722527"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2615,9 +2594,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532415"/>
+          <c:y val="0.15742128935532423"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192292"/>
+          <c:h val="0.70464767616192303"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2627,7 +2606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$15</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2661,10 +2640,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$M$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>41407</c:v>
                 </c:pt>
@@ -2697,13 +2676,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$15:$R$15</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2764,7 +2758,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
+              <c:f>'Iteration 2'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2798,10 +2792,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$M$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>41407</c:v>
                 </c:pt>
@@ -2834,13 +2828,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
+              <c:f>'Iteration 2'!$C$21:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2848,60 +2857,60 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.3</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.599999999999994</c:v>
+                  <c:v>49.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.899999999999991</c:v>
+                  <c:v>45.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.199999999999989</c:v>
+                  <c:v>41.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.499999999999989</c:v>
+                  <c:v>38.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.79999999999999</c:v>
+                  <c:v>34.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.099999999999991</c:v>
+                  <c:v>30.400000000000016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.399999999999991</c:v>
+                  <c:v>26.600000000000016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6999999999999913</c:v>
+                  <c:v>22.800000000000015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.8817841970012523E-15</c:v>
+                  <c:v>19.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.7000000000000091</c:v>
+                  <c:v>15.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-11.400000000000009</c:v>
+                  <c:v>11.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.100000000000009</c:v>
+                  <c:v>7.600000000000013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-22.800000000000008</c:v>
+                  <c:v>3.8000000000000131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-28.500000000000007</c:v>
+                  <c:v>1.3322676295501878E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109748992"/>
-        <c:axId val="109750912"/>
+        <c:axId val="110867200"/>
+        <c:axId val="110869120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109748992"/>
+        <c:axId val="110867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109750912"/>
+        <c:crossAx val="110869120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2941,7 +2950,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109750912"/>
+        <c:axId val="110869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +2992,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109748992"/>
+        <c:crossAx val="110867200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3071,7 +3080,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3108,7 +3117,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225287"/>
+          <c:x val="0.37032576667225298"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3126,9 +3135,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532429"/>
+          <c:y val="0.15742128935532435"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192314"/>
+          <c:h val="0.70464767616192325"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3438,11 +3447,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109693952"/>
-        <c:axId val="109696128"/>
+        <c:axId val="110935040"/>
+        <c:axId val="110937216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109693952"/>
+        <c:axId val="110935040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3483,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109696128"/>
+        <c:crossAx val="110937216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3482,7 +3491,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109696128"/>
+        <c:axId val="110937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3533,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109693952"/>
+        <c:crossAx val="110935040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3612,7 +3621,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3649,7 +3658,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225309"/>
+          <c:x val="0.37032576667225325"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3667,9 +3676,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532443"/>
+          <c:y val="0.15742128935532448"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192336"/>
+          <c:h val="0.70464767616192359"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3979,11 +3988,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109815296"/>
-        <c:axId val="109817216"/>
+        <c:axId val="110986752"/>
+        <c:axId val="110988672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109815296"/>
+        <c:axId val="110986752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109817216"/>
+        <c:crossAx val="110988672"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4023,7 +4032,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109817216"/>
+        <c:axId val="110988672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4074,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109815296"/>
+        <c:crossAx val="110986752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4153,7 +4162,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4202,13 +4211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4597,11 +4606,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4625,10 +4634,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="164"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4640,10 +4649,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4659,8 +4668,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4668,9 +4677,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6026,10 +6035,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D26 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 D20:E21 E25:E26 A25:A33 D28 D30 E28:E33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D15 A13:A22">
-    <cfRule type="expression" dxfId="13" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6045,7 +6054,7 @@
   <dimension ref="A1:DP82"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection sqref="A1:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7131,63 +7140,63 @@
         <v>44</v>
       </c>
       <c r="D16" s="46">
-        <f>C16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D16:R16" si="1">C16-$C$14/COUNTA($C$2:$Q$2)</f>
         <v>41.06666666666667</v>
       </c>
       <c r="E16" s="46">
-        <f>D16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>38.13333333333334</v>
       </c>
       <c r="F16" s="46">
-        <f>E16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.20000000000001</v>
       </c>
       <c r="G16" s="46">
-        <f>F16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>32.26666666666668</v>
       </c>
       <c r="H16" s="46">
-        <f>G16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>29.333333333333346</v>
       </c>
       <c r="I16" s="46">
-        <f>H16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>26.400000000000013</v>
       </c>
       <c r="J16" s="46">
-        <f>I16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>23.466666666666679</v>
       </c>
       <c r="K16" s="46">
-        <f>J16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>20.533333333333346</v>
       </c>
       <c r="L16" s="46">
-        <f>K16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>17.600000000000012</v>
       </c>
       <c r="M16" s="46">
-        <f>L16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>14.666666666666679</v>
       </c>
       <c r="N16" s="46">
-        <f>M16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>11.733333333333345</v>
       </c>
       <c r="O16" s="46">
-        <f>N16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000114</v>
       </c>
       <c r="P16" s="46">
-        <f>O16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>5.8666666666666778</v>
       </c>
       <c r="Q16" s="46">
-        <f>P16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>2.9333333333333447</v>
       </c>
       <c r="R16" s="52">
-        <f>Q16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.1546319456101628E-14</v>
       </c>
     </row>
@@ -7201,63 +7210,63 @@
         <v>0</v>
       </c>
       <c r="D17" s="58">
-        <f t="shared" ref="D17:R17" si="1">1-D14/$C$14</f>
+        <f t="shared" ref="D17:R17" si="2">1-D14/$C$14</f>
         <v>0.11363636363636365</v>
       </c>
       <c r="E17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18181818181818177</v>
       </c>
       <c r="F17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31818181818181823</v>
       </c>
       <c r="H17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59090909090909083</v>
       </c>
       <c r="J17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70454545454545459</v>
       </c>
       <c r="K17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79545454545454541</v>
       </c>
       <c r="L17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84090909090909094</v>
       </c>
       <c r="M17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="N17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97727272727272729</v>
       </c>
       <c r="O17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97727272727272729</v>
       </c>
       <c r="P17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93181818181818188</v>
       </c>
       <c r="Q17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95454545454545459</v>
       </c>
       <c r="R17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8563,18 +8572,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="11" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8587,10 +8596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP83"/>
+  <dimension ref="A1:DP87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8780,43 +8789,39 @@
       <c r="DP2" s="41"/>
     </row>
     <row r="3" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="169">
         <v>16</v>
       </c>
-      <c r="C3" s="97">
-        <v>10</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="75">
-        <v>17</v>
-      </c>
+      <c r="A4" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="68"/>
       <c r="C4" s="97">
         <v>4</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="167"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -8833,16 +8838,14 @@
     </row>
     <row r="5" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="75">
-        <v>18</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B5" s="68"/>
       <c r="C5" s="97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="167"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -8859,16 +8862,14 @@
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="75">
-        <v>19</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" s="68"/>
       <c r="C6" s="97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="167"/>
+      <c r="E6" s="159"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -8884,139 +8885,141 @@
       <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
+      <c r="A7" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="97">
+        <v>4</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B8" s="75">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="97">
-        <v>6</v>
-      </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="167"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="159"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="70" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B9" s="75">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="97">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="75">
+        <v>19</v>
+      </c>
+      <c r="C10" s="97">
         <v>6</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="49"/>
-    </row>
-    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="75">
-        <v>22</v>
-      </c>
-      <c r="C10" s="99">
-        <v>6</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="49"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="92"/>
+        <v>56</v>
+      </c>
+      <c r="B11" s="91"/>
       <c r="C11" s="98"/>
-      <c r="D11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="49"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="70" t="s">
-        <v>88</v>
+      <c r="A12" s="82" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="75">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="97">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12" s="102"/>
-      <c r="E12" s="167"/>
+      <c r="E12" s="159"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="102"/>
@@ -9033,18 +9036,18 @@
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="68">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="75">
+        <v>21</v>
       </c>
       <c r="C13" s="97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="94"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="94"/>
       <c r="I13" s="94"/>
       <c r="J13" s="94"/>
@@ -9057,590 +9060,610 @@
       <c r="Q13" s="94"/>
       <c r="R13" s="49"/>
     </row>
-    <row r="14" spans="1:120">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="51"/>
-    </row>
-    <row r="15" spans="1:120">
-      <c r="A15" s="54" t="s">
+    <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="75">
+        <v>22</v>
+      </c>
+      <c r="C14" s="99">
+        <v>6</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="75">
+        <v>23</v>
+      </c>
+      <c r="C16" s="97">
+        <v>12</v>
+      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+    </row>
+    <row r="17" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="68">
+        <v>24</v>
+      </c>
+      <c r="C17" s="97">
+        <v>3</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="1:120">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="1:120">
+      <c r="A19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B19" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="38">
-        <f t="array" ref="C15">IF(ISBLANK(C3:C13), NA(), SUM(C3:C13))</f>
+      <c r="C19" s="38">
+        <f>IF(ISBLANK(C4:C17), NA(), SUM(C4:C17))</f>
         <v>57</v>
       </c>
-      <c r="D15" s="38" t="e">
-        <f t="array" ref="D15">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
+      <c r="D19" s="38" t="e">
+        <f t="array" ref="D19">IF(ISBLANK(D3:D17), NA(), SUM(D3:D17))</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="38" t="e">
-        <f t="array" ref="E15">IF(ISBLANK(E3:E13), NA(), SUM(E3:E13))</f>
+      <c r="E19" s="38" t="e">
+        <f t="array" ref="E19">IF(ISBLANK(E3:E17), NA(), SUM(E3:E17))</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="38" t="e">
-        <f t="array" ref="F15">IF(ISBLANK(F3:F13), NA(), SUM(F3:F13))</f>
+      <c r="F19" s="38" t="e">
+        <f t="array" ref="F19">IF(ISBLANK(F3:F17), NA(), SUM(F3:F17))</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="38" t="e">
-        <f t="array" ref="G15">IF(ISBLANK(G3:G13), NA(), SUM(G3:G13))</f>
+      <c r="G19" s="38" t="e">
+        <f t="array" ref="G19">IF(ISBLANK(G3:G17), NA(), SUM(G3:G17))</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="38" t="e">
-        <f t="array" ref="H15">IF(ISBLANK(H3:H13), NA(), SUM(H3:H13))</f>
+      <c r="H19" s="38" t="e">
+        <f t="array" ref="H19">IF(ISBLANK(H3:H17), NA(), SUM(H3:H17))</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="38" t="e">
-        <f t="array" ref="I15">IF(ISBLANK(I3:I13), NA(), SUM(I3:I13))</f>
+      <c r="I19" s="38" t="e">
+        <f t="array" ref="I19">IF(ISBLANK(I3:I17), NA(), SUM(I3:I17))</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="38" t="e">
-        <f t="array" ref="J15">IF(ISBLANK(J3:J13), NA(), SUM(J3:J13))</f>
+      <c r="J19" s="38" t="e">
+        <f t="array" ref="J19">IF(ISBLANK(J3:J17), NA(), SUM(J3:J17))</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="38" t="e">
-        <f t="array" ref="K15">IF(ISBLANK(K3:K13), NA(), SUM(K3:K13))</f>
+      <c r="K19" s="38" t="e">
+        <f t="array" ref="K19">IF(ISBLANK(K3:K17), NA(), SUM(K3:K17))</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="38" t="e">
-        <f t="array" ref="L15">IF(ISBLANK(L3:L13), NA(), SUM(L3:L13))</f>
+      <c r="L19" s="38" t="e">
+        <f t="array" ref="L19">IF(ISBLANK(L3:L17), NA(), SUM(L3:L17))</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="38" t="e">
-        <f t="array" ref="M15">IF(ISBLANK(M3:M13), NA(), SUM(M3:M13))</f>
+      <c r="M19" s="38" t="e">
+        <f t="array" ref="M19">IF(ISBLANK(M3:M17), NA(), SUM(M3:M17))</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="38" t="e">
-        <f t="array" ref="N15">IF(ISBLANK(N3:N13), NA(), SUM(N3:N13))</f>
+      <c r="N19" s="38" t="e">
+        <f t="array" ref="N19">IF(ISBLANK(N3:N17), NA(), SUM(N3:N17))</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="38" t="e">
-        <f t="array" ref="O15">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
+      <c r="O19" s="38" t="e">
+        <f t="array" ref="O19">IF(ISBLANK(O3:O17), NA(), SUM(O3:O17))</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="38" t="e">
-        <f t="array" ref="P15">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
+      <c r="P19" s="38" t="e">
+        <f t="array" ref="P19">IF(ISBLANK(P3:P17), NA(), SUM(P3:P17))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="38" t="e">
-        <f t="array" ref="Q15">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+      <c r="Q19" s="38" t="e">
+        <f t="array" ref="Q19">IF(ISBLANK(Q3:Q17), NA(), SUM(Q3:Q17))</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="38" t="e">
-        <f t="array" ref="R15">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+      <c r="R19" s="38" t="e">
+        <f t="array" ref="R19">IF(ISBLANK(R3:R17), NA(), SUM(R3:R17))</f>
         <v>#N/A</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="38"/>
-      <c r="BI15" s="38"/>
-      <c r="BJ15" s="38"/>
-      <c r="BK15" s="38"/>
-      <c r="BL15" s="38"/>
-      <c r="BM15" s="38"/>
-      <c r="BN15" s="38"/>
-      <c r="BO15" s="38"/>
-      <c r="BP15" s="38"/>
-      <c r="BQ15" s="38"/>
-      <c r="BR15" s="38"/>
-      <c r="BS15" s="38"/>
-      <c r="BT15" s="38"/>
-      <c r="BU15" s="38"/>
-      <c r="BV15" s="38"/>
-      <c r="BW15" s="38"/>
-      <c r="BX15" s="38"/>
-      <c r="BY15" s="38"/>
-      <c r="BZ15" s="38"/>
-      <c r="CA15" s="38"/>
-      <c r="CB15" s="38"/>
-      <c r="CC15" s="38"/>
-      <c r="CD15" s="38"/>
-      <c r="CE15" s="38"/>
-      <c r="CF15" s="38"/>
-      <c r="CG15" s="38"/>
-      <c r="CH15" s="38"/>
-      <c r="CI15" s="38"/>
-      <c r="CJ15" s="38"/>
-      <c r="CK15" s="38"/>
-      <c r="CL15" s="38"/>
-      <c r="CM15" s="38"/>
-      <c r="CN15" s="38"/>
-      <c r="CO15" s="38"/>
-      <c r="CP15" s="38"/>
-      <c r="CQ15" s="38"/>
-      <c r="CR15" s="38"/>
-      <c r="CS15" s="38"/>
-      <c r="CT15" s="38"/>
-      <c r="CU15" s="38"/>
-      <c r="CV15" s="38"/>
-      <c r="CW15" s="38"/>
-      <c r="CX15" s="38"/>
-      <c r="CY15" s="38"/>
-      <c r="CZ15" s="38"/>
-      <c r="DA15" s="38"/>
-      <c r="DB15" s="38"/>
-      <c r="DC15" s="38"/>
-      <c r="DD15" s="38"/>
-      <c r="DE15" s="38"/>
-      <c r="DF15" s="38"/>
-      <c r="DG15" s="38"/>
-      <c r="DH15" s="38"/>
-      <c r="DI15" s="38"/>
-      <c r="DJ15" s="38"/>
-      <c r="DK15" s="38"/>
-      <c r="DL15" s="38"/>
-      <c r="DM15" s="38"/>
-      <c r="DN15" s="38"/>
-      <c r="DO15" s="38"/>
-      <c r="DP15" s="38"/>
-    </row>
-    <row r="16" spans="1:120" ht="25.5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="43" t="s">
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
+      <c r="CA19" s="38"/>
+      <c r="CB19" s="38"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="38"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="38"/>
+      <c r="CS19" s="38"/>
+      <c r="CT19" s="38"/>
+      <c r="CU19" s="38"/>
+      <c r="CV19" s="38"/>
+      <c r="CW19" s="38"/>
+      <c r="CX19" s="38"/>
+      <c r="CY19" s="38"/>
+      <c r="CZ19" s="38"/>
+      <c r="DA19" s="38"/>
+      <c r="DB19" s="38"/>
+      <c r="DC19" s="38"/>
+      <c r="DD19" s="38"/>
+      <c r="DE19" s="38"/>
+      <c r="DF19" s="38"/>
+      <c r="DG19" s="38"/>
+      <c r="DH19" s="38"/>
+      <c r="DI19" s="38"/>
+      <c r="DJ19" s="38"/>
+      <c r="DK19" s="38"/>
+      <c r="DL19" s="38"/>
+      <c r="DM19" s="38"/>
+      <c r="DN19" s="38"/>
+      <c r="DO19" s="38"/>
+      <c r="DP19" s="38"/>
+    </row>
+    <row r="20" spans="1:120" ht="25.5">
+      <c r="A20" s="38"/>
+      <c r="B20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="e">
-        <f>C15-D15</f>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="e">
+        <f>C19-D19</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="38" t="e">
-        <f t="shared" ref="E16:R16" si="0">D15-E15</f>
+      <c r="E20" s="38" t="e">
+        <f t="shared" ref="E20:R20" si="0">D19-E19</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="38" t="e">
+      <c r="F20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="38" t="e">
+      <c r="G20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="38" t="e">
+      <c r="H20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="38" t="e">
+      <c r="I20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="38" t="e">
+      <c r="J20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="38" t="e">
+      <c r="K20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="38" t="e">
+      <c r="L20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="38" t="e">
+      <c r="M20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="38" t="e">
+      <c r="N20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="38" t="e">
+      <c r="O20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="38" t="e">
+      <c r="P20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="38" t="e">
+      <c r="Q20" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="51" t="e">
+      <c r="R20" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="38"/>
-      <c r="BM16" s="38"/>
-      <c r="BN16" s="38"/>
-      <c r="BO16" s="38"/>
-      <c r="BP16" s="38"/>
-      <c r="BQ16" s="38"/>
-      <c r="BR16" s="38"/>
-      <c r="BS16" s="38"/>
-      <c r="BT16" s="38"/>
-      <c r="BU16" s="38"/>
-      <c r="BV16" s="38"/>
-      <c r="BW16" s="38"/>
-      <c r="BX16" s="38"/>
-      <c r="BY16" s="38"/>
-      <c r="BZ16" s="38"/>
-      <c r="CA16" s="38"/>
-      <c r="CB16" s="38"/>
-      <c r="CC16" s="38"/>
-      <c r="CD16" s="38"/>
-      <c r="CE16" s="38"/>
-      <c r="CF16" s="38"/>
-      <c r="CG16" s="38"/>
-      <c r="CH16" s="38"/>
-      <c r="CI16" s="38"/>
-      <c r="CJ16" s="38"/>
-      <c r="CK16" s="38"/>
-      <c r="CL16" s="38"/>
-      <c r="CM16" s="38"/>
-      <c r="CN16" s="38"/>
-      <c r="CO16" s="38"/>
-      <c r="CP16" s="38"/>
-      <c r="CQ16" s="38"/>
-      <c r="CR16" s="38"/>
-      <c r="CS16" s="38"/>
-      <c r="CT16" s="38"/>
-      <c r="CU16" s="38"/>
-      <c r="CV16" s="38"/>
-      <c r="CW16" s="38"/>
-      <c r="CX16" s="38"/>
-      <c r="CY16" s="38"/>
-      <c r="CZ16" s="38"/>
-      <c r="DA16" s="38"/>
-      <c r="DB16" s="38"/>
-      <c r="DC16" s="38"/>
-      <c r="DD16" s="38"/>
-      <c r="DE16" s="38"/>
-      <c r="DF16" s="38"/>
-      <c r="DG16" s="38"/>
-      <c r="DH16" s="38"/>
-      <c r="DI16" s="38"/>
-      <c r="DJ16" s="38"/>
-      <c r="DK16" s="38"/>
-      <c r="DL16" s="38"/>
-      <c r="DM16" s="38"/>
-      <c r="DN16" s="38"/>
-      <c r="DO16" s="38"/>
-      <c r="DP16" s="38"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44" t="s">
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="38"/>
+      <c r="BP20" s="38"/>
+      <c r="BQ20" s="38"/>
+      <c r="BR20" s="38"/>
+      <c r="BS20" s="38"/>
+      <c r="BT20" s="38"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="38"/>
+      <c r="BW20" s="38"/>
+      <c r="BX20" s="38"/>
+      <c r="BY20" s="38"/>
+      <c r="BZ20" s="38"/>
+      <c r="CA20" s="38"/>
+      <c r="CB20" s="38"/>
+      <c r="CC20" s="38"/>
+      <c r="CD20" s="38"/>
+      <c r="CE20" s="38"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="38"/>
+      <c r="CH20" s="38"/>
+      <c r="CI20" s="38"/>
+      <c r="CJ20" s="38"/>
+      <c r="CK20" s="38"/>
+      <c r="CL20" s="38"/>
+      <c r="CM20" s="38"/>
+      <c r="CN20" s="38"/>
+      <c r="CO20" s="38"/>
+      <c r="CP20" s="38"/>
+      <c r="CQ20" s="38"/>
+      <c r="CR20" s="38"/>
+      <c r="CS20" s="38"/>
+      <c r="CT20" s="38"/>
+      <c r="CU20" s="38"/>
+      <c r="CV20" s="38"/>
+      <c r="CW20" s="38"/>
+      <c r="CX20" s="38"/>
+      <c r="CY20" s="38"/>
+      <c r="CZ20" s="38"/>
+      <c r="DA20" s="38"/>
+      <c r="DB20" s="38"/>
+      <c r="DC20" s="38"/>
+      <c r="DD20" s="38"/>
+      <c r="DE20" s="38"/>
+      <c r="DF20" s="38"/>
+      <c r="DG20" s="38"/>
+      <c r="DH20" s="38"/>
+      <c r="DI20" s="38"/>
+      <c r="DJ20" s="38"/>
+      <c r="DK20" s="38"/>
+      <c r="DL20" s="38"/>
+      <c r="DM20" s="38"/>
+      <c r="DN20" s="38"/>
+      <c r="DO20" s="38"/>
+      <c r="DP20" s="38"/>
+    </row>
+    <row r="21" spans="1:120">
+      <c r="A21" s="38"/>
+      <c r="B21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45">
-        <f>C15</f>
+      <c r="C21" s="45">
+        <f>C19</f>
         <v>57</v>
       </c>
-      <c r="D17" s="46">
-        <f>C17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>51.3</v>
-      </c>
-      <c r="E17" s="46">
-        <f>D17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>45.599999999999994</v>
-      </c>
-      <c r="F17" s="46">
-        <f>E17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>39.899999999999991</v>
-      </c>
-      <c r="G17" s="46">
-        <f>F17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>34.199999999999989</v>
-      </c>
-      <c r="H17" s="46">
-        <f>G17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>28.499999999999989</v>
-      </c>
-      <c r="I17" s="46">
-        <f>H17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>22.79999999999999</v>
-      </c>
-      <c r="J17" s="46">
-        <f>I17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>17.099999999999991</v>
-      </c>
-      <c r="K17" s="46">
-        <f>J17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>11.399999999999991</v>
-      </c>
-      <c r="L17" s="46">
-        <f>K17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>5.6999999999999913</v>
-      </c>
-      <c r="M17" s="46">
-        <f>L17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-8.8817841970012523E-15</v>
-      </c>
-      <c r="N17" s="46">
-        <f>M17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-5.7000000000000091</v>
-      </c>
-      <c r="O17" s="46">
-        <f>N17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-11.400000000000009</v>
-      </c>
-      <c r="P17" s="46">
-        <f>O17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-17.100000000000009</v>
-      </c>
-      <c r="Q17" s="46">
-        <f>P17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-22.800000000000008</v>
-      </c>
-      <c r="R17" s="52">
-        <f>Q17-$C$15/COUNTA($C$2:$L$2)</f>
-        <v>-28.500000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="56" customFormat="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="57" t="s">
+      <c r="D21" s="46">
+        <f>C21-$C$19/COUNTA($C$2:$Q$2)</f>
+        <v>53.2</v>
+      </c>
+      <c r="E21" s="46">
+        <f t="shared" ref="E21:R21" si="1">D21-$C$19/COUNTA($C$2:$Q$2)</f>
+        <v>49.400000000000006</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="1"/>
+        <v>45.600000000000009</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>41.800000000000011</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>38.000000000000014</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>34.200000000000017</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="1"/>
+        <v>30.400000000000016</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="1"/>
+        <v>26.600000000000016</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="1"/>
+        <v>22.800000000000015</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="1"/>
+        <v>19.000000000000014</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="1"/>
+        <v>15.200000000000014</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>11.400000000000013</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="1"/>
+        <v>7.600000000000013</v>
+      </c>
+      <c r="Q21" s="46">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000131</v>
+      </c>
+      <c r="R21" s="46">
+        <f t="shared" si="1"/>
+        <v>1.3322676295501878E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:120" s="56" customFormat="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="58">
-        <f>1-C15/$C$15</f>
+      <c r="C22" s="58">
+        <f>1-C19/$C$19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="58" t="e">
-        <f t="shared" ref="D18:R18" si="1">1-D15/$C$15</f>
+      <c r="D22" s="58" t="e">
+        <f t="shared" ref="D22:R22" si="2">1-D19/$C$19</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="E22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="F22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="G22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="H22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="I22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="J22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="K22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="L22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="M22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="N22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="O22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="P22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="R22" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="38"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="38"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:120">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -9660,11 +9683,11 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:120">
       <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -9680,9 +9703,9 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:120">
       <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -9700,7 +9723,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:120">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -9720,7 +9743,7 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:120">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -9740,7 +9763,7 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:120">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -9760,7 +9783,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:120">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -9780,7 +9803,7 @@
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:120">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -9800,7 +9823,7 @@
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:120">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -9820,7 +9843,7 @@
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:120">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -10860,20 +10883,100 @@
       <c r="Q83" s="38"/>
       <c r="R83" s="38"/>
     </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E9:R11 D9:D10 D3:R7 D13:R13 A3:A13 A12:B12 B3:B6 B8:B13 E8:G8 E12:G12">
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="E13:R15 D13:D14 D3:R11 D17:R17 A3:A17 A16:B16 B3:B10 B12:B17 E12:G12 E16:G16 C4:C7">
+    <cfRule type="expression" dxfId="5" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B6 A5">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B8:B10 A9">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10889,7 +10992,7 @@
   <dimension ref="A1:DP77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -12868,50 +12971,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15031,50 +15134,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -393,10 +393,10 @@
     <t>Modification d'un fichier uploadé</t>
   </si>
   <si>
-    <t>Suppression du ficer à la suppression du champ de type fichier</t>
+    <t>Revoir demande de droits</t>
   </si>
   <si>
-    <t>Revoir demande de droits</t>
+    <t>Suppression du ficer à la suppression du champ de type fichier ou d'un type d'élément</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1627,6 +1627,7 @@
     <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4607,10 +4608,10 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6053,9 +6054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -6625,10 +6624,10 @@
       <c r="O9" s="137">
         <v>0</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="153">
         <v>1</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="153">
         <v>1</v>
       </c>
       <c r="R9" s="105">
@@ -6681,10 +6680,10 @@
       <c r="O10" s="137">
         <v>0</v>
       </c>
-      <c r="P10" s="105">
+      <c r="P10" s="153">
         <v>1</v>
       </c>
-      <c r="Q10" s="105">
+      <c r="Q10" s="153">
         <v>1</v>
       </c>
       <c r="R10" s="105">
@@ -8598,13 +8597,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="36" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="36" customWidth="1"/>
     <col min="3" max="18" width="10.7109375" style="36" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="36"/>
@@ -8862,7 +8861,7 @@
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="97">
@@ -8886,7 +8885,7 @@
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="97">
@@ -9032,7 +9031,7 @@
       <c r="O12" s="102"/>
       <c r="P12" s="102"/>
       <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="R12" s="171"/>
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="70" t="s">
@@ -9132,7 +9131,7 @@
       <c r="O16" s="102"/>
       <c r="P16" s="102"/>
       <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
+      <c r="R16" s="171"/>
     </row>
     <row r="17" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="70" t="s">
@@ -10992,7 +10991,7 @@
   <dimension ref="A1:DP77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -13030,7 +13029,7 @@
   <dimension ref="A1:DP76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -32,24 +32,24 @@
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$18:$Z$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
   <si>
     <t>Itération</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>Suppression du ficer à la suppression du champ de type fichier ou d'un type d'élément</t>
+  </si>
+  <si>
+    <t>Modification du modèle de données (Data)</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1594,6 +1597,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1618,16 +1631,16 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1675,21 +1688,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -2036,7 +2035,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225242"/>
+          <c:x val="0.37032576667225253"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2054,9 +2053,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532407"/>
+          <c:y val="0.15742128935532415"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192281"/>
+          <c:h val="0.70464767616192292"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2366,11 +2365,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110360448"/>
-        <c:axId val="110637056"/>
+        <c:axId val="100857728"/>
+        <c:axId val="101138432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110360448"/>
+        <c:axId val="100857728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2401,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110637056"/>
+        <c:crossAx val="101138432"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2410,7 +2409,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110637056"/>
+        <c:axId val="101138432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2451,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110360448"/>
+        <c:crossAx val="100857728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,7 +2539,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000145" footer="0.49212598450000145"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2577,7 +2576,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722527"/>
+          <c:x val="0.37032576667225287"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2595,9 +2594,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532423"/>
+          <c:y val="0.15742128935532429"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192303"/>
+          <c:h val="0.70464767616192314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2607,7 +2606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2698,12 +2697,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2759,7 +2758,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$21</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2850,68 +2849,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$21:$R$21</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>50.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.400000000000006</c:v>
+                  <c:v>46.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.600000000000009</c:v>
+                  <c:v>43.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.800000000000011</c:v>
+                  <c:v>39.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.000000000000014</c:v>
+                  <c:v>35.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.200000000000017</c:v>
+                  <c:v>32.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.400000000000016</c:v>
+                  <c:v>28.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.600000000000016</c:v>
+                  <c:v>25.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.800000000000015</c:v>
+                  <c:v>21.599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.000000000000014</c:v>
+                  <c:v>17.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.200000000000014</c:v>
+                  <c:v>14.399999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.400000000000013</c:v>
+                  <c:v>10.799999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.600000000000013</c:v>
+                  <c:v>7.1999999999999869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8000000000000131</c:v>
+                  <c:v>3.5999999999999868</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3322676295501878E-14</c:v>
+                  <c:v>-1.3322676295501878E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110867200"/>
-        <c:axId val="110869120"/>
+        <c:axId val="101556992"/>
+        <c:axId val="101558912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110867200"/>
+        <c:axId val="101556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,7 +2942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110869120"/>
+        <c:crossAx val="101558912"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2951,7 +2950,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110869120"/>
+        <c:axId val="101558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2992,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110867200"/>
+        <c:crossAx val="101556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,7 +3080,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000156" footer="0.49212598450000156"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3118,7 +3117,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225298"/>
+          <c:x val="0.37032576667225309"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3136,9 +3135,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532435"/>
+          <c:y val="0.15742128935532443"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192325"/>
+          <c:h val="0.70464767616192336"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3448,11 +3447,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110935040"/>
-        <c:axId val="110937216"/>
+        <c:axId val="101370880"/>
+        <c:axId val="101377152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110935040"/>
+        <c:axId val="101370880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3483,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110937216"/>
+        <c:crossAx val="101377152"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3492,7 +3491,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110937216"/>
+        <c:axId val="101377152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3533,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110935040"/>
+        <c:crossAx val="101370880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3622,7 +3621,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3659,7 +3658,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225325"/>
+          <c:x val="0.37032576667225342"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3677,9 +3676,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532448"/>
+          <c:y val="0.15742128935532454"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192359"/>
+          <c:h val="0.70464767616192381"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3989,11 +3988,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110986752"/>
-        <c:axId val="110988672"/>
+        <c:axId val="101623296"/>
+        <c:axId val="101625216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110986752"/>
+        <c:axId val="101623296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110988672"/>
+        <c:crossAx val="101625216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4033,7 +4032,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110988672"/>
+        <c:axId val="101625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4074,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110986752"/>
+        <c:crossAx val="101623296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4163,7 +4162,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4212,13 +4211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4608,10 +4607,10 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4635,10 +4634,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="165"/>
+      <c r="E1" s="169"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4650,10 +4649,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="167"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4669,8 +4668,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4678,9 +4677,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -5166,8 +5165,8 @@
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33">
-        <f>SUM(G24:G35)</f>
-        <v>60</v>
+        <f>SUM(G24:G33)</f>
+        <v>58</v>
       </c>
       <c r="H23" s="141"/>
       <c r="I23" s="32"/>
@@ -5192,7 +5191,7 @@
         <v>32</v>
       </c>
       <c r="G24" s="72">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5376,138 +5375,138 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="11"/>
+    <row r="32" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A32" s="68">
+        <v>24</v>
+      </c>
+      <c r="B32" s="69">
+        <v>2</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="72">
+        <v>3</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="75">
+    <row r="33" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A33" s="68">
+        <v>25</v>
+      </c>
+      <c r="B33" s="69">
+        <v>2</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="79">
-        <v>2</v>
-      </c>
-      <c r="C33" s="68">
-        <v>1</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="70"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="72" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G33" s="72">
-        <v>12</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="22"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A34" s="68">
-        <v>24</v>
-      </c>
-      <c r="B34" s="69">
-        <v>2</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="72">
+    </row>
+    <row r="34" spans="1:13" s="13" customFormat="1">
+      <c r="A34" s="65"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
+        <f>SUM(G35:G44)</f>
+        <v>59</v>
+      </c>
+      <c r="H34" s="141"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A35" s="75">
+        <v>26</v>
+      </c>
+      <c r="B35" s="69">
         <v>3</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="68">
-        <v>25</v>
-      </c>
-      <c r="B35" s="69">
-        <v>2</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E35" s="71"/>
       <c r="F35" s="72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G35" s="72">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="22"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33">
-        <f>SUM(G37:G45)</f>
-        <v>55</v>
-      </c>
-      <c r="H36" s="141"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="24.95" customHeight="1">
+    <row r="36" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="75"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="75">
-        <v>26</v>
-      </c>
-      <c r="B37" s="69">
-        <v>3</v>
-      </c>
-      <c r="C37" s="68"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="79">
+        <v>2</v>
+      </c>
+      <c r="C37" s="68">
+        <v>1</v>
+      </c>
       <c r="D37" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="71"/>
+        <v>88</v>
+      </c>
+      <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G37" s="72">
-        <v>10</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="11"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" ht="24.95" customHeight="1">
       <c r="A38" s="75"/>
@@ -5643,98 +5642,98 @@
       <c r="J43" s="22"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A44" s="75">
-        <v>31</v>
+    <row r="44" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="68">
+        <v>32</v>
       </c>
       <c r="B44" s="69">
         <v>3</v>
       </c>
-      <c r="C44" s="68">
-        <v>2</v>
-      </c>
+      <c r="C44" s="68"/>
       <c r="D44" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>87</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E44" s="71"/>
       <c r="F44" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="111">
+        <v>3</v>
+      </c>
+      <c r="H44" s="112"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A45" s="65"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
+        <f>SUM(G46:G52)</f>
+        <v>53</v>
+      </c>
+      <c r="H45" s="142"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="118"/>
+    </row>
+    <row r="46" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A46" s="75">
+        <v>33</v>
+      </c>
+      <c r="B46" s="69">
+        <v>4</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="72">
-        <v>8</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="68">
-        <v>32</v>
-      </c>
-      <c r="B45" s="69">
-        <v>3</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="111">
-        <v>3</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A46" s="65"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33">
-        <f>SUM(G47:G52)</f>
-        <v>45</v>
-      </c>
-      <c r="H46" s="142"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="118"/>
+      <c r="G46" s="111">
+        <v>10</v>
+      </c>
+      <c r="H46" s="30"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="62"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1">
       <c r="A47" s="75">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="69">
-        <v>4</v>
-      </c>
-      <c r="C47" s="68"/>
+        <v>3</v>
+      </c>
+      <c r="C47" s="68">
+        <v>2</v>
+      </c>
       <c r="D47" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="71"/>
+        <v>86</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>87</v>
+      </c>
       <c r="F47" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="111">
-        <v>10</v>
+      <c r="G47" s="72">
+        <v>8</v>
       </c>
       <c r="H47" s="30"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="75">
@@ -6035,11 +6034,11 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D26 A54:A55 B48:C48 D49:E51 H48:K48 A47:A49 D38:E38 D41 B28:C33 A37:A44 B33:E33 H28:K33 D20:E21 E25:E26 A25:A33 D28 D30 E28:E33 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D15 A13:A22">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
+    <cfRule type="expression" dxfId="5" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8595,10 +8594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP87"/>
+  <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8788,13 +8787,13 @@
       <c r="DP2" s="41"/>
     </row>
     <row r="3" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="169">
+      <c r="B3" s="161">
         <v>16</v>
       </c>
-      <c r="C3" s="170"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="48"/>
@@ -8811,39 +8810,43 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
     </row>
-    <row r="4" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="97">
-        <v>4</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="48"/>
+    <row r="4" spans="1:120" s="175" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174">
+        <v>10</v>
+      </c>
+      <c r="D4" s="174">
+        <v>10</v>
+      </c>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
     </row>
     <row r="5" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="97">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="97">
+        <v>4</v>
+      </c>
       <c r="E5" s="159"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -8861,13 +8864,15 @@
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="97">
         <v>1</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
       <c r="E6" s="159"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -8885,13 +8890,15 @@
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="97">
-        <v>4</v>
-      </c>
-      <c r="D7" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="97">
+        <v>1</v>
+      </c>
       <c r="E7" s="159"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -8908,16 +8915,16 @@
       <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="75">
-        <v>17</v>
-      </c>
+      <c r="A8" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="68"/>
       <c r="C8" s="97">
         <v>4</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="97">
+        <v>4</v>
+      </c>
       <c r="E8" s="159"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -8934,16 +8941,18 @@
       <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>96</v>
+      <c r="A9" s="82" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="97">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="97">
+        <v>4</v>
+      </c>
       <c r="E9" s="159"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -8961,15 +8970,17 @@
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B10" s="75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="97">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="97">
+        <v>4</v>
+      </c>
       <c r="E10" s="159"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -8986,90 +8997,96 @@
       <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="75">
+        <v>19</v>
+      </c>
+      <c r="C11" s="97">
+        <v>6</v>
+      </c>
+      <c r="D11" s="97">
+        <v>6</v>
+      </c>
+      <c r="E11" s="159"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="48"/>
+    </row>
+    <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="48"/>
-    </row>
-    <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="48"/>
+    </row>
+    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B13" s="75">
         <v>20</v>
-      </c>
-      <c r="C12" s="97">
-        <v>6</v>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="171"/>
-    </row>
-    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="75">
-        <v>21</v>
       </c>
       <c r="C13" s="97">
         <v>6</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="97">
+        <v>6</v>
+      </c>
       <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="49"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="163"/>
     </row>
     <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>59</v>
+      <c r="A14" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="75">
-        <v>22</v>
-      </c>
-      <c r="C14" s="99">
+        <v>21</v>
+      </c>
+      <c r="C14" s="97">
         <v>6</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="97">
+        <v>6</v>
+      </c>
       <c r="E14" s="159"/>
       <c r="F14" s="159"/>
       <c r="G14" s="159"/>
@@ -9086,585 +9103,579 @@
       <c r="R14" s="49"/>
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
+      <c r="A15" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="75">
+        <v>22</v>
+      </c>
+      <c r="C15" s="97">
+        <v>6</v>
+      </c>
+      <c r="D15" s="97">
+        <v>6</v>
+      </c>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
       <c r="R15" s="49"/>
     </row>
-    <row r="16" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="75">
-        <v>23</v>
-      </c>
-      <c r="C16" s="97">
-        <v>12</v>
-      </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="171"/>
-    </row>
-    <row r="17" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="68">
-        <v>24</v>
-      </c>
-      <c r="C17" s="97">
-        <v>3</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="49"/>
-    </row>
-    <row r="18" spans="1:120">
+    <row r="16" spans="1:120">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:120">
+      <c r="A17" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="38">
+        <f>IF(ISBLANK(C5:C15), NA(), SUM(C5:C15))</f>
+        <v>42</v>
+      </c>
+      <c r="D17" s="38" t="e">
+        <f t="array" ref="D17">IF(ISBLANK(D3:D15), NA(), SUM(D3:D15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="38" t="e">
+        <f t="array" ref="E17">IF(ISBLANK(E3:E15), NA(), SUM(E3:E15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="38" t="e">
+        <f t="array" ref="F17">IF(ISBLANK(F3:F15), NA(), SUM(F3:F15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="38" t="e">
+        <f t="array" ref="G17">IF(ISBLANK(G3:G15), NA(), SUM(G3:G15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="38" t="e">
+        <f t="array" ref="H17">IF(ISBLANK(H3:H15), NA(), SUM(H3:H15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="38" t="e">
+        <f t="array" ref="I17">IF(ISBLANK(I3:I15), NA(), SUM(I3:I15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="38" t="e">
+        <f t="array" ref="J17">IF(ISBLANK(J3:J15), NA(), SUM(J3:J15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="38" t="e">
+        <f t="array" ref="K17">IF(ISBLANK(K3:K15), NA(), SUM(K3:K15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="38" t="e">
+        <f t="array" ref="L17">IF(ISBLANK(L3:L15), NA(), SUM(L3:L15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="38" t="e">
+        <f t="array" ref="M17">IF(ISBLANK(M3:M15), NA(), SUM(M3:M15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="38" t="e">
+        <f t="array" ref="N17">IF(ISBLANK(N3:N15), NA(), SUM(N3:N15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="38" t="e">
+        <f t="array" ref="O17">IF(ISBLANK(O3:O15), NA(), SUM(O3:O15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="38" t="e">
+        <f t="array" ref="P17">IF(ISBLANK(P3:P15), NA(), SUM(P3:P15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="38" t="e">
+        <f t="array" ref="Q17">IF(ISBLANK(Q3:Q15), NA(), SUM(Q3:Q15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="38" t="e">
+        <f t="array" ref="R17">IF(ISBLANK(R3:R15), NA(), SUM(R3:R15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="38"/>
+      <c r="BW17" s="38"/>
+      <c r="BX17" s="38"/>
+      <c r="BY17" s="38"/>
+      <c r="BZ17" s="38"/>
+      <c r="CA17" s="38"/>
+      <c r="CB17" s="38"/>
+      <c r="CC17" s="38"/>
+      <c r="CD17" s="38"/>
+      <c r="CE17" s="38"/>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="38"/>
+      <c r="CH17" s="38"/>
+      <c r="CI17" s="38"/>
+      <c r="CJ17" s="38"/>
+      <c r="CK17" s="38"/>
+      <c r="CL17" s="38"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="38"/>
+      <c r="CO17" s="38"/>
+      <c r="CP17" s="38"/>
+      <c r="CQ17" s="38"/>
+      <c r="CR17" s="38"/>
+      <c r="CS17" s="38"/>
+      <c r="CT17" s="38"/>
+      <c r="CU17" s="38"/>
+      <c r="CV17" s="38"/>
+      <c r="CW17" s="38"/>
+      <c r="CX17" s="38"/>
+      <c r="CY17" s="38"/>
+      <c r="CZ17" s="38"/>
+      <c r="DA17" s="38"/>
+      <c r="DB17" s="38"/>
+      <c r="DC17" s="38"/>
+      <c r="DD17" s="38"/>
+      <c r="DE17" s="38"/>
+      <c r="DF17" s="38"/>
+      <c r="DG17" s="38"/>
+      <c r="DH17" s="38"/>
+      <c r="DI17" s="38"/>
+      <c r="DJ17" s="38"/>
+      <c r="DK17" s="38"/>
+      <c r="DL17" s="38"/>
+      <c r="DM17" s="38"/>
+      <c r="DN17" s="38"/>
+      <c r="DO17" s="38"/>
+      <c r="DP17" s="38"/>
+    </row>
+    <row r="18" spans="1:120" ht="25.5">
       <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="51"/>
-    </row>
-    <row r="19" spans="1:120">
-      <c r="A19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="38">
-        <f>IF(ISBLANK(C4:C17), NA(), SUM(C4:C17))</f>
-        <v>57</v>
-      </c>
-      <c r="D19" s="38" t="e">
-        <f t="array" ref="D19">IF(ISBLANK(D3:D17), NA(), SUM(D3:D17))</f>
+      <c r="D18" s="38" t="e">
+        <f>C17-D17</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="38" t="e">
-        <f t="array" ref="E19">IF(ISBLANK(E3:E17), NA(), SUM(E3:E17))</f>
+      <c r="E18" s="38" t="e">
+        <f t="shared" ref="E18:R18" si="0">D17-E17</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="38" t="e">
-        <f t="array" ref="F19">IF(ISBLANK(F3:F17), NA(), SUM(F3:F17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="38" t="e">
-        <f t="array" ref="G19">IF(ISBLANK(G3:G17), NA(), SUM(G3:G17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="38" t="e">
-        <f t="array" ref="H19">IF(ISBLANK(H3:H17), NA(), SUM(H3:H17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="38" t="e">
-        <f t="array" ref="I19">IF(ISBLANK(I3:I17), NA(), SUM(I3:I17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="38" t="e">
-        <f t="array" ref="J19">IF(ISBLANK(J3:J17), NA(), SUM(J3:J17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="38" t="e">
-        <f t="array" ref="K19">IF(ISBLANK(K3:K17), NA(), SUM(K3:K17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="38" t="e">
-        <f t="array" ref="L19">IF(ISBLANK(L3:L17), NA(), SUM(L3:L17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="38" t="e">
-        <f t="array" ref="M19">IF(ISBLANK(M3:M17), NA(), SUM(M3:M17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="38" t="e">
-        <f t="array" ref="N19">IF(ISBLANK(N3:N17), NA(), SUM(N3:N17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="38" t="e">
-        <f t="array" ref="O19">IF(ISBLANK(O3:O17), NA(), SUM(O3:O17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="38" t="e">
-        <f t="array" ref="P19">IF(ISBLANK(P3:P17), NA(), SUM(P3:P17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="38" t="e">
-        <f t="array" ref="Q19">IF(ISBLANK(Q3:Q17), NA(), SUM(Q3:Q17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="38" t="e">
-        <f t="array" ref="R19">IF(ISBLANK(R3:R17), NA(), SUM(R3:R17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BJ19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="38"/>
-      <c r="BM19" s="38"/>
-      <c r="BN19" s="38"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="38"/>
-      <c r="BQ19" s="38"/>
-      <c r="BR19" s="38"/>
-      <c r="BS19" s="38"/>
-      <c r="BT19" s="38"/>
-      <c r="BU19" s="38"/>
-      <c r="BV19" s="38"/>
-      <c r="BW19" s="38"/>
-      <c r="BX19" s="38"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="38"/>
-      <c r="CA19" s="38"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="38"/>
-      <c r="CG19" s="38"/>
-      <c r="CH19" s="38"/>
-      <c r="CI19" s="38"/>
-      <c r="CJ19" s="38"/>
-      <c r="CK19" s="38"/>
-      <c r="CL19" s="38"/>
-      <c r="CM19" s="38"/>
-      <c r="CN19" s="38"/>
-      <c r="CO19" s="38"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="38"/>
-      <c r="CS19" s="38"/>
-      <c r="CT19" s="38"/>
-      <c r="CU19" s="38"/>
-      <c r="CV19" s="38"/>
-      <c r="CW19" s="38"/>
-      <c r="CX19" s="38"/>
-      <c r="CY19" s="38"/>
-      <c r="CZ19" s="38"/>
-      <c r="DA19" s="38"/>
-      <c r="DB19" s="38"/>
-      <c r="DC19" s="38"/>
-      <c r="DD19" s="38"/>
-      <c r="DE19" s="38"/>
-      <c r="DF19" s="38"/>
-      <c r="DG19" s="38"/>
-      <c r="DH19" s="38"/>
-      <c r="DI19" s="38"/>
-      <c r="DJ19" s="38"/>
-      <c r="DK19" s="38"/>
-      <c r="DL19" s="38"/>
-      <c r="DM19" s="38"/>
-      <c r="DN19" s="38"/>
-      <c r="DO19" s="38"/>
-      <c r="DP19" s="38"/>
-    </row>
-    <row r="20" spans="1:120" ht="25.5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="e">
-        <f>C19-D19</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="38" t="e">
-        <f t="shared" ref="E20:R20" si="0">D19-E19</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="38" t="e">
+      <c r="F18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="38" t="e">
+      <c r="G18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="38" t="e">
+      <c r="H18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="38" t="e">
+      <c r="I18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="38" t="e">
+      <c r="J18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="38" t="e">
+      <c r="K18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="38" t="e">
+      <c r="L18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="38" t="e">
+      <c r="M18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="38" t="e">
+      <c r="N18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="38" t="e">
+      <c r="O18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="38" t="e">
+      <c r="P18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="38" t="e">
+      <c r="Q18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="51" t="e">
+      <c r="R18" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="38"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="38"/>
-      <c r="BM20" s="38"/>
-      <c r="BN20" s="38"/>
-      <c r="BO20" s="38"/>
-      <c r="BP20" s="38"/>
-      <c r="BQ20" s="38"/>
-      <c r="BR20" s="38"/>
-      <c r="BS20" s="38"/>
-      <c r="BT20" s="38"/>
-      <c r="BU20" s="38"/>
-      <c r="BV20" s="38"/>
-      <c r="BW20" s="38"/>
-      <c r="BX20" s="38"/>
-      <c r="BY20" s="38"/>
-      <c r="BZ20" s="38"/>
-      <c r="CA20" s="38"/>
-      <c r="CB20" s="38"/>
-      <c r="CC20" s="38"/>
-      <c r="CD20" s="38"/>
-      <c r="CE20" s="38"/>
-      <c r="CF20" s="38"/>
-      <c r="CG20" s="38"/>
-      <c r="CH20" s="38"/>
-      <c r="CI20" s="38"/>
-      <c r="CJ20" s="38"/>
-      <c r="CK20" s="38"/>
-      <c r="CL20" s="38"/>
-      <c r="CM20" s="38"/>
-      <c r="CN20" s="38"/>
-      <c r="CO20" s="38"/>
-      <c r="CP20" s="38"/>
-      <c r="CQ20" s="38"/>
-      <c r="CR20" s="38"/>
-      <c r="CS20" s="38"/>
-      <c r="CT20" s="38"/>
-      <c r="CU20" s="38"/>
-      <c r="CV20" s="38"/>
-      <c r="CW20" s="38"/>
-      <c r="CX20" s="38"/>
-      <c r="CY20" s="38"/>
-      <c r="CZ20" s="38"/>
-      <c r="DA20" s="38"/>
-      <c r="DB20" s="38"/>
-      <c r="DC20" s="38"/>
-      <c r="DD20" s="38"/>
-      <c r="DE20" s="38"/>
-      <c r="DF20" s="38"/>
-      <c r="DG20" s="38"/>
-      <c r="DH20" s="38"/>
-      <c r="DI20" s="38"/>
-      <c r="DJ20" s="38"/>
-      <c r="DK20" s="38"/>
-      <c r="DL20" s="38"/>
-      <c r="DM20" s="38"/>
-      <c r="DN20" s="38"/>
-      <c r="DO20" s="38"/>
-      <c r="DP20" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="38"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="38"/>
+      <c r="CH18" s="38"/>
+      <c r="CI18" s="38"/>
+      <c r="CJ18" s="38"/>
+      <c r="CK18" s="38"/>
+      <c r="CL18" s="38"/>
+      <c r="CM18" s="38"/>
+      <c r="CN18" s="38"/>
+      <c r="CO18" s="38"/>
+      <c r="CP18" s="38"/>
+      <c r="CQ18" s="38"/>
+      <c r="CR18" s="38"/>
+      <c r="CS18" s="38"/>
+      <c r="CT18" s="38"/>
+      <c r="CU18" s="38"/>
+      <c r="CV18" s="38"/>
+      <c r="CW18" s="38"/>
+      <c r="CX18" s="38"/>
+      <c r="CY18" s="38"/>
+      <c r="CZ18" s="38"/>
+      <c r="DA18" s="38"/>
+      <c r="DB18" s="38"/>
+      <c r="DC18" s="38"/>
+      <c r="DD18" s="38"/>
+      <c r="DE18" s="38"/>
+      <c r="DF18" s="38"/>
+      <c r="DG18" s="38"/>
+      <c r="DH18" s="38"/>
+      <c r="DI18" s="38"/>
+      <c r="DJ18" s="38"/>
+      <c r="DK18" s="38"/>
+      <c r="DL18" s="38"/>
+      <c r="DM18" s="38"/>
+      <c r="DN18" s="38"/>
+      <c r="DO18" s="38"/>
+      <c r="DP18" s="38"/>
+    </row>
+    <row r="19" spans="1:120">
+      <c r="A19" s="38"/>
+      <c r="B19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="45">
+        <f>C17</f>
+        <v>42</v>
+      </c>
+      <c r="D19" s="46">
+        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E19" s="46">
+        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="F19" s="46">
+        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="G19" s="46">
+        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>30.800000000000008</v>
+      </c>
+      <c r="H19" s="46">
+        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>28.000000000000007</v>
+      </c>
+      <c r="I19" s="46">
+        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>25.200000000000006</v>
+      </c>
+      <c r="J19" s="46">
+        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="K19" s="46">
+        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>19.600000000000005</v>
+      </c>
+      <c r="L19" s="46">
+        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>16.800000000000004</v>
+      </c>
+      <c r="M19" s="46">
+        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>14.000000000000004</v>
+      </c>
+      <c r="N19" s="46">
+        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="O19" s="46">
+        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="P19" s="46">
+        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>5.6000000000000023</v>
+      </c>
+      <c r="Q19" s="46">
+        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>2.8000000000000025</v>
+      </c>
+      <c r="R19" s="46">
+        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" s="56" customFormat="1">
+      <c r="A20" s="55"/>
+      <c r="B20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="58">
+        <f>1-C17/$C$17</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="58" t="e">
+        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="21" spans="1:120">
       <c r="A21" s="38"/>
-      <c r="B21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="45">
-        <f>C19</f>
-        <v>57</v>
-      </c>
-      <c r="D21" s="46">
-        <f>C21-$C$19/COUNTA($C$2:$Q$2)</f>
-        <v>53.2</v>
-      </c>
-      <c r="E21" s="46">
-        <f t="shared" ref="E21:R21" si="1">D21-$C$19/COUNTA($C$2:$Q$2)</f>
-        <v>49.400000000000006</v>
-      </c>
-      <c r="F21" s="46">
-        <f t="shared" si="1"/>
-        <v>45.600000000000009</v>
-      </c>
-      <c r="G21" s="46">
-        <f t="shared" si="1"/>
-        <v>41.800000000000011</v>
-      </c>
-      <c r="H21" s="46">
-        <f t="shared" si="1"/>
-        <v>38.000000000000014</v>
-      </c>
-      <c r="I21" s="46">
-        <f t="shared" si="1"/>
-        <v>34.200000000000017</v>
-      </c>
-      <c r="J21" s="46">
-        <f t="shared" si="1"/>
-        <v>30.400000000000016</v>
-      </c>
-      <c r="K21" s="46">
-        <f t="shared" si="1"/>
-        <v>26.600000000000016</v>
-      </c>
-      <c r="L21" s="46">
-        <f t="shared" si="1"/>
-        <v>22.800000000000015</v>
-      </c>
-      <c r="M21" s="46">
-        <f t="shared" si="1"/>
-        <v>19.000000000000014</v>
-      </c>
-      <c r="N21" s="46">
-        <f t="shared" si="1"/>
-        <v>15.200000000000014</v>
-      </c>
-      <c r="O21" s="46">
-        <f t="shared" si="1"/>
-        <v>11.400000000000013</v>
-      </c>
-      <c r="P21" s="46">
-        <f t="shared" si="1"/>
-        <v>7.600000000000013</v>
-      </c>
-      <c r="Q21" s="46">
-        <f t="shared" si="1"/>
-        <v>3.8000000000000131</v>
-      </c>
-      <c r="R21" s="46">
-        <f t="shared" si="1"/>
-        <v>1.3322676295501878E-14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:120" s="56" customFormat="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="58">
-        <f>1-C19/$C$19</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="58" t="e">
-        <f t="shared" ref="D22:R22" si="2">1-D19/$C$19</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:120">
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" spans="1:120">
       <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -9684,9 +9695,9 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="38"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -9704,7 +9715,7 @@
     </row>
     <row r="25" spans="1:120">
       <c r="A25" s="38"/>
-      <c r="B25" s="43"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -10922,60 +10933,12 @@
       <c r="Q85" s="38"/>
       <c r="R85" s="38"/>
     </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E13:R15 D13:D14 D3:R11 D17:R17 A3:A17 A16:B16 B3:B10 B12:B17 E12:G12 E16:G16 C4:C7">
-    <cfRule type="expression" dxfId="5" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="D14:R15 D3:R12 B13:B15 E13:G13 B3:B11 A3:A15 C5:D8">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="38" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 A9">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
   <si>
     <t>Itération</t>
   </si>
@@ -387,19 +387,22 @@
     <t>ITERATION 2 : du 06/05 au 24/05 (3 semaines, 60jh)</t>
   </si>
   <si>
-    <t>Validation (publication) des artefacts et médias</t>
-  </si>
-  <si>
     <t>Modification d'un fichier uploadé</t>
   </si>
   <si>
     <t>Revoir demande de droits</t>
   </si>
   <si>
-    <t>Suppression du ficer à la suppression du champ de type fichier ou d'un type d'élément</t>
+    <t>Modification du modèle de données (Data)</t>
   </si>
   <si>
-    <t>Modification du modèle de données (Data)</t>
+    <t>Suppression du fichier à la suppression du champ de type fichier ou d'un type d'élément</t>
+  </si>
+  <si>
+    <t>Ajout / Suppression / Modification d'une relation entre deux artefacts (+ page sémantiques)</t>
+  </si>
+  <si>
+    <t>Préfixe Tables bdd</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +735,23 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="1"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="1"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1132,7 +1152,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1594,19 +1614,23 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1631,16 +1655,42 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1688,7 +1738,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2035,7 +2099,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225253"/>
+          <c:x val="0.37032576667225287"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2053,9 +2117,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532415"/>
+          <c:y val="0.15742128935532429"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192292"/>
+          <c:h val="0.70464767616192314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2365,11 +2429,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100857728"/>
-        <c:axId val="101138432"/>
+        <c:axId val="89847680"/>
+        <c:axId val="93339648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100857728"/>
+        <c:axId val="89847680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2465,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101138432"/>
+        <c:crossAx val="93339648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2409,7 +2473,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101138432"/>
+        <c:axId val="93339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,548 +2515,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100857728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82639198178585549"/>
-          <c:y val="3.2983508245877091E-2"/>
-          <c:w val="0.11675295106908352"/>
-          <c:h val="9.145427286356822E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000015" footer="0.4921259845000015"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37032576667225287"/>
-          <c:y val="2.6986506746626688E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532429"/>
-          <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192314"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000080"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.79999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.199999999999989</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.599999999999987</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.399999999999986</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.799999999999986</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.1999999999999869</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5999999999999868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.3322676295501878E-14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="101556992"/>
-        <c:axId val="101558912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="101556992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="101558912"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="101558912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="101556992"/>
+        <c:crossAx val="89847680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,7 +2609,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3108,7 +2631,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 3</a:t>
+              <a:t>Suivi charge Iteration 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3147,7 +2670,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$12</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3181,78 +2704,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3299,7 +2822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$14</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3333,125 +2856,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.533333333333331</c:v>
+                  <c:v>45.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.066666666666663</c:v>
+                  <c:v>42.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.599999999999994</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.133333333333326</c:v>
+                  <c:v>35.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.666666666666657</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.199999999999989</c:v>
+                  <c:v>29.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73333333333332</c:v>
+                  <c:v>26.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.266666666666652</c:v>
+                  <c:v>22.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999983</c:v>
+                  <c:v>19.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.333333333333314</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.866666666666648</c:v>
+                  <c:v>13.066666666666677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.399999999999981</c:v>
+                  <c:v>9.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333314</c:v>
+                  <c:v>6.5333333333333448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4666666666666472</c:v>
+                  <c:v>3.2666666666666782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9539925233402755E-14</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101370880"/>
-        <c:axId val="101377152"/>
+        <c:axId val="93696768"/>
+        <c:axId val="93698688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101370880"/>
+        <c:axId val="93696768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3006,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101377152"/>
+        <c:crossAx val="93698688"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3491,7 +3014,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101377152"/>
+        <c:axId val="93698688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3056,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101370880"/>
+        <c:crossAx val="93696768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3627,7 +3150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3649,7 +3172,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 4</a:t>
+              <a:t>Suivi charge Iteration 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3688,7 +3211,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:f>'Iteration 3'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3722,69 +3245,69 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3840,7 +3363,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:f>'Iteration 3'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3874,125 +3397,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>48.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>45.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>41.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.533333333333331</c:v>
+                  <c:v>38.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>34.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.799999999999997</c:v>
+                  <c:v>31.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.93333333333333</c:v>
+                  <c:v>27.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.066666666666663</c:v>
+                  <c:v>24.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>20.799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>17.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666615</c:v>
+                  <c:v>13.866666666666648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>10.399999999999981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7333333333333276</c:v>
+                  <c:v>6.933333333333314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8666666666666609</c:v>
+                  <c:v>3.4666666666666472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.773159728050814E-15</c:v>
+                  <c:v>-1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101623296"/>
-        <c:axId val="101625216"/>
+        <c:axId val="93760512"/>
+        <c:axId val="93762688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101623296"/>
+        <c:axId val="93760512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +3547,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101625216"/>
+        <c:crossAx val="93762688"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4032,7 +3555,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101625216"/>
+        <c:axId val="93762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +3597,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101623296"/>
+        <c:crossAx val="93760512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4168,6 +3691,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Suivi charge Iteration 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3703257666722537"/>
+          <c:y val="2.6986506746626688E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532468"/>
+          <c:w val="0.92946294640153049"/>
+          <c:h val="0.70464767616192403"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.066666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7333333333333276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8666666666666609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.773159728050814E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="93550080"/>
+        <c:axId val="93552000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93550080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93552000"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93552000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93550080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82639198178585549"/>
+          <c:y val="3.2983508245877091E-2"/>
+          <c:w val="0.11675295106908352"/>
+          <c:h val="9.145427286356822E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000195" footer="0.49212598450000195"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4210,15 +4274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31826</xdr:rowOff>
+      <xdr:colOff>120428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28385</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99734</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4607,10 +4671,10 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4634,10 +4698,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169"/>
+      <c r="E1" s="171"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4649,10 +4713,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="171"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4668,8 +4732,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4677,9 +4741,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -5218,7 +5282,7 @@
         <v>75</v>
       </c>
       <c r="G25" s="72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
@@ -5245,7 +5309,7 @@
         <v>75</v>
       </c>
       <c r="G26" s="72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -6035,10 +6099,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="5" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6053,7 +6117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -8596,8 +8662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8786,187 +8852,211 @@
       <c r="DO2" s="41"/>
       <c r="DP2" s="41"/>
     </row>
-    <row r="3" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:120" s="164" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="163">
         <v>16</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-    </row>
-    <row r="4" spans="1:120" s="175" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="172" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174">
+      <c r="C3" s="98"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+    </row>
+    <row r="4" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161">
         <v>10</v>
       </c>
-      <c r="D4" s="174">
+      <c r="D4" s="153">
         <v>10</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-    </row>
-    <row r="5" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="97">
-        <v>4</v>
-      </c>
-      <c r="D5" s="97">
-        <v>4</v>
-      </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="48"/>
+      <c r="E4" s="153">
+        <v>6</v>
+      </c>
+      <c r="F4" s="174">
+        <v>5</v>
+      </c>
+      <c r="G4" s="175"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+    </row>
+    <row r="5" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161">
+        <v>1</v>
+      </c>
+      <c r="D5" s="155">
+        <v>1</v>
+      </c>
+      <c r="E5" s="155">
+        <v>1</v>
+      </c>
+      <c r="F5" s="174">
+        <v>0</v>
+      </c>
+      <c r="G5" s="175"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="68"/>
-      <c r="C6" s="97">
+      <c r="C6" s="161">
         <v>1</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="72">
         <v>1</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="48"/>
+      <c r="E6" s="105">
+        <v>1</v>
+      </c>
+      <c r="F6" s="156">
+        <v>1</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="178"/>
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="68"/>
-      <c r="C7" s="97">
+      <c r="C7" s="161">
         <v>1</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="153">
         <v>1</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="48"/>
+      <c r="E7" s="105">
+        <v>1</v>
+      </c>
+      <c r="F7" s="156">
+        <v>1</v>
+      </c>
+      <c r="G7" s="156"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="178"/>
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="68"/>
-      <c r="C8" s="97">
+      <c r="C8" s="161">
         <v>4</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="153">
         <v>4</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="48"/>
+      <c r="E8" s="153">
+        <v>2</v>
+      </c>
+      <c r="F8" s="174">
+        <v>1</v>
+      </c>
+      <c r="G8" s="156"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="178"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B9" s="75">
         <v>17</v>
       </c>
       <c r="C9" s="97">
-        <v>4</v>
-      </c>
-      <c r="D9" s="97">
-        <v>4</v>
-      </c>
-      <c r="E9" s="159"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="72">
+        <v>5</v>
+      </c>
+      <c r="E9" s="72">
+        <v>5</v>
+      </c>
+      <c r="F9" s="72">
+        <v>5</v>
+      </c>
+      <c r="G9" s="156"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="178"/>
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
@@ -8976,25 +9066,29 @@
         <v>18</v>
       </c>
       <c r="C10" s="97">
-        <v>4</v>
-      </c>
-      <c r="D10" s="97">
-        <v>4</v>
-      </c>
-      <c r="E10" s="159"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="72">
+        <v>3</v>
+      </c>
+      <c r="E10" s="72">
+        <v>3</v>
+      </c>
+      <c r="F10" s="72">
+        <v>3</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="178"/>
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
@@ -9006,23 +9100,27 @@
       <c r="C11" s="97">
         <v>6</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="72">
         <v>6</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="48"/>
+      <c r="E11" s="72">
+        <v>6</v>
+      </c>
+      <c r="F11" s="72">
+        <v>6</v>
+      </c>
+      <c r="G11" s="156"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="178"/>
     </row>
     <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="89" t="s">
@@ -9030,21 +9128,21 @@
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="48"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="178"/>
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
@@ -9056,23 +9154,27 @@
       <c r="C13" s="97">
         <v>6</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="72">
         <v>6</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="163"/>
+      <c r="E13" s="72">
+        <v>6</v>
+      </c>
+      <c r="F13" s="72">
+        <v>6</v>
+      </c>
+      <c r="G13" s="156"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
     </row>
     <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
@@ -9084,23 +9186,27 @@
       <c r="C14" s="97">
         <v>6</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="72">
         <v>6</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="49"/>
+      <c r="E14" s="72">
+        <v>6</v>
+      </c>
+      <c r="F14" s="72">
+        <v>6</v>
+      </c>
+      <c r="G14" s="105"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="185"/>
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
@@ -9112,23 +9218,27 @@
       <c r="C15" s="97">
         <v>6</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="72">
         <v>6</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="49"/>
+      <c r="E15" s="72">
+        <v>6</v>
+      </c>
+      <c r="F15" s="72">
+        <v>6</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="185"/>
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="38"/>
@@ -9158,67 +9268,67 @@
         <v>37</v>
       </c>
       <c r="C17" s="38">
-        <f>IF(ISBLANK(C5:C15), NA(), SUM(C5:C15))</f>
-        <v>42</v>
-      </c>
-      <c r="D17" s="38" t="e">
-        <f t="array" ref="D17">IF(ISBLANK(D3:D15), NA(), SUM(D3:D15))</f>
+        <f>IF(ISBLANK(C4:C15), NA(), SUM(C3:C15))</f>
+        <v>49</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="array" ref="D17">IF(ISBLANK(D4:D15), NA(), SUM(D4:D15))</f>
+        <v>49</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="array" ref="E17">IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
+        <v>43</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="array" ref="F17">IF(ISBLANK(F4:F15), NA(), SUM(F4:F15))</f>
+        <v>40</v>
+      </c>
+      <c r="G17" s="38" t="e">
+        <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="38" t="e">
-        <f t="array" ref="E17">IF(ISBLANK(E3:E15), NA(), SUM(E3:E15))</f>
+      <c r="H17" s="38" t="e">
+        <f t="array" ref="H17">IF(ISBLANK(H4:H15), NA(), SUM(H4:H15))</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="38" t="e">
-        <f t="array" ref="F17">IF(ISBLANK(F3:F15), NA(), SUM(F3:F15))</f>
+      <c r="I17" s="38" t="e">
+        <f t="array" ref="I17">IF(ISBLANK(I4:I15), NA(), SUM(I4:I15))</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="38" t="e">
-        <f t="array" ref="G17">IF(ISBLANK(G3:G15), NA(), SUM(G3:G15))</f>
+      <c r="J17" s="38" t="e">
+        <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="38" t="e">
-        <f t="array" ref="H17">IF(ISBLANK(H3:H15), NA(), SUM(H3:H15))</f>
+      <c r="K17" s="38" t="e">
+        <f t="array" ref="K17">IF(ISBLANK(K4:K15), NA(), SUM(K4:K15))</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="38" t="e">
-        <f t="array" ref="I17">IF(ISBLANK(I3:I15), NA(), SUM(I3:I15))</f>
+      <c r="L17" s="38" t="e">
+        <f t="array" ref="L17">IF(ISBLANK(L4:L15), NA(), SUM(L4:L15))</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="38" t="e">
-        <f t="array" ref="J17">IF(ISBLANK(J3:J15), NA(), SUM(J3:J15))</f>
+      <c r="M17" s="38" t="e">
+        <f t="array" ref="M17">IF(ISBLANK(M4:M15), NA(), SUM(M4:M15))</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="38" t="e">
-        <f t="array" ref="K17">IF(ISBLANK(K3:K15), NA(), SUM(K3:K15))</f>
+      <c r="N17" s="38" t="e">
+        <f t="array" ref="N17">IF(ISBLANK(N4:N15), NA(), SUM(N4:N15))</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="38" t="e">
-        <f t="array" ref="L17">IF(ISBLANK(L3:L15), NA(), SUM(L3:L15))</f>
+      <c r="O17" s="38" t="e">
+        <f t="array" ref="O17">IF(ISBLANK(O4:O15), NA(), SUM(O4:O15))</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="38" t="e">
-        <f t="array" ref="M17">IF(ISBLANK(M3:M15), NA(), SUM(M3:M15))</f>
+      <c r="P17" s="38" t="e">
+        <f t="array" ref="P17">IF(ISBLANK(P4:P15), NA(), SUM(P4:P15))</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="38" t="e">
-        <f t="array" ref="N17">IF(ISBLANK(N3:N15), NA(), SUM(N3:N15))</f>
+      <c r="Q17" s="38" t="e">
+        <f t="array" ref="Q17">IF(ISBLANK(Q4:Q15), NA(), SUM(Q4:Q15))</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="38" t="e">
-        <f t="array" ref="O17">IF(ISBLANK(O3:O15), NA(), SUM(O3:O15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="38" t="e">
-        <f t="array" ref="P17">IF(ISBLANK(P3:P15), NA(), SUM(P3:P15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="38" t="e">
-        <f t="array" ref="Q17">IF(ISBLANK(Q3:Q15), NA(), SUM(Q3:Q15))</f>
-        <v>#N/A</v>
-      </c>
       <c r="R17" s="38" t="e">
-        <f t="array" ref="R17">IF(ISBLANK(R3:R15), NA(), SUM(R3:R15))</f>
+        <f t="array" ref="R17">IF(ISBLANK(R4:R15), NA(), SUM(R4:R15))</f>
         <v>#N/A</v>
       </c>
       <c r="S17" s="38"/>
@@ -9330,17 +9440,17 @@
         <v>38</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="38" t="e">
+      <c r="D18" s="38">
         <f>C17-D17</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
         <f t="shared" ref="E18:R18" si="0">D17-E17</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="38" t="e">
+        <v>6</v>
+      </c>
+      <c r="F18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="G18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9500,67 +9610,67 @@
       </c>
       <c r="C19" s="45">
         <f>C17</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D19" s="46">
         <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>39.200000000000003</v>
+        <v>45.733333333333334</v>
       </c>
       <c r="E19" s="46">
         <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>36.400000000000006</v>
+        <v>42.466666666666669</v>
       </c>
       <c r="F19" s="46">
         <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>33.600000000000009</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G19" s="46">
         <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>30.800000000000008</v>
+        <v>35.933333333333337</v>
       </c>
       <c r="H19" s="46">
         <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>28.000000000000007</v>
+        <v>32.666666666666671</v>
       </c>
       <c r="I19" s="46">
         <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>25.200000000000006</v>
+        <v>29.400000000000006</v>
       </c>
       <c r="J19" s="46">
         <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>22.400000000000006</v>
+        <v>26.13333333333334</v>
       </c>
       <c r="K19" s="46">
         <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>19.600000000000005</v>
+        <v>22.866666666666674</v>
       </c>
       <c r="L19" s="46">
         <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>16.800000000000004</v>
+        <v>19.600000000000009</v>
       </c>
       <c r="M19" s="46">
         <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>14.000000000000004</v>
+        <v>16.333333333333343</v>
       </c>
       <c r="N19" s="46">
         <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>11.200000000000003</v>
+        <v>13.066666666666677</v>
       </c>
       <c r="O19" s="46">
         <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>8.4000000000000021</v>
+        <v>9.8000000000000114</v>
       </c>
       <c r="P19" s="46">
         <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>5.6000000000000023</v>
+        <v>6.5333333333333448</v>
       </c>
       <c r="Q19" s="46">
         <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>2.8000000000000025</v>
+        <v>3.2666666666666782</v>
       </c>
       <c r="R19" s="46">
         <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>0</v>
+        <v>1.1546319456101628E-14</v>
       </c>
     </row>
     <row r="20" spans="1:120" s="56" customFormat="1">
@@ -9572,17 +9682,17 @@
         <f>1-C17/$C$17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="58" t="e">
+      <c r="D20" s="58">
         <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="58" t="e">
+        <v>0</v>
+      </c>
+      <c r="E20" s="58">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="58" t="e">
+        <v>0.12244897959183676</v>
+      </c>
+      <c r="F20" s="58">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18367346938775508</v>
       </c>
       <c r="G20" s="58" t="e">
         <f t="shared" si="1"/>
@@ -10934,11 +11044,11 @@
       <c r="R85" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D14:R15 D3:R12 B13:B15 E13:G13 B3:B11 A3:A15 C5:D8">
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12">
+    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1631,6 +1631,42 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1654,42 +1690,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1738,35 +1738,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -2099,7 +2071,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225287"/>
+          <c:x val="0.37032576667225298"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2117,9 +2089,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532429"/>
+          <c:y val="0.15742128935532435"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192314"/>
+          <c:h val="0.70464767616192325"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2429,11 +2401,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89847680"/>
-        <c:axId val="93339648"/>
+        <c:axId val="101373824"/>
+        <c:axId val="101728256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89847680"/>
+        <c:axId val="101373824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2437,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93339648"/>
+        <c:crossAx val="101728256"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2473,7 +2445,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93339648"/>
+        <c:axId val="101728256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2487,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89847680"/>
+        <c:crossAx val="101373824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2603,7 +2575,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000161" footer="0.49212598450000161"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2640,7 +2612,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225309"/>
+          <c:x val="0.37032576667225325"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2658,9 +2630,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532443"/>
+          <c:y val="0.15742128935532448"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192336"/>
+          <c:h val="0.70464767616192359"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2970,11 +2942,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93696768"/>
-        <c:axId val="93698688"/>
+        <c:axId val="102085376"/>
+        <c:axId val="102087296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93696768"/>
+        <c:axId val="102085376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +2978,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93698688"/>
+        <c:crossAx val="102087296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3014,7 +2986,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93698688"/>
+        <c:axId val="102087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3028,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93696768"/>
+        <c:crossAx val="102085376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3144,7 +3116,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3181,7 +3153,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225342"/>
+          <c:x val="0.37032576667225353"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3199,9 +3171,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532454"/>
+          <c:y val="0.1574212893553246"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192381"/>
+          <c:h val="0.70464767616192392"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3511,11 +3483,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93760512"/>
-        <c:axId val="93762688"/>
+        <c:axId val="102157312"/>
+        <c:axId val="102159488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93760512"/>
+        <c:axId val="102157312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,7 +3519,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93762688"/>
+        <c:crossAx val="102159488"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3555,7 +3527,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93762688"/>
+        <c:axId val="102159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,7 +3569,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93760512"/>
+        <c:crossAx val="102157312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3685,7 +3657,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3722,7 +3694,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722537"/>
+          <c:x val="0.37032576667225386"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3740,9 +3712,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532468"/>
+          <c:y val="0.15742128935532476"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192403"/>
+          <c:h val="0.70464767616192414"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4052,11 +4024,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93550080"/>
-        <c:axId val="93552000"/>
+        <c:axId val="101946880"/>
+        <c:axId val="101948800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93550080"/>
+        <c:axId val="101946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4060,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93552000"/>
+        <c:crossAx val="101948800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4096,7 +4068,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93552000"/>
+        <c:axId val="101948800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,7 +4110,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93550080"/>
+        <c:crossAx val="101946880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4226,7 +4198,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000195" footer="0.49212598450000195"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500002" footer="0.492125984500002"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,10 +4214,10 @@
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28385</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4274,15 +4246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>120428</xdr:colOff>
+      <xdr:colOff>120427</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>127076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99734</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4698,10 +4670,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="171"/>
+      <c r="E1" s="183"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4713,10 +4685,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="173"/>
+      <c r="E2" s="185"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4732,8 +4704,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4741,9 +4713,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6099,10 +6071,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6117,7 +6089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -8636,18 +8608,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8663,7 +8635,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8890,21 +8862,21 @@
       <c r="E4" s="153">
         <v>6</v>
       </c>
-      <c r="F4" s="174">
+      <c r="F4" s="166">
         <v>5</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="171"/>
     </row>
     <row r="5" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="159" t="s">
@@ -8920,21 +8892,21 @@
       <c r="E5" s="155">
         <v>1</v>
       </c>
-      <c r="F5" s="174">
+      <c r="F5" s="166">
         <v>0</v>
       </c>
-      <c r="G5" s="175"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="171"/>
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
@@ -8954,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="156"/>
-      <c r="H6" s="177"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="156"/>
       <c r="J6" s="156"/>
       <c r="K6" s="156"/>
@@ -8964,7 +8936,7 @@
       <c r="O6" s="156"/>
       <c r="P6" s="156"/>
       <c r="Q6" s="156"/>
-      <c r="R6" s="178"/>
+      <c r="R6" s="170"/>
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
@@ -8984,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="156"/>
-      <c r="H7" s="177"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="156"/>
       <c r="J7" s="156"/>
       <c r="K7" s="156"/>
@@ -8994,7 +8966,7 @@
       <c r="O7" s="156"/>
       <c r="P7" s="156"/>
       <c r="Q7" s="156"/>
-      <c r="R7" s="178"/>
+      <c r="R7" s="170"/>
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
@@ -9010,11 +8982,11 @@
       <c r="E8" s="153">
         <v>2</v>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="166">
         <v>1</v>
       </c>
       <c r="G8" s="156"/>
-      <c r="H8" s="177"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="156"/>
       <c r="J8" s="156"/>
       <c r="K8" s="156"/>
@@ -9024,7 +8996,7 @@
       <c r="O8" s="156"/>
       <c r="P8" s="156"/>
       <c r="Q8" s="156"/>
-      <c r="R8" s="178"/>
+      <c r="R8" s="170"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
@@ -9046,7 +9018,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="156"/>
-      <c r="H9" s="177"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="156"/>
       <c r="J9" s="156"/>
       <c r="K9" s="156"/>
@@ -9056,7 +9028,7 @@
       <c r="O9" s="156"/>
       <c r="P9" s="156"/>
       <c r="Q9" s="156"/>
-      <c r="R9" s="178"/>
+      <c r="R9" s="170"/>
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
@@ -9078,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="156"/>
-      <c r="H10" s="177"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="156"/>
       <c r="J10" s="156"/>
       <c r="K10" s="156"/>
@@ -9088,7 +9060,7 @@
       <c r="O10" s="156"/>
       <c r="P10" s="156"/>
       <c r="Q10" s="156"/>
-      <c r="R10" s="178"/>
+      <c r="R10" s="170"/>
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
@@ -9110,7 +9082,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="156"/>
-      <c r="H11" s="177"/>
+      <c r="H11" s="169"/>
       <c r="I11" s="156"/>
       <c r="J11" s="156"/>
       <c r="K11" s="156"/>
@@ -9120,7 +9092,7 @@
       <c r="O11" s="156"/>
       <c r="P11" s="156"/>
       <c r="Q11" s="156"/>
-      <c r="R11" s="178"/>
+      <c r="R11" s="170"/>
     </row>
     <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="89" t="s">
@@ -9131,18 +9103,18 @@
       <c r="D12" s="91"/>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="178"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="170"/>
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
@@ -9164,17 +9136,17 @@
         <v>6</v>
       </c>
       <c r="G13" s="156"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
     </row>
     <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
@@ -9196,7 +9168,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="105"/>
-      <c r="H14" s="184"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="155"/>
       <c r="J14" s="155"/>
       <c r="K14" s="155"/>
@@ -9206,7 +9178,7 @@
       <c r="O14" s="155"/>
       <c r="P14" s="155"/>
       <c r="Q14" s="155"/>
-      <c r="R14" s="185"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
@@ -9228,7 +9200,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="105"/>
-      <c r="H15" s="184"/>
+      <c r="H15" s="176"/>
       <c r="I15" s="155"/>
       <c r="J15" s="155"/>
       <c r="K15" s="155"/>
@@ -9238,7 +9210,7 @@
       <c r="O15" s="155"/>
       <c r="P15" s="155"/>
       <c r="Q15" s="155"/>
-      <c r="R15" s="185"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="38"/>
@@ -9613,63 +9585,63 @@
         <v>49</v>
       </c>
       <c r="D19" s="46">
-        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>45.733333333333334</v>
       </c>
       <c r="E19" s="46">
-        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>42.466666666666669</v>
       </c>
       <c r="F19" s="46">
-        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G19" s="46">
-        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.933333333333337</v>
       </c>
       <c r="H19" s="46">
-        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>32.666666666666671</v>
       </c>
       <c r="I19" s="46">
-        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>29.400000000000006</v>
       </c>
       <c r="J19" s="46">
-        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>26.13333333333334</v>
       </c>
       <c r="K19" s="46">
-        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>22.866666666666674</v>
       </c>
       <c r="L19" s="46">
-        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>19.600000000000009</v>
       </c>
       <c r="M19" s="46">
-        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>16.333333333333343</v>
       </c>
       <c r="N19" s="46">
-        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>13.066666666666677</v>
       </c>
       <c r="O19" s="46">
-        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>9.8000000000000114</v>
       </c>
       <c r="P19" s="46">
-        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>6.5333333333333448</v>
       </c>
       <c r="Q19" s="46">
-        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.2666666666666782</v>
       </c>
       <c r="R19" s="46">
-        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.1546319456101628E-14</v>
       </c>
     </row>
@@ -9683,63 +9655,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
         <v>0</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12244897959183676</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18367346938775508</v>
       </c>
       <c r="G20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="M20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="N20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="O20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="P20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11045,10 +11017,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13043,50 +13015,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15206,50 +15178,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -2747,7 +2747,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -8634,9 +8634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -8893,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="167"/>
       <c r="H5" s="168"/>
@@ -9253,7 +9251,7 @@
       </c>
       <c r="F17" s="38">
         <f t="array" ref="F17">IF(ISBLANK(F4:F15), NA(), SUM(F4:F15))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="38" t="e">
         <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
@@ -9422,7 +9420,7 @@
       </c>
       <c r="F18" s="38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9664,7 +9662,7 @@
       </c>
       <c r="F20" s="58">
         <f t="shared" si="2"/>
-        <v>0.18367346938775508</v>
+        <v>0.16326530612244894</v>
       </c>
       <c r="G20" s="58" t="e">
         <f t="shared" si="2"/>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -587,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,17 +741,6 @@
       <patternFill patternType="lightUp">
         <fgColor theme="1"/>
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="1"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1152,7 +1141,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1637,33 +1626,18 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1690,6 +1664,9 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1738,7 +1715,49 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2071,7 +2090,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225298"/>
+          <c:x val="0.37032576667225309"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2089,9 +2108,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532435"/>
+          <c:y val="0.15742128935532443"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192325"/>
+          <c:h val="0.70464767616192336"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2401,11 +2420,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101373824"/>
-        <c:axId val="101728256"/>
+        <c:axId val="110950272"/>
+        <c:axId val="111296512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101373824"/>
+        <c:axId val="110950272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2456,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101728256"/>
+        <c:crossAx val="111296512"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2445,7 +2464,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101728256"/>
+        <c:axId val="111296512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2506,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101373824"/>
+        <c:crossAx val="110950272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2575,7 +2594,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000167" footer="0.49212598450000167"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2612,7 +2631,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225325"/>
+          <c:x val="0.37032576667225342"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2630,9 +2649,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532448"/>
+          <c:y val="0.15742128935532454"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192359"/>
+          <c:h val="0.70464767616192381"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2744,13 +2763,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2942,11 +2961,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102085376"/>
-        <c:axId val="102087296"/>
+        <c:axId val="112702208"/>
+        <c:axId val="112704128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102085376"/>
+        <c:axId val="112702208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2997,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102087296"/>
+        <c:crossAx val="112704128"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2986,7 +3005,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102087296"/>
+        <c:axId val="112704128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3047,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102085376"/>
+        <c:crossAx val="112702208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3116,7 +3135,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,7 +3172,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225353"/>
+          <c:x val="0.3703257666722537"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3171,9 +3190,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553246"/>
+          <c:y val="0.15742128935532468"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192392"/>
+          <c:h val="0.70464767616192403"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3483,11 +3502,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102157312"/>
-        <c:axId val="102159488"/>
+        <c:axId val="112770048"/>
+        <c:axId val="112772224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102157312"/>
+        <c:axId val="112770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,7 +3538,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102159488"/>
+        <c:crossAx val="112772224"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3527,7 +3546,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102159488"/>
+        <c:axId val="112772224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3588,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102157312"/>
+        <c:crossAx val="112770048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3657,7 +3676,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000195" footer="0.49212598450000195"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3694,7 +3713,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225386"/>
+          <c:x val="0.37032576667225398"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3712,9 +3731,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532476"/>
+          <c:y val="0.15742128935532482"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192414"/>
+          <c:h val="0.70464767616192425"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4024,11 +4043,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101946880"/>
-        <c:axId val="101948800"/>
+        <c:axId val="112559616"/>
+        <c:axId val="112561536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101946880"/>
+        <c:axId val="112559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4079,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101948800"/>
+        <c:crossAx val="112561536"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4068,7 +4087,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101948800"/>
+        <c:axId val="112561536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4129,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101946880"/>
+        <c:crossAx val="112559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4198,7 +4217,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500002" footer="0.492125984500002"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000206" footer="0.49212598450000206"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4670,10 +4689,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="183"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4685,10 +4704,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="185"/>
+      <c r="E2" s="180"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4704,8 +4723,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4713,9 +4732,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="180"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6071,10 +6090,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8608,18 +8627,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8634,7 +8653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -8863,8 +8884,10 @@
       <c r="F4" s="166">
         <v>5</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="168"/>
+      <c r="G4" s="167">
+        <v>0</v>
+      </c>
+      <c r="H4" s="181"/>
       <c r="I4" s="167"/>
       <c r="J4" s="167"/>
       <c r="K4" s="167"/>
@@ -8874,7 +8897,7 @@
       <c r="O4" s="167"/>
       <c r="P4" s="167"/>
       <c r="Q4" s="167"/>
-      <c r="R4" s="171"/>
+      <c r="R4" s="169"/>
     </row>
     <row r="5" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="159" t="s">
@@ -8893,8 +8916,10 @@
       <c r="F5" s="166">
         <v>1</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="G5" s="167">
+        <v>0</v>
+      </c>
+      <c r="H5" s="181"/>
       <c r="I5" s="167"/>
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
@@ -8904,7 +8929,7 @@
       <c r="O5" s="167"/>
       <c r="P5" s="167"/>
       <c r="Q5" s="167"/>
-      <c r="R5" s="171"/>
+      <c r="R5" s="169"/>
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
@@ -8923,8 +8948,10 @@
       <c r="F6" s="156">
         <v>1</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="169"/>
+      <c r="G6" s="156">
+        <v>1</v>
+      </c>
+      <c r="H6" s="181"/>
       <c r="I6" s="156"/>
       <c r="J6" s="156"/>
       <c r="K6" s="156"/>
@@ -8934,7 +8961,7 @@
       <c r="O6" s="156"/>
       <c r="P6" s="156"/>
       <c r="Q6" s="156"/>
-      <c r="R6" s="170"/>
+      <c r="R6" s="168"/>
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
@@ -8948,13 +8975,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="156">
-        <v>1</v>
-      </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="169"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="156">
+        <v>0</v>
+      </c>
+      <c r="H7" s="181"/>
       <c r="I7" s="156"/>
       <c r="J7" s="156"/>
       <c r="K7" s="156"/>
@@ -8964,7 +8993,7 @@
       <c r="O7" s="156"/>
       <c r="P7" s="156"/>
       <c r="Q7" s="156"/>
-      <c r="R7" s="170"/>
+      <c r="R7" s="168"/>
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
@@ -8983,9 +9012,11 @@
       <c r="F8" s="166">
         <v>1</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="156"/>
+      <c r="G8" s="167">
+        <v>0</v>
+      </c>
+      <c r="H8" s="181"/>
+      <c r="I8" s="167"/>
       <c r="J8" s="156"/>
       <c r="K8" s="156"/>
       <c r="L8" s="156"/>
@@ -8994,7 +9025,7 @@
       <c r="O8" s="156"/>
       <c r="P8" s="156"/>
       <c r="Q8" s="156"/>
-      <c r="R8" s="170"/>
+      <c r="R8" s="168"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
@@ -9015,9 +9046,11 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="156"/>
+      <c r="G9" s="72">
+        <v>5</v>
+      </c>
+      <c r="H9" s="158"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="156"/>
       <c r="K9" s="156"/>
       <c r="L9" s="156"/>
@@ -9026,7 +9059,7 @@
       <c r="O9" s="156"/>
       <c r="P9" s="156"/>
       <c r="Q9" s="156"/>
-      <c r="R9" s="170"/>
+      <c r="R9" s="168"/>
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
@@ -9047,9 +9080,11 @@
       <c r="F10" s="72">
         <v>3</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="156"/>
+      <c r="G10" s="72">
+        <v>3</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="156"/>
       <c r="K10" s="156"/>
       <c r="L10" s="156"/>
@@ -9058,7 +9093,7 @@
       <c r="O10" s="156"/>
       <c r="P10" s="156"/>
       <c r="Q10" s="156"/>
-      <c r="R10" s="170"/>
+      <c r="R10" s="168"/>
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
@@ -9079,9 +9114,11 @@
       <c r="F11" s="72">
         <v>6</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="156"/>
+      <c r="G11" s="72">
+        <v>6</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="156"/>
       <c r="K11" s="156"/>
       <c r="L11" s="156"/>
@@ -9090,7 +9127,7 @@
       <c r="O11" s="156"/>
       <c r="P11" s="156"/>
       <c r="Q11" s="156"/>
-      <c r="R11" s="170"/>
+      <c r="R11" s="168"/>
     </row>
     <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="89" t="s">
@@ -9101,18 +9138,18 @@
       <c r="D12" s="91"/>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="170"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="168"/>
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
@@ -9133,18 +9170,20 @@
       <c r="F13" s="72">
         <v>6</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="175"/>
+      <c r="G13" s="72">
+        <v>6</v>
+      </c>
+      <c r="H13" s="158"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
     </row>
     <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
@@ -9165,9 +9204,11 @@
       <c r="F14" s="72">
         <v>6</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="155"/>
+      <c r="G14" s="72">
+        <v>6</v>
+      </c>
+      <c r="H14" s="158"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="155"/>
       <c r="K14" s="155"/>
       <c r="L14" s="155"/>
@@ -9176,7 +9217,7 @@
       <c r="O14" s="155"/>
       <c r="P14" s="155"/>
       <c r="Q14" s="155"/>
-      <c r="R14" s="177"/>
+      <c r="R14" s="172"/>
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
@@ -9197,9 +9238,11 @@
       <c r="F15" s="72">
         <v>6</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="155"/>
+      <c r="G15" s="72">
+        <v>6</v>
+      </c>
+      <c r="H15" s="158"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="155"/>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
@@ -9208,7 +9251,7 @@
       <c r="O15" s="155"/>
       <c r="P15" s="155"/>
       <c r="Q15" s="155"/>
-      <c r="R15" s="177"/>
+      <c r="R15" s="172"/>
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="38"/>
@@ -9247,15 +9290,15 @@
       </c>
       <c r="E17" s="38">
         <f t="array" ref="E17">IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="38">
         <f t="array" ref="F17">IF(ISBLANK(F4:F15), NA(), SUM(F4:F15))</f>
-        <v>41</v>
-      </c>
-      <c r="G17" s="38" t="e">
+        <v>40</v>
+      </c>
+      <c r="G17" s="38">
         <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="H17" s="38" t="e">
         <f t="array" ref="H17">IF(ISBLANK(H4:H15), NA(), SUM(H4:H15))</f>
@@ -9416,15 +9459,15 @@
       </c>
       <c r="E18" s="38">
         <f t="shared" ref="E18:R18" si="0">D17-E17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G18" s="38" t="e">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="H18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9658,15 +9701,15 @@
       </c>
       <c r="E20" s="58">
         <f t="shared" si="2"/>
-        <v>0.12244897959183676</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="F20" s="58">
         <f t="shared" si="2"/>
-        <v>0.16326530612244894</v>
-      </c>
-      <c r="G20" s="58" t="e">
+        <v>0.18367346938775508</v>
+      </c>
+      <c r="G20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.32653061224489799</v>
       </c>
       <c r="H20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -11014,11 +11057,11 @@
       <c r="R85" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12">
-    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:I15">
+    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13013,50 +13056,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15176,50 +15219,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1641,6 +1641,9 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1664,9 +1667,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1715,35 +1715,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -2090,7 +2062,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225309"/>
+          <c:x val="0.37032576667225325"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2108,9 +2080,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532443"/>
+          <c:y val="0.15742128935532448"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192336"/>
+          <c:h val="0.70464767616192359"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2420,11 +2392,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110950272"/>
-        <c:axId val="111296512"/>
+        <c:axId val="102619008"/>
+        <c:axId val="105074688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110950272"/>
+        <c:axId val="102619008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2428,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111296512"/>
+        <c:crossAx val="105074688"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2464,7 +2436,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111296512"/>
+        <c:axId val="105074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2478,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110950272"/>
+        <c:crossAx val="102619008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,7 +2566,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000172" footer="0.49212598450000172"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2631,7 +2603,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225342"/>
+          <c:x val="0.37032576667225353"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2649,9 +2621,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532454"/>
+          <c:y val="0.1574212893553246"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192381"/>
+          <c:h val="0.70464767616192392"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2772,10 +2744,10 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -2961,11 +2933,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112702208"/>
-        <c:axId val="112704128"/>
+        <c:axId val="105423616"/>
+        <c:axId val="105425536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112702208"/>
+        <c:axId val="105423616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,7 +2969,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112704128"/>
+        <c:crossAx val="105425536"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3005,7 +2977,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112704128"/>
+        <c:axId val="105425536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3019,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112702208"/>
+        <c:crossAx val="105423616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,7 +3107,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3172,7 +3144,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722537"/>
+          <c:x val="0.37032576667225386"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3190,9 +3162,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532468"/>
+          <c:y val="0.15742128935532476"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192403"/>
+          <c:h val="0.70464767616192414"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3502,11 +3474,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112770048"/>
-        <c:axId val="112772224"/>
+        <c:axId val="105303040"/>
+        <c:axId val="105305216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112770048"/>
+        <c:axId val="105303040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,7 +3510,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112772224"/>
+        <c:crossAx val="105305216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3546,7 +3518,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112772224"/>
+        <c:axId val="105305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +3560,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112770048"/>
+        <c:crossAx val="105303040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,7 +3648,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000195" footer="0.49212598450000195"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500002" footer="0.492125984500002"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3713,7 +3685,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225398"/>
+          <c:x val="0.37032576667225409"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3731,9 +3703,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532482"/>
+          <c:y val="0.1574212893553249"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192425"/>
+          <c:h val="0.70464767616192436"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4043,11 +4015,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112559616"/>
-        <c:axId val="112561536"/>
+        <c:axId val="105350656"/>
+        <c:axId val="105352576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112559616"/>
+        <c:axId val="105350656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,7 +4051,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112561536"/>
+        <c:crossAx val="105352576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4087,7 +4059,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112561536"/>
+        <c:axId val="105352576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4101,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112559616"/>
+        <c:crossAx val="105350656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4217,7 +4189,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000206" footer="0.49212598450000206"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000211" footer="0.49212598450000211"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4689,10 +4661,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="178"/>
+      <c r="E1" s="179"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4704,10 +4676,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="179" t="s">
+      <c r="D2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4723,8 +4695,8 @@
         <f>MAX(A13:A48)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4732,9 +4704,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="177"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -6090,10 +6062,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8627,18 +8599,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8654,7 +8626,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8887,8 +8859,12 @@
       <c r="G4" s="167">
         <v>0</v>
       </c>
-      <c r="H4" s="181"/>
-      <c r="I4" s="167"/>
+      <c r="H4" s="173">
+        <v>0</v>
+      </c>
+      <c r="I4" s="167">
+        <v>0</v>
+      </c>
       <c r="J4" s="167"/>
       <c r="K4" s="167"/>
       <c r="L4" s="167"/>
@@ -8919,8 +8895,12 @@
       <c r="G5" s="167">
         <v>0</v>
       </c>
-      <c r="H5" s="181"/>
-      <c r="I5" s="167"/>
+      <c r="H5" s="173">
+        <v>0</v>
+      </c>
+      <c r="I5" s="167">
+        <v>0</v>
+      </c>
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="167"/>
@@ -8948,11 +8928,15 @@
       <c r="F6" s="156">
         <v>1</v>
       </c>
-      <c r="G6" s="156">
+      <c r="G6" s="166">
         <v>1</v>
       </c>
-      <c r="H6" s="181"/>
-      <c r="I6" s="156"/>
+      <c r="H6" s="173">
+        <v>1</v>
+      </c>
+      <c r="I6" s="156">
+        <v>0</v>
+      </c>
       <c r="J6" s="156"/>
       <c r="K6" s="156"/>
       <c r="L6" s="156"/>
@@ -8983,8 +8967,12 @@
       <c r="G7" s="156">
         <v>0</v>
       </c>
-      <c r="H7" s="181"/>
-      <c r="I7" s="156"/>
+      <c r="H7" s="173">
+        <v>0</v>
+      </c>
+      <c r="I7" s="156">
+        <v>0</v>
+      </c>
       <c r="J7" s="156"/>
       <c r="K7" s="156"/>
       <c r="L7" s="156"/>
@@ -9015,8 +9003,12 @@
       <c r="G8" s="167">
         <v>0</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="167"/>
+      <c r="H8" s="173">
+        <v>0</v>
+      </c>
+      <c r="I8" s="167">
+        <v>0</v>
+      </c>
       <c r="J8" s="156"/>
       <c r="K8" s="156"/>
       <c r="L8" s="156"/>
@@ -9046,11 +9038,15 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="153">
         <v>5</v>
       </c>
-      <c r="H9" s="158"/>
-      <c r="I9" s="72"/>
+      <c r="H9" s="158">
+        <v>5</v>
+      </c>
+      <c r="I9" s="72">
+        <v>2</v>
+      </c>
       <c r="J9" s="156"/>
       <c r="K9" s="156"/>
       <c r="L9" s="156"/>
@@ -9080,11 +9076,15 @@
       <c r="F10" s="72">
         <v>3</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="153">
         <v>3</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="72"/>
+      <c r="H10" s="158">
+        <v>3</v>
+      </c>
+      <c r="I10" s="72">
+        <v>3</v>
+      </c>
       <c r="J10" s="156"/>
       <c r="K10" s="156"/>
       <c r="L10" s="156"/>
@@ -9117,8 +9117,12 @@
       <c r="G11" s="72">
         <v>6</v>
       </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="158">
+        <v>6</v>
+      </c>
+      <c r="I11" s="72">
+        <v>6</v>
+      </c>
       <c r="J11" s="156"/>
       <c r="K11" s="156"/>
       <c r="L11" s="156"/>
@@ -9173,8 +9177,12 @@
       <c r="G13" s="72">
         <v>6</v>
       </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="72"/>
+      <c r="H13" s="158">
+        <v>6</v>
+      </c>
+      <c r="I13" s="72">
+        <v>6</v>
+      </c>
       <c r="J13" s="170"/>
       <c r="K13" s="170"/>
       <c r="L13" s="170"/>
@@ -9207,8 +9215,12 @@
       <c r="G14" s="72">
         <v>6</v>
       </c>
-      <c r="H14" s="158"/>
-      <c r="I14" s="72"/>
+      <c r="H14" s="158">
+        <v>6</v>
+      </c>
+      <c r="I14" s="72">
+        <v>6</v>
+      </c>
       <c r="J14" s="155"/>
       <c r="K14" s="155"/>
       <c r="L14" s="155"/>
@@ -9241,8 +9253,12 @@
       <c r="G15" s="72">
         <v>6</v>
       </c>
-      <c r="H15" s="158"/>
-      <c r="I15" s="72"/>
+      <c r="H15" s="158">
+        <v>6</v>
+      </c>
+      <c r="I15" s="72">
+        <v>6</v>
+      </c>
       <c r="J15" s="155"/>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
@@ -9300,13 +9316,13 @@
         <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
         <v>33</v>
       </c>
-      <c r="H17" s="38" t="e">
+      <c r="H17" s="38">
         <f t="array" ref="H17">IF(ISBLANK(H4:H15), NA(), SUM(H4:H15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="38" t="e">
+        <v>33</v>
+      </c>
+      <c r="I17" s="38">
         <f t="array" ref="I17">IF(ISBLANK(I4:I15), NA(), SUM(I4:I15))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="J17" s="38" t="e">
         <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
@@ -9469,13 +9485,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H18" s="38" t="e">
+      <c r="H18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="J18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9711,13 +9727,13 @@
         <f t="shared" si="2"/>
         <v>0.32653061224489799</v>
       </c>
-      <c r="H20" s="58" t="e">
+      <c r="H20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="58" t="e">
+        <v>0.32653061224489799</v>
+      </c>
+      <c r="I20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="J20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -11058,10 +11074,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:I15">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13056,50 +13072,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15219,50 +15235,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -1715,21 +1715,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -2062,7 +2048,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225325"/>
+          <c:x val="0.37032576667225353"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2080,9 +2066,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532448"/>
+          <c:y val="0.1574212893553246"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192359"/>
+          <c:h val="0.70464767616192392"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2392,11 +2378,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102619008"/>
-        <c:axId val="105074688"/>
+        <c:axId val="100456320"/>
+        <c:axId val="100548608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102619008"/>
+        <c:axId val="100456320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2414,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105074688"/>
+        <c:crossAx val="100548608"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2436,7 +2422,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105074688"/>
+        <c:axId val="100548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,548 +2464,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102619008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82639198178585549"/>
-          <c:y val="3.2983508245877091E-2"/>
-          <c:w val="0.11675295106908352"/>
-          <c:h val="9.145427286356822E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000178" footer="0.49212598450000178"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37032576667225353"/>
-          <c:y val="2.6986506746626688E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553246"/>
-          <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192392"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000080"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.933333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.13333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.866666666666674</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.066666666666677</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.8000000000000114</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5333333333333448</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2666666666666782</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1546319456101628E-14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="105423616"/>
-        <c:axId val="105425536"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="105423616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105425536"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="105425536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105423616"/>
+        <c:crossAx val="100456320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3113,7 +2558,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3135,7 +2580,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 3</a:t>
+              <a:t>Suivi charge Iteration 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3174,7 +2619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$12</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3208,87 +2653,87 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3326,7 +2771,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$14</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3360,125 +2805,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.533333333333331</c:v>
+                  <c:v>45.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.066666666666663</c:v>
+                  <c:v>42.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.599999999999994</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.133333333333326</c:v>
+                  <c:v>35.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.666666666666657</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.199999999999989</c:v>
+                  <c:v>29.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73333333333332</c:v>
+                  <c:v>26.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.266666666666652</c:v>
+                  <c:v>22.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999983</c:v>
+                  <c:v>19.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.333333333333314</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.866666666666648</c:v>
+                  <c:v>13.066666666666677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.399999999999981</c:v>
+                  <c:v>9.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333314</c:v>
+                  <c:v>6.5333333333333448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4666666666666472</c:v>
+                  <c:v>3.2666666666666782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9539925233402755E-14</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105303040"/>
-        <c:axId val="105305216"/>
+        <c:axId val="104309504"/>
+        <c:axId val="104311424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105303040"/>
+        <c:axId val="104309504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +2955,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105305216"/>
+        <c:crossAx val="104311424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3518,7 +2963,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105305216"/>
+        <c:axId val="104311424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3005,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105303040"/>
+        <c:crossAx val="104309504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3654,7 +3099,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3676,7 +3121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 4</a:t>
+              <a:t>Suivi charge Iteration 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3715,7 +3160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:f>'Iteration 3'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3749,69 +3194,69 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3867,7 +3312,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:f>'Iteration 3'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3901,125 +3346,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>48.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>45.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>41.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.533333333333331</c:v>
+                  <c:v>38.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>34.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.799999999999997</c:v>
+                  <c:v>31.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.93333333333333</c:v>
+                  <c:v>27.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.066666666666663</c:v>
+                  <c:v>24.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>20.799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>17.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666615</c:v>
+                  <c:v>13.866666666666648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>10.399999999999981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7333333333333276</c:v>
+                  <c:v>6.933333333333314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8666666666666609</c:v>
+                  <c:v>3.4666666666666472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.773159728050814E-15</c:v>
+                  <c:v>-1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105350656"/>
-        <c:axId val="105352576"/>
+        <c:axId val="104385536"/>
+        <c:axId val="104387712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105350656"/>
+        <c:axId val="104385536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +3496,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105352576"/>
+        <c:crossAx val="104387712"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4059,7 +3504,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105352576"/>
+        <c:axId val="104387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +3546,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105350656"/>
+        <c:crossAx val="104385536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4190,6 +3635,547 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000211" footer="0.49212598450000211"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Suivi charge Iteration 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37032576667225442"/>
+          <c:y val="2.6986506746626688E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532501"/>
+          <c:w val="0.92946294640153049"/>
+          <c:h val="0.70464767616192481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.066666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7333333333333276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8666666666666609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.773159728050814E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="104171008"/>
+        <c:axId val="104172928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104171008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104172928"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104172928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104171008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82639198178585549"/>
+          <c:y val="3.2983508245877091E-2"/>
+          <c:w val="0.11675295106908352"/>
+          <c:h val="9.145427286356822E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4637,7 +4623,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6062,10 +6048,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6080,8 +6066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R1:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8599,18 +8585,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8625,9 +8611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11074,10 +11058,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:I15">
-    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13072,50 +13056,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15235,50 +15219,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -1715,7 +1715,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2736,7 +2750,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -6048,10 +6062,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8585,18 +8599,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8611,7 +8625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -8849,7 +8865,9 @@
       <c r="I4" s="167">
         <v>0</v>
       </c>
-      <c r="J4" s="167"/>
+      <c r="J4" s="167">
+        <v>0</v>
+      </c>
       <c r="K4" s="167"/>
       <c r="L4" s="167"/>
       <c r="M4" s="167"/>
@@ -8885,7 +8903,9 @@
       <c r="I5" s="167">
         <v>0</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="167">
+        <v>0</v>
+      </c>
       <c r="K5" s="167"/>
       <c r="L5" s="167"/>
       <c r="M5" s="167"/>
@@ -8921,7 +8941,9 @@
       <c r="I6" s="156">
         <v>0</v>
       </c>
-      <c r="J6" s="156"/>
+      <c r="J6" s="156">
+        <v>0</v>
+      </c>
       <c r="K6" s="156"/>
       <c r="L6" s="156"/>
       <c r="M6" s="156"/>
@@ -8957,7 +8979,9 @@
       <c r="I7" s="156">
         <v>0</v>
       </c>
-      <c r="J7" s="156"/>
+      <c r="J7" s="156">
+        <v>0</v>
+      </c>
       <c r="K7" s="156"/>
       <c r="L7" s="156"/>
       <c r="M7" s="156"/>
@@ -8993,7 +9017,9 @@
       <c r="I8" s="167">
         <v>0</v>
       </c>
-      <c r="J8" s="156"/>
+      <c r="J8" s="167">
+        <v>0</v>
+      </c>
       <c r="K8" s="156"/>
       <c r="L8" s="156"/>
       <c r="M8" s="156"/>
@@ -9028,10 +9054,12 @@
       <c r="H9" s="158">
         <v>5</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="153">
         <v>2</v>
       </c>
-      <c r="J9" s="156"/>
+      <c r="J9" s="72">
+        <v>1</v>
+      </c>
       <c r="K9" s="156"/>
       <c r="L9" s="156"/>
       <c r="M9" s="156"/>
@@ -9066,10 +9094,12 @@
       <c r="H10" s="158">
         <v>3</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="153">
         <v>3</v>
       </c>
-      <c r="J10" s="156"/>
+      <c r="J10" s="72">
+        <v>3</v>
+      </c>
       <c r="K10" s="156"/>
       <c r="L10" s="156"/>
       <c r="M10" s="156"/>
@@ -9098,16 +9128,18 @@
       <c r="F11" s="72">
         <v>6</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="155">
         <v>6</v>
       </c>
       <c r="H11" s="158">
         <v>6</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="153">
         <v>6</v>
       </c>
-      <c r="J11" s="156"/>
+      <c r="J11" s="72">
+        <v>3</v>
+      </c>
       <c r="K11" s="156"/>
       <c r="L11" s="156"/>
       <c r="M11" s="156"/>
@@ -9129,7 +9161,7 @@
       <c r="G12" s="91"/>
       <c r="H12" s="158"/>
       <c r="I12" s="91"/>
-      <c r="J12" s="169"/>
+      <c r="J12" s="91"/>
       <c r="K12" s="169"/>
       <c r="L12" s="169"/>
       <c r="M12" s="169"/>
@@ -9164,10 +9196,12 @@
       <c r="H13" s="158">
         <v>6</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="153">
         <v>6</v>
       </c>
-      <c r="J13" s="170"/>
+      <c r="J13" s="72">
+        <v>5</v>
+      </c>
       <c r="K13" s="170"/>
       <c r="L13" s="170"/>
       <c r="M13" s="170"/>
@@ -9205,7 +9239,9 @@
       <c r="I14" s="72">
         <v>6</v>
       </c>
-      <c r="J14" s="155"/>
+      <c r="J14" s="72">
+        <v>6</v>
+      </c>
       <c r="K14" s="155"/>
       <c r="L14" s="155"/>
       <c r="M14" s="155"/>
@@ -9243,7 +9279,9 @@
       <c r="I15" s="72">
         <v>6</v>
       </c>
-      <c r="J15" s="155"/>
+      <c r="J15" s="72">
+        <v>6</v>
+      </c>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
@@ -9308,9 +9346,9 @@
         <f t="array" ref="I17">IF(ISBLANK(I4:I15), NA(), SUM(I4:I15))</f>
         <v>29</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="38">
         <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="K17" s="38" t="e">
         <f t="array" ref="K17">IF(ISBLANK(K4:K15), NA(), SUM(K4:K15))</f>
@@ -9477,9 +9515,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J18" s="38" t="e">
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="K18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9719,9 +9757,9 @@
         <f t="shared" si="2"/>
         <v>0.40816326530612246</v>
       </c>
-      <c r="J20" s="58" t="e">
+      <c r="J20" s="58">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="K20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -11057,11 +11095,11 @@
       <c r="R85" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:I15">
-    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:J15">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13056,50 +13094,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15219,50 +15257,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -1715,21 +1715,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -6062,10 +6048,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="33" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8599,18 +8585,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8626,7 +8612,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -9664,63 +9650,63 @@
         <v>49</v>
       </c>
       <c r="D19" s="46">
-        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>45.733333333333334</v>
       </c>
       <c r="E19" s="46">
-        <f t="shared" si="1"/>
+        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>42.466666666666669</v>
       </c>
       <c r="F19" s="46">
-        <f t="shared" si="1"/>
+        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>39.200000000000003</v>
       </c>
       <c r="G19" s="46">
-        <f t="shared" si="1"/>
+        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>35.933333333333337</v>
       </c>
       <c r="H19" s="46">
-        <f t="shared" si="1"/>
+        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>32.666666666666671</v>
       </c>
       <c r="I19" s="46">
-        <f t="shared" si="1"/>
+        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>29.400000000000006</v>
       </c>
       <c r="J19" s="46">
-        <f t="shared" si="1"/>
+        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>26.13333333333334</v>
       </c>
       <c r="K19" s="46">
-        <f t="shared" si="1"/>
+        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>22.866666666666674</v>
       </c>
       <c r="L19" s="46">
-        <f t="shared" si="1"/>
+        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>19.600000000000009</v>
       </c>
       <c r="M19" s="46">
-        <f t="shared" si="1"/>
+        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>16.333333333333343</v>
       </c>
       <c r="N19" s="46">
-        <f t="shared" si="1"/>
+        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>13.066666666666677</v>
       </c>
       <c r="O19" s="46">
-        <f t="shared" si="1"/>
+        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>9.8000000000000114</v>
       </c>
       <c r="P19" s="46">
-        <f t="shared" si="1"/>
+        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>6.5333333333333448</v>
       </c>
       <c r="Q19" s="46">
-        <f t="shared" si="1"/>
+        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>3.2666666666666782</v>
       </c>
       <c r="R19" s="46">
-        <f t="shared" si="1"/>
+        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>1.1546319456101628E-14</v>
       </c>
     </row>
@@ -9734,63 +9720,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
         <v>0</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1428571428571429</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18367346938775508</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="I20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="J20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51020408163265307</v>
       </c>
       <c r="K20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="L20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="N20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="O20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="P20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R20" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11096,10 +11082,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:J15">
-    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11490" windowHeight="10065" tabRatio="900" activeTab="2"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -1715,7 +1715,35 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2048,7 +2076,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225353"/>
+          <c:x val="0.37032576667225386"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2066,9 +2094,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553246"/>
+          <c:y val="0.15742128935532476"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192392"/>
+          <c:h val="0.70464767616192414"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2378,11 +2406,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100456320"/>
-        <c:axId val="100548608"/>
+        <c:axId val="99538816"/>
+        <c:axId val="100941824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100456320"/>
+        <c:axId val="99538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2442,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100548608"/>
+        <c:crossAx val="100941824"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2422,7 +2450,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100548608"/>
+        <c:axId val="100941824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,548 +2492,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100456320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82639198178585549"/>
-          <c:y val="3.2983508245877091E-2"/>
-          <c:w val="0.11675295106908352"/>
-          <c:h val="9.145427286356822E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37032576667225386"/>
-          <c:y val="2.6986506746626688E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532476"/>
-          <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192414"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000080"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.933333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.13333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.866666666666674</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.066666666666677</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.8000000000000114</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5333333333333448</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2666666666666782</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1546319456101628E-14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="104309504"/>
-        <c:axId val="104311424"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104309504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104311424"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104311424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104309504"/>
+        <c:crossAx val="99538816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3099,7 +2586,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3121,7 +2608,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 3</a:t>
+              <a:t>Suivi charge Iteration 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3160,7 +2647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$12</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3194,96 +2681,96 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3312,7 +2799,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$14</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3346,125 +2833,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41424</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.533333333333331</c:v>
+                  <c:v>45.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.066666666666663</c:v>
+                  <c:v>42.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.599999999999994</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.133333333333326</c:v>
+                  <c:v>35.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.666666666666657</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.199999999999989</c:v>
+                  <c:v>29.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73333333333332</c:v>
+                  <c:v>26.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.266666666666652</c:v>
+                  <c:v>22.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999983</c:v>
+                  <c:v>19.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.333333333333314</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.866666666666648</c:v>
+                  <c:v>13.066666666666677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.399999999999981</c:v>
+                  <c:v>9.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333314</c:v>
+                  <c:v>6.5333333333333448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4666666666666472</c:v>
+                  <c:v>3.2666666666666782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9539925233402755E-14</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104385536"/>
-        <c:axId val="104387712"/>
+        <c:axId val="101294848"/>
+        <c:axId val="101296768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104385536"/>
+        <c:axId val="101294848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +2983,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104387712"/>
+        <c:crossAx val="101296768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3504,7 +2991,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104387712"/>
+        <c:axId val="101296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3033,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104385536"/>
+        <c:crossAx val="101294848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3640,7 +3127,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3662,7 +3149,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 4</a:t>
+              <a:t>Suivi charge Iteration 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3701,7 +3188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:f>'Iteration 3'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3735,69 +3222,69 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3853,7 +3340,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:f>'Iteration 3'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3887,125 +3374,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>48.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>45.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>41.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.533333333333331</c:v>
+                  <c:v>38.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>34.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.799999999999997</c:v>
+                  <c:v>31.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.93333333333333</c:v>
+                  <c:v>27.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.066666666666663</c:v>
+                  <c:v>24.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>20.799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>17.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666615</c:v>
+                  <c:v>13.866666666666648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>10.399999999999981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7333333333333276</c:v>
+                  <c:v>6.933333333333314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8666666666666609</c:v>
+                  <c:v>3.4666666666666472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.773159728050814E-15</c:v>
+                  <c:v>-1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104171008"/>
-        <c:axId val="104172928"/>
+        <c:axId val="101370880"/>
+        <c:axId val="101373056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104171008"/>
+        <c:axId val="101370880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +3524,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104172928"/>
+        <c:crossAx val="101373056"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4045,7 +3532,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104172928"/>
+        <c:axId val="101373056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,7 +3574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104171008"/>
+        <c:crossAx val="101370880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4176,6 +3663,547 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Suivi charge Iteration 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3703257666722547"/>
+          <c:y val="2.6986506746626688E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532515"/>
+          <c:w val="0.92946294640153049"/>
+          <c:h val="0.70464767616192503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.066666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7333333333333276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8666666666666609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.773159728050814E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="101160448"/>
+        <c:axId val="101162368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="101160448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101162368"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101162368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101160448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82639198178585549"/>
+          <c:y val="3.2983508245877091E-2"/>
+          <c:w val="0.11675295106908352"/>
+          <c:h val="9.145427286356822E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4623,7 +4651,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6048,10 +6076,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="31" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8585,18 +8613,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8612,7 +8640,7 @@
   <dimension ref="A1:DP85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8854,8 +8882,12 @@
       <c r="J4" s="167">
         <v>0</v>
       </c>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="K4" s="167">
+        <v>0</v>
+      </c>
+      <c r="L4" s="167">
+        <v>0</v>
+      </c>
       <c r="M4" s="167"/>
       <c r="N4" s="167"/>
       <c r="O4" s="167"/>
@@ -8892,8 +8924,12 @@
       <c r="J5" s="167">
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
+      <c r="K5" s="167">
+        <v>0</v>
+      </c>
+      <c r="L5" s="167">
+        <v>0</v>
+      </c>
       <c r="M5" s="167"/>
       <c r="N5" s="167"/>
       <c r="O5" s="167"/>
@@ -8930,8 +8966,12 @@
       <c r="J6" s="156">
         <v>0</v>
       </c>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
+      <c r="K6" s="156">
+        <v>0</v>
+      </c>
+      <c r="L6" s="156">
+        <v>0</v>
+      </c>
       <c r="M6" s="156"/>
       <c r="N6" s="156"/>
       <c r="O6" s="156"/>
@@ -8968,8 +9008,12 @@
       <c r="J7" s="156">
         <v>0</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
+      <c r="K7" s="156">
+        <v>0</v>
+      </c>
+      <c r="L7" s="156">
+        <v>0</v>
+      </c>
       <c r="M7" s="156"/>
       <c r="N7" s="156"/>
       <c r="O7" s="156"/>
@@ -9006,8 +9050,12 @@
       <c r="J8" s="167">
         <v>0</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
+      <c r="K8" s="167">
+        <v>0</v>
+      </c>
+      <c r="L8" s="167">
+        <v>0</v>
+      </c>
       <c r="M8" s="156"/>
       <c r="N8" s="156"/>
       <c r="O8" s="156"/>
@@ -9043,11 +9091,15 @@
       <c r="I9" s="153">
         <v>2</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="153">
         <v>1</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
+      <c r="K9" s="72">
+        <v>1</v>
+      </c>
+      <c r="L9" s="72">
+        <v>1</v>
+      </c>
       <c r="M9" s="156"/>
       <c r="N9" s="156"/>
       <c r="O9" s="156"/>
@@ -9083,11 +9135,15 @@
       <c r="I10" s="153">
         <v>3</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="153">
         <v>3</v>
       </c>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
+      <c r="K10" s="153">
+        <v>2</v>
+      </c>
+      <c r="L10" s="72">
+        <v>1</v>
+      </c>
       <c r="M10" s="156"/>
       <c r="N10" s="156"/>
       <c r="O10" s="156"/>
@@ -9123,11 +9179,15 @@
       <c r="I11" s="153">
         <v>6</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="153">
         <v>3</v>
       </c>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
+      <c r="K11" s="72">
+        <v>2</v>
+      </c>
+      <c r="L11" s="72">
+        <v>1</v>
+      </c>
       <c r="M11" s="156"/>
       <c r="N11" s="156"/>
       <c r="O11" s="156"/>
@@ -9148,8 +9208,8 @@
       <c r="H12" s="158"/>
       <c r="I12" s="91"/>
       <c r="J12" s="91"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="169"/>
       <c r="N12" s="169"/>
       <c r="O12" s="169"/>
@@ -9185,11 +9245,15 @@
       <c r="I13" s="153">
         <v>6</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="153">
         <v>5</v>
       </c>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
+      <c r="K13" s="72">
+        <v>1</v>
+      </c>
+      <c r="L13" s="72">
+        <v>1</v>
+      </c>
       <c r="M13" s="170"/>
       <c r="N13" s="170"/>
       <c r="O13" s="170"/>
@@ -9228,8 +9292,12 @@
       <c r="J14" s="72">
         <v>6</v>
       </c>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
+      <c r="K14" s="72">
+        <v>6</v>
+      </c>
+      <c r="L14" s="72">
+        <v>6</v>
+      </c>
       <c r="M14" s="155"/>
       <c r="N14" s="155"/>
       <c r="O14" s="155"/>
@@ -9268,8 +9336,12 @@
       <c r="J15" s="72">
         <v>6</v>
       </c>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
+      <c r="K15" s="72">
+        <v>6</v>
+      </c>
+      <c r="L15" s="72">
+        <v>6</v>
+      </c>
       <c r="M15" s="155"/>
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
@@ -9336,13 +9408,13 @@
         <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
         <v>24</v>
       </c>
-      <c r="K17" s="38" t="e">
+      <c r="K17" s="38">
         <f t="array" ref="K17">IF(ISBLANK(K4:K15), NA(), SUM(K4:K15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="38" t="e">
+        <v>18</v>
+      </c>
+      <c r="L17" s="38">
         <f t="array" ref="L17">IF(ISBLANK(L4:L15), NA(), SUM(L4:L15))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="M17" s="38" t="e">
         <f t="array" ref="M17">IF(ISBLANK(M4:M15), NA(), SUM(M4:M15))</f>
@@ -9505,13 +9577,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K18" s="38" t="e">
+      <c r="K18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="38" t="e">
+        <v>6</v>
+      </c>
+      <c r="L18" s="38">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="M18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9650,63 +9722,63 @@
         <v>49</v>
       </c>
       <c r="D19" s="46">
-        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>45.733333333333334</v>
       </c>
       <c r="E19" s="46">
-        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>42.466666666666669</v>
       </c>
       <c r="F19" s="46">
-        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G19" s="46">
-        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.933333333333337</v>
       </c>
       <c r="H19" s="46">
-        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>32.666666666666671</v>
       </c>
       <c r="I19" s="46">
-        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>29.400000000000006</v>
       </c>
       <c r="J19" s="46">
-        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>26.13333333333334</v>
       </c>
       <c r="K19" s="46">
-        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>22.866666666666674</v>
       </c>
       <c r="L19" s="46">
-        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>19.600000000000009</v>
       </c>
       <c r="M19" s="46">
-        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>16.333333333333343</v>
       </c>
       <c r="N19" s="46">
-        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>13.066666666666677</v>
       </c>
       <c r="O19" s="46">
-        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>9.8000000000000114</v>
       </c>
       <c r="P19" s="46">
-        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>6.5333333333333448</v>
       </c>
       <c r="Q19" s="46">
-        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.2666666666666782</v>
       </c>
       <c r="R19" s="46">
-        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.1546319456101628E-14</v>
       </c>
     </row>
@@ -9720,63 +9792,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
         <v>0</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1428571428571429</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18367346938775508</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="I20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="J20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51020408163265307</v>
       </c>
-      <c r="K20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="K20" s="58">
+        <f t="shared" si="2"/>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="L20" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67346938775510212</v>
+      </c>
+      <c r="M20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="N20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="O20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="P20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="R20" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11081,11 +11153,11 @@
       <c r="R85" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:J15">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:L15">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13080,50 +13152,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15243,50 +15315,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="2"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -252,12 +252,6 @@
     <t>Consultation des parcours / sous-parcours existants</t>
   </si>
   <si>
-    <t xml:space="preserve">        - Création / Modification d'une scène (recommandée)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - Création / Modification d'une transition (recommandée)</t>
-  </si>
-  <si>
     <t>Voir les parcours existants</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   </si>
   <si>
     <t>Préfixe Tables bdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Ajout scène/trantision recommandée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Modif scène/transition recommandée</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1715,63 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2770,7 +2826,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -4647,11 +4703,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4775,7 +4831,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4861,7 +4917,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="72" t="s">
@@ -4878,7 +4934,7 @@
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
       <c r="D11" s="146" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="147"/>
       <c r="F11" s="140"/>
@@ -4910,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="72">
         <v>2</v>
@@ -4933,13 +4989,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="72">
         <v>2</v>
@@ -4968,7 +5024,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="72">
         <v>2</v>
@@ -4997,7 +5053,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="72">
         <v>2</v>
@@ -5020,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="105" t="s">
         <v>32</v>
@@ -5049,13 +5105,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="72">
         <v>8</v>
@@ -5084,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="72">
         <v>5</v>
@@ -5113,7 +5169,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="72">
         <v>5</v>
@@ -5134,13 +5190,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="72">
         <v>13</v>
@@ -5201,7 +5257,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
@@ -5256,7 +5312,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" s="72">
         <v>5</v>
@@ -5277,13 +5333,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="72">
         <v>3</v>
@@ -5307,10 +5363,10 @@
         <v>58</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="72">
         <v>6</v>
@@ -5350,11 +5406,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="72">
         <v>6</v>
@@ -5375,11 +5431,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="72">
         <v>6</v>
@@ -5402,11 +5458,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="85">
         <v>6</v>
@@ -5425,7 +5481,7 @@
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="71"/>
       <c r="F32" s="72" t="s">
@@ -5467,7 +5523,7 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
@@ -5510,10 +5566,10 @@
       <c r="B36" s="79"/>
       <c r="C36" s="75"/>
       <c r="D36" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="90" t="s">
         <v>62</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>64</v>
       </c>
       <c r="F36" s="91"/>
       <c r="G36" s="91"/>
@@ -5533,11 +5589,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="72">
         <v>12</v>
@@ -5554,10 +5610,10 @@
       <c r="B38" s="69"/>
       <c r="C38" s="68"/>
       <c r="D38" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="90" t="s">
         <v>63</v>
-      </c>
-      <c r="E38" s="90" t="s">
-        <v>65</v>
       </c>
       <c r="F38" s="91"/>
       <c r="G38" s="91"/>
@@ -5577,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="72" t="s">
@@ -5602,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="71"/>
       <c r="F40" s="72" t="s">
@@ -5621,10 +5677,10 @@
       <c r="B41" s="69"/>
       <c r="C41" s="68"/>
       <c r="D41" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="91"/>
       <c r="G41" s="91"/>
@@ -5644,11 +5700,11 @@
         <v>1</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" s="72">
         <v>12</v>
@@ -5669,11 +5725,11 @@
         <v>1</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E43" s="71"/>
       <c r="F43" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="72">
         <v>12</v>
@@ -5713,7 +5769,7 @@
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="33"/>
@@ -5760,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" s="72" t="s">
         <v>32</v>
@@ -5787,10 +5843,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="72" t="s">
         <v>32</v>
@@ -5814,10 +5870,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="72" t="s">
         <v>32</v>
@@ -5841,10 +5897,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F50" s="72" t="s">
         <v>32</v>
@@ -5868,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="70"/>
       <c r="F51" s="72"/>
@@ -5908,7 +5964,7 @@
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="33"/>
@@ -5952,7 +6008,7 @@
       </c>
       <c r="C55" s="123"/>
       <c r="D55" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="125"/>
       <c r="F55" s="85" t="s">
@@ -6076,10 +6132,26 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>#REF!="O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6342,7 +6414,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
@@ -6510,7 +6582,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
@@ -6566,7 +6638,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6734,7 +6806,7 @@
     </row>
     <row r="11" spans="1:120" s="136" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="68">
         <v>13</v>
@@ -8613,18 +8685,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8639,8 +8711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8653,7 +8725,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -8855,7 +8927,7 @@
     </row>
     <row r="4" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="159" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="161">
@@ -8897,7 +8969,7 @@
     </row>
     <row r="5" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="159" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="160"/>
       <c r="C5" s="161">
@@ -8939,7 +9011,7 @@
     </row>
     <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="161">
@@ -8981,7 +9053,7 @@
     </row>
     <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="161">
@@ -9023,7 +9095,7 @@
     </row>
     <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="161">
@@ -9065,7 +9137,7 @@
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="75">
         <v>17</v>
@@ -9109,7 +9181,7 @@
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="75">
         <v>18</v>
@@ -9219,7 +9291,7 @@
     </row>
     <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="75">
         <v>20</v>
@@ -9263,7 +9335,7 @@
     </row>
     <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B14" s="75">
         <v>21</v>
@@ -9292,11 +9364,11 @@
       <c r="J14" s="72">
         <v>6</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="153">
         <v>6</v>
       </c>
       <c r="L14" s="72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M14" s="155"/>
       <c r="N14" s="155"/>
@@ -9307,7 +9379,7 @@
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B15" s="75">
         <v>22</v>
@@ -9414,7 +9486,7 @@
       </c>
       <c r="L17" s="38">
         <f t="array" ref="L17">IF(ISBLANK(L4:L15), NA(), SUM(L4:L15))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M17" s="38" t="e">
         <f t="array" ref="M17">IF(ISBLANK(M4:M15), NA(), SUM(M4:M15))</f>
@@ -9583,7 +9655,7 @@
       </c>
       <c r="L18" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M18" s="38" t="e">
         <f t="shared" si="0"/>
@@ -9825,7 +9897,7 @@
       </c>
       <c r="L20" s="58">
         <f t="shared" si="2"/>
-        <v>0.67346938775510212</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="M20" s="58" t="e">
         <f t="shared" si="2"/>
@@ -11154,10 +11226,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:L15">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11173,7 +11245,7 @@
   <dimension ref="A1:DP77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11186,7 +11258,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -11390,7 +11462,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
@@ -11412,7 +11484,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="75">
         <v>27</v>
@@ -11438,7 +11510,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="75">
         <v>28</v>
@@ -11464,7 +11536,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -11486,7 +11558,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="75">
         <v>29</v>
@@ -11512,7 +11584,7 @@
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
       <c r="A9" s="106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="150">
         <v>30</v>
@@ -11538,7 +11610,7 @@
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="75">
         <v>31</v>
@@ -13152,50 +13224,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13224,7 +13296,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -13428,7 +13500,7 @@
     </row>
     <row r="4" spans="1:120" s="96" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="75">
         <v>34</v>
@@ -13454,7 +13526,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="75">
         <v>35</v>
@@ -13480,7 +13552,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="68">
         <v>36</v>
@@ -13506,7 +13578,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="68">
         <v>37</v>
@@ -15315,50 +15387,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -32,24 +32,24 @@
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$17:$Z$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
   <si>
     <t>Itération</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t xml:space="preserve">        - Modif scène/transition recommandée</t>
+  </si>
+  <si>
+    <t>Validation des artefacts</t>
   </si>
 </sst>
 </file>
@@ -1715,35 +1718,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -2132,7 +2107,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225386"/>
+          <c:x val="0.37032576667225398"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2150,9 +2125,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532476"/>
+          <c:y val="0.15742128935532482"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192414"/>
+          <c:h val="0.70464767616192425"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2462,11 +2437,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99538816"/>
-        <c:axId val="100941824"/>
+        <c:axId val="111933312"/>
+        <c:axId val="112279552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99538816"/>
+        <c:axId val="111933312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,7 +2473,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100941824"/>
+        <c:crossAx val="112279552"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2506,7 +2481,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100941824"/>
+        <c:axId val="112279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2523,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99538816"/>
+        <c:crossAx val="111933312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,7 +2611,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500002" footer="0.492125984500002"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000206" footer="0.49212598450000206"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2673,7 +2648,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225409"/>
+          <c:x val="0.37032576667225425"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2691,9 +2666,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553249"/>
+          <c:y val="0.15742128935532496"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192436"/>
+          <c:h val="0.70464767616192459"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2703,7 +2678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
+              <c:f>'Iteration 2'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2794,42 +2769,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
+              <c:f>'Iteration 2'!$C$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2855,7 +2830,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
+              <c:f>'Iteration 2'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2946,68 +2921,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
+              <c:f>'Iteration 2'!$C$20:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.733333333333334</c:v>
+                  <c:v>49.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.466666666666669</c:v>
+                  <c:v>45.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>42.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.933333333333337</c:v>
+                  <c:v>38.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.666666666666671</c:v>
+                  <c:v>35.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.400000000000006</c:v>
+                  <c:v>31.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.13333333333334</c:v>
+                  <c:v>28.26666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.866666666666674</c:v>
+                  <c:v>24.733333333333348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.600000000000009</c:v>
+                  <c:v>21.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.333333333333343</c:v>
+                  <c:v>17.666666666666686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.066666666666677</c:v>
+                  <c:v>14.133333333333352</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8000000000000114</c:v>
+                  <c:v>10.600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5333333333333448</c:v>
+                  <c:v>7.066666666666686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2666666666666782</c:v>
+                  <c:v>3.5333333333333528</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1546319456101628E-14</c:v>
+                  <c:v>1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101294848"/>
-        <c:axId val="101296768"/>
+        <c:axId val="112636672"/>
+        <c:axId val="112638592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101294848"/>
+        <c:axId val="112636672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101296768"/>
+        <c:crossAx val="112638592"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3047,7 +3022,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101296768"/>
+        <c:axId val="112638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +3064,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101294848"/>
+        <c:crossAx val="112636672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3177,7 +3152,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000211" footer="0.49212598450000211"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000217" footer="0.49212598450000217"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3214,7 +3189,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225442"/>
+          <c:x val="0.37032576667225453"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3232,9 +3207,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532501"/>
+          <c:y val="0.15742128935532507"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192481"/>
+          <c:h val="0.70464767616192492"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3544,11 +3519,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101370880"/>
-        <c:axId val="101373056"/>
+        <c:axId val="112507904"/>
+        <c:axId val="112510080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101370880"/>
+        <c:axId val="112507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3555,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101373056"/>
+        <c:crossAx val="112510080"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3588,7 +3563,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101373056"/>
+        <c:axId val="112510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101370880"/>
+        <c:crossAx val="112507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3718,7 +3693,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000228" footer="0.49212598450000228"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3755,7 +3730,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722547"/>
+          <c:x val="0.37032576667225486"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3773,9 +3748,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532515"/>
+          <c:y val="0.15742128935532523"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192503"/>
+          <c:h val="0.70464767616192514"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4085,11 +4060,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101160448"/>
-        <c:axId val="101162368"/>
+        <c:axId val="112571904"/>
+        <c:axId val="112573824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101160448"/>
+        <c:axId val="112571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4096,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101162368"/>
+        <c:crossAx val="112573824"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4129,7 +4104,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101162368"/>
+        <c:axId val="112573824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4146,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101160448"/>
+        <c:crossAx val="112571904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4259,7 +4234,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4308,13 +4283,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>120427</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>127076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>717175</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4703,11 +4678,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6132,26 +6107,26 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8685,18 +8660,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="41" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="39" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8709,10 +8684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP85"/>
+  <dimension ref="A1:DP86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8960,8 +8935,10 @@
       <c r="L4" s="167">
         <v>0</v>
       </c>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
+      <c r="M4" s="167">
+        <v>0</v>
+      </c>
+      <c r="N4" s="156"/>
       <c r="O4" s="167"/>
       <c r="P4" s="167"/>
       <c r="Q4" s="167"/>
@@ -9002,7 +8979,9 @@
       <c r="L5" s="167">
         <v>0</v>
       </c>
-      <c r="M5" s="167"/>
+      <c r="M5" s="167">
+        <v>0</v>
+      </c>
       <c r="N5" s="167"/>
       <c r="O5" s="167"/>
       <c r="P5" s="167"/>
@@ -9044,7 +9023,9 @@
       <c r="L6" s="156">
         <v>0</v>
       </c>
-      <c r="M6" s="156"/>
+      <c r="M6" s="156">
+        <v>0</v>
+      </c>
       <c r="N6" s="156"/>
       <c r="O6" s="156"/>
       <c r="P6" s="156"/>
@@ -9086,7 +9067,9 @@
       <c r="L7" s="156">
         <v>0</v>
       </c>
-      <c r="M7" s="156"/>
+      <c r="M7" s="156">
+        <v>0</v>
+      </c>
       <c r="N7" s="156"/>
       <c r="O7" s="156"/>
       <c r="P7" s="156"/>
@@ -9128,7 +9111,9 @@
       <c r="L8" s="167">
         <v>0</v>
       </c>
-      <c r="M8" s="156"/>
+      <c r="M8" s="167">
+        <v>0</v>
+      </c>
       <c r="N8" s="156"/>
       <c r="O8" s="156"/>
       <c r="P8" s="156"/>
@@ -9136,43 +9121,43 @@
       <c r="R8" s="168"/>
     </row>
     <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="75">
-        <v>17</v>
-      </c>
-      <c r="C9" s="97">
-        <v>5</v>
-      </c>
-      <c r="D9" s="72">
-        <v>5</v>
-      </c>
-      <c r="E9" s="72">
-        <v>5</v>
-      </c>
-      <c r="F9" s="72">
-        <v>5</v>
-      </c>
-      <c r="G9" s="153">
-        <v>5</v>
-      </c>
-      <c r="H9" s="158">
-        <v>5</v>
-      </c>
-      <c r="I9" s="153">
-        <v>2</v>
-      </c>
-      <c r="J9" s="153">
-        <v>1</v>
-      </c>
-      <c r="K9" s="72">
-        <v>1</v>
-      </c>
-      <c r="L9" s="72">
-        <v>1</v>
-      </c>
-      <c r="M9" s="156"/>
+      <c r="A9" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="161">
+        <v>4</v>
+      </c>
+      <c r="D9" s="155">
+        <v>4</v>
+      </c>
+      <c r="E9" s="155">
+        <v>4</v>
+      </c>
+      <c r="F9" s="167">
+        <v>4</v>
+      </c>
+      <c r="G9" s="167">
+        <v>4</v>
+      </c>
+      <c r="H9" s="173">
+        <v>4</v>
+      </c>
+      <c r="I9" s="167">
+        <v>4</v>
+      </c>
+      <c r="J9" s="167">
+        <v>4</v>
+      </c>
+      <c r="K9" s="167">
+        <v>4</v>
+      </c>
+      <c r="L9" s="167">
+        <v>4</v>
+      </c>
+      <c r="M9" s="167">
+        <v>4</v>
+      </c>
       <c r="N9" s="156"/>
       <c r="O9" s="156"/>
       <c r="P9" s="156"/>
@@ -9180,43 +9165,45 @@
       <c r="R9" s="168"/>
     </row>
     <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="70" t="s">
-        <v>94</v>
+      <c r="A10" s="82" t="s">
+        <v>106</v>
       </c>
       <c r="B10" s="75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="158">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="153">
-        <v>3</v>
-      </c>
-      <c r="K10" s="153">
-        <v>2</v>
-      </c>
-      <c r="L10" s="72">
         <v>1</v>
       </c>
-      <c r="M10" s="156"/>
+      <c r="K10" s="72">
+        <v>1</v>
+      </c>
+      <c r="L10" s="153">
+        <v>1</v>
+      </c>
+      <c r="M10" s="72">
+        <v>0</v>
+      </c>
       <c r="N10" s="156"/>
       <c r="O10" s="156"/>
       <c r="P10" s="156"/>
@@ -9225,42 +9212,44 @@
     </row>
     <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B11" s="75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="72">
-        <v>6</v>
-      </c>
-      <c r="G11" s="155">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="153">
+        <v>3</v>
       </c>
       <c r="H11" s="158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" s="153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11" s="153">
         <v>3</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="153">
         <v>2</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="153">
         <v>1</v>
       </c>
-      <c r="M11" s="156"/>
+      <c r="M11" s="72">
+        <v>0</v>
+      </c>
       <c r="N11" s="156"/>
       <c r="O11" s="156"/>
       <c r="P11" s="156"/>
@@ -9268,77 +9257,79 @@
       <c r="R11" s="168"/>
     </row>
     <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="75">
+        <v>19</v>
+      </c>
+      <c r="C12" s="97">
+        <v>6</v>
+      </c>
+      <c r="D12" s="72">
+        <v>6</v>
+      </c>
+      <c r="E12" s="72">
+        <v>6</v>
+      </c>
+      <c r="F12" s="72">
+        <v>6</v>
+      </c>
+      <c r="G12" s="155">
+        <v>6</v>
+      </c>
+      <c r="H12" s="158">
+        <v>6</v>
+      </c>
+      <c r="I12" s="153">
+        <v>6</v>
+      </c>
+      <c r="J12" s="153">
+        <v>3</v>
+      </c>
+      <c r="K12" s="153">
+        <v>2</v>
+      </c>
+      <c r="L12" s="153">
+        <v>1</v>
+      </c>
+      <c r="M12" s="72">
+        <v>0</v>
+      </c>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="168"/>
+    </row>
+    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="168"/>
-    </row>
-    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="168"/>
+    </row>
+    <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B14" s="75">
         <v>20</v>
-      </c>
-      <c r="C13" s="97">
-        <v>6</v>
-      </c>
-      <c r="D13" s="72">
-        <v>6</v>
-      </c>
-      <c r="E13" s="72">
-        <v>6</v>
-      </c>
-      <c r="F13" s="72">
-        <v>6</v>
-      </c>
-      <c r="G13" s="72">
-        <v>6</v>
-      </c>
-      <c r="H13" s="158">
-        <v>6</v>
-      </c>
-      <c r="I13" s="153">
-        <v>6</v>
-      </c>
-      <c r="J13" s="153">
-        <v>5</v>
-      </c>
-      <c r="K13" s="72">
-        <v>1</v>
-      </c>
-      <c r="L13" s="72">
-        <v>1</v>
-      </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="171"/>
-    </row>
-    <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="75">
-        <v>21</v>
       </c>
       <c r="C14" s="97">
         <v>6</v>
@@ -9358,31 +9349,33 @@
       <c r="H14" s="158">
         <v>6</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="153">
         <v>6</v>
       </c>
-      <c r="J14" s="72">
-        <v>6</v>
+      <c r="J14" s="153">
+        <v>5</v>
       </c>
       <c r="K14" s="153">
-        <v>6</v>
-      </c>
-      <c r="L14" s="72">
+        <v>1</v>
+      </c>
+      <c r="L14" s="155">
         <v>0</v>
       </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="172"/>
+      <c r="M14" s="72">
+        <v>0</v>
+      </c>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
     </row>
     <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="82" t="s">
-        <v>109</v>
+      <c r="A15" s="70" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="75">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="97">
         <v>6</v>
@@ -9408,277 +9401,156 @@
       <c r="J15" s="72">
         <v>6</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="153">
         <v>6</v>
       </c>
       <c r="L15" s="72">
-        <v>6</v>
-      </c>
-      <c r="M15" s="155"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="72">
+        <v>0</v>
+      </c>
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
       <c r="P15" s="155"/>
       <c r="Q15" s="155"/>
       <c r="R15" s="172"/>
     </row>
-    <row r="16" spans="1:120">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="51"/>
+    <row r="16" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="75">
+        <v>22</v>
+      </c>
+      <c r="C16" s="97">
+        <v>6</v>
+      </c>
+      <c r="D16" s="72">
+        <v>6</v>
+      </c>
+      <c r="E16" s="72">
+        <v>6</v>
+      </c>
+      <c r="F16" s="72">
+        <v>6</v>
+      </c>
+      <c r="G16" s="72">
+        <v>6</v>
+      </c>
+      <c r="H16" s="158">
+        <v>6</v>
+      </c>
+      <c r="I16" s="72">
+        <v>6</v>
+      </c>
+      <c r="J16" s="72">
+        <v>6</v>
+      </c>
+      <c r="K16" s="72">
+        <v>6</v>
+      </c>
+      <c r="L16" s="153">
+        <v>6</v>
+      </c>
+      <c r="M16" s="72">
+        <v>2</v>
+      </c>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="172"/>
     </row>
     <row r="17" spans="1:120">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:120">
+      <c r="A18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B18" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="38">
-        <f>IF(ISBLANK(C4:C15), NA(), SUM(C3:C15))</f>
-        <v>49</v>
-      </c>
-      <c r="D17" s="38">
-        <f t="array" ref="D17">IF(ISBLANK(D4:D15), NA(), SUM(D4:D15))</f>
-        <v>49</v>
-      </c>
-      <c r="E17" s="38">
-        <f t="array" ref="E17">IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
-        <v>42</v>
-      </c>
-      <c r="F17" s="38">
-        <f t="array" ref="F17">IF(ISBLANK(F4:F15), NA(), SUM(F4:F15))</f>
-        <v>40</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
+      <c r="C18" s="38">
+        <f>IF(ISBLANK(C4:C16), NA(), SUM(C3:C16))</f>
+        <v>53</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="array" ref="D18">IF(ISBLANK(D4:D16), NA(), SUM(D4:D16))</f>
+        <v>53</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="array" ref="E18">IF(ISBLANK(E4:E16), NA(), SUM(E4:E16))</f>
+        <v>46</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="array" ref="F18">IF(ISBLANK(F4:F16), NA(), SUM(F4:F16))</f>
+        <v>44</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="array" ref="G18">IF(ISBLANK(G4:G16), NA(), SUM(G4:G16))</f>
+        <v>37</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="array" ref="H18">IF(ISBLANK(H4:H16), NA(), SUM(H4:H16))</f>
+        <v>37</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="array" ref="I18">IF(ISBLANK(I4:I16), NA(), SUM(I4:I16))</f>
         <v>33</v>
       </c>
-      <c r="H17" s="38">
-        <f t="array" ref="H17">IF(ISBLANK(H4:H15), NA(), SUM(H4:H15))</f>
-        <v>33</v>
-      </c>
-      <c r="I17" s="38">
-        <f t="array" ref="I17">IF(ISBLANK(I4:I15), NA(), SUM(I4:I15))</f>
-        <v>29</v>
-      </c>
-      <c r="J17" s="38">
-        <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
-        <v>24</v>
-      </c>
-      <c r="K17" s="38">
-        <f t="array" ref="K17">IF(ISBLANK(K4:K15), NA(), SUM(K4:K15))</f>
-        <v>18</v>
-      </c>
-      <c r="L17" s="38">
-        <f t="array" ref="L17">IF(ISBLANK(L4:L15), NA(), SUM(L4:L15))</f>
-        <v>10</v>
-      </c>
-      <c r="M17" s="38" t="e">
-        <f t="array" ref="M17">IF(ISBLANK(M4:M15), NA(), SUM(M4:M15))</f>
+      <c r="J18" s="38">
+        <f t="array" ref="J18">IF(ISBLANK(J4:J16), NA(), SUM(J4:J16))</f>
+        <v>28</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="array" ref="K18">IF(ISBLANK(K4:K16), NA(), SUM(K4:K16))</f>
+        <v>22</v>
+      </c>
+      <c r="L18" s="38">
+        <f t="array" ref="L18">IF(ISBLANK(L4:L16), NA(), SUM(L4:L16))</f>
+        <v>13</v>
+      </c>
+      <c r="M18" s="38">
+        <f t="array" ref="M18">IF(ISBLANK(M4:M16), NA(), SUM(M4:M16))</f>
+        <v>6</v>
+      </c>
+      <c r="N18" s="38" t="e">
+        <f t="array" ref="N18">IF(ISBLANK(N4:N16), NA(), SUM(N4:N16))</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="38" t="e">
-        <f t="array" ref="N17">IF(ISBLANK(N4:N15), NA(), SUM(N4:N15))</f>
+      <c r="O18" s="38" t="e">
+        <f t="array" ref="O18">IF(ISBLANK(O4:O16), NA(), SUM(O4:O16))</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="38" t="e">
-        <f t="array" ref="O17">IF(ISBLANK(O4:O15), NA(), SUM(O4:O15))</f>
+      <c r="P18" s="38" t="e">
+        <f t="array" ref="P18">IF(ISBLANK(P4:P16), NA(), SUM(P4:P16))</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="38" t="e">
-        <f t="array" ref="P17">IF(ISBLANK(P4:P15), NA(), SUM(P4:P15))</f>
+      <c r="Q18" s="38" t="e">
+        <f t="array" ref="Q18">IF(ISBLANK(Q4:Q16), NA(), SUM(Q4:Q16))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="38" t="e">
-        <f t="array" ref="Q17">IF(ISBLANK(Q4:Q15), NA(), SUM(Q4:Q15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="38" t="e">
-        <f t="array" ref="R17">IF(ISBLANK(R4:R15), NA(), SUM(R4:R15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="38"/>
-      <c r="BM17" s="38"/>
-      <c r="BN17" s="38"/>
-      <c r="BO17" s="38"/>
-      <c r="BP17" s="38"/>
-      <c r="BQ17" s="38"/>
-      <c r="BR17" s="38"/>
-      <c r="BS17" s="38"/>
-      <c r="BT17" s="38"/>
-      <c r="BU17" s="38"/>
-      <c r="BV17" s="38"/>
-      <c r="BW17" s="38"/>
-      <c r="BX17" s="38"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="38"/>
-      <c r="CA17" s="38"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="38"/>
-      <c r="CF17" s="38"/>
-      <c r="CG17" s="38"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="38"/>
-      <c r="CJ17" s="38"/>
-      <c r="CK17" s="38"/>
-      <c r="CL17" s="38"/>
-      <c r="CM17" s="38"/>
-      <c r="CN17" s="38"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="38"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="38"/>
-      <c r="CS17" s="38"/>
-      <c r="CT17" s="38"/>
-      <c r="CU17" s="38"/>
-      <c r="CV17" s="38"/>
-      <c r="CW17" s="38"/>
-      <c r="CX17" s="38"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="38"/>
-      <c r="DA17" s="38"/>
-      <c r="DB17" s="38"/>
-      <c r="DC17" s="38"/>
-      <c r="DD17" s="38"/>
-      <c r="DE17" s="38"/>
-      <c r="DF17" s="38"/>
-      <c r="DG17" s="38"/>
-      <c r="DH17" s="38"/>
-      <c r="DI17" s="38"/>
-      <c r="DJ17" s="38"/>
-      <c r="DK17" s="38"/>
-      <c r="DL17" s="38"/>
-      <c r="DM17" s="38"/>
-      <c r="DN17" s="38"/>
-      <c r="DO17" s="38"/>
-      <c r="DP17" s="38"/>
-    </row>
-    <row r="18" spans="1:120" ht="25.5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <f>C17-D17</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" ref="E18:R18" si="0">D17-E17</f>
-        <v>7</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H18" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J18" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L18" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="51" t="e">
-        <f t="shared" si="0"/>
+      <c r="R18" s="38" t="e">
+        <f t="array" ref="R18">IF(ISBLANK(R4:R16), NA(), SUM(R4:R16))</f>
         <v>#N/A</v>
       </c>
       <c r="S18" s="38"/>
@@ -9784,171 +9656,320 @@
       <c r="DO18" s="38"/>
       <c r="DP18" s="38"/>
     </row>
-    <row r="19" spans="1:120">
+    <row r="19" spans="1:120" ht="25.5">
       <c r="A19" s="38"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
+        <f>C18-D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" ref="E19:R19" si="0">D18-E18</f>
+        <v>7</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L19" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M19" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N19" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
+      <c r="CA19" s="38"/>
+      <c r="CB19" s="38"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="38"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="38"/>
+      <c r="CS19" s="38"/>
+      <c r="CT19" s="38"/>
+      <c r="CU19" s="38"/>
+      <c r="CV19" s="38"/>
+      <c r="CW19" s="38"/>
+      <c r="CX19" s="38"/>
+      <c r="CY19" s="38"/>
+      <c r="CZ19" s="38"/>
+      <c r="DA19" s="38"/>
+      <c r="DB19" s="38"/>
+      <c r="DC19" s="38"/>
+      <c r="DD19" s="38"/>
+      <c r="DE19" s="38"/>
+      <c r="DF19" s="38"/>
+      <c r="DG19" s="38"/>
+      <c r="DH19" s="38"/>
+      <c r="DI19" s="38"/>
+      <c r="DJ19" s="38"/>
+      <c r="DK19" s="38"/>
+      <c r="DL19" s="38"/>
+      <c r="DM19" s="38"/>
+      <c r="DN19" s="38"/>
+      <c r="DO19" s="38"/>
+      <c r="DP19" s="38"/>
+    </row>
+    <row r="20" spans="1:120">
+      <c r="A20" s="38"/>
+      <c r="B20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="45">
-        <f>C17</f>
-        <v>49</v>
-      </c>
-      <c r="D19" s="46">
-        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
-        <v>45.733333333333334</v>
-      </c>
-      <c r="E19" s="46">
+      <c r="C20" s="45">
+        <f>C18</f>
+        <v>53</v>
+      </c>
+      <c r="D20" s="46">
+        <f>C20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>49.466666666666669</v>
+      </c>
+      <c r="E20" s="46">
+        <f>D20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>45.933333333333337</v>
+      </c>
+      <c r="F20" s="46">
+        <f>E20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>42.400000000000006</v>
+      </c>
+      <c r="G20" s="46">
+        <f>F20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>38.866666666666674</v>
+      </c>
+      <c r="H20" s="46">
+        <f>G20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>35.333333333333343</v>
+      </c>
+      <c r="I20" s="46">
+        <f>H20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>31.800000000000011</v>
+      </c>
+      <c r="J20" s="46">
+        <f>I20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>28.26666666666668</v>
+      </c>
+      <c r="K20" s="46">
+        <f>J20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>24.733333333333348</v>
+      </c>
+      <c r="L20" s="46">
+        <f>K20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>21.200000000000017</v>
+      </c>
+      <c r="M20" s="46">
+        <f>L20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>17.666666666666686</v>
+      </c>
+      <c r="N20" s="46">
+        <f>M20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>14.133333333333352</v>
+      </c>
+      <c r="O20" s="46">
+        <f>N20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>10.600000000000019</v>
+      </c>
+      <c r="P20" s="46">
+        <f>O20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>7.066666666666686</v>
+      </c>
+      <c r="Q20" s="46">
+        <f>P20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>3.5333333333333528</v>
+      </c>
+      <c r="R20" s="46">
+        <f>Q20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <v>1.9539925233402755E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:120" s="56" customFormat="1">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="58">
+        <f>1-C18/$C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="58">
+        <f t="shared" ref="D21:R21" si="1">1-D18/$C$18</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="58">
         <f t="shared" si="1"/>
-        <v>42.466666666666669</v>
-      </c>
-      <c r="F19" s="46">
+        <v>0.13207547169811318</v>
+      </c>
+      <c r="F21" s="58">
         <f t="shared" si="1"/>
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G19" s="46">
+        <v>0.16981132075471694</v>
+      </c>
+      <c r="G21" s="58">
         <f t="shared" si="1"/>
-        <v>35.933333333333337</v>
-      </c>
-      <c r="H19" s="46">
+        <v>0.30188679245283023</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="1"/>
-        <v>32.666666666666671</v>
-      </c>
-      <c r="I19" s="46">
+        <v>0.30188679245283023</v>
+      </c>
+      <c r="I21" s="58">
         <f t="shared" si="1"/>
-        <v>29.400000000000006</v>
-      </c>
-      <c r="J19" s="46">
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="J21" s="58">
         <f t="shared" si="1"/>
-        <v>26.13333333333334</v>
-      </c>
-      <c r="K19" s="46">
+        <v>0.47169811320754718</v>
+      </c>
+      <c r="K21" s="58">
         <f t="shared" si="1"/>
-        <v>22.866666666666674</v>
-      </c>
-      <c r="L19" s="46">
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="L21" s="58">
         <f t="shared" si="1"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="M19" s="46">
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="M21" s="58">
         <f t="shared" si="1"/>
-        <v>16.333333333333343</v>
-      </c>
-      <c r="N19" s="46">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="N21" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>13.066666666666677</v>
-      </c>
-      <c r="O19" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>9.8000000000000114</v>
-      </c>
-      <c r="P19" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>6.5333333333333448</v>
-      </c>
-      <c r="Q19" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>3.2666666666666782</v>
-      </c>
-      <c r="R19" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>1.1546319456101628E-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" s="56" customFormat="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="58">
-        <f>1-C17/$C$17</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="F20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.18367346938775508</v>
-      </c>
-      <c r="G20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.32653061224489799</v>
-      </c>
-      <c r="H20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.32653061224489799</v>
-      </c>
-      <c r="I20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.40816326530612246</v>
-      </c>
-      <c r="J20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.51020408163265307</v>
-      </c>
-      <c r="K20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.63265306122448983</v>
-      </c>
-      <c r="L20" s="58">
-        <f t="shared" si="2"/>
-        <v>0.79591836734693877</v>
-      </c>
-      <c r="M20" s="58" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:120">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:120">
       <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -9968,7 +9989,7 @@
       <c r="A23" s="38"/>
       <c r="B23" s="43"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -9986,7 +10007,7 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -11224,12 +11245,32 @@
       <c r="Q85" s="38"/>
       <c r="R85" s="38"/>
     </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:B15 E13:G13 B3:B11 A3:A15 C6:D8 D14:R15 D3:R12 G4:L15">
-    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B14:B16 E14:G14 B3:B12 A3:A16 C6:D9 D15:R16 G4:M16 D3:R13">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13224,50 +13265,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15387,50 +15428,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="2"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1718,35 +1718,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -2107,7 +2079,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225398"/>
+          <c:x val="0.37032576667225409"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2125,9 +2097,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532482"/>
+          <c:y val="0.1574212893553249"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192425"/>
+          <c:h val="0.70464767616192436"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2611,7 +2583,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000206" footer="0.49212598450000206"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000211" footer="0.49212598450000211"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2648,7 +2620,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225425"/>
+          <c:x val="0.37032576667225442"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2666,9 +2638,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532496"/>
+          <c:y val="0.15742128935532501"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192459"/>
+          <c:h val="0.70464767616192481"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2978,11 +2950,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112636672"/>
-        <c:axId val="112638592"/>
+        <c:axId val="112644864"/>
+        <c:axId val="112646784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112636672"/>
+        <c:axId val="112644864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +2986,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112638592"/>
+        <c:crossAx val="112646784"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3022,7 +2994,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112638592"/>
+        <c:axId val="112646784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3036,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112636672"/>
+        <c:crossAx val="112644864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,7 +3124,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000217" footer="0.49212598450000217"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3189,7 +3161,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225453"/>
+          <c:x val="0.3703257666722547"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3207,9 +3179,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532507"/>
+          <c:y val="0.15742128935532515"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192492"/>
+          <c:h val="0.70464767616192503"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3693,7 +3665,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000228" footer="0.49212598450000228"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3730,7 +3702,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225486"/>
+          <c:x val="0.37032576667225497"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3748,9 +3720,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532523"/>
+          <c:y val="0.15742128935532529"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192514"/>
+          <c:h val="0.70464767616192525"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4060,11 +4032,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112571904"/>
-        <c:axId val="112573824"/>
+        <c:axId val="112698880"/>
+        <c:axId val="112700800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112571904"/>
+        <c:axId val="112698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4068,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112573824"/>
+        <c:crossAx val="112700800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4104,7 +4076,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112573824"/>
+        <c:axId val="112700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4118,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112571904"/>
+        <c:crossAx val="112698880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4234,7 +4206,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4678,11 +4650,11 @@
   </sheetPr>
   <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6107,26 +6079,26 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6141,7 +6113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R12" sqref="R1:R12"/>
     </sheetView>
   </sheetViews>
@@ -8660,18 +8632,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8686,7 +8658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -9835,63 +9807,63 @@
         <v>53</v>
       </c>
       <c r="D20" s="46">
-        <f>C20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D20:R20" si="1">C20-$C$18/COUNTA($C$2:$Q$2)</f>
         <v>49.466666666666669</v>
       </c>
       <c r="E20" s="46">
-        <f>D20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>45.933333333333337</v>
       </c>
       <c r="F20" s="46">
-        <f>E20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>42.400000000000006</v>
       </c>
       <c r="G20" s="46">
-        <f>F20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>38.866666666666674</v>
       </c>
       <c r="H20" s="46">
-        <f>G20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.333333333333343</v>
       </c>
       <c r="I20" s="46">
-        <f>H20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>31.800000000000011</v>
       </c>
       <c r="J20" s="46">
-        <f>I20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>28.26666666666668</v>
       </c>
       <c r="K20" s="46">
-        <f>J20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>24.733333333333348</v>
       </c>
       <c r="L20" s="46">
-        <f>K20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>21.200000000000017</v>
       </c>
       <c r="M20" s="46">
-        <f>L20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>17.666666666666686</v>
       </c>
       <c r="N20" s="46">
-        <f>M20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>14.133333333333352</v>
       </c>
       <c r="O20" s="46">
-        <f>N20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>10.600000000000019</v>
       </c>
       <c r="P20" s="46">
-        <f>O20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>7.066666666666686</v>
       </c>
       <c r="Q20" s="46">
-        <f>P20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.5333333333333528</v>
       </c>
       <c r="R20" s="46">
-        <f>Q20-$C$18/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.9539925233402755E-14</v>
       </c>
     </row>
@@ -9905,63 +9877,63 @@
         <v>0</v>
       </c>
       <c r="D21" s="58">
-        <f t="shared" ref="D21:R21" si="1">1-D18/$C$18</f>
+        <f t="shared" ref="D21:R21" si="2">1-D18/$C$18</f>
         <v>0</v>
       </c>
       <c r="E21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13207547169811318</v>
       </c>
       <c r="F21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16981132075471694</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30188679245283023</v>
       </c>
       <c r="H21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30188679245283023</v>
       </c>
       <c r="I21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37735849056603776</v>
       </c>
       <c r="J21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47169811320754718</v>
       </c>
       <c r="K21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58490566037735847</v>
       </c>
       <c r="L21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75471698113207553</v>
       </c>
       <c r="M21" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8867924528301887</v>
       </c>
       <c r="N21" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="O21" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="P21" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R21" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11267,10 +11239,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:B16 E14:G14 B3:B12 A3:A16 C6:D9 D15:R16 G4:M16 D3:R13">
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13265,50 +13237,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15428,50 +15400,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -14,7 +14,7 @@
     <sheet name="Iteration 4" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$52</definedName>
     <definedName name="_Toc227043368" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_Toc332097117" localSheetId="0">'Product backlog'!$D$17</definedName>
     <definedName name="_Toc332097119" localSheetId="0">'Product backlog'!$D$19</definedName>
@@ -32,24 +32,24 @@
     <definedName name="_Toc347234371" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$17:$Z$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <t>Itération</t>
   </si>
@@ -276,18 +276,6 @@
     <t>Permettre un retour sur la structure déjà construite du parcours</t>
   </si>
   <si>
-    <t xml:space="preserve">        - Suppression d'une scène (gérer la mise à jour des transitions environnantes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - Déplacement d'une scène (gérer la mise à jour des transitions environnantes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - Ajout d'une transition secondaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - Ajout d'une scène secondaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">        - Création d'un parcours (initialisation : un seul sous-parcours, une seule scène recommandée)</t>
   </si>
   <si>
@@ -325,12 +313,6 @@
   </si>
   <si>
     <t>IT4</t>
-  </si>
-  <si>
-    <t>Service web -&gt; ouvrir les parcours</t>
-  </si>
-  <si>
-    <t>Acceder auxparcours via une API</t>
   </si>
   <si>
     <t xml:space="preserve">        - Gestion de plusieurs sous-parcours avec accès concurrents</t>
@@ -405,7 +387,19 @@
     <t xml:space="preserve">        - Modif scène/transition recommandée</t>
   </si>
   <si>
-    <t>Validation des artefacts</t>
+    <t xml:space="preserve">        - CRUD scène/transition secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - CRUD transition inter-parcours</t>
+  </si>
+  <si>
+    <t>Service web -&gt; ouvrir la collection et les parcours</t>
+  </si>
+  <si>
+    <t>Acceder aux données via une API pour les présenter au public</t>
+  </si>
+  <si>
+    <t>? Possibilité de copier une scène lorsqu'on en créé une nouvelle ?</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1138,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1430,16 +1424,12 @@
     <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1449,18 +1439,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,13 +1559,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,21 +1599,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,35 +1675,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -2079,7 +2008,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225409"/>
+          <c:x val="0.37032576667225425"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2097,9 +2026,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553249"/>
+          <c:y val="0.15742128935532496"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192436"/>
+          <c:h val="0.70464767616192459"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2409,11 +2338,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111933312"/>
-        <c:axId val="112279552"/>
+        <c:axId val="111081728"/>
+        <c:axId val="111427968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111933312"/>
+        <c:axId val="111081728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2374,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112279552"/>
+        <c:crossAx val="111427968"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2453,7 +2382,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112279552"/>
+        <c:axId val="111427968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2424,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111933312"/>
+        <c:crossAx val="111081728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,7 +2512,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000211" footer="0.49212598450000211"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000217" footer="0.49212598450000217"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2620,7 +2549,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225442"/>
+          <c:x val="0.37032576667225453"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2638,9 +2567,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532501"/>
+          <c:y val="0.15742128935532507"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192481"/>
+          <c:h val="0.70464767616192492"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2650,7 +2579,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$18</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2741,57 +2670,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$18:$R$18</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2731,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 2'!$B$20</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2893,7 +2822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 2'!$C$20:$R$20</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2950,11 +2879,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112644864"/>
-        <c:axId val="112646784"/>
+        <c:axId val="112833664"/>
+        <c:axId val="112835584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112644864"/>
+        <c:axId val="112833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2915,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112646784"/>
+        <c:crossAx val="112835584"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2994,7 +2923,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112646784"/>
+        <c:axId val="112835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +2965,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112644864"/>
+        <c:crossAx val="112833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,7 +3053,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000228" footer="0.49212598450000228"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3161,7 +3090,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722547"/>
+          <c:x val="0.37032576667225486"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3179,9 +3108,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532515"/>
+          <c:y val="0.15742128935532523"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192503"/>
+          <c:h val="0.70464767616192514"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3191,7 +3120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$12</c:f>
+              <c:f>'Iteration 3'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3230,59 +3159,59 @@
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41421</c:v>
+                  <c:v>41428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41422</c:v>
+                  <c:v>41429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41423</c:v>
+                  <c:v>41430</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41424</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425</c:v>
+                  <c:v>41432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41428</c:v>
+                  <c:v>41435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41429</c:v>
+                  <c:v>41436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41430</c:v>
+                  <c:v>41437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41431</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41432</c:v>
+                  <c:v>41439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41435</c:v>
+                  <c:v>41442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41436</c:v>
+                  <c:v>41443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41437</c:v>
+                  <c:v>41444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41438</c:v>
+                  <c:v>41445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41439</c:v>
+                  <c:v>41446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41442</c:v>
+                  <c:v>41449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$12:$R$12</c:f>
+              <c:f>'Iteration 3'!$C$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3343,7 +3272,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$14</c:f>
+              <c:f>'Iteration 3'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3382,59 +3311,59 @@
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41421</c:v>
+                  <c:v>41428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41422</c:v>
+                  <c:v>41429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41423</c:v>
+                  <c:v>41430</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41424</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41425</c:v>
+                  <c:v>41432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41428</c:v>
+                  <c:v>41435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41429</c:v>
+                  <c:v>41436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41430</c:v>
+                  <c:v>41437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41431</c:v>
+                  <c:v>41438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41432</c:v>
+                  <c:v>41439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41435</c:v>
+                  <c:v>41442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41436</c:v>
+                  <c:v>41443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41437</c:v>
+                  <c:v>41444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41438</c:v>
+                  <c:v>41445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41439</c:v>
+                  <c:v>41446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41442</c:v>
+                  <c:v>41449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
+              <c:f>'Iteration 3'!$C$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3491,11 +3420,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112507904"/>
-        <c:axId val="112510080"/>
+        <c:axId val="112684416"/>
+        <c:axId val="112707072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112507904"/>
+        <c:axId val="112684416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3456,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112510080"/>
+        <c:crossAx val="112707072"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3535,7 +3464,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112510080"/>
+        <c:axId val="112707072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3506,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112507904"/>
+        <c:crossAx val="112684416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3665,7 +3594,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3702,7 +3631,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225497"/>
+          <c:x val="0.37032576667225509"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3720,9 +3649,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532529"/>
+          <c:y val="0.15742128935532534"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192525"/>
+          <c:h val="0.70464767616192536"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4032,11 +3961,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112698880"/>
-        <c:axId val="112700800"/>
+        <c:axId val="112895872"/>
+        <c:axId val="112902144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112698880"/>
+        <c:axId val="112895872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,7 +3997,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112700800"/>
+        <c:crossAx val="112902144"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4076,7 +4005,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112700800"/>
+        <c:axId val="112902144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,7 +4047,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112698880"/>
+        <c:crossAx val="112895872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4206,7 +4135,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4255,13 +4184,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>120427</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>717175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4291,14 +4220,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>65444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>168090</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>62002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4648,13 +4577,13 @@
   <sheetPr codeName="Feuil1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4678,10 +4607,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="179"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4693,10 +4622,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4709,11 +4638,11 @@
         <v>13</v>
       </c>
       <c r="C3" s="14">
-        <f>MAX(A13:A48)+1</f>
+        <f>MAX(A13:A46)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4721,9 +4650,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -4748,16 +4677,16 @@
       <c r="E5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="138" t="s">
+      <c r="I5" s="132" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -4774,11 +4703,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1">
-      <c r="A6" s="139"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4851,7 +4780,7 @@
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="143"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="22"/>
       <c r="K9" s="11"/>
     </row>
@@ -4864,7 +4793,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="72" t="s">
@@ -4872,7 +4801,7 @@
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="143"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="22"/>
       <c r="K10" s="11"/>
     </row>
@@ -4880,16 +4809,16 @@
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140">
+      <c r="D11" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134">
         <f>SUM(G12:G22)</f>
         <v>50</v>
       </c>
-      <c r="H11" s="148"/>
+      <c r="H11" s="142"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -4913,17 +4842,17 @@
         <v>50</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="72">
         <v>2</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="144"/>
+      <c r="I12" s="138"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
     </row>
     <row r="13" spans="1:13" s="78" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="75">
@@ -4936,19 +4865,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G13" s="72">
         <v>2</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="145"/>
+      <c r="I13" s="139"/>
       <c r="J13" s="74"/>
       <c r="K13" s="71"/>
       <c r="L13" s="77"/>
@@ -4971,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="72">
         <v>2</v>
@@ -5000,7 +4929,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G15" s="72">
         <v>2</v>
@@ -5023,12 +4952,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="103" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="75">
@@ -5052,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" s="72">
         <v>8</v>
@@ -5087,7 +5016,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G18" s="72">
         <v>5</v>
@@ -5116,7 +5045,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" s="72">
         <v>5</v>
@@ -5137,13 +5066,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="72">
         <v>13</v>
@@ -5204,7 +5133,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
@@ -5212,7 +5141,7 @@
         <f>SUM(G24:G33)</f>
         <v>58</v>
       </c>
-      <c r="H23" s="141"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
@@ -5259,7 +5188,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G25" s="72">
         <v>5</v>
@@ -5280,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G26" s="72">
         <v>3</v>
@@ -5313,7 +5242,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G27" s="72">
         <v>6</v>
@@ -5353,11 +5282,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G29" s="72">
         <v>6</v>
@@ -5378,11 +5307,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G30" s="72">
         <v>6</v>
@@ -5405,11 +5334,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G31" s="85">
         <v>6</v>
@@ -5470,18 +5399,18 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="60" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33">
-        <f>SUM(G35:G44)</f>
-        <v>59</v>
-      </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="113"/>
+        <f>SUM(G35:G42)</f>
+        <v>55</v>
+      </c>
+      <c r="H34" s="135"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="107"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
@@ -5536,11 +5465,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G37" s="72">
         <v>12</v>
@@ -5580,14 +5509,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="72">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -5595,479 +5524,400 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A40" s="75">
-        <v>28</v>
-      </c>
-      <c r="B40" s="69">
-        <v>3</v>
-      </c>
-      <c r="C40" s="68">
-        <v>1</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="72">
-        <v>5</v>
-      </c>
+      <c r="A40" s="75"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="22"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
+      <c r="A41" s="75">
+        <v>30</v>
+      </c>
+      <c r="B41" s="69">
+        <v>3</v>
+      </c>
+      <c r="C41" s="68">
+        <v>1</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="72">
+        <v>10</v>
+      </c>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="22"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A42" s="75">
-        <v>29</v>
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A42" s="68">
+        <v>32</v>
       </c>
       <c r="B42" s="69">
         <v>3</v>
       </c>
-      <c r="C42" s="68">
-        <v>1</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>67</v>
+      <c r="C42" s="68"/>
+      <c r="D42" s="70" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="72">
-        <v>12</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A43" s="75">
-        <v>30</v>
-      </c>
-      <c r="B43" s="69">
+        <v>28</v>
+      </c>
+      <c r="G42" s="105">
         <v>3</v>
       </c>
-      <c r="C43" s="68">
-        <v>1</v>
-      </c>
-      <c r="D43" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="72">
-        <v>12</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="68">
-        <v>32</v>
+      <c r="H42" s="106"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
+        <f>SUM(G44:G49)</f>
+        <v>38</v>
+      </c>
+      <c r="H43" s="136"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="112"/>
+    </row>
+    <row r="44" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A44" s="75">
+        <v>33</v>
       </c>
       <c r="B44" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E44" s="71"/>
       <c r="F44" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="111">
+        <v>32</v>
+      </c>
+      <c r="G44" s="105">
+        <v>10</v>
+      </c>
+      <c r="H44" s="30"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A45" s="75">
+        <v>31</v>
+      </c>
+      <c r="B45" s="69">
         <v>3</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33">
-        <f>SUM(G46:G52)</f>
-        <v>53</v>
-      </c>
-      <c r="H45" s="142"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="118"/>
-    </row>
-    <row r="46" spans="1:13" ht="24.95" customHeight="1">
+      <c r="C45" s="68">
+        <v>2</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="72">
+        <v>25</v>
+      </c>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="75">
-        <v>33</v>
-      </c>
-      <c r="B46" s="69">
+        <v>34</v>
+      </c>
+      <c r="B46" s="79">
         <v>4</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="71"/>
+      <c r="C46" s="103">
+        <v>4</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="84" t="s">
+        <v>73</v>
+      </c>
       <c r="F46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="111">
-        <v>10</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1">
       <c r="A47" s="75">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B47" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F47" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="72">
-        <v>8</v>
-      </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="75">
-        <v>34</v>
-      </c>
-      <c r="B48" s="79">
+    <row r="48" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A48" s="68">
+        <v>36</v>
+      </c>
+      <c r="B48" s="69">
         <v>4</v>
       </c>
-      <c r="C48" s="105">
-        <v>4</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>77</v>
+      <c r="C48" s="68">
+        <v>5</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="F48" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="103">
-        <v>2</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="11"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A49" s="75">
-        <v>35</v>
+      <c r="A49" s="68">
+        <v>38</v>
       </c>
       <c r="B49" s="69">
         <v>4</v>
       </c>
-      <c r="C49" s="68">
-        <v>5</v>
-      </c>
+      <c r="C49" s="68"/>
       <c r="D49" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="70" t="s">
-        <v>72</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E49" s="71"/>
       <c r="F49" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="72">
-        <v>8</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="G49" s="102">
+        <v>3</v>
+      </c>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="22"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A50" s="68">
-        <v>36</v>
-      </c>
-      <c r="B50" s="69">
-        <v>4</v>
-      </c>
-      <c r="C50" s="68">
-        <v>5</v>
-      </c>
-      <c r="D50" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="72">
-        <v>8</v>
-      </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="11"/>
+    <row r="50" spans="1:13" s="13" customFormat="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33">
+        <v>50</v>
+      </c>
+      <c r="H50" s="135"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A51" s="68">
-        <v>37</v>
-      </c>
-      <c r="B51" s="69">
-        <v>4</v>
-      </c>
-      <c r="C51" s="68">
-        <v>5</v>
-      </c>
+      <c r="A51" s="75">
+        <v>39</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="68"/>
       <c r="D51" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E51" s="71"/>
+      <c r="F51" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="72"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="22"/>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A52" s="68">
-        <v>38</v>
-      </c>
-      <c r="B52" s="69">
-        <v>4</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="71"/>
-      <c r="F52" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="104">
-        <v>3</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" s="13" customFormat="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33">
-        <v>50</v>
-      </c>
-      <c r="H53" s="141"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A54" s="75">
-        <v>39</v>
-      </c>
-      <c r="B54" s="86" t="s">
+      <c r="A52" s="75">
+        <v>40</v>
+      </c>
+      <c r="B52" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="71"/>
-      <c r="F54" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="72"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A55" s="75">
-        <v>40</v>
-      </c>
-      <c r="B55" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="125"/>
-      <c r="F55" s="85" t="s">
+      <c r="C52" s="117"/>
+      <c r="D52" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="119"/>
+      <c r="F52" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="85"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="29"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="29"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="127"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="115"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="99"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="115"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="99"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="133"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="99"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="121"/>
-      <c r="B57" s="130"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="124"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="100"/>
+      <c r="D57" s="99"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="129"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="123"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="121"/>
-      <c r="B58" s="130"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="100"/>
+      <c r="D58" s="99"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="129"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="123"/>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="121"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="100"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="121"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="100"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="121"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="100"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="I62" s="127"/>
-    </row>
-    <row r="84" ht="9.75" customHeight="1"/>
+      <c r="I59" s="121"/>
+    </row>
+    <row r="81" ht="9.75" customHeight="1"/>
+    <row r="300" spans="1:1" ht="15">
+      <c r="A300" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15">
+      <c r="A301" s="67"/>
+    </row>
+    <row r="302" spans="1:1" ht="15">
+      <c r="A302" s="67" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="303" spans="1:1" ht="15">
-      <c r="A303" s="66" t="s">
-        <v>12</v>
+      <c r="A303" s="67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="15">
-      <c r="A304" s="67"/>
-    </row>
-    <row r="305" spans="1:1" ht="15">
-      <c r="A305" s="67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" ht="15">
-      <c r="A306" s="67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" ht="15">
-      <c r="A307" s="67" t="s">
+      <c r="A304" s="67" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M55">
+  <autoFilter ref="A5:M52">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
@@ -6078,27 +5928,11 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A54:A55 B48:C48 D49:E51 H48:K48 A46:A49 B37:E37 D15 D38:E38 D41 B36:C37 H36:K37 E36:E37 A35:A43 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 D30 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19">
-    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A51:A52 B46:C46 D47:E48 H46:K46 A44:A47 D40 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A41 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
+    <cfRule type="expression" dxfId="1" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6113,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R12" sqref="R1:R12"/>
     </sheetView>
   </sheetViews>
@@ -6313,105 +6147,105 @@
       <c r="C3" s="72">
         <v>2</v>
       </c>
-      <c r="D3" s="153">
+      <c r="D3" s="145">
         <v>2</v>
       </c>
-      <c r="E3" s="153">
+      <c r="E3" s="145">
         <v>1</v>
       </c>
-      <c r="F3" s="153">
+      <c r="F3" s="145">
         <v>1</v>
       </c>
-      <c r="G3" s="153">
+      <c r="G3" s="145">
         <v>1</v>
       </c>
-      <c r="H3" s="156">
-        <v>0</v>
-      </c>
-      <c r="I3" s="156">
-        <v>0</v>
-      </c>
-      <c r="J3" s="156">
-        <v>0</v>
-      </c>
-      <c r="K3" s="156">
-        <v>0</v>
-      </c>
-      <c r="L3" s="156">
-        <v>0</v>
-      </c>
-      <c r="M3" s="156">
-        <v>0</v>
-      </c>
-      <c r="N3" s="156">
-        <v>0</v>
-      </c>
-      <c r="O3" s="157">
-        <v>0</v>
-      </c>
-      <c r="P3" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="156">
-        <v>0</v>
-      </c>
-      <c r="R3" s="156">
+      <c r="H3" s="148">
+        <v>0</v>
+      </c>
+      <c r="I3" s="148">
+        <v>0</v>
+      </c>
+      <c r="J3" s="148">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148">
+        <v>0</v>
+      </c>
+      <c r="L3" s="148">
+        <v>0</v>
+      </c>
+      <c r="M3" s="148">
+        <v>0</v>
+      </c>
+      <c r="N3" s="148">
+        <v>0</v>
+      </c>
+      <c r="O3" s="149">
+        <v>0</v>
+      </c>
+      <c r="P3" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="148">
+        <v>0</v>
+      </c>
+      <c r="R3" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="145">
         <v>2</v>
       </c>
-      <c r="D4" s="153">
+      <c r="D4" s="145">
         <v>1</v>
       </c>
-      <c r="E4" s="153">
+      <c r="E4" s="145">
         <v>1</v>
       </c>
-      <c r="F4" s="153">
+      <c r="F4" s="145">
         <v>1</v>
       </c>
-      <c r="G4" s="153">
+      <c r="G4" s="145">
         <v>1</v>
       </c>
-      <c r="H4" s="156">
-        <v>0</v>
-      </c>
-      <c r="I4" s="156">
-        <v>0</v>
-      </c>
-      <c r="J4" s="156">
-        <v>0</v>
-      </c>
-      <c r="K4" s="156">
-        <v>0</v>
-      </c>
-      <c r="L4" s="156">
-        <v>0</v>
-      </c>
-      <c r="M4" s="156">
-        <v>0</v>
-      </c>
-      <c r="N4" s="156">
-        <v>0</v>
-      </c>
-      <c r="O4" s="157">
-        <v>0</v>
-      </c>
-      <c r="P4" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="156">
-        <v>0</v>
-      </c>
-      <c r="R4" s="156">
+      <c r="H4" s="148">
+        <v>0</v>
+      </c>
+      <c r="I4" s="148">
+        <v>0</v>
+      </c>
+      <c r="J4" s="148">
+        <v>0</v>
+      </c>
+      <c r="K4" s="148">
+        <v>0</v>
+      </c>
+      <c r="L4" s="148">
+        <v>0</v>
+      </c>
+      <c r="M4" s="148">
+        <v>0</v>
+      </c>
+      <c r="N4" s="148">
+        <v>0</v>
+      </c>
+      <c r="O4" s="149">
+        <v>0</v>
+      </c>
+      <c r="P4" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="148">
+        <v>0</v>
+      </c>
+      <c r="R4" s="148">
         <v>0</v>
       </c>
     </row>
@@ -6422,52 +6256,52 @@
       <c r="B5" s="75">
         <v>7</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="145">
         <v>2</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="145">
         <v>1</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="145">
         <v>1</v>
       </c>
-      <c r="F5" s="153">
+      <c r="F5" s="145">
         <v>1</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="145">
         <v>1</v>
       </c>
-      <c r="H5" s="156">
-        <v>0</v>
-      </c>
-      <c r="I5" s="156">
-        <v>0</v>
-      </c>
-      <c r="J5" s="156">
-        <v>0</v>
-      </c>
-      <c r="K5" s="156">
-        <v>0</v>
-      </c>
-      <c r="L5" s="156">
-        <v>0</v>
-      </c>
-      <c r="M5" s="156">
-        <v>0</v>
-      </c>
-      <c r="N5" s="156">
-        <v>0</v>
-      </c>
-      <c r="O5" s="157">
-        <v>0</v>
-      </c>
-      <c r="P5" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="156">
-        <v>0</v>
-      </c>
-      <c r="R5" s="156">
+      <c r="H5" s="148">
+        <v>0</v>
+      </c>
+      <c r="I5" s="148">
+        <v>0</v>
+      </c>
+      <c r="J5" s="148">
+        <v>0</v>
+      </c>
+      <c r="K5" s="148">
+        <v>0</v>
+      </c>
+      <c r="L5" s="148">
+        <v>0</v>
+      </c>
+      <c r="M5" s="148">
+        <v>0</v>
+      </c>
+      <c r="N5" s="148">
+        <v>0</v>
+      </c>
+      <c r="O5" s="149">
+        <v>0</v>
+      </c>
+      <c r="P5" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="148">
+        <v>0</v>
+      </c>
+      <c r="R5" s="148">
         <v>0</v>
       </c>
     </row>
@@ -6478,114 +6312,114 @@
       <c r="B6" s="75">
         <v>8</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="147">
         <v>2</v>
       </c>
-      <c r="D6" s="153">
+      <c r="D6" s="145">
         <v>2</v>
       </c>
-      <c r="E6" s="153">
+      <c r="E6" s="145">
         <v>1</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="145">
         <v>1</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="145">
         <v>1</v>
       </c>
-      <c r="H6" s="156">
-        <v>0</v>
-      </c>
-      <c r="I6" s="156">
-        <v>0</v>
-      </c>
-      <c r="J6" s="156">
-        <v>0</v>
-      </c>
-      <c r="K6" s="156">
-        <v>0</v>
-      </c>
-      <c r="L6" s="156">
-        <v>0</v>
-      </c>
-      <c r="M6" s="156">
-        <v>0</v>
-      </c>
-      <c r="N6" s="156">
-        <v>0</v>
-      </c>
-      <c r="O6" s="157">
-        <v>0</v>
-      </c>
-      <c r="P6" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="156">
-        <v>0</v>
-      </c>
-      <c r="R6" s="156">
+      <c r="H6" s="148">
+        <v>0</v>
+      </c>
+      <c r="I6" s="148">
+        <v>0</v>
+      </c>
+      <c r="J6" s="148">
+        <v>0</v>
+      </c>
+      <c r="K6" s="148">
+        <v>0</v>
+      </c>
+      <c r="L6" s="148">
+        <v>0</v>
+      </c>
+      <c r="M6" s="148">
+        <v>0</v>
+      </c>
+      <c r="N6" s="148">
+        <v>0</v>
+      </c>
+      <c r="O6" s="149">
+        <v>0</v>
+      </c>
+      <c r="P6" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="148">
+        <v>0</v>
+      </c>
+      <c r="R6" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="146">
         <v>5</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="145">
         <v>2</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="146">
         <v>1</v>
       </c>
-      <c r="F7" s="155">
+      <c r="F7" s="147">
         <v>0</v>
       </c>
       <c r="G7" s="72">
         <v>0</v>
       </c>
-      <c r="H7" s="105">
-        <v>0</v>
-      </c>
-      <c r="I7" s="105">
-        <v>0</v>
-      </c>
-      <c r="J7" s="105">
-        <v>0</v>
-      </c>
-      <c r="K7" s="105">
-        <v>0</v>
-      </c>
-      <c r="L7" s="105">
-        <v>0</v>
-      </c>
-      <c r="M7" s="105">
-        <v>0</v>
-      </c>
-      <c r="N7" s="105">
-        <v>0</v>
-      </c>
-      <c r="O7" s="137">
-        <v>0</v>
-      </c>
-      <c r="P7" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="105">
-        <v>0</v>
-      </c>
-      <c r="R7" s="105">
+      <c r="H7" s="103">
+        <v>0</v>
+      </c>
+      <c r="I7" s="103">
+        <v>0</v>
+      </c>
+      <c r="J7" s="103">
+        <v>0</v>
+      </c>
+      <c r="K7" s="103">
+        <v>0</v>
+      </c>
+      <c r="L7" s="103">
+        <v>0</v>
+      </c>
+      <c r="M7" s="103">
+        <v>0</v>
+      </c>
+      <c r="N7" s="103">
+        <v>0</v>
+      </c>
+      <c r="O7" s="131">
+        <v>0</v>
+      </c>
+      <c r="P7" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="103">
+        <v>0</v>
+      </c>
+      <c r="R7" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6602,40 +6436,40 @@
       <c r="F8" s="72">
         <v>8</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="145">
         <v>8</v>
       </c>
-      <c r="H8" s="153">
+      <c r="H8" s="145">
         <v>7</v>
       </c>
-      <c r="I8" s="153">
+      <c r="I8" s="145">
         <v>6</v>
       </c>
-      <c r="J8" s="153">
+      <c r="J8" s="145">
         <v>5</v>
       </c>
-      <c r="K8" s="153">
+      <c r="K8" s="145">
         <v>4</v>
       </c>
-      <c r="L8" s="153">
+      <c r="L8" s="145">
         <v>3</v>
       </c>
-      <c r="M8" s="153">
+      <c r="M8" s="145">
         <v>2</v>
       </c>
-      <c r="N8" s="153">
+      <c r="N8" s="145">
         <v>1</v>
       </c>
-      <c r="O8" s="158">
+      <c r="O8" s="150">
         <v>1</v>
       </c>
-      <c r="P8" s="153">
+      <c r="P8" s="145">
         <v>1</v>
       </c>
-      <c r="Q8" s="155">
-        <v>0</v>
-      </c>
-      <c r="R8" s="155">
+      <c r="Q8" s="147">
+        <v>0</v>
+      </c>
+      <c r="R8" s="147">
         <v>0</v>
       </c>
     </row>
@@ -6658,40 +6492,40 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="145">
         <v>5</v>
       </c>
-      <c r="H9" s="153">
+      <c r="H9" s="145">
         <v>4</v>
       </c>
-      <c r="I9" s="153">
+      <c r="I9" s="145">
         <v>3</v>
       </c>
-      <c r="J9" s="153">
+      <c r="J9" s="145">
         <v>2</v>
       </c>
-      <c r="K9" s="153">
+      <c r="K9" s="145">
         <v>1</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="145">
         <v>1</v>
       </c>
-      <c r="M9" s="153">
+      <c r="M9" s="145">
         <v>1</v>
       </c>
-      <c r="N9" s="105">
-        <v>0</v>
-      </c>
-      <c r="O9" s="137">
-        <v>0</v>
-      </c>
-      <c r="P9" s="153">
+      <c r="N9" s="103">
+        <v>0</v>
+      </c>
+      <c r="O9" s="131">
+        <v>0</v>
+      </c>
+      <c r="P9" s="145">
         <v>1</v>
       </c>
-      <c r="Q9" s="153">
+      <c r="Q9" s="145">
         <v>1</v>
       </c>
-      <c r="R9" s="105">
+      <c r="R9" s="103">
         <v>0</v>
       </c>
     </row>
@@ -6717,43 +6551,43 @@
       <c r="G10" s="72">
         <v>5</v>
       </c>
-      <c r="H10" s="105">
+      <c r="H10" s="103">
         <v>5</v>
       </c>
-      <c r="I10" s="153">
+      <c r="I10" s="145">
         <v>5</v>
       </c>
-      <c r="J10" s="153">
+      <c r="J10" s="145">
         <v>4</v>
       </c>
-      <c r="K10" s="153">
+      <c r="K10" s="145">
         <v>3</v>
       </c>
-      <c r="L10" s="153">
+      <c r="L10" s="145">
         <v>2</v>
       </c>
-      <c r="M10" s="153">
+      <c r="M10" s="145">
         <v>1</v>
       </c>
-      <c r="N10" s="105">
-        <v>0</v>
-      </c>
-      <c r="O10" s="137">
-        <v>0</v>
-      </c>
-      <c r="P10" s="153">
+      <c r="N10" s="103">
+        <v>0</v>
+      </c>
+      <c r="O10" s="131">
+        <v>0</v>
+      </c>
+      <c r="P10" s="145">
         <v>1</v>
       </c>
-      <c r="Q10" s="153">
+      <c r="Q10" s="145">
         <v>1</v>
       </c>
-      <c r="R10" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:120" s="136" customFormat="1" ht="24.95" customHeight="1">
+      <c r="R10" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:120" s="130" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B11" s="68">
         <v>13</v>
@@ -6764,46 +6598,46 @@
       <c r="D11" s="72">
         <v>13</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="145">
         <v>13</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="145">
         <v>11</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="145">
         <v>8</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="145">
         <v>6</v>
       </c>
-      <c r="I11" s="153">
+      <c r="I11" s="145">
         <v>4</v>
       </c>
-      <c r="J11" s="153">
+      <c r="J11" s="145">
         <v>2</v>
       </c>
-      <c r="K11" s="153">
+      <c r="K11" s="145">
         <v>1</v>
       </c>
-      <c r="L11" s="153">
+      <c r="L11" s="145">
         <v>1</v>
       </c>
-      <c r="M11" s="105">
-        <v>0</v>
-      </c>
-      <c r="N11" s="105">
-        <v>0</v>
-      </c>
-      <c r="O11" s="137">
-        <v>0</v>
-      </c>
-      <c r="P11" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="105">
-        <v>0</v>
-      </c>
-      <c r="R11" s="105">
+      <c r="M11" s="103">
+        <v>0</v>
+      </c>
+      <c r="N11" s="103">
+        <v>0</v>
+      </c>
+      <c r="O11" s="131">
+        <v>0</v>
+      </c>
+      <c r="P11" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="103">
+        <v>0</v>
+      </c>
+      <c r="R11" s="103">
         <v>0</v>
       </c>
     </row>
@@ -8632,18 +8466,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="29" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8656,11 +8490,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP86"/>
+  <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -8672,7 +8504,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -8848,11 +8680,11 @@
       <c r="DO2" s="41"/>
       <c r="DP2" s="41"/>
     </row>
-    <row r="3" spans="1:120" s="164" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:120" s="156" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="163">
+      <c r="B3" s="155">
         <v>16</v>
       </c>
       <c r="C3" s="98"/>
@@ -8860,7 +8692,7 @@
       <c r="E3" s="92"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="165"/>
+      <c r="H3" s="157"/>
       <c r="I3" s="93"/>
       <c r="J3" s="93"/>
       <c r="K3" s="93"/>
@@ -8872,436 +8704,528 @@
       <c r="Q3" s="93"/>
       <c r="R3" s="93"/>
     </row>
-    <row r="4" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="159" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161">
+    <row r="4" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153">
         <v>10</v>
       </c>
-      <c r="D4" s="153">
+      <c r="D4" s="145">
         <v>10</v>
       </c>
-      <c r="E4" s="153">
+      <c r="E4" s="145">
         <v>6</v>
       </c>
-      <c r="F4" s="166">
+      <c r="F4" s="158">
         <v>5</v>
       </c>
-      <c r="G4" s="167">
-        <v>0</v>
-      </c>
-      <c r="H4" s="173">
-        <v>0</v>
-      </c>
-      <c r="I4" s="167">
-        <v>0</v>
-      </c>
-      <c r="J4" s="167">
-        <v>0</v>
-      </c>
-      <c r="K4" s="167">
-        <v>0</v>
-      </c>
-      <c r="L4" s="167">
-        <v>0</v>
-      </c>
-      <c r="M4" s="167">
-        <v>0</v>
-      </c>
-      <c r="N4" s="156"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="169"/>
-    </row>
-    <row r="5" spans="1:120" s="162" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="159" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161">
+      <c r="G4" s="159">
+        <v>0</v>
+      </c>
+      <c r="H4" s="160">
+        <v>0</v>
+      </c>
+      <c r="I4" s="159">
+        <v>0</v>
+      </c>
+      <c r="J4" s="159">
+        <v>0</v>
+      </c>
+      <c r="K4" s="159">
+        <v>0</v>
+      </c>
+      <c r="L4" s="159">
+        <v>0</v>
+      </c>
+      <c r="M4" s="159">
+        <v>0</v>
+      </c>
+      <c r="N4" s="159">
+        <v>0</v>
+      </c>
+      <c r="O4" s="159">
+        <v>0</v>
+      </c>
+      <c r="P4" s="159">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="159">
+        <v>0</v>
+      </c>
+      <c r="R4" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153">
         <v>1</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="147">
         <v>1</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="147">
         <v>1</v>
       </c>
-      <c r="F5" s="166">
+      <c r="F5" s="158">
         <v>1</v>
       </c>
-      <c r="G5" s="167">
-        <v>0</v>
-      </c>
-      <c r="H5" s="173">
-        <v>0</v>
-      </c>
-      <c r="I5" s="167">
-        <v>0</v>
-      </c>
-      <c r="J5" s="167">
-        <v>0</v>
-      </c>
-      <c r="K5" s="167">
-        <v>0</v>
-      </c>
-      <c r="L5" s="167">
-        <v>0</v>
-      </c>
-      <c r="M5" s="167">
-        <v>0</v>
-      </c>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="169"/>
-    </row>
-    <row r="6" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G5" s="159">
+        <v>0</v>
+      </c>
+      <c r="H5" s="160">
+        <v>0</v>
+      </c>
+      <c r="I5" s="159">
+        <v>0</v>
+      </c>
+      <c r="J5" s="159">
+        <v>0</v>
+      </c>
+      <c r="K5" s="159">
+        <v>0</v>
+      </c>
+      <c r="L5" s="159">
+        <v>0</v>
+      </c>
+      <c r="M5" s="159">
+        <v>0</v>
+      </c>
+      <c r="N5" s="159">
+        <v>0</v>
+      </c>
+      <c r="O5" s="159">
+        <v>0</v>
+      </c>
+      <c r="P5" s="159">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="159">
+        <v>0</v>
+      </c>
+      <c r="R5" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="68"/>
-      <c r="C6" s="161">
+      <c r="C6" s="153">
         <v>1</v>
       </c>
       <c r="D6" s="72">
         <v>1</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="103">
         <v>1</v>
       </c>
-      <c r="F6" s="156">
+      <c r="F6" s="148">
         <v>1</v>
       </c>
-      <c r="G6" s="166">
+      <c r="G6" s="158">
         <v>1</v>
       </c>
-      <c r="H6" s="173">
+      <c r="H6" s="160">
         <v>1</v>
       </c>
-      <c r="I6" s="156">
-        <v>0</v>
-      </c>
-      <c r="J6" s="156">
-        <v>0</v>
-      </c>
-      <c r="K6" s="156">
-        <v>0</v>
-      </c>
-      <c r="L6" s="156">
-        <v>0</v>
-      </c>
-      <c r="M6" s="156">
-        <v>0</v>
-      </c>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="168"/>
-    </row>
-    <row r="7" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I6" s="148">
+        <v>0</v>
+      </c>
+      <c r="J6" s="148">
+        <v>0</v>
+      </c>
+      <c r="K6" s="148">
+        <v>0</v>
+      </c>
+      <c r="L6" s="148">
+        <v>0</v>
+      </c>
+      <c r="M6" s="148">
+        <v>0</v>
+      </c>
+      <c r="N6" s="148">
+        <v>0</v>
+      </c>
+      <c r="O6" s="148">
+        <v>0</v>
+      </c>
+      <c r="P6" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="148">
+        <v>0</v>
+      </c>
+      <c r="R6" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="68"/>
-      <c r="C7" s="161">
+      <c r="C7" s="153">
         <v>1</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="145">
         <v>1</v>
       </c>
-      <c r="E7" s="105">
-        <v>0</v>
-      </c>
-      <c r="F7" s="156">
-        <v>0</v>
-      </c>
-      <c r="G7" s="156">
-        <v>0</v>
-      </c>
-      <c r="H7" s="173">
-        <v>0</v>
-      </c>
-      <c r="I7" s="156">
-        <v>0</v>
-      </c>
-      <c r="J7" s="156">
-        <v>0</v>
-      </c>
-      <c r="K7" s="156">
-        <v>0</v>
-      </c>
-      <c r="L7" s="156">
-        <v>0</v>
-      </c>
-      <c r="M7" s="156">
-        <v>0</v>
-      </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="168"/>
-    </row>
-    <row r="8" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="148">
+        <v>0</v>
+      </c>
+      <c r="G7" s="148">
+        <v>0</v>
+      </c>
+      <c r="H7" s="160">
+        <v>0</v>
+      </c>
+      <c r="I7" s="148">
+        <v>0</v>
+      </c>
+      <c r="J7" s="148">
+        <v>0</v>
+      </c>
+      <c r="K7" s="148">
+        <v>0</v>
+      </c>
+      <c r="L7" s="148">
+        <v>0</v>
+      </c>
+      <c r="M7" s="148">
+        <v>0</v>
+      </c>
+      <c r="N7" s="148">
+        <v>0</v>
+      </c>
+      <c r="O7" s="148">
+        <v>0</v>
+      </c>
+      <c r="P7" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="148">
+        <v>0</v>
+      </c>
+      <c r="R7" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B8" s="68"/>
-      <c r="C8" s="161">
+      <c r="C8" s="153">
         <v>4</v>
       </c>
-      <c r="D8" s="153">
+      <c r="D8" s="145">
         <v>4</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="145">
         <v>2</v>
       </c>
-      <c r="F8" s="166">
+      <c r="F8" s="158">
         <v>1</v>
       </c>
-      <c r="G8" s="167">
-        <v>0</v>
-      </c>
-      <c r="H8" s="173">
-        <v>0</v>
-      </c>
-      <c r="I8" s="167">
-        <v>0</v>
-      </c>
-      <c r="J8" s="167">
-        <v>0</v>
-      </c>
-      <c r="K8" s="167">
-        <v>0</v>
-      </c>
-      <c r="L8" s="167">
-        <v>0</v>
-      </c>
-      <c r="M8" s="167">
-        <v>0</v>
-      </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="168"/>
-    </row>
-    <row r="9" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="161">
-        <v>4</v>
-      </c>
-      <c r="D9" s="155">
-        <v>4</v>
-      </c>
-      <c r="E9" s="155">
-        <v>4</v>
-      </c>
-      <c r="F9" s="167">
-        <v>4</v>
-      </c>
-      <c r="G9" s="167">
-        <v>4</v>
-      </c>
-      <c r="H9" s="173">
-        <v>4</v>
-      </c>
-      <c r="I9" s="167">
-        <v>4</v>
-      </c>
-      <c r="J9" s="167">
-        <v>4</v>
-      </c>
-      <c r="K9" s="167">
-        <v>4</v>
-      </c>
-      <c r="L9" s="167">
-        <v>4</v>
-      </c>
-      <c r="M9" s="167">
-        <v>4</v>
-      </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="168"/>
-    </row>
-    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="82" t="s">
-        <v>106</v>
+      <c r="G8" s="159">
+        <v>0</v>
+      </c>
+      <c r="H8" s="160">
+        <v>0</v>
+      </c>
+      <c r="I8" s="159">
+        <v>0</v>
+      </c>
+      <c r="J8" s="159">
+        <v>0</v>
+      </c>
+      <c r="K8" s="159">
+        <v>0</v>
+      </c>
+      <c r="L8" s="159">
+        <v>0</v>
+      </c>
+      <c r="M8" s="159">
+        <v>0</v>
+      </c>
+      <c r="N8" s="159">
+        <v>0</v>
+      </c>
+      <c r="O8" s="159">
+        <v>0</v>
+      </c>
+      <c r="P8" s="159">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="159">
+        <v>0</v>
+      </c>
+      <c r="R8" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="75">
+        <v>17</v>
+      </c>
+      <c r="C9" s="97">
+        <v>5</v>
+      </c>
+      <c r="D9" s="72">
+        <v>5</v>
+      </c>
+      <c r="E9" s="72">
+        <v>5</v>
+      </c>
+      <c r="F9" s="72">
+        <v>5</v>
+      </c>
+      <c r="G9" s="145">
+        <v>5</v>
+      </c>
+      <c r="H9" s="150">
+        <v>5</v>
+      </c>
+      <c r="I9" s="145">
+        <v>2</v>
+      </c>
+      <c r="J9" s="145">
+        <v>1</v>
+      </c>
+      <c r="K9" s="72">
+        <v>1</v>
+      </c>
+      <c r="L9" s="145">
+        <v>1</v>
+      </c>
+      <c r="M9" s="72">
+        <v>0</v>
+      </c>
+      <c r="N9" s="72">
+        <v>0</v>
+      </c>
+      <c r="O9" s="72">
+        <v>0</v>
+      </c>
+      <c r="P9" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="72">
+        <v>0</v>
+      </c>
+      <c r="R9" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="75">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="97">
+        <v>3</v>
+      </c>
+      <c r="D10" s="72">
+        <v>3</v>
+      </c>
+      <c r="E10" s="72">
+        <v>3</v>
+      </c>
+      <c r="F10" s="72">
+        <v>3</v>
+      </c>
+      <c r="G10" s="145">
+        <v>3</v>
+      </c>
+      <c r="H10" s="150">
+        <v>3</v>
+      </c>
+      <c r="I10" s="145">
+        <v>3</v>
+      </c>
+      <c r="J10" s="145">
+        <v>3</v>
+      </c>
+      <c r="K10" s="145">
+        <v>2</v>
+      </c>
+      <c r="L10" s="145">
+        <v>1</v>
+      </c>
+      <c r="M10" s="72">
+        <v>0</v>
+      </c>
+      <c r="N10" s="72">
+        <v>0</v>
+      </c>
+      <c r="O10" s="72">
+        <v>0</v>
+      </c>
+      <c r="P10" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>0</v>
+      </c>
+      <c r="R10" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="75">
+        <v>19</v>
+      </c>
+      <c r="C11" s="97">
+        <v>6</v>
+      </c>
+      <c r="D11" s="72">
+        <v>6</v>
+      </c>
+      <c r="E11" s="72">
+        <v>6</v>
+      </c>
+      <c r="F11" s="72">
+        <v>6</v>
+      </c>
+      <c r="G11" s="147">
+        <v>6</v>
+      </c>
+      <c r="H11" s="150">
+        <v>6</v>
+      </c>
+      <c r="I11" s="145">
+        <v>6</v>
+      </c>
+      <c r="J11" s="145">
+        <v>3</v>
+      </c>
+      <c r="K11" s="145">
+        <v>2</v>
+      </c>
+      <c r="L11" s="145">
+        <v>1</v>
+      </c>
+      <c r="M11" s="72">
+        <v>0</v>
+      </c>
+      <c r="N11" s="72">
+        <v>0</v>
+      </c>
+      <c r="O11" s="72">
+        <v>0</v>
+      </c>
+      <c r="P11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="72">
+        <v>0</v>
+      </c>
+      <c r="R11" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+    </row>
+    <row r="13" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="75">
+        <v>20</v>
+      </c>
+      <c r="C13" s="97">
+        <v>6</v>
+      </c>
+      <c r="D13" s="72">
+        <v>6</v>
+      </c>
+      <c r="E13" s="72">
+        <v>6</v>
+      </c>
+      <c r="F13" s="72">
+        <v>6</v>
+      </c>
+      <c r="G13" s="72">
+        <v>6</v>
+      </c>
+      <c r="H13" s="150">
+        <v>6</v>
+      </c>
+      <c r="I13" s="145">
+        <v>6</v>
+      </c>
+      <c r="J13" s="145">
         <v>5</v>
       </c>
-      <c r="D10" s="72">
-        <v>5</v>
-      </c>
-      <c r="E10" s="72">
-        <v>5</v>
-      </c>
-      <c r="F10" s="72">
-        <v>5</v>
-      </c>
-      <c r="G10" s="153">
-        <v>5</v>
-      </c>
-      <c r="H10" s="158">
-        <v>5</v>
-      </c>
-      <c r="I10" s="153">
-        <v>2</v>
-      </c>
-      <c r="J10" s="153">
+      <c r="K13" s="145">
         <v>1</v>
       </c>
-      <c r="K10" s="72">
-        <v>1</v>
-      </c>
-      <c r="L10" s="153">
-        <v>1</v>
-      </c>
-      <c r="M10" s="72">
-        <v>0</v>
-      </c>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="168"/>
-    </row>
-    <row r="11" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="75">
-        <v>18</v>
-      </c>
-      <c r="C11" s="97">
-        <v>3</v>
-      </c>
-      <c r="D11" s="72">
-        <v>3</v>
-      </c>
-      <c r="E11" s="72">
-        <v>3</v>
-      </c>
-      <c r="F11" s="72">
-        <v>3</v>
-      </c>
-      <c r="G11" s="153">
-        <v>3</v>
-      </c>
-      <c r="H11" s="158">
-        <v>3</v>
-      </c>
-      <c r="I11" s="153">
-        <v>3</v>
-      </c>
-      <c r="J11" s="153">
-        <v>3</v>
-      </c>
-      <c r="K11" s="153">
-        <v>2</v>
-      </c>
-      <c r="L11" s="153">
-        <v>1</v>
-      </c>
-      <c r="M11" s="72">
-        <v>0</v>
-      </c>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="168"/>
-    </row>
-    <row r="12" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="75">
-        <v>19</v>
-      </c>
-      <c r="C12" s="97">
-        <v>6</v>
-      </c>
-      <c r="D12" s="72">
-        <v>6</v>
-      </c>
-      <c r="E12" s="72">
-        <v>6</v>
-      </c>
-      <c r="F12" s="72">
-        <v>6</v>
-      </c>
-      <c r="G12" s="155">
-        <v>6</v>
-      </c>
-      <c r="H12" s="158">
-        <v>6</v>
-      </c>
-      <c r="I12" s="153">
-        <v>6</v>
-      </c>
-      <c r="J12" s="153">
-        <v>3</v>
-      </c>
-      <c r="K12" s="153">
-        <v>2</v>
-      </c>
-      <c r="L12" s="153">
-        <v>1</v>
-      </c>
-      <c r="M12" s="72">
-        <v>0</v>
-      </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="168"/>
-    </row>
-    <row r="13" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="168"/>
-    </row>
-    <row r="14" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>71</v>
+      <c r="L13" s="147">
+        <v>0</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0</v>
+      </c>
+      <c r="N13" s="72">
+        <v>0</v>
+      </c>
+      <c r="O13" s="72">
+        <v>0</v>
+      </c>
+      <c r="P13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>0</v>
+      </c>
+      <c r="R13" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="70" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="75">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="97">
         <v>6</v>
@@ -9318,36 +9242,46 @@
       <c r="G14" s="72">
         <v>6</v>
       </c>
-      <c r="H14" s="158">
+      <c r="H14" s="150">
         <v>6</v>
       </c>
-      <c r="I14" s="153">
+      <c r="I14" s="72">
         <v>6</v>
       </c>
-      <c r="J14" s="153">
-        <v>5</v>
-      </c>
-      <c r="K14" s="153">
-        <v>1</v>
-      </c>
-      <c r="L14" s="155">
+      <c r="J14" s="72">
+        <v>6</v>
+      </c>
+      <c r="K14" s="145">
+        <v>6</v>
+      </c>
+      <c r="L14" s="72">
         <v>0</v>
       </c>
       <c r="M14" s="72">
         <v>0</v>
       </c>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="171"/>
-    </row>
-    <row r="15" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="70" t="s">
-        <v>108</v>
+      <c r="N14" s="72">
+        <v>0</v>
+      </c>
+      <c r="O14" s="72">
+        <v>0</v>
+      </c>
+      <c r="P14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72">
+        <v>0</v>
+      </c>
+      <c r="R14" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="75">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="97">
         <v>6</v>
@@ -9364,7 +9298,7 @@
       <c r="G15" s="72">
         <v>6</v>
       </c>
-      <c r="H15" s="158">
+      <c r="H15" s="150">
         <v>6</v>
       </c>
       <c r="I15" s="72">
@@ -9373,157 +9307,290 @@
       <c r="J15" s="72">
         <v>6</v>
       </c>
-      <c r="K15" s="153">
+      <c r="K15" s="72">
         <v>6</v>
       </c>
-      <c r="L15" s="72">
-        <v>0</v>
-      </c>
-      <c r="M15" s="72">
-        <v>0</v>
-      </c>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="172"/>
-    </row>
-    <row r="16" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="75">
-        <v>22</v>
-      </c>
-      <c r="C16" s="97">
+      <c r="L15" s="145">
         <v>6</v>
       </c>
-      <c r="D16" s="72">
+      <c r="M15" s="145">
+        <v>2</v>
+      </c>
+      <c r="N15" s="72">
+        <v>0</v>
+      </c>
+      <c r="O15" s="72">
+        <v>0</v>
+      </c>
+      <c r="P15" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="72">
+        <v>0</v>
+      </c>
+      <c r="R15" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:120">
+      <c r="A17" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="38">
+        <f>IF(ISBLANK(C4:C15), NA(), SUM(C3:C15))</f>
+        <v>49</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="array" ref="D17">IF(ISBLANK(D4:D15), NA(), SUM(D4:D15))</f>
+        <v>49</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="array" ref="E17">IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
+        <v>42</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="array" ref="F17">IF(ISBLANK(F4:F15), NA(), SUM(F4:F15))</f>
+        <v>40</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="array" ref="G17">IF(ISBLANK(G4:G15), NA(), SUM(G4:G15))</f>
+        <v>33</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="array" ref="H17">IF(ISBLANK(H4:H15), NA(), SUM(H4:H15))</f>
+        <v>33</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="array" ref="I17">IF(ISBLANK(I4:I15), NA(), SUM(I4:I15))</f>
+        <v>29</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="array" ref="J17">IF(ISBLANK(J4:J15), NA(), SUM(J4:J15))</f>
+        <v>24</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="array" ref="K17">IF(ISBLANK(K4:K15), NA(), SUM(K4:K15))</f>
+        <v>18</v>
+      </c>
+      <c r="L17" s="38">
+        <f t="array" ref="L17">IF(ISBLANK(L4:L15), NA(), SUM(L4:L15))</f>
+        <v>9</v>
+      </c>
+      <c r="M17" s="38">
+        <f t="array" ref="M17">IF(ISBLANK(M4:M15), NA(), SUM(M4:M15))</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="array" ref="N17">IF(ISBLANK(N4:N15), NA(), SUM(N4:N15))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="38">
+        <f t="array" ref="O17">IF(ISBLANK(O4:O15), NA(), SUM(O4:O15))</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <f t="array" ref="P17">IF(ISBLANK(P4:P15), NA(), SUM(P4:P15))</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="38">
+        <f t="array" ref="Q17">IF(ISBLANK(Q4:Q15), NA(), SUM(Q4:Q15))</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="38">
+        <f t="array" ref="R17">IF(ISBLANK(R4:R15), NA(), SUM(R4:R15))</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="38"/>
+      <c r="BW17" s="38"/>
+      <c r="BX17" s="38"/>
+      <c r="BY17" s="38"/>
+      <c r="BZ17" s="38"/>
+      <c r="CA17" s="38"/>
+      <c r="CB17" s="38"/>
+      <c r="CC17" s="38"/>
+      <c r="CD17" s="38"/>
+      <c r="CE17" s="38"/>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="38"/>
+      <c r="CH17" s="38"/>
+      <c r="CI17" s="38"/>
+      <c r="CJ17" s="38"/>
+      <c r="CK17" s="38"/>
+      <c r="CL17" s="38"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="38"/>
+      <c r="CO17" s="38"/>
+      <c r="CP17" s="38"/>
+      <c r="CQ17" s="38"/>
+      <c r="CR17" s="38"/>
+      <c r="CS17" s="38"/>
+      <c r="CT17" s="38"/>
+      <c r="CU17" s="38"/>
+      <c r="CV17" s="38"/>
+      <c r="CW17" s="38"/>
+      <c r="CX17" s="38"/>
+      <c r="CY17" s="38"/>
+      <c r="CZ17" s="38"/>
+      <c r="DA17" s="38"/>
+      <c r="DB17" s="38"/>
+      <c r="DC17" s="38"/>
+      <c r="DD17" s="38"/>
+      <c r="DE17" s="38"/>
+      <c r="DF17" s="38"/>
+      <c r="DG17" s="38"/>
+      <c r="DH17" s="38"/>
+      <c r="DI17" s="38"/>
+      <c r="DJ17" s="38"/>
+      <c r="DK17" s="38"/>
+      <c r="DL17" s="38"/>
+      <c r="DM17" s="38"/>
+      <c r="DN17" s="38"/>
+      <c r="DO17" s="38"/>
+      <c r="DP17" s="38"/>
+    </row>
+    <row r="18" spans="1:120" ht="25.5">
+      <c r="A18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
+        <f>C17-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" ref="E18:R18" si="0">D17-E17</f>
+        <v>7</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="72">
-        <v>6</v>
-      </c>
-      <c r="F16" s="72">
-        <v>6</v>
-      </c>
-      <c r="G16" s="72">
-        <v>6</v>
-      </c>
-      <c r="H16" s="158">
-        <v>6</v>
-      </c>
-      <c r="I16" s="72">
-        <v>6</v>
-      </c>
-      <c r="J16" s="72">
-        <v>6</v>
-      </c>
-      <c r="K16" s="72">
-        <v>6</v>
-      </c>
-      <c r="L16" s="153">
-        <v>6</v>
-      </c>
-      <c r="M16" s="72">
+      <c r="L18" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M18" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N18" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="172"/>
-    </row>
-    <row r="17" spans="1:120">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="51"/>
-    </row>
-    <row r="18" spans="1:120">
-      <c r="A18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="38">
-        <f>IF(ISBLANK(C4:C16), NA(), SUM(C3:C16))</f>
-        <v>53</v>
-      </c>
-      <c r="D18" s="38">
-        <f t="array" ref="D18">IF(ISBLANK(D4:D16), NA(), SUM(D4:D16))</f>
-        <v>53</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="array" ref="E18">IF(ISBLANK(E4:E16), NA(), SUM(E4:E16))</f>
-        <v>46</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="array" ref="F18">IF(ISBLANK(F4:F16), NA(), SUM(F4:F16))</f>
-        <v>44</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="array" ref="G18">IF(ISBLANK(G4:G16), NA(), SUM(G4:G16))</f>
-        <v>37</v>
-      </c>
-      <c r="H18" s="38">
-        <f t="array" ref="H18">IF(ISBLANK(H4:H16), NA(), SUM(H4:H16))</f>
-        <v>37</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="array" ref="I18">IF(ISBLANK(I4:I16), NA(), SUM(I4:I16))</f>
-        <v>33</v>
-      </c>
-      <c r="J18" s="38">
-        <f t="array" ref="J18">IF(ISBLANK(J4:J16), NA(), SUM(J4:J16))</f>
-        <v>28</v>
-      </c>
-      <c r="K18" s="38">
-        <f t="array" ref="K18">IF(ISBLANK(K4:K16), NA(), SUM(K4:K16))</f>
-        <v>22</v>
-      </c>
-      <c r="L18" s="38">
-        <f t="array" ref="L18">IF(ISBLANK(L4:L16), NA(), SUM(L4:L16))</f>
-        <v>13</v>
-      </c>
-      <c r="M18" s="38">
-        <f t="array" ref="M18">IF(ISBLANK(M4:M16), NA(), SUM(M4:M16))</f>
-        <v>6</v>
-      </c>
-      <c r="N18" s="38" t="e">
-        <f t="array" ref="N18">IF(ISBLANK(N4:N16), NA(), SUM(N4:N16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="38" t="e">
-        <f t="array" ref="O18">IF(ISBLANK(O4:O16), NA(), SUM(O4:O16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="38" t="e">
-        <f t="array" ref="P18">IF(ISBLANK(P4:P16), NA(), SUM(P4:P16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="38" t="e">
-        <f t="array" ref="Q18">IF(ISBLANK(Q4:Q16), NA(), SUM(Q4:Q16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="38" t="e">
-        <f t="array" ref="R18">IF(ISBLANK(R4:R16), NA(), SUM(R4:R16))</f>
-        <v>#N/A</v>
+      <c r="O18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
@@ -9628,320 +9695,171 @@
       <c r="DO18" s="38"/>
       <c r="DP18" s="38"/>
     </row>
-    <row r="19" spans="1:120" ht="25.5">
+    <row r="19" spans="1:120">
       <c r="A19" s="38"/>
-      <c r="B19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
-        <f>C18-D18</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="38">
-        <f t="shared" ref="E19:R19" si="0">D18-E18</f>
-        <v>7</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J19" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K19" s="38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L19" s="38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M19" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N19" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BJ19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="38"/>
-      <c r="BM19" s="38"/>
-      <c r="BN19" s="38"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="38"/>
-      <c r="BQ19" s="38"/>
-      <c r="BR19" s="38"/>
-      <c r="BS19" s="38"/>
-      <c r="BT19" s="38"/>
-      <c r="BU19" s="38"/>
-      <c r="BV19" s="38"/>
-      <c r="BW19" s="38"/>
-      <c r="BX19" s="38"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="38"/>
-      <c r="CA19" s="38"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="38"/>
-      <c r="CG19" s="38"/>
-      <c r="CH19" s="38"/>
-      <c r="CI19" s="38"/>
-      <c r="CJ19" s="38"/>
-      <c r="CK19" s="38"/>
-      <c r="CL19" s="38"/>
-      <c r="CM19" s="38"/>
-      <c r="CN19" s="38"/>
-      <c r="CO19" s="38"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="38"/>
-      <c r="CS19" s="38"/>
-      <c r="CT19" s="38"/>
-      <c r="CU19" s="38"/>
-      <c r="CV19" s="38"/>
-      <c r="CW19" s="38"/>
-      <c r="CX19" s="38"/>
-      <c r="CY19" s="38"/>
-      <c r="CZ19" s="38"/>
-      <c r="DA19" s="38"/>
-      <c r="DB19" s="38"/>
-      <c r="DC19" s="38"/>
-      <c r="DD19" s="38"/>
-      <c r="DE19" s="38"/>
-      <c r="DF19" s="38"/>
-      <c r="DG19" s="38"/>
-      <c r="DH19" s="38"/>
-      <c r="DI19" s="38"/>
-      <c r="DJ19" s="38"/>
-      <c r="DK19" s="38"/>
-      <c r="DL19" s="38"/>
-      <c r="DM19" s="38"/>
-      <c r="DN19" s="38"/>
-      <c r="DO19" s="38"/>
-      <c r="DP19" s="38"/>
-    </row>
-    <row r="20" spans="1:120">
-      <c r="A20" s="38"/>
-      <c r="B20" s="44" t="s">
+      <c r="B19" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="45">
-        <f>C18</f>
-        <v>53</v>
-      </c>
-      <c r="D20" s="46">
-        <f t="shared" ref="D20:R20" si="1">C20-$C$18/COUNTA($C$2:$Q$2)</f>
-        <v>49.466666666666669</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="C19" s="45">
+        <f>C17</f>
+        <v>49</v>
+      </c>
+      <c r="D19" s="46">
+        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>45.733333333333334</v>
+      </c>
+      <c r="E19" s="46">
+        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>42.466666666666669</v>
+      </c>
+      <c r="F19" s="46">
+        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G19" s="46">
+        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>35.933333333333337</v>
+      </c>
+      <c r="H19" s="46">
+        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>32.666666666666671</v>
+      </c>
+      <c r="I19" s="46">
+        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>29.400000000000006</v>
+      </c>
+      <c r="J19" s="46">
+        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>26.13333333333334</v>
+      </c>
+      <c r="K19" s="46">
+        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>22.866666666666674</v>
+      </c>
+      <c r="L19" s="46">
+        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="M19" s="46">
+        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>16.333333333333343</v>
+      </c>
+      <c r="N19" s="46">
+        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>13.066666666666677</v>
+      </c>
+      <c r="O19" s="46">
+        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="P19" s="46">
+        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>6.5333333333333448</v>
+      </c>
+      <c r="Q19" s="46">
+        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>3.2666666666666782</v>
+      </c>
+      <c r="R19" s="46">
+        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <v>1.1546319456101628E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" s="56" customFormat="1">
+      <c r="A20" s="55"/>
+      <c r="B20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="58">
+        <f>1-C17/$C$17</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="58">
+        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="58">
         <f t="shared" si="1"/>
-        <v>45.933333333333337</v>
-      </c>
-      <c r="F20" s="46">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F20" s="58">
         <f t="shared" si="1"/>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="G20" s="46">
+        <v>0.18367346938775508</v>
+      </c>
+      <c r="G20" s="58">
         <f t="shared" si="1"/>
-        <v>38.866666666666674</v>
-      </c>
-      <c r="H20" s="46">
+        <v>0.32653061224489799</v>
+      </c>
+      <c r="H20" s="58">
         <f t="shared" si="1"/>
-        <v>35.333333333333343</v>
-      </c>
-      <c r="I20" s="46">
+        <v>0.32653061224489799</v>
+      </c>
+      <c r="I20" s="58">
         <f t="shared" si="1"/>
-        <v>31.800000000000011</v>
-      </c>
-      <c r="J20" s="46">
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="J20" s="58">
         <f t="shared" si="1"/>
-        <v>28.26666666666668</v>
-      </c>
-      <c r="K20" s="46">
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="K20" s="58">
         <f t="shared" si="1"/>
-        <v>24.733333333333348</v>
-      </c>
-      <c r="L20" s="46">
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="L20" s="58">
         <f t="shared" si="1"/>
-        <v>21.200000000000017</v>
-      </c>
-      <c r="M20" s="46">
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="M20" s="58">
         <f t="shared" si="1"/>
-        <v>17.666666666666686</v>
-      </c>
-      <c r="N20" s="46">
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="N20" s="58">
         <f t="shared" si="1"/>
-        <v>14.133333333333352</v>
-      </c>
-      <c r="O20" s="46">
+        <v>1</v>
+      </c>
+      <c r="O20" s="58">
         <f t="shared" si="1"/>
-        <v>10.600000000000019</v>
-      </c>
-      <c r="P20" s="46">
+        <v>1</v>
+      </c>
+      <c r="P20" s="58">
         <f t="shared" si="1"/>
-        <v>7.066666666666686</v>
-      </c>
-      <c r="Q20" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="58">
         <f t="shared" si="1"/>
-        <v>3.5333333333333528</v>
-      </c>
-      <c r="R20" s="46">
+        <v>1</v>
+      </c>
+      <c r="R20" s="58">
         <f t="shared" si="1"/>
-        <v>1.9539925233402755E-14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:120" s="56" customFormat="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="58">
-        <f>1-C18/$C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="58">
-        <f t="shared" ref="D21:R21" si="2">1-D18/$C$18</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.13207547169811318</v>
-      </c>
-      <c r="F21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.16981132075471694</v>
-      </c>
-      <c r="G21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.30188679245283023</v>
-      </c>
-      <c r="H21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.30188679245283023</v>
-      </c>
-      <c r="I21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.37735849056603776</v>
-      </c>
-      <c r="J21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.47169811320754718</v>
-      </c>
-      <c r="K21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.58490566037735847</v>
-      </c>
-      <c r="L21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.75471698113207553</v>
-      </c>
-      <c r="M21" s="58">
-        <f t="shared" si="2"/>
-        <v>0.8867924528301887</v>
-      </c>
-      <c r="N21" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:120">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:120">
       <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -9961,7 +9879,7 @@
       <c r="A23" s="38"/>
       <c r="B23" s="43"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -9979,7 +9897,7 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="38"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -11217,32 +11135,12 @@
       <c r="Q85" s="38"/>
       <c r="R85" s="38"/>
     </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:B16 E14:G14 B3:B12 A3:A16 C6:D9 D15:R16 G4:M16 D3:R13">
-    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
+    <cfRule type="expression" dxfId="15" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11255,10 +11153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP77"/>
+  <dimension ref="A1:DP76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11271,7 +11169,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -11297,52 +11195,52 @@
         <v>35</v>
       </c>
       <c r="C2" s="39">
-        <v>41421</v>
+        <v>41428</v>
       </c>
       <c r="D2" s="39">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="E2" s="39">
-        <v>41423</v>
+        <v>41430</v>
       </c>
       <c r="F2" s="39">
-        <v>41424</v>
+        <v>41431</v>
       </c>
       <c r="G2" s="39">
-        <v>41425</v>
+        <v>41432</v>
       </c>
       <c r="H2" s="39">
-        <v>41428</v>
+        <v>41435</v>
       </c>
       <c r="I2" s="39">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="J2" s="39">
-        <v>41430</v>
+        <v>41437</v>
       </c>
       <c r="K2" s="39">
-        <v>41431</v>
+        <v>41438</v>
       </c>
       <c r="L2" s="39">
-        <v>41432</v>
+        <v>41439</v>
       </c>
       <c r="M2" s="39">
-        <v>41435</v>
+        <v>41442</v>
       </c>
       <c r="N2" s="39">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="O2" s="39">
-        <v>41437</v>
+        <v>41444</v>
       </c>
       <c r="P2" s="39">
-        <v>41438</v>
+        <v>41445</v>
       </c>
       <c r="Q2" s="39">
-        <v>41439</v>
+        <v>41446</v>
       </c>
       <c r="R2" s="39">
-        <v>41442</v>
+        <v>41449</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -11454,10 +11352,10 @@
       <c r="B3" s="75">
         <v>26</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="72">
         <v>10</v>
       </c>
-      <c r="D3" s="94"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
       <c r="G3" s="95"/>
@@ -11475,11 +11373,11 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="92"/>
+        <v>60</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="92"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
@@ -11497,15 +11395,15 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B5" s="75">
-        <v>27</v>
-      </c>
-      <c r="C5" s="97">
-        <v>5</v>
-      </c>
-      <c r="D5" s="94"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="72">
+        <v>12</v>
+      </c>
+      <c r="D5" s="72"/>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
@@ -11522,16 +11420,12 @@
       <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="75">
-        <v>28</v>
-      </c>
-      <c r="C6" s="97">
-        <v>5</v>
-      </c>
-      <c r="D6" s="94"/>
+      <c r="A6" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
       <c r="G6" s="95"/>
@@ -11548,12 +11442,16 @@
       <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="75">
+        <v>27</v>
+      </c>
+      <c r="C7" s="72">
+        <v>20</v>
+      </c>
+      <c r="D7" s="72"/>
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
       <c r="G7" s="92"/>
@@ -11570,16 +11468,12 @@
       <c r="R7" s="49"/>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="75">
-        <v>29</v>
-      </c>
-      <c r="C8" s="97">
-        <v>12</v>
-      </c>
-      <c r="D8" s="94"/>
+      <c r="A8" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="94"/>
       <c r="F8" s="94"/>
       <c r="G8" s="94"/>
@@ -11596,444 +11490,336 @@
       <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A9" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="150">
+      <c r="A9" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="75">
         <v>30</v>
       </c>
-      <c r="C9" s="99">
-        <v>12</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
-    </row>
-    <row r="10" spans="1:120" s="151" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="75">
-        <v>31</v>
-      </c>
-      <c r="C10" s="97">
-        <v>8</v>
-      </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
-      <c r="AX10" s="152"/>
-      <c r="AY10" s="152"/>
-      <c r="AZ10" s="152"/>
-      <c r="BA10" s="152"/>
-      <c r="BB10" s="152"/>
-      <c r="BC10" s="152"/>
-      <c r="BD10" s="152"/>
-      <c r="BE10" s="152"/>
-      <c r="BF10" s="152"/>
-      <c r="BG10" s="152"/>
-      <c r="BH10" s="152"/>
-      <c r="BI10" s="152"/>
-      <c r="BJ10" s="152"/>
-      <c r="BK10" s="152"/>
-      <c r="BL10" s="152"/>
-      <c r="BM10" s="152"/>
-      <c r="BN10" s="152"/>
-      <c r="BO10" s="152"/>
-      <c r="BP10" s="152"/>
-      <c r="BQ10" s="152"/>
-      <c r="BR10" s="152"/>
-      <c r="BS10" s="152"/>
-      <c r="BT10" s="152"/>
-      <c r="BU10" s="152"/>
-      <c r="BV10" s="152"/>
-      <c r="BW10" s="152"/>
-      <c r="BX10" s="152"/>
-      <c r="BY10" s="152"/>
-      <c r="BZ10" s="152"/>
-      <c r="CA10" s="152"/>
-      <c r="CB10" s="152"/>
-      <c r="CC10" s="152"/>
-      <c r="CD10" s="152"/>
-      <c r="CE10" s="152"/>
-      <c r="CF10" s="152"/>
-      <c r="CG10" s="152"/>
-      <c r="CH10" s="152"/>
-      <c r="CI10" s="152"/>
-      <c r="CJ10" s="152"/>
-      <c r="CK10" s="152"/>
-      <c r="CL10" s="152"/>
-      <c r="CM10" s="152"/>
-      <c r="CN10" s="152"/>
-      <c r="CO10" s="152"/>
-      <c r="CP10" s="152"/>
-      <c r="CQ10" s="152"/>
-      <c r="CR10" s="152"/>
-      <c r="CS10" s="152"/>
-      <c r="CT10" s="152"/>
-      <c r="CU10" s="152"/>
-      <c r="CV10" s="152"/>
-      <c r="CW10" s="152"/>
-      <c r="CX10" s="152"/>
-      <c r="CY10" s="152"/>
-      <c r="CZ10" s="152"/>
-      <c r="DA10" s="152"/>
-      <c r="DB10" s="152"/>
-      <c r="DC10" s="152"/>
-      <c r="DD10" s="152"/>
-      <c r="DE10" s="152"/>
-      <c r="DF10" s="152"/>
-      <c r="DG10" s="152"/>
-      <c r="DH10" s="152"/>
-      <c r="DI10" s="152"/>
-      <c r="DJ10" s="152"/>
-      <c r="DK10" s="152"/>
-      <c r="DL10" s="152"/>
-      <c r="DM10" s="152"/>
-      <c r="DN10" s="152"/>
-      <c r="DO10" s="152"/>
-      <c r="DP10" s="152"/>
-    </row>
-    <row r="11" spans="1:120">
-      <c r="A11" s="38"/>
-    </row>
-    <row r="12" spans="1:120" s="56" customFormat="1">
-      <c r="A12" s="55"/>
+      <c r="C9" s="72">
+        <v>10</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:120">
+      <c r="A10" s="38"/>
+    </row>
+    <row r="11" spans="1:120" s="56" customFormat="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="38">
+        <f t="array" ref="C11">IF(ISBLANK(C3:C9), NA(), SUM(C3:C9))</f>
+        <v>52</v>
+      </c>
+      <c r="D11" s="38" t="e">
+        <f t="array" ref="D11">IF(ISBLANK(D3:D9), NA(), SUM(D3:D9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="38" t="e">
+        <f t="array" ref="E11">IF(ISBLANK(E3:E9), NA(), SUM(E3:E9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="38" t="e">
+        <f t="array" ref="F11">IF(ISBLANK(F3:F9), NA(), SUM(F3:F9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="38" t="e">
+        <f t="array" ref="G11">IF(ISBLANK(G3:G9), NA(), SUM(G3:G9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="38" t="e">
+        <f t="array" ref="H11">IF(ISBLANK(H3:H9), NA(), SUM(H3:H9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="38" t="e">
+        <f t="array" ref="I11">IF(ISBLANK(I3:I9), NA(), SUM(I3:I9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="38" t="e">
+        <f t="array" ref="J11">IF(ISBLANK(J3:J9), NA(), SUM(J3:J9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="38" t="e">
+        <f t="array" ref="K11">IF(ISBLANK(K3:K9), NA(), SUM(K3:K9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="38" t="e">
+        <f t="array" ref="L11">IF(ISBLANK(L3:L9), NA(), SUM(L3:L9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="38" t="e">
+        <f t="array" ref="M11">IF(ISBLANK(M3:M9), NA(), SUM(M3:M9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="38" t="e">
+        <f t="array" ref="N11">IF(ISBLANK(N3:N9), NA(), SUM(N3:N9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="38" t="e">
+        <f t="array" ref="O11">IF(ISBLANK(O3:O9), NA(), SUM(O3:O9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="38" t="e">
+        <f t="array" ref="P11">IF(ISBLANK(P3:P9), NA(), SUM(P3:P9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="38" t="e">
+        <f t="array" ref="Q11">IF(ISBLANK(Q3:Q9), NA(), SUM(Q3:Q9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="38" t="e">
+        <f t="array" ref="R11">IF(ISBLANK(R3:R9), NA(), SUM(R3:R9))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120" ht="25.5">
+      <c r="A12" s="38"/>
       <c r="B12" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="38">
-        <f t="array" ref="C12">IF(ISBLANK(C3:C10), NA(), SUM(C3:C10))</f>
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C12" s="38"/>
       <c r="D12" s="38" t="e">
-        <f t="array" ref="D12">IF(ISBLANK(D3:D10), NA(), SUM(D3:D10))</f>
+        <f t="shared" ref="D12:R12" si="0">C11-D11</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="38" t="e">
-        <f t="array" ref="E12">IF(ISBLANK(E3:E10), NA(), SUM(E3:E10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="38" t="e">
-        <f t="array" ref="F12">IF(ISBLANK(F3:F10), NA(), SUM(F3:F10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="38" t="e">
-        <f t="array" ref="G12">IF(ISBLANK(G3:G10), NA(), SUM(G3:G10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="38" t="e">
-        <f t="array" ref="H12">IF(ISBLANK(H3:H10), NA(), SUM(H3:H10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="38" t="e">
-        <f t="array" ref="I12">IF(ISBLANK(I3:I10), NA(), SUM(I3:I10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="38" t="e">
-        <f t="array" ref="J12">IF(ISBLANK(J3:J10), NA(), SUM(J3:J10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="38" t="e">
-        <f t="array" ref="K12">IF(ISBLANK(K3:K10), NA(), SUM(K3:K10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="38" t="e">
-        <f t="array" ref="L12">IF(ISBLANK(L3:L10), NA(), SUM(L3:L10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="38" t="e">
-        <f t="array" ref="M12">IF(ISBLANK(M3:M10), NA(), SUM(M3:M10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="38" t="e">
-        <f t="array" ref="N12">IF(ISBLANK(N3:N10), NA(), SUM(N3:N10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="38" t="e">
-        <f t="array" ref="O12">IF(ISBLANK(O3:O10), NA(), SUM(O3:O10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="38" t="e">
-        <f t="array" ref="P12">IF(ISBLANK(P3:P10), NA(), SUM(P3:P10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="38" t="e">
-        <f t="array" ref="Q12">IF(ISBLANK(Q3:Q10), NA(), SUM(Q3:Q10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="38" t="e">
-        <f t="array" ref="R12">IF(ISBLANK(R3:R10), NA(), SUM(R3:R10))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:120" ht="25.5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38" t="e">
-        <f t="shared" ref="D13:R13" si="0">C12-D12</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="38" t="e">
+      <c r="F12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="38" t="e">
+      <c r="G12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="38" t="e">
+      <c r="H12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="38" t="e">
+      <c r="I12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="38" t="e">
+      <c r="J12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="38" t="e">
+      <c r="K12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="38" t="e">
+      <c r="L12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="38" t="e">
+      <c r="M12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="38" t="e">
+      <c r="N12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="38" t="e">
+      <c r="O12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="38" t="e">
+      <c r="P12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="38" t="e">
+      <c r="Q12" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="51" t="e">
+      <c r="R12" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="13" spans="1:120">
+      <c r="A13" s="38"/>
+      <c r="B13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="45">
+        <f>C11</f>
+        <v>52</v>
+      </c>
+      <c r="D13" s="46">
+        <f>C13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>48.533333333333331</v>
+      </c>
+      <c r="E13" s="46">
+        <f>D13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>45.066666666666663</v>
+      </c>
+      <c r="F13" s="46">
+        <f>E13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>41.599999999999994</v>
+      </c>
+      <c r="G13" s="46">
+        <f>F13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>38.133333333333326</v>
+      </c>
+      <c r="H13" s="46">
+        <f>G13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>34.666666666666657</v>
+      </c>
+      <c r="I13" s="46">
+        <f>H13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>31.199999999999989</v>
+      </c>
+      <c r="J13" s="46">
+        <f>I13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>27.73333333333332</v>
+      </c>
+      <c r="K13" s="46">
+        <f>J13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>24.266666666666652</v>
+      </c>
+      <c r="L13" s="46">
+        <f>K13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>20.799999999999983</v>
+      </c>
+      <c r="M13" s="46">
+        <f>L13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>17.333333333333314</v>
+      </c>
+      <c r="N13" s="46">
+        <f>M13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>13.866666666666648</v>
+      </c>
+      <c r="O13" s="46">
+        <f>N13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>10.399999999999981</v>
+      </c>
+      <c r="P13" s="46">
+        <f>O13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>6.933333333333314</v>
+      </c>
+      <c r="Q13" s="46">
+        <f>P13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>3.4666666666666472</v>
+      </c>
+      <c r="R13" s="52">
+        <f>Q13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <v>-1.9539925233402755E-14</v>
+      </c>
+    </row>
     <row r="14" spans="1:120">
       <c r="A14" s="38"/>
-      <c r="B14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="45">
-        <f>C12</f>
-        <v>52</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" ref="D14:R14" si="1">C14-$C$12/COUNTA($C$2:$Q$2)</f>
-        <v>48.533333333333331</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="B14" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="58">
+        <f t="shared" ref="C14:R14" si="1">1-C11/$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>45.066666666666663</v>
-      </c>
-      <c r="F14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>41.599999999999994</v>
-      </c>
-      <c r="G14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>38.133333333333326</v>
-      </c>
-      <c r="H14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>34.666666666666657</v>
-      </c>
-      <c r="I14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>31.199999999999989</v>
-      </c>
-      <c r="J14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>27.73333333333332</v>
-      </c>
-      <c r="K14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>24.266666666666652</v>
-      </c>
-      <c r="L14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>20.799999999999983</v>
-      </c>
-      <c r="M14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>17.333333333333314</v>
-      </c>
-      <c r="N14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>13.866666666666648</v>
-      </c>
-      <c r="O14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>10.399999999999981</v>
-      </c>
-      <c r="P14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>6.933333333333314</v>
-      </c>
-      <c r="Q14" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>3.4666666666666472</v>
-      </c>
-      <c r="R14" s="52">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="58" t="e">
         <f t="shared" si="1"/>
-        <v>-1.9539925233402755E-14</v>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="38"/>
-      <c r="B15" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="58">
-        <f t="shared" ref="C15:R15" si="2">1-C12/$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="38"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="38"/>
@@ -13215,72 +13001,20 @@
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
     </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:R9 A3:A9 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="B5:B6 A3:A9 B8:B9 B3 E3:R9">
+    <cfRule type="expression" dxfId="7" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9 A4:A7 B3 B5:B6 B8:B9">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B9 A8 A5:A6">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B5:B6 B8:B10">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A7">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 B3 B5:B6">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13309,7 +13043,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -13492,7 +13226,7 @@
       <c r="B3" s="75">
         <v>33</v>
       </c>
-      <c r="C3" s="149">
+      <c r="C3" s="143">
         <v>10</v>
       </c>
       <c r="D3" s="34"/>
@@ -13513,12 +13247,12 @@
     </row>
     <row r="4" spans="1:120" s="96" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="84" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="75">
         <v>34</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="104">
         <v>2</v>
       </c>
       <c r="D4" s="94"/>
@@ -13539,7 +13273,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="75">
         <v>35</v>
@@ -13565,7 +13299,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="68">
         <v>36</v>
@@ -13591,7 +13325,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B7" s="68">
         <v>37</v>
@@ -13599,20 +13333,20 @@
       <c r="C7" s="97">
         <v>14</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:120">
@@ -15400,50 +15134,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1675,63 +1675,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -2008,7 +1952,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225425"/>
+          <c:x val="0.37032576667225442"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2026,9 +1970,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532496"/>
+          <c:y val="0.15742128935532501"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192459"/>
+          <c:h val="0.70464767616192481"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2338,11 +2282,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111081728"/>
-        <c:axId val="111427968"/>
+        <c:axId val="103667968"/>
+        <c:axId val="104022400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111081728"/>
+        <c:axId val="103667968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2318,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111427968"/>
+        <c:crossAx val="104022400"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2382,7 +2326,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111427968"/>
+        <c:axId val="104022400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2368,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111081728"/>
+        <c:crossAx val="103667968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2512,7 +2456,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000217" footer="0.49212598450000217"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2549,7 +2493,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225453"/>
+          <c:x val="0.3703257666722547"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2567,9 +2511,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532507"/>
+          <c:y val="0.15742128935532515"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192492"/>
+          <c:h val="0.70464767616192503"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2827,63 +2771,63 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.466666666666669</c:v>
+                  <c:v>45.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.933333333333337</c:v>
+                  <c:v>42.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.400000000000006</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.866666666666674</c:v>
+                  <c:v>35.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.333333333333343</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.800000000000011</c:v>
+                  <c:v>29.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.26666666666668</c:v>
+                  <c:v>26.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.733333333333348</c:v>
+                  <c:v>22.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.200000000000017</c:v>
+                  <c:v>19.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.666666666666686</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.133333333333352</c:v>
+                  <c:v>13.066666666666677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.600000000000019</c:v>
+                  <c:v>9.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.066666666666686</c:v>
+                  <c:v>6.5333333333333448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5333333333333528</c:v>
+                  <c:v>3.2666666666666782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9539925233402755E-14</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112833664"/>
-        <c:axId val="112835584"/>
+        <c:axId val="104379520"/>
+        <c:axId val="104381440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112833664"/>
+        <c:axId val="104379520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,7 +2859,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112835584"/>
+        <c:crossAx val="104381440"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2923,7 +2867,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112835584"/>
+        <c:axId val="104381440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112833664"/>
+        <c:crossAx val="104379520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3053,7 +2997,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000228" footer="0.49212598450000228"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3090,7 +3034,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225486"/>
+          <c:x val="0.37032576667225497"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3108,9 +3052,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532523"/>
+          <c:y val="0.15742128935532529"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192514"/>
+          <c:h val="0.70464767616192525"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3219,7 +3163,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3420,11 +3364,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112684416"/>
-        <c:axId val="112707072"/>
+        <c:axId val="104226176"/>
+        <c:axId val="104244736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112684416"/>
+        <c:axId val="104226176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3400,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112707072"/>
+        <c:crossAx val="104244736"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3464,7 +3408,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112707072"/>
+        <c:axId val="104244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,7 +3450,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112684416"/>
+        <c:crossAx val="104226176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,7 +3538,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3631,7 +3575,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225509"/>
+          <c:x val="0.37032576667225525"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3649,9 +3593,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532534"/>
+          <c:y val="0.1574212893553254"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192536"/>
+          <c:h val="0.70464767616192558"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3961,11 +3905,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112895872"/>
-        <c:axId val="112902144"/>
+        <c:axId val="104494976"/>
+        <c:axId val="104505344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112895872"/>
+        <c:axId val="104494976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +3941,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112902144"/>
+        <c:crossAx val="104505344"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4005,7 +3949,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112902144"/>
+        <c:axId val="104505344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +3991,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112895872"/>
+        <c:crossAx val="104494976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4135,7 +4079,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4579,11 +4523,11 @@
   </sheetPr>
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5929,10 +5873,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A51:A52 B46:C46 D47:E48 H46:K46 A44:A47 D40 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A41 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="1" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8466,18 +8410,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9705,63 +9649,63 @@
         <v>49</v>
       </c>
       <c r="D19" s="46">
-        <f>C19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D19:R19" si="1">C19-$C$17/COUNTA($C$2:$Q$2)</f>
         <v>45.733333333333334</v>
       </c>
       <c r="E19" s="46">
-        <f>D19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>42.466666666666669</v>
       </c>
       <c r="F19" s="46">
-        <f>E19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G19" s="46">
-        <f>F19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>35.933333333333337</v>
       </c>
       <c r="H19" s="46">
-        <f>G19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>32.666666666666671</v>
       </c>
       <c r="I19" s="46">
-        <f>H19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>29.400000000000006</v>
       </c>
       <c r="J19" s="46">
-        <f>I19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>26.13333333333334</v>
       </c>
       <c r="K19" s="46">
-        <f>J19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>22.866666666666674</v>
       </c>
       <c r="L19" s="46">
-        <f>K19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>19.600000000000009</v>
       </c>
       <c r="M19" s="46">
-        <f>L19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>16.333333333333343</v>
       </c>
       <c r="N19" s="46">
-        <f>M19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>13.066666666666677</v>
       </c>
       <c r="O19" s="46">
-        <f>N19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>9.8000000000000114</v>
       </c>
       <c r="P19" s="46">
-        <f>O19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>6.5333333333333448</v>
       </c>
       <c r="Q19" s="46">
-        <f>P19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.2666666666666782</v>
       </c>
       <c r="R19" s="46">
-        <f>Q19-$C$17/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>1.1546319456101628E-14</v>
       </c>
     </row>
@@ -9775,63 +9719,63 @@
         <v>0</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:R20" si="1">1-D17/$C$17</f>
+        <f t="shared" ref="D20:R20" si="2">1-D17/$C$17</f>
         <v>0</v>
       </c>
       <c r="E20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1428571428571429</v>
       </c>
       <c r="F20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18367346938775508</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32653061224489799</v>
       </c>
       <c r="I20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="J20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51020408163265307</v>
       </c>
       <c r="K20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63265306122448983</v>
       </c>
       <c r="L20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81632653061224492</v>
       </c>
       <c r="M20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="N20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R20" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11137,10 +11081,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
-    <cfRule type="expression" dxfId="15" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11155,8 +11099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11355,7 +11299,9 @@
       <c r="C3" s="72">
         <v>10</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="72">
+        <v>10</v>
+      </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
       <c r="G3" s="95"/>
@@ -11400,10 +11346,12 @@
       <c r="B5" s="75">
         <v>23</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="145">
         <v>12</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="72">
+        <v>5</v>
+      </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
@@ -11451,7 +11399,9 @@
       <c r="C7" s="72">
         <v>20</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="72">
+        <v>20</v>
+      </c>
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
       <c r="G7" s="92"/>
@@ -11499,7 +11449,9 @@
       <c r="C9" s="72">
         <v>10</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="72">
+        <v>10</v>
+      </c>
       <c r="E9" s="95"/>
       <c r="F9" s="95"/>
       <c r="G9" s="94"/>
@@ -11527,9 +11479,9 @@
         <f t="array" ref="C11">IF(ISBLANK(C3:C9), NA(), SUM(C3:C9))</f>
         <v>52</v>
       </c>
-      <c r="D11" s="38" t="e">
+      <c r="D11" s="38">
         <f t="array" ref="D11">IF(ISBLANK(D3:D9), NA(), SUM(D3:D9))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="E11" s="38" t="e">
         <f t="array" ref="E11">IF(ISBLANK(E3:E9), NA(), SUM(E3:E9))</f>
@@ -11594,9 +11546,9 @@
         <v>38</v>
       </c>
       <c r="C12" s="38"/>
-      <c r="D12" s="38" t="e">
+      <c r="D12" s="38">
         <f t="shared" ref="D12:R12" si="0">C11-D11</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="E12" s="38" t="e">
         <f t="shared" si="0"/>
@@ -11665,63 +11617,63 @@
         <v>52</v>
       </c>
       <c r="D13" s="46">
-        <f>C13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D13:R13" si="1">C13-$C$11/COUNTA($C$2:$Q$2)</f>
         <v>48.533333333333331</v>
       </c>
       <c r="E13" s="46">
-        <f>D13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>45.066666666666663</v>
       </c>
       <c r="F13" s="46">
-        <f>E13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>41.599999999999994</v>
       </c>
       <c r="G13" s="46">
-        <f>F13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>38.133333333333326</v>
       </c>
       <c r="H13" s="46">
-        <f>G13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>34.666666666666657</v>
       </c>
       <c r="I13" s="46">
-        <f>H13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>31.199999999999989</v>
       </c>
       <c r="J13" s="46">
-        <f>I13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>27.73333333333332</v>
       </c>
       <c r="K13" s="46">
-        <f>J13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>24.266666666666652</v>
       </c>
       <c r="L13" s="46">
-        <f>K13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>20.799999999999983</v>
       </c>
       <c r="M13" s="46">
-        <f>L13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>17.333333333333314</v>
       </c>
       <c r="N13" s="46">
-        <f>M13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>13.866666666666648</v>
       </c>
       <c r="O13" s="46">
-        <f>N13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>10.399999999999981</v>
       </c>
       <c r="P13" s="46">
-        <f>O13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>6.933333333333314</v>
       </c>
       <c r="Q13" s="46">
-        <f>P13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>3.4666666666666472</v>
       </c>
       <c r="R13" s="52">
-        <f>Q13-$C$11/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="1"/>
         <v>-1.9539925233402755E-14</v>
       </c>
     </row>
@@ -11731,67 +11683,67 @@
         <v>40</v>
       </c>
       <c r="C14" s="58">
-        <f t="shared" ref="C14:R14" si="1">1-C11/$C$11</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C14:R14" si="2">1-C11/$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <f t="shared" si="2"/>
+        <v>0.13461538461538458</v>
+      </c>
+      <c r="E14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="F14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="G14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="H14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="I14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="J14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="K14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="L14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="M14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="N14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="O14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="P14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="58" t="e">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="58" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="R14" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13003,18 +12955,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B6 A3:A9 B8:B9 B3 E3:R9">
-    <cfRule type="expression" dxfId="7" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9 A8 A5:A6">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15134,50 +15086,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$10:$Z$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$14:$Z$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
   <si>
     <t>Itération</t>
   </si>
@@ -315,9 +315,6 @@
     <t>IT4</t>
   </si>
   <si>
-    <t xml:space="preserve">        - Gestion de plusieurs sous-parcours avec accès concurrents</t>
-  </si>
-  <si>
     <t>Prise en charge de l'environnement technique</t>
   </si>
   <si>
@@ -400,6 +397,24 @@
   </si>
   <si>
     <t>? Possibilité de copier une scène lorsqu'on en créé une nouvelle ?</t>
+  </si>
+  <si>
+    <t>Réinitialiser le mot de passe d'un user</t>
+  </si>
+  <si>
+    <t>Ajouter une description sur les sémantiques</t>
+  </si>
+  <si>
+    <t>Système de log pour tracer toutes les actions</t>
+  </si>
+  <si>
+    <t>Champ coordonnées géographiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Gestion de plusieurs sous-parcours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Gestion de plusieurs sous-parcours</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1967,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225442"/>
+          <c:x val="0.3703257666722547"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1970,9 +1985,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532501"/>
+          <c:y val="0.15742128935532515"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192481"/>
+          <c:h val="0.70464767616192503"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2282,11 +2297,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103667968"/>
-        <c:axId val="104022400"/>
+        <c:axId val="100215424"/>
+        <c:axId val="100238080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103667968"/>
+        <c:axId val="100215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2333,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104022400"/>
+        <c:crossAx val="100238080"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2326,7 +2341,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104022400"/>
+        <c:axId val="100238080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,548 +2383,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103667968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82639198178585549"/>
-          <c:y val="3.2983508245877091E-2"/>
-          <c:w val="0.11675295106908352"/>
-          <c:h val="9.145427286356822E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000222" footer="0.49212598450000222"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.3703257666722547"/>
-          <c:y val="2.6986506746626688E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532515"/>
-          <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192503"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000080"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Iteration 2'!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41411</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41415</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41421</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41422</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41424</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.933333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.13333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.866666666666674</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.066666666666677</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.8000000000000114</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5333333333333448</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2666666666666782</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1546319456101628E-14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="104379520"/>
-        <c:axId val="104381440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104379520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104381440"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104381440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104379520"/>
+        <c:crossAx val="100215424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,7 +2477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3025,7 +2499,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 3</a:t>
+              <a:t>Suivi charge Iteration 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3064,7 +2538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$11</c:f>
+              <c:f>'Iteration 2'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3098,114 +2572,114 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$11:$R$11</c:f>
+              <c:f>'Iteration 2'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,7 +2690,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$13</c:f>
+              <c:f>'Iteration 2'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3250,125 +2724,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 2'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41431</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41435</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41438</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41439</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41444</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41446</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$13:$R$13</c:f>
+              <c:f>'Iteration 2'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.533333333333331</c:v>
+                  <c:v>45.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.066666666666663</c:v>
+                  <c:v>42.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.599999999999994</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.133333333333326</c:v>
+                  <c:v>35.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.666666666666657</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.199999999999989</c:v>
+                  <c:v>29.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73333333333332</c:v>
+                  <c:v>26.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.266666666666652</c:v>
+                  <c:v>22.866666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999983</c:v>
+                  <c:v>19.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.333333333333314</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.866666666666648</c:v>
+                  <c:v>13.066666666666677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.399999999999981</c:v>
+                  <c:v>9.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333314</c:v>
+                  <c:v>6.5333333333333448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4666666666666472</c:v>
+                  <c:v>3.2666666666666782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9539925233402755E-14</c:v>
+                  <c:v>1.1546319456101628E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104226176"/>
-        <c:axId val="104244736"/>
+        <c:axId val="100140544"/>
+        <c:axId val="100142464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104226176"/>
+        <c:axId val="100140544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +2874,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104244736"/>
+        <c:crossAx val="100142464"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3408,7 +2882,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104244736"/>
+        <c:axId val="100142464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,7 +2924,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104226176"/>
+        <c:crossAx val="100140544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3544,7 +3018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fr-FR"/>
   <c:chart>
@@ -3566,7 +3040,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Suivi charge Iteration 4</a:t>
+              <a:t>Suivi charge Iteration 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3605,7 +3079,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:f>'Iteration 3'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3639,78 +3113,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41442</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41443</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41444</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41445</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41446</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:f>'Iteration 3'!$C$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3757,7 +3231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:f>'Iteration 3'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3791,125 +3265,125 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:f>'Iteration 3'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41439</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41442</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>41443</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>41444</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>41445</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>41446</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>41449</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41453</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41459</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41460</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:f>'Iteration 3'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>48.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>45.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>41.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.533333333333331</c:v>
+                  <c:v>38.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>34.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.799999999999997</c:v>
+                  <c:v>31.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.93333333333333</c:v>
+                  <c:v>27.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.066666666666663</c:v>
+                  <c:v>24.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>20.799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>17.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666615</c:v>
+                  <c:v>13.866666666666648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>10.399999999999981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7333333333333276</c:v>
+                  <c:v>6.933333333333314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8666666666666609</c:v>
+                  <c:v>3.4666666666666472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.773159728050814E-15</c:v>
+                  <c:v>-1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104494976"/>
-        <c:axId val="104505344"/>
+        <c:axId val="100601856"/>
+        <c:axId val="100603776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104494976"/>
+        <c:axId val="100601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +3415,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104505344"/>
+        <c:crossAx val="100603776"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3949,7 +3423,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104505344"/>
+        <c:axId val="100603776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,7 +3465,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104494976"/>
+        <c:crossAx val="100601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4085,6 +3559,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Suivi charge Iteration 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37032576667225553"/>
+          <c:y val="2.6986506746626688E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5640078243859845E-2"/>
+          <c:y val="0.15742128935532551"/>
+          <c:w val="0.92946294640153049"/>
+          <c:h val="0.70464767616192592"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-40C]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.066666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7333333333333276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8666666666666609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.773159728050814E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="100763904"/>
+        <c:axId val="100786560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100763904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-40C]d\-mmm;@" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100786560"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100786560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100763904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82639198178585549"/>
+          <c:y val="3.2983508245877091E-2"/>
+          <c:w val="0.11675295106908352"/>
+          <c:h val="9.145427286356822E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1445" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1575" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4165,13 +4180,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>65444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>62002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4527,7 +4542,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4651,7 +4666,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4737,7 +4752,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="72" t="s">
@@ -4754,7 +4769,7 @@
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
       <c r="D11" s="140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="141"/>
       <c r="F11" s="134"/>
@@ -4809,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
@@ -4896,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="103" t="s">
         <v>32</v>
@@ -4925,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>51</v>
@@ -5010,10 +5025,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="72" t="s">
         <v>69</v>
@@ -5077,7 +5092,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
@@ -5153,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>51</v>
@@ -5251,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="72" t="s">
@@ -5278,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="72" t="s">
@@ -5343,7 +5358,7 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
@@ -5409,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
@@ -5453,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="72" t="s">
@@ -5495,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="72" t="s">
@@ -5539,7 +5554,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="33"/>
@@ -5586,10 +5601,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="70" t="s">
         <v>106</v>
-      </c>
-      <c r="E45" s="70" t="s">
-        <v>107</v>
       </c>
       <c r="F45" s="72" t="s">
         <v>32</v>
@@ -5613,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>73</v>
@@ -5705,7 +5720,7 @@
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="33"/>
@@ -6139,7 +6154,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
@@ -6307,7 +6322,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
@@ -6363,7 +6378,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6531,7 +6546,7 @@
     </row>
     <row r="11" spans="1:120" s="130" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="68">
         <v>13</v>
@@ -8650,7 +8665,7 @@
     </row>
     <row r="4" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="151" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="152"/>
       <c r="C4" s="153">
@@ -8704,7 +8719,7 @@
     </row>
     <row r="5" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="152"/>
       <c r="C5" s="153">
@@ -8758,7 +8773,7 @@
     </row>
     <row r="6" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="153">
@@ -8812,7 +8827,7 @@
     </row>
     <row r="7" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="153">
@@ -8866,7 +8881,7 @@
     </row>
     <row r="8" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="153">
@@ -8920,7 +8935,7 @@
     </row>
     <row r="9" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="75">
         <v>17</v>
@@ -8976,7 +8991,7 @@
     </row>
     <row r="10" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="75">
         <v>18</v>
@@ -9166,7 +9181,7 @@
     </row>
     <row r="14" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="75">
         <v>21</v>
@@ -9222,7 +9237,7 @@
     </row>
     <row r="15" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="75">
         <v>22</v>
@@ -9312,7 +9327,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="38">
-        <f t="array" ref="E17">IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
+        <f>IF(ISBLANK(E4:E15), NA(), SUM(E4:E15))</f>
         <v>42</v>
       </c>
       <c r="F17" s="38">
@@ -11097,11 +11112,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP76"/>
+  <dimension ref="A1:DP80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11296,14 +11309,10 @@
       <c r="B3" s="75">
         <v>26</v>
       </c>
-      <c r="C3" s="72">
-        <v>10</v>
-      </c>
-      <c r="D3" s="72">
-        <v>10</v>
-      </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="95"/>
       <c r="H3" s="95"/>
       <c r="I3" s="95"/>
@@ -11318,42 +11327,52 @@
       <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A4" s="89" t="s">
-        <v>60</v>
+      <c r="A4" s="70" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="75"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
+      <c r="C4" s="72">
+        <v>1</v>
+      </c>
+      <c r="D4" s="72">
+        <v>1</v>
+      </c>
+      <c r="E4" s="72">
+        <v>1</v>
+      </c>
+      <c r="F4" s="72">
+        <v>1</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
       <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="75">
-        <v>23</v>
-      </c>
-      <c r="C5" s="145">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="72">
+        <v>1</v>
       </c>
       <c r="D5" s="72">
-        <v>5</v>
-      </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="72">
+        <v>1</v>
+      </c>
+      <c r="F5" s="72">
+        <v>1</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
@@ -11368,14 +11387,22 @@
       <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A6" s="89" t="s">
-        <v>61</v>
+      <c r="A6" s="70" t="s">
+        <v>110</v>
       </c>
       <c r="B6" s="75"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="C6" s="72">
+        <v>3</v>
+      </c>
+      <c r="D6" s="72">
+        <v>3</v>
+      </c>
+      <c r="E6" s="72">
+        <v>3</v>
+      </c>
+      <c r="F6" s="72">
+        <v>3</v>
+      </c>
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
@@ -11391,447 +11418,481 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="75">
-        <v>27</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B7" s="75"/>
       <c r="C7" s="72">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="72">
-        <v>20</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="49"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="72">
+        <v>5</v>
+      </c>
+      <c r="F7" s="72">
+        <v>5</v>
+      </c>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="89" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="49"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A9" s="82" t="s">
-        <v>105</v>
+      <c r="A9" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="B9" s="75">
+        <v>23</v>
+      </c>
+      <c r="C9" s="145">
+        <v>12</v>
+      </c>
+      <c r="D9" s="145">
+        <v>7</v>
+      </c>
+      <c r="E9" s="147">
+        <v>5</v>
+      </c>
+      <c r="F9" s="147">
+        <v>5</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A10" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A11" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="75">
+        <v>27</v>
+      </c>
+      <c r="C11" s="72">
+        <v>20</v>
+      </c>
+      <c r="D11" s="72">
+        <v>20</v>
+      </c>
+      <c r="E11" s="72">
+        <v>20</v>
+      </c>
+      <c r="F11" s="72">
+        <v>20</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A12" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="75">
         <v>30</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C13" s="72">
         <v>10</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D13" s="72">
         <v>10</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="49"/>
-    </row>
-    <row r="10" spans="1:120">
-      <c r="A10" s="38"/>
-    </row>
-    <row r="11" spans="1:120" s="56" customFormat="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="38">
-        <f t="array" ref="C11">IF(ISBLANK(C3:C9), NA(), SUM(C3:C9))</f>
-        <v>52</v>
-      </c>
-      <c r="D11" s="38">
-        <f t="array" ref="D11">IF(ISBLANK(D3:D9), NA(), SUM(D3:D9))</f>
-        <v>45</v>
-      </c>
-      <c r="E11" s="38" t="e">
-        <f t="array" ref="E11">IF(ISBLANK(E3:E9), NA(), SUM(E3:E9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="38" t="e">
-        <f t="array" ref="F11">IF(ISBLANK(F3:F9), NA(), SUM(F3:F9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="38" t="e">
-        <f t="array" ref="G11">IF(ISBLANK(G3:G9), NA(), SUM(G3:G9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="38" t="e">
-        <f t="array" ref="H11">IF(ISBLANK(H3:H9), NA(), SUM(H3:H9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="38" t="e">
-        <f t="array" ref="I11">IF(ISBLANK(I3:I9), NA(), SUM(I3:I9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="38" t="e">
-        <f t="array" ref="J11">IF(ISBLANK(J3:J9), NA(), SUM(J3:J9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="38" t="e">
-        <f t="array" ref="K11">IF(ISBLANK(K3:K9), NA(), SUM(K3:K9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="38" t="e">
-        <f t="array" ref="L11">IF(ISBLANK(L3:L9), NA(), SUM(L3:L9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="38" t="e">
-        <f t="array" ref="M11">IF(ISBLANK(M3:M9), NA(), SUM(M3:M9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="38" t="e">
-        <f t="array" ref="N11">IF(ISBLANK(N3:N9), NA(), SUM(N3:N9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="38" t="e">
-        <f t="array" ref="O11">IF(ISBLANK(O3:O9), NA(), SUM(O3:O9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="38" t="e">
-        <f t="array" ref="P11">IF(ISBLANK(P3:P9), NA(), SUM(P3:P9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="38" t="e">
-        <f t="array" ref="Q11">IF(ISBLANK(Q3:Q9), NA(), SUM(Q3:Q9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R11" s="38" t="e">
-        <f t="array" ref="R11">IF(ISBLANK(R3:R9), NA(), SUM(R3:R9))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:120" ht="25.5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
-        <f t="shared" ref="D12:R12" si="0">C11-D11</f>
-        <v>7</v>
-      </c>
-      <c r="E12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:120">
-      <c r="A13" s="38"/>
-      <c r="B13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="45">
-        <f>C11</f>
-        <v>52</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" ref="D13:R13" si="1">C13-$C$11/COUNTA($C$2:$Q$2)</f>
-        <v>48.533333333333331</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="1"/>
-        <v>45.066666666666663</v>
-      </c>
-      <c r="F13" s="46">
-        <f t="shared" si="1"/>
-        <v>41.599999999999994</v>
-      </c>
-      <c r="G13" s="46">
-        <f t="shared" si="1"/>
-        <v>38.133333333333326</v>
-      </c>
-      <c r="H13" s="46">
-        <f t="shared" si="1"/>
-        <v>34.666666666666657</v>
-      </c>
-      <c r="I13" s="46">
-        <f t="shared" si="1"/>
-        <v>31.199999999999989</v>
-      </c>
-      <c r="J13" s="46">
-        <f t="shared" si="1"/>
-        <v>27.73333333333332</v>
-      </c>
-      <c r="K13" s="46">
-        <f t="shared" si="1"/>
-        <v>24.266666666666652</v>
-      </c>
-      <c r="L13" s="46">
-        <f t="shared" si="1"/>
-        <v>20.799999999999983</v>
-      </c>
-      <c r="M13" s="46">
-        <f t="shared" si="1"/>
-        <v>17.333333333333314</v>
-      </c>
-      <c r="N13" s="46">
-        <f t="shared" si="1"/>
-        <v>13.866666666666648</v>
-      </c>
-      <c r="O13" s="46">
-        <f t="shared" si="1"/>
-        <v>10.399999999999981</v>
-      </c>
-      <c r="P13" s="46">
-        <f t="shared" si="1"/>
-        <v>6.933333333333314</v>
-      </c>
-      <c r="Q13" s="46">
-        <f t="shared" si="1"/>
-        <v>3.4666666666666472</v>
-      </c>
-      <c r="R13" s="52">
-        <f t="shared" si="1"/>
-        <v>-1.9539925233402755E-14</v>
-      </c>
+      <c r="E13" s="72">
+        <v>10</v>
+      </c>
+      <c r="F13" s="72">
+        <v>10</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="38"/>
-      <c r="B14" s="57" t="s">
+    </row>
+    <row r="15" spans="1:120" s="56" customFormat="1">
+      <c r="A15" s="55"/>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="38">
+        <f>IF(ISBLANK(C4:C13), NA(), SUM(C3:C13))</f>
+        <v>52</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" ref="D15:R15" si="0">IF(ISBLANK(D4:D13), NA(), SUM(D3:D13))</f>
+        <v>47</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="array" ref="F15">IF(ISBLANK(F4:F13), NA(), SUM(F3:F13))</f>
+        <v>45</v>
+      </c>
+      <c r="G15" s="38" t="e">
+        <f t="array" ref="G15">IF(ISBLANK(G4:G13), NA(), SUM(G3:G13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="38" t="e">
+        <f t="array" ref="H15">IF(ISBLANK(H4:H13), NA(), SUM(H3:H13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="38" t="e">
+        <f t="array" ref="I15">IF(ISBLANK(I4:I13), NA(), SUM(I3:I13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="38" t="e">
+        <f t="array" ref="J15">IF(ISBLANK(J4:J13), NA(), SUM(J3:J13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="38" t="e">
+        <f t="array" ref="K15">IF(ISBLANK(K4:K13), NA(), SUM(K3:K13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="38" t="e">
+        <f t="array" ref="L15">IF(ISBLANK(L4:L13), NA(), SUM(L3:L13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="38" t="e">
+        <f t="array" ref="M15">IF(ISBLANK(M4:M13), NA(), SUM(M3:M13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="38" t="e">
+        <f t="array" ref="N15">IF(ISBLANK(N4:N13), NA(), SUM(N3:N13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="38" t="e">
+        <f t="array" ref="O15">IF(ISBLANK(O4:O13), NA(), SUM(O3:O13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="38" t="e">
+        <f t="array" ref="P15">IF(ISBLANK(P4:P13), NA(), SUM(P3:P13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="38" t="e">
+        <f t="array" ref="Q15">IF(ISBLANK(Q4:Q13), NA(), SUM(Q3:Q13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="38" t="e">
+        <f t="array" ref="R15">IF(ISBLANK(R4:R13), NA(), SUM(R3:R13))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120" ht="25.5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <f t="shared" ref="D16:R16" si="1">C15-D15</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="45">
+        <f>C15</f>
+        <v>52</v>
+      </c>
+      <c r="D17" s="46">
+        <f>C17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>48.533333333333331</v>
+      </c>
+      <c r="E17" s="46">
+        <f>D17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>45.066666666666663</v>
+      </c>
+      <c r="F17" s="46">
+        <f>E17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>41.599999999999994</v>
+      </c>
+      <c r="G17" s="46">
+        <f>F17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>38.133333333333326</v>
+      </c>
+      <c r="H17" s="46">
+        <f>G17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>34.666666666666657</v>
+      </c>
+      <c r="I17" s="46">
+        <f>H17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>31.199999999999989</v>
+      </c>
+      <c r="J17" s="46">
+        <f>I17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>27.73333333333332</v>
+      </c>
+      <c r="K17" s="46">
+        <f>J17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>24.266666666666652</v>
+      </c>
+      <c r="L17" s="46">
+        <f>K17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>20.799999999999983</v>
+      </c>
+      <c r="M17" s="46">
+        <f>L17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>17.333333333333314</v>
+      </c>
+      <c r="N17" s="46">
+        <f>M17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>13.866666666666648</v>
+      </c>
+      <c r="O17" s="46">
+        <f>N17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>10.399999999999981</v>
+      </c>
+      <c r="P17" s="46">
+        <f>O17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>6.933333333333314</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>P17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>3.4666666666666472</v>
+      </c>
+      <c r="R17" s="52">
+        <f>Q17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>-1.9539925233402755E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="38"/>
+      <c r="B18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="58">
-        <f t="shared" ref="C14:R14" si="2">1-C11/$C$11</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="58">
+      <c r="C18" s="58">
+        <f t="shared" ref="C18:R18" si="2">1-C15/$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="58">
+        <f t="shared" si="2"/>
+        <v>9.6153846153846145E-2</v>
+      </c>
+      <c r="E18" s="58">
         <f t="shared" si="2"/>
         <v>0.13461538461538458</v>
       </c>
-      <c r="E14" s="58" t="e">
+      <c r="F18" s="58">
+        <f t="shared" si="2"/>
+        <v>0.13461538461538458</v>
+      </c>
+      <c r="G18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="58" t="e">
+      <c r="H18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="58" t="e">
+      <c r="I18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="58" t="e">
+      <c r="J18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="58" t="e">
+      <c r="K18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="58" t="e">
+      <c r="L18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="58" t="e">
+      <c r="M18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="58" t="e">
+      <c r="N18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="58" t="e">
+      <c r="O18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="58" t="e">
+      <c r="P18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="58" t="e">
+      <c r="Q18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="58" t="e">
+      <c r="R18" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:120">
-      <c r="A15" s="38"/>
-    </row>
-    <row r="16" spans="1:120">
-      <c r="A16" s="38"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="38"/>
@@ -12953,20 +13014,100 @@
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
     </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B6 A3:A9 B8:B9 B3 E3:R9">
-    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B9:B10 A3:A13 B12:B13 B3:B7 G3:R13">
+    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B9 A8 A5:A6">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B13 A12 A9:A10">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13277,7 +13418,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="68">
         <v>37</v>
@@ -15086,50 +15227,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1967,7 +1967,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722547"/>
+          <c:x val="0.37032576667225486"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1985,9 +1985,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532515"/>
+          <c:y val="0.15742128935532523"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192503"/>
+          <c:h val="0.70464767616192514"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2297,11 +2297,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100215424"/>
-        <c:axId val="100238080"/>
+        <c:axId val="108517632"/>
+        <c:axId val="108740992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100215424"/>
+        <c:axId val="108517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2333,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100238080"/>
+        <c:crossAx val="108740992"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2341,7 +2341,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100238080"/>
+        <c:axId val="108740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2383,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100215424"/>
+        <c:crossAx val="108517632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2471,7 +2471,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000233" footer="0.49212598450000233"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2508,7 +2508,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225497"/>
+          <c:x val="0.37032576667225509"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2526,9 +2526,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532529"/>
+          <c:y val="0.15742128935532534"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192525"/>
+          <c:h val="0.70464767616192536"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2838,11 +2838,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100140544"/>
-        <c:axId val="100142464"/>
+        <c:axId val="110269568"/>
+        <c:axId val="110271488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100140544"/>
+        <c:axId val="110269568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +2874,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100142464"/>
+        <c:crossAx val="110271488"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2882,7 +2882,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100142464"/>
+        <c:axId val="110271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2924,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100140544"/>
+        <c:crossAx val="110269568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3012,7 +3012,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3049,7 +3049,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225525"/>
+          <c:x val="0.37032576667225542"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3067,9 +3067,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553254"/>
+          <c:y val="0.15742128935532546"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192558"/>
+          <c:h val="0.70464767616192581"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3187,10 +3187,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -3379,11 +3379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100601856"/>
-        <c:axId val="100603776"/>
+        <c:axId val="110329216"/>
+        <c:axId val="110351872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100601856"/>
+        <c:axId val="110329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +3415,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100603776"/>
+        <c:crossAx val="110351872"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3423,7 +3423,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100603776"/>
+        <c:axId val="110351872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3465,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100601856"/>
+        <c:crossAx val="110329216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3553,7 +3553,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3590,7 +3590,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225553"/>
+          <c:x val="0.3703257666722557"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3608,9 +3608,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532551"/>
+          <c:y val="0.15742128935532557"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192592"/>
+          <c:h val="0.70464767616192603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3920,11 +3920,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100763904"/>
-        <c:axId val="100786560"/>
+        <c:axId val="110196608"/>
+        <c:axId val="110206976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100763904"/>
+        <c:axId val="110196608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3956,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100786560"/>
+        <c:crossAx val="110206976"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3964,7 +3964,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100786560"/>
+        <c:axId val="110206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4006,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100763904"/>
+        <c:crossAx val="110196608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4094,7 +4094,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -11114,7 +11114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11340,11 +11342,15 @@
       <c r="E4" s="72">
         <v>1</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="145">
         <v>1</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="G4" s="72">
+        <v>0</v>
+      </c>
+      <c r="H4" s="72">
+        <v>0</v>
+      </c>
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
@@ -11370,11 +11376,15 @@
       <c r="E5" s="72">
         <v>1</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="145">
         <v>1</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="G5" s="72">
+        <v>0</v>
+      </c>
+      <c r="H5" s="72">
+        <v>0</v>
+      </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
@@ -11403,8 +11413,12 @@
       <c r="F6" s="72">
         <v>3</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
+      <c r="G6" s="145">
+        <v>3</v>
+      </c>
+      <c r="H6" s="72">
+        <v>2</v>
+      </c>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
@@ -11433,8 +11447,12 @@
       <c r="F7" s="72">
         <v>5</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="G7" s="72">
+        <v>5</v>
+      </c>
+      <c r="H7" s="72">
+        <v>5</v>
+      </c>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
@@ -11455,8 +11473,8 @@
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="91"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="93"/>
       <c r="J8" s="93"/>
       <c r="K8" s="93"/>
@@ -11484,11 +11502,15 @@
       <c r="E9" s="147">
         <v>5</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="145">
         <v>5</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="G9" s="145">
+        <v>3</v>
+      </c>
+      <c r="H9" s="147">
+        <v>1</v>
+      </c>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
@@ -11509,8 +11531,8 @@
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
@@ -11541,8 +11563,12 @@
       <c r="F11" s="72">
         <v>20</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="145">
+        <v>20</v>
+      </c>
+      <c r="H11" s="72">
+        <v>16</v>
+      </c>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
@@ -11563,8 +11589,8 @@
       <c r="D12" s="91"/>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="94"/>
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
@@ -11595,8 +11621,12 @@
       <c r="F13" s="72">
         <v>10</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="G13" s="72">
+        <v>10</v>
+      </c>
+      <c r="H13" s="72">
+        <v>10</v>
+      </c>
       <c r="I13" s="94"/>
       <c r="J13" s="94"/>
       <c r="K13" s="94"/>
@@ -11621,7 +11651,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="38">
-        <f t="shared" ref="D15:R15" si="0">IF(ISBLANK(D4:D13), NA(), SUM(D3:D13))</f>
+        <f t="shared" ref="D15:E15" si="0">IF(ISBLANK(D4:D13), NA(), SUM(D3:D13))</f>
         <v>47</v>
       </c>
       <c r="E15" s="38">
@@ -11632,13 +11662,13 @@
         <f t="array" ref="F15">IF(ISBLANK(F4:F13), NA(), SUM(F3:F13))</f>
         <v>45</v>
       </c>
-      <c r="G15" s="38" t="e">
+      <c r="G15" s="38">
         <f t="array" ref="G15">IF(ISBLANK(G4:G13), NA(), SUM(G3:G13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="38" t="e">
+        <v>41</v>
+      </c>
+      <c r="H15" s="38">
         <f t="array" ref="H15">IF(ISBLANK(H4:H13), NA(), SUM(H3:H13))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="I15" s="38" t="e">
         <f t="array" ref="I15">IF(ISBLANK(I4:I13), NA(), SUM(I3:I13))</f>
@@ -11699,13 +11729,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="38" t="e">
+      <c r="G16" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="38" t="e">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="I16" s="38" t="e">
         <f t="shared" si="1"/>
@@ -11758,63 +11788,63 @@
         <v>52</v>
       </c>
       <c r="D17" s="46">
-        <f>C17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D17:R17" si="2">C17-$C$15/COUNTA($C$2:$Q$2)</f>
         <v>48.533333333333331</v>
       </c>
       <c r="E17" s="46">
-        <f>D17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>45.066666666666663</v>
       </c>
       <c r="F17" s="46">
-        <f>E17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>41.599999999999994</v>
       </c>
       <c r="G17" s="46">
-        <f>F17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>38.133333333333326</v>
       </c>
       <c r="H17" s="46">
-        <f>G17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>34.666666666666657</v>
       </c>
       <c r="I17" s="46">
-        <f>H17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>31.199999999999989</v>
       </c>
       <c r="J17" s="46">
-        <f>I17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>27.73333333333332</v>
       </c>
       <c r="K17" s="46">
-        <f>J17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>24.266666666666652</v>
       </c>
       <c r="L17" s="46">
-        <f>K17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>20.799999999999983</v>
       </c>
       <c r="M17" s="46">
-        <f>L17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>17.333333333333314</v>
       </c>
       <c r="N17" s="46">
-        <f>M17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>13.866666666666648</v>
       </c>
       <c r="O17" s="46">
-        <f>N17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>10.399999999999981</v>
       </c>
       <c r="P17" s="46">
-        <f>O17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>6.933333333333314</v>
       </c>
       <c r="Q17" s="46">
-        <f>P17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>3.4666666666666472</v>
       </c>
       <c r="R17" s="52">
-        <f>Q17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>-1.9539925233402755E-14</v>
       </c>
     </row>
@@ -11824,67 +11854,67 @@
         <v>40</v>
       </c>
       <c r="C18" s="58">
-        <f t="shared" ref="C18:R18" si="2">1-C15/$C$15</f>
+        <f t="shared" ref="C18:R18" si="3">1-C15/$C$15</f>
         <v>0</v>
       </c>
       <c r="D18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6153846153846145E-2</v>
       </c>
       <c r="E18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13461538461538458</v>
       </c>
       <c r="F18" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13461538461538458</v>
       </c>
-      <c r="G18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="G18" s="58">
+        <f t="shared" si="3"/>
+        <v>0.21153846153846156</v>
+      </c>
+      <c r="H18" s="58">
+        <f t="shared" si="3"/>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="I18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="J18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="K18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="L18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="M18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="N18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="O18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="P18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="58" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q18" s="58" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="R18" s="58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13095,19 +13125,19 @@
       <c r="R80" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:B10 A3:A13 B12:B13 B3:B7 G3:R13">
-    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B9:B10 A3:A13 B12:B13 B3:B7 I3:R13 G3:H3">
+    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13 A12 A9:A10">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15227,50 +15257,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1967,7 +1967,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225486"/>
+          <c:x val="0.37032576667225497"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1985,9 +1985,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532523"/>
+          <c:y val="0.15742128935532529"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192514"/>
+          <c:h val="0.70464767616192525"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2297,11 +2297,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108517632"/>
-        <c:axId val="108740992"/>
+        <c:axId val="102754560"/>
+        <c:axId val="103100800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108517632"/>
+        <c:axId val="102754560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2333,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108740992"/>
+        <c:crossAx val="103100800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2341,7 +2341,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108740992"/>
+        <c:axId val="103100800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2383,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108517632"/>
+        <c:crossAx val="102754560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2471,7 +2471,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000239" footer="0.49212598450000239"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2508,7 +2508,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225509"/>
+          <c:x val="0.37032576667225525"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2526,9 +2526,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532534"/>
+          <c:y val="0.1574212893553254"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192536"/>
+          <c:h val="0.70464767616192558"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2838,11 +2838,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110269568"/>
-        <c:axId val="110271488"/>
+        <c:axId val="103322752"/>
+        <c:axId val="103324672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110269568"/>
+        <c:axId val="103322752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +2874,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110271488"/>
+        <c:crossAx val="103324672"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2882,7 +2882,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110271488"/>
+        <c:axId val="103324672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2924,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110269568"/>
+        <c:crossAx val="103322752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3012,7 +3012,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3049,7 +3049,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225542"/>
+          <c:x val="0.37032576667225553"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3067,9 +3067,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532546"/>
+          <c:y val="0.15742128935532551"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192581"/>
+          <c:h val="0.70464767616192592"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3187,10 +3187,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -3379,11 +3379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110329216"/>
-        <c:axId val="110351872"/>
+        <c:axId val="103505280"/>
+        <c:axId val="103523840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110329216"/>
+        <c:axId val="103505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +3415,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110351872"/>
+        <c:crossAx val="103523840"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3423,7 +3423,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110351872"/>
+        <c:axId val="103523840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3465,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110329216"/>
+        <c:crossAx val="103505280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3553,7 +3553,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3590,7 +3590,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722557"/>
+          <c:x val="0.37032576667225586"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3608,9 +3608,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532557"/>
+          <c:y val="0.15742128935532565"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192603"/>
+          <c:h val="0.70464767616192614"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3920,11 +3920,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110196608"/>
-        <c:axId val="110206976"/>
+        <c:axId val="103577472"/>
+        <c:axId val="103587840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110196608"/>
+        <c:axId val="103577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3956,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110206976"/>
+        <c:crossAx val="103587840"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3964,7 +3964,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110206976"/>
+        <c:axId val="103587840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4006,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110196608"/>
+        <c:crossAx val="103577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4094,7 +4094,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -11115,7 +11115,7 @@
   <dimension ref="A1:DP80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11505,11 +11505,11 @@
       <c r="F9" s="145">
         <v>5</v>
       </c>
-      <c r="G9" s="145">
-        <v>3</v>
+      <c r="G9" s="147">
+        <v>5</v>
       </c>
       <c r="H9" s="147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
@@ -11664,11 +11664,11 @@
       </c>
       <c r="G15" s="38">
         <f t="array" ref="G15">IF(ISBLANK(G4:G13), NA(), SUM(G3:G13))</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" s="38">
         <f t="array" ref="H15">IF(ISBLANK(H4:H13), NA(), SUM(H3:H13))</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I15" s="38" t="e">
         <f t="array" ref="I15">IF(ISBLANK(I4:I13), NA(), SUM(I3:I13))</f>
@@ -11731,11 +11731,11 @@
       </c>
       <c r="G16" s="38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="38" t="e">
         <f t="shared" si="1"/>
@@ -11871,11 +11871,11 @@
       </c>
       <c r="G18" s="58">
         <f t="shared" si="3"/>
-        <v>0.21153846153846156</v>
+        <v>0.17307692307692313</v>
       </c>
       <c r="H18" s="58">
         <f t="shared" si="3"/>
-        <v>0.34615384615384615</v>
+        <v>0.26923076923076927</v>
       </c>
       <c r="I18" s="58" t="e">
         <f t="shared" si="3"/>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$14:$Z$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$15:$Z$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>Itération</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">        - Gestion de plusieurs sous-parcours</t>
+  </si>
+  <si>
+    <t>Visualisation graphique</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1156,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1643,6 +1646,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1690,7 +1694,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3079,7 +3097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$15</c:f>
+              <c:f>'Iteration 3'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3170,7 +3188,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$15:$R$15</c:f>
+              <c:f>'Iteration 3'!$C$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3190,10 +3208,10 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3231,7 +3249,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$17</c:f>
+              <c:f>'Iteration 3'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3322,7 +3340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$17:$R$17</c:f>
+              <c:f>'Iteration 3'!$C$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4180,13 +4198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>65444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>62002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4542,7 +4560,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5888,10 +5906,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A51:A52 B46:C46 D47:E48 H46:K46 A44:A47 D40 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A41 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8425,18 +8443,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11096,10 +11114,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
-    <cfRule type="expression" dxfId="17" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11112,10 +11130,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP80"/>
+  <dimension ref="A1:DP81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11351,7 +11369,9 @@
       <c r="H4" s="72">
         <v>0</v>
       </c>
-      <c r="I4" s="95"/>
+      <c r="I4" s="72">
+        <v>0</v>
+      </c>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
       <c r="L4" s="95"/>
@@ -11385,7 +11405,9 @@
       <c r="H5" s="72">
         <v>0</v>
       </c>
-      <c r="I5" s="95"/>
+      <c r="I5" s="72">
+        <v>0</v>
+      </c>
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -11416,10 +11438,12 @@
       <c r="G6" s="145">
         <v>3</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="145">
+        <v>3</v>
+      </c>
+      <c r="I6" s="72">
         <v>2</v>
       </c>
-      <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
       <c r="L6" s="95"/>
@@ -11453,7 +11477,9 @@
       <c r="H7" s="72">
         <v>5</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="72">
+        <v>5</v>
+      </c>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -11475,7 +11501,7 @@
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="91"/>
-      <c r="I8" s="93"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="93"/>
       <c r="K8" s="93"/>
       <c r="L8" s="93"/>
@@ -11494,24 +11520,26 @@
         <v>23</v>
       </c>
       <c r="C9" s="145">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="147">
-        <v>5</v>
-      </c>
-      <c r="F9" s="145">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="147">
+        <v>1</v>
       </c>
       <c r="G9" s="147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="147">
-        <v>5</v>
-      </c>
-      <c r="I9" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="147">
+        <v>1</v>
+      </c>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -11533,7 +11561,7 @@
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
       <c r="H10" s="91"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -11544,90 +11572,92 @@
       <c r="Q10" s="95"/>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A11" s="70" t="s">
+    <row r="11" spans="1:120" s="169" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147">
+        <v>4</v>
+      </c>
+      <c r="D11" s="147">
+        <v>4</v>
+      </c>
+      <c r="E11" s="147">
+        <v>4</v>
+      </c>
+      <c r="F11" s="147">
+        <v>4</v>
+      </c>
+      <c r="G11" s="147">
+        <v>4</v>
+      </c>
+      <c r="H11" s="145">
+        <v>4</v>
+      </c>
+      <c r="I11" s="147">
+        <v>3</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+    </row>
+    <row r="12" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A12" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B12" s="75">
         <v>27</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C12" s="72">
         <v>20</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D12" s="72">
         <v>20</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E12" s="72">
         <v>20</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F12" s="72">
         <v>20</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G12" s="145">
         <v>20</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H12" s="145">
         <v>16</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="49"/>
-    </row>
-    <row r="12" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A12" s="89" t="s">
+      <c r="I12" s="72">
+        <v>13</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A13" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="49"/>
-    </row>
-    <row r="13" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A13" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="75">
-        <v>30</v>
-      </c>
-      <c r="C13" s="72">
-        <v>10</v>
-      </c>
-      <c r="D13" s="72">
-        <v>10</v>
-      </c>
-      <c r="E13" s="72">
-        <v>10</v>
-      </c>
-      <c r="F13" s="72">
-        <v>10</v>
-      </c>
-      <c r="G13" s="72">
-        <v>10</v>
-      </c>
-      <c r="H13" s="72">
-        <v>10</v>
-      </c>
-      <c r="I13" s="94"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="94"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -11638,311 +11668,329 @@
       <c r="Q13" s="94"/>
       <c r="R13" s="49"/>
     </row>
-    <row r="14" spans="1:120">
-      <c r="A14" s="38"/>
-    </row>
-    <row r="15" spans="1:120" s="56" customFormat="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="43" t="s">
+    <row r="14" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="75">
+        <v>30</v>
+      </c>
+      <c r="C14" s="72">
+        <v>10</v>
+      </c>
+      <c r="D14" s="72">
+        <v>10</v>
+      </c>
+      <c r="E14" s="72">
+        <v>10</v>
+      </c>
+      <c r="F14" s="72">
+        <v>10</v>
+      </c>
+      <c r="G14" s="72">
+        <v>10</v>
+      </c>
+      <c r="H14" s="72">
+        <v>10</v>
+      </c>
+      <c r="I14" s="72">
+        <v>10</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:120">
+      <c r="A15" s="38"/>
+    </row>
+    <row r="16" spans="1:120" s="56" customFormat="1">
+      <c r="A16" s="55"/>
+      <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="38">
-        <f>IF(ISBLANK(C4:C13), NA(), SUM(C3:C13))</f>
+      <c r="C16" s="38">
+        <f>IF(ISBLANK(C4:C14), NA(), SUM(C3:C14))</f>
         <v>52</v>
       </c>
-      <c r="D15" s="38">
-        <f t="shared" ref="D15:E15" si="0">IF(ISBLANK(D4:D13), NA(), SUM(D3:D13))</f>
+      <c r="D16" s="38">
+        <f t="shared" ref="D16:E16" si="0">IF(ISBLANK(D4:D14), NA(), SUM(D3:D14))</f>
         <v>47</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E16" s="38">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F15" s="38">
-        <f t="array" ref="F15">IF(ISBLANK(F4:F13), NA(), SUM(F3:F13))</f>
+      <c r="F16" s="38">
+        <f t="array" ref="F16">IF(ISBLANK(F4:F14), NA(), SUM(F3:F14))</f>
         <v>45</v>
       </c>
-      <c r="G15" s="38">
-        <f t="array" ref="G15">IF(ISBLANK(G4:G13), NA(), SUM(G3:G13))</f>
+      <c r="G16" s="38">
+        <f t="array" ref="G16">IF(ISBLANK(G4:G14), NA(), SUM(G3:G14))</f>
         <v>43</v>
       </c>
-      <c r="H15" s="38">
-        <f t="array" ref="H15">IF(ISBLANK(H4:H13), NA(), SUM(H3:H13))</f>
+      <c r="H16" s="38">
+        <f t="array" ref="H16">IF(ISBLANK(H4:H14), NA(), SUM(H3:H14))</f>
+        <v>39</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="array" ref="I16">IF(ISBLANK(I4:I14), NA(), SUM(I3:I14))</f>
+        <v>34</v>
+      </c>
+      <c r="J16" s="38" t="e">
+        <f t="array" ref="J16">IF(ISBLANK(J4:J14), NA(), SUM(J3:J14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="38" t="e">
+        <f t="array" ref="K16">IF(ISBLANK(K4:K14), NA(), SUM(K3:K14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="38" t="e">
+        <f t="array" ref="L16">IF(ISBLANK(L4:L14), NA(), SUM(L3:L14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="38" t="e">
+        <f t="array" ref="M16">IF(ISBLANK(M4:M14), NA(), SUM(M3:M14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="38" t="e">
+        <f t="array" ref="N16">IF(ISBLANK(N4:N14), NA(), SUM(N3:N14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="38" t="e">
+        <f t="array" ref="O16">IF(ISBLANK(O4:O14), NA(), SUM(O3:O14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="38" t="e">
+        <f t="array" ref="P16">IF(ISBLANK(P4:P14), NA(), SUM(P3:P14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="38" t="e">
+        <f t="array" ref="Q16">IF(ISBLANK(Q4:Q14), NA(), SUM(Q3:Q14))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="38" t="e">
+        <f t="array" ref="R16">IF(ISBLANK(R4:R14), NA(), SUM(R3:R14))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="25.5">
+      <c r="A17" s="38"/>
+      <c r="B17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="38" t="e">
-        <f t="array" ref="I15">IF(ISBLANK(I4:I13), NA(), SUM(I3:I13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="38" t="e">
-        <f t="array" ref="J15">IF(ISBLANK(J4:J13), NA(), SUM(J3:J13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="38" t="e">
-        <f t="array" ref="K15">IF(ISBLANK(K4:K13), NA(), SUM(K3:K13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="38" t="e">
-        <f t="array" ref="L15">IF(ISBLANK(L4:L13), NA(), SUM(L3:L13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="38" t="e">
-        <f t="array" ref="M15">IF(ISBLANK(M4:M13), NA(), SUM(M3:M13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="38" t="e">
-        <f t="array" ref="N15">IF(ISBLANK(N4:N13), NA(), SUM(N3:N13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="38" t="e">
-        <f t="array" ref="O15">IF(ISBLANK(O4:O13), NA(), SUM(O3:O13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="38" t="e">
-        <f t="array" ref="P15">IF(ISBLANK(P4:P13), NA(), SUM(P3:P13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="38" t="e">
-        <f t="array" ref="Q15">IF(ISBLANK(Q4:Q13), NA(), SUM(Q3:Q13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="38" t="e">
-        <f t="array" ref="R15">IF(ISBLANK(R4:R13), NA(), SUM(R3:R13))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:120" ht="25.5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38">
-        <f t="shared" ref="D16:R16" si="1">C15-D15</f>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
+        <f t="shared" ref="D17:R17" si="1">C16-D16</f>
         <v>5</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E17" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F17" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G17" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H17" s="38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="38" t="e">
+      <c r="J17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="38" t="e">
+      <c r="K17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="38" t="e">
+      <c r="L17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="38" t="e">
+      <c r="M17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="38" t="e">
+      <c r="N17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="38" t="e">
+      <c r="O17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="38" t="e">
+      <c r="P17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="38" t="e">
+      <c r="Q17" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="38" t="e">
+      <c r="R17" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44" t="s">
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="38"/>
+      <c r="B18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45">
-        <f>C15</f>
+      <c r="C18" s="45">
+        <f>C16</f>
         <v>52</v>
       </c>
-      <c r="D17" s="46">
-        <f t="shared" ref="D17:R17" si="2">C17-$C$15/COUNTA($C$2:$Q$2)</f>
+      <c r="D18" s="46">
+        <f t="shared" ref="D18:R18" si="2">C18-$C$16/COUNTA($C$2:$Q$2)</f>
         <v>48.533333333333331</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E18" s="46">
         <f t="shared" si="2"/>
         <v>45.066666666666663</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F18" s="46">
         <f t="shared" si="2"/>
         <v>41.599999999999994</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G18" s="46">
         <f t="shared" si="2"/>
         <v>38.133333333333326</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H18" s="46">
         <f t="shared" si="2"/>
         <v>34.666666666666657</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I18" s="46">
         <f t="shared" si="2"/>
         <v>31.199999999999989</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J18" s="46">
         <f t="shared" si="2"/>
         <v>27.73333333333332</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K18" s="46">
         <f t="shared" si="2"/>
         <v>24.266666666666652</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L18" s="46">
         <f t="shared" si="2"/>
         <v>20.799999999999983</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M18" s="46">
         <f t="shared" si="2"/>
         <v>17.333333333333314</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N18" s="46">
         <f t="shared" si="2"/>
         <v>13.866666666666648</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O18" s="46">
         <f t="shared" si="2"/>
         <v>10.399999999999981</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P18" s="46">
         <f t="shared" si="2"/>
         <v>6.933333333333314</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q18" s="46">
         <f t="shared" si="2"/>
         <v>3.4666666666666472</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R18" s="52">
         <f t="shared" si="2"/>
         <v>-1.9539925233402755E-14</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="38"/>
-      <c r="B18" s="57" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="38"/>
+      <c r="B19" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="58">
-        <f t="shared" ref="C18:R18" si="3">1-C15/$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="58">
+      <c r="C19" s="58">
+        <f t="shared" ref="C19:R19" si="3">1-C16/$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="58">
         <f t="shared" si="3"/>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E19" s="58">
         <f t="shared" si="3"/>
         <v>0.13461538461538458</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F19" s="58">
         <f t="shared" si="3"/>
         <v>0.13461538461538458</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G19" s="58">
         <f t="shared" si="3"/>
         <v>0.17307692307692313</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H19" s="58">
         <f t="shared" si="3"/>
-        <v>0.26923076923076927</v>
-      </c>
-      <c r="I18" s="58" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="58">
+        <f t="shared" si="3"/>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="J19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="58" t="e">
+      <c r="K19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="58" t="e">
+      <c r="L19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="58" t="e">
+      <c r="M19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="58" t="e">
+      <c r="N19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="58" t="e">
+      <c r="O19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="58" t="e">
+      <c r="P19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="58" t="e">
+      <c r="Q19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="58" t="e">
+      <c r="R19" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="38"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="38"/>
@@ -13124,20 +13172,40 @@
       <c r="Q80" s="38"/>
       <c r="R80" s="38"/>
     </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:B10 A3:A13 B12:B13 B3:B7 I3:R13 G3:H3">
-    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B9:B11 A3:A14 B13:B14 B3:B7 G3:I3 J3:R14 I3:I10 I12:I14">
+    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B13 A12 A9:A10">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B14 A13 A9:A11">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15257,50 +15325,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1622,6 +1622,7 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1646,7 +1647,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1985,7 +1985,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225497"/>
+          <c:x val="0.37032576667225509"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2003,9 +2003,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532529"/>
+          <c:y val="0.15742128935532534"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192525"/>
+          <c:h val="0.70464767616192536"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2315,11 +2315,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102754560"/>
-        <c:axId val="103100800"/>
+        <c:axId val="100915456"/>
+        <c:axId val="101269888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102754560"/>
+        <c:axId val="100915456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2351,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103100800"/>
+        <c:crossAx val="101269888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2359,7 +2359,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103100800"/>
+        <c:axId val="101269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2401,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102754560"/>
+        <c:crossAx val="100915456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2489,7 +2489,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000244" footer="0.49212598450000244"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2526,7 +2526,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225525"/>
+          <c:x val="0.37032576667225542"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2544,9 +2544,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553254"/>
+          <c:y val="0.15742128935532546"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192558"/>
+          <c:h val="0.70464767616192581"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2856,11 +2856,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103322752"/>
-        <c:axId val="103324672"/>
+        <c:axId val="101622912"/>
+        <c:axId val="101624832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103322752"/>
+        <c:axId val="101622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2892,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103324672"/>
+        <c:crossAx val="101624832"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2900,7 +2900,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103324672"/>
+        <c:axId val="101624832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103322752"/>
+        <c:crossAx val="101622912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,7 +3030,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,7 +3067,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225553"/>
+          <c:x val="0.3703257666722557"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3085,9 +3085,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532551"/>
+          <c:y val="0.15742128935532557"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192592"/>
+          <c:h val="0.70464767616192603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3214,7 +3214,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -3397,11 +3397,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103505280"/>
-        <c:axId val="103523840"/>
+        <c:axId val="101686656"/>
+        <c:axId val="101705216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103505280"/>
+        <c:axId val="101686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3433,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103523840"/>
+        <c:crossAx val="101705216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3441,7 +3441,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103523840"/>
+        <c:axId val="101705216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3483,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103505280"/>
+        <c:crossAx val="101686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3571,7 +3571,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3608,7 +3608,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225586"/>
+          <c:x val="0.37032576667225597"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3626,9 +3626,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532565"/>
+          <c:y val="0.15742128935532573"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192614"/>
+          <c:h val="0.70464767616192625"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3938,11 +3938,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103577472"/>
-        <c:axId val="103587840"/>
+        <c:axId val="101746560"/>
+        <c:axId val="101756928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103577472"/>
+        <c:axId val="101746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +3974,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103587840"/>
+        <c:crossAx val="101756928"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3982,7 +3982,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103587840"/>
+        <c:axId val="101756928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103577472"/>
+        <c:crossAx val="101746560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,7 +4112,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4584,10 +4584,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="166"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4599,10 +4599,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="168"/>
+      <c r="E2" s="169"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4618,8 +4618,8 @@
         <f>MAX(A13:A46)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4627,9 +4627,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -11133,7 +11133,7 @@
   <dimension ref="A1:DP81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11372,7 +11372,9 @@
       <c r="I4" s="72">
         <v>0</v>
       </c>
-      <c r="J4" s="95"/>
+      <c r="J4" s="72">
+        <v>0</v>
+      </c>
       <c r="K4" s="95"/>
       <c r="L4" s="95"/>
       <c r="M4" s="95"/>
@@ -11408,7 +11410,9 @@
       <c r="I5" s="72">
         <v>0</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="72">
+        <v>0</v>
+      </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
       <c r="M5" s="95"/>
@@ -11441,10 +11445,12 @@
       <c r="H6" s="145">
         <v>3</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="145">
         <v>2</v>
       </c>
-      <c r="J6" s="95"/>
+      <c r="J6" s="72">
+        <v>1</v>
+      </c>
       <c r="K6" s="95"/>
       <c r="L6" s="95"/>
       <c r="M6" s="95"/>
@@ -11480,7 +11486,9 @@
       <c r="I7" s="72">
         <v>5</v>
       </c>
-      <c r="J7" s="95"/>
+      <c r="J7" s="72">
+        <v>5</v>
+      </c>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
       <c r="M7" s="95"/>
@@ -11502,7 +11510,7 @@
       <c r="G8" s="91"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
-      <c r="J8" s="93"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="93"/>
       <c r="L8" s="93"/>
       <c r="M8" s="93"/>
@@ -11540,7 +11548,9 @@
       <c r="I9" s="147">
         <v>1</v>
       </c>
-      <c r="J9" s="95"/>
+      <c r="J9" s="147">
+        <v>1</v>
+      </c>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
       <c r="M9" s="95"/>
@@ -11562,7 +11572,7 @@
       <c r="G10" s="91"/>
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="95"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
       <c r="M10" s="95"/>
@@ -11572,7 +11582,7 @@
       <c r="Q10" s="95"/>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="1:120" s="169" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:120" s="161" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="151" t="s">
         <v>114</v>
       </c>
@@ -11595,10 +11605,12 @@
       <c r="H11" s="145">
         <v>4</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="145">
         <v>3</v>
       </c>
-      <c r="J11" s="95"/>
+      <c r="J11" s="145">
+        <v>2</v>
+      </c>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
       <c r="M11" s="95"/>
@@ -11633,10 +11645,12 @@
       <c r="H12" s="145">
         <v>16</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="145">
         <v>13</v>
       </c>
-      <c r="J12" s="92"/>
+      <c r="J12" s="145">
+        <v>11</v>
+      </c>
       <c r="K12" s="92"/>
       <c r="L12" s="92"/>
       <c r="M12" s="92"/>
@@ -11658,7 +11672,7 @@
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
       <c r="I13" s="91"/>
-      <c r="J13" s="94"/>
+      <c r="J13" s="91"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -11696,7 +11710,9 @@
       <c r="I14" s="72">
         <v>10</v>
       </c>
-      <c r="J14" s="94"/>
+      <c r="J14" s="72">
+        <v>10</v>
+      </c>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
       <c r="M14" s="94"/>
@@ -11742,9 +11758,9 @@
         <f t="array" ref="I16">IF(ISBLANK(I4:I14), NA(), SUM(I3:I14))</f>
         <v>34</v>
       </c>
-      <c r="J16" s="38" t="e">
+      <c r="J16" s="38">
         <f t="array" ref="J16">IF(ISBLANK(J4:J14), NA(), SUM(J3:J14))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="K16" s="38" t="e">
         <f t="array" ref="K16">IF(ISBLANK(K4:K14), NA(), SUM(K3:K14))</f>
@@ -11809,9 +11825,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="K17" s="38" t="e">
         <f t="shared" si="1"/>
@@ -11949,9 +11965,9 @@
         <f t="shared" si="3"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="J19" s="58" t="e">
+      <c r="J19" s="58">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.42307692307692313</v>
       </c>
       <c r="K19" s="58" t="e">
         <f t="shared" si="3"/>
@@ -13193,19 +13209,19 @@
       <c r="R81" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:B11 A3:A14 B13:B14 B3:B7 G3:I3 J3:R14 I3:I10 I12:I14">
-    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B9:B11 A3:A14 B13:B14 B3:B7 G3:I3 I3:I10 J3:R14 I12:J14">
+    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B14 A13 A9:A11">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15325,50 +15341,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -33,23 +33,23 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$15:$Z$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$14:$Z$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>Itération</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Système de log pour tracer toutes les actions</t>
   </si>
   <si>
-    <t>Champ coordonnées géographiques</t>
-  </si>
-  <si>
     <t xml:space="preserve">        - Gestion de plusieurs sous-parcours </t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>Visualisation graphique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Edition parcours avec transitions secondaires</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1985,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225509"/>
+          <c:x val="0.37032576667225525"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2003,9 +2003,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532534"/>
+          <c:y val="0.1574212893553254"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192536"/>
+          <c:h val="0.70464767616192558"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2315,11 +2315,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100915456"/>
-        <c:axId val="101269888"/>
+        <c:axId val="105044224"/>
+        <c:axId val="105398656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100915456"/>
+        <c:axId val="105044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2351,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101269888"/>
+        <c:crossAx val="105398656"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2359,7 +2359,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101269888"/>
+        <c:axId val="105398656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2401,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100915456"/>
+        <c:crossAx val="105044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2489,7 +2489,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.4921259845000025" footer="0.4921259845000025"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2526,7 +2526,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225542"/>
+          <c:x val="0.37032576667225553"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2544,9 +2544,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532546"/>
+          <c:y val="0.15742128935532551"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192581"/>
+          <c:h val="0.70464767616192592"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2856,11 +2856,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101622912"/>
-        <c:axId val="101624832"/>
+        <c:axId val="105739392"/>
+        <c:axId val="105741312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101622912"/>
+        <c:axId val="105739392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2892,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101624832"/>
+        <c:crossAx val="105741312"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2900,7 +2900,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101624832"/>
+        <c:axId val="105741312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101622912"/>
+        <c:crossAx val="105739392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,7 +3030,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,7 +3067,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722557"/>
+          <c:x val="0.37032576667225586"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3085,9 +3085,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532557"/>
+          <c:y val="0.15742128935532565"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192603"/>
+          <c:h val="0.70464767616192614"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3097,7 +3097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$16</c:f>
+              <c:f>'Iteration 3'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3188,45 +3188,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$16:$R$16</c:f>
+              <c:f>'Iteration 3'!$C$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -3249,7 +3249,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$18</c:f>
+              <c:f>'Iteration 3'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3340,68 +3340,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$18:$R$18</c:f>
+              <c:f>'Iteration 3'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.533333333333331</c:v>
+                  <c:v>43.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.066666666666663</c:v>
+                  <c:v>40.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.599999999999994</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.133333333333326</c:v>
+                  <c:v>34.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.666666666666657</c:v>
+                  <c:v>31.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.199999999999989</c:v>
+                  <c:v>28.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.73333333333332</c:v>
+                  <c:v>25.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.266666666666652</c:v>
+                  <c:v>21.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999983</c:v>
+                  <c:v>18.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.333333333333314</c:v>
+                  <c:v>15.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.866666666666648</c:v>
+                  <c:v>12.533333333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.399999999999981</c:v>
+                  <c:v>9.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.933333333333314</c:v>
+                  <c:v>6.2666666666666728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4666666666666472</c:v>
+                  <c:v>3.1333333333333395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9539925233402755E-14</c:v>
+                  <c:v>6.2172489379008766E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101686656"/>
-        <c:axId val="101705216"/>
+        <c:axId val="105667968"/>
+        <c:axId val="105682432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101686656"/>
+        <c:axId val="105667968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3433,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101705216"/>
+        <c:crossAx val="105682432"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3441,7 +3441,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101705216"/>
+        <c:axId val="105682432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3483,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101686656"/>
+        <c:crossAx val="105667968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3571,7 +3571,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3608,7 +3608,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225597"/>
+          <c:x val="0.37032576667225608"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3626,9 +3626,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532573"/>
+          <c:y val="0.15742128935532579"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192625"/>
+          <c:h val="0.70464767616192636"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3938,11 +3938,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101746560"/>
-        <c:axId val="101756928"/>
+        <c:axId val="105863040"/>
+        <c:axId val="105873408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101746560"/>
+        <c:axId val="105863040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +3974,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101756928"/>
+        <c:crossAx val="105873408"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3982,7 +3982,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101756928"/>
+        <c:axId val="105873408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101746560"/>
+        <c:crossAx val="105863040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,7 +4112,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4198,13 +4198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>65444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>62002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
@@ -8469,7 +8469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11130,10 +11132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP81"/>
+  <dimension ref="A1:DP80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11375,10 +11377,18 @@
       <c r="J4" s="72">
         <v>0</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
+      <c r="K4" s="72">
+        <v>0</v>
+      </c>
+      <c r="L4" s="72">
+        <v>0</v>
+      </c>
+      <c r="M4" s="72">
+        <v>0</v>
+      </c>
+      <c r="N4" s="72">
+        <v>0</v>
+      </c>
       <c r="O4" s="95"/>
       <c r="P4" s="95"/>
       <c r="Q4" s="95"/>
@@ -11413,10 +11423,18 @@
       <c r="J5" s="72">
         <v>0</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
+      <c r="K5" s="72">
+        <v>0</v>
+      </c>
+      <c r="L5" s="72">
+        <v>0</v>
+      </c>
+      <c r="M5" s="72">
+        <v>0</v>
+      </c>
+      <c r="N5" s="72">
+        <v>0</v>
+      </c>
       <c r="O5" s="95"/>
       <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
@@ -11439,7 +11457,7 @@
       <c r="F6" s="72">
         <v>3</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="147">
         <v>3</v>
       </c>
       <c r="H6" s="145">
@@ -11448,565 +11466,587 @@
       <c r="I6" s="145">
         <v>2</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="145">
         <v>1</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="K6" s="145">
+        <v>1</v>
+      </c>
+      <c r="L6" s="145">
+        <v>1</v>
+      </c>
+      <c r="M6" s="145">
+        <v>1</v>
+      </c>
+      <c r="N6" s="145">
+        <v>1</v>
+      </c>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
       <c r="Q6" s="95"/>
       <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A8" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="72">
-        <v>5</v>
-      </c>
-      <c r="D7" s="72">
-        <v>5</v>
-      </c>
-      <c r="E7" s="72">
-        <v>5</v>
-      </c>
-      <c r="F7" s="72">
-        <v>5</v>
-      </c>
-      <c r="G7" s="72">
-        <v>5</v>
-      </c>
-      <c r="H7" s="72">
-        <v>5</v>
-      </c>
-      <c r="I7" s="72">
-        <v>5</v>
-      </c>
-      <c r="J7" s="72">
-        <v>5</v>
-      </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="48"/>
-    </row>
-    <row r="8" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
+      <c r="B8" s="75">
+        <v>23</v>
+      </c>
+      <c r="C8" s="145">
+        <v>8</v>
+      </c>
+      <c r="D8" s="145">
+        <v>3</v>
+      </c>
+      <c r="E8" s="145">
+        <v>1</v>
+      </c>
+      <c r="F8" s="145">
+        <v>1</v>
+      </c>
+      <c r="G8" s="147">
+        <v>0</v>
+      </c>
+      <c r="H8" s="147">
+        <v>0</v>
+      </c>
+      <c r="I8" s="147">
+        <v>0</v>
+      </c>
+      <c r="J8" s="147">
+        <v>0</v>
+      </c>
+      <c r="K8" s="147">
+        <v>0</v>
+      </c>
+      <c r="L8" s="147">
+        <v>0</v>
+      </c>
+      <c r="M8" s="147">
+        <v>0</v>
+      </c>
+      <c r="N8" s="147">
+        <v>0</v>
+      </c>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
       <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="75">
-        <v>23</v>
-      </c>
-      <c r="C9" s="145">
-        <v>8</v>
-      </c>
-      <c r="D9" s="145">
-        <v>3</v>
-      </c>
-      <c r="E9" s="147">
-        <v>1</v>
-      </c>
-      <c r="F9" s="147">
-        <v>1</v>
-      </c>
-      <c r="G9" s="147">
-        <v>1</v>
-      </c>
-      <c r="H9" s="147">
-        <v>1</v>
-      </c>
-      <c r="I9" s="147">
-        <v>1</v>
-      </c>
-      <c r="J9" s="147">
-        <v>1</v>
-      </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
+      <c r="A9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
       <c r="O9" s="95"/>
       <c r="P9" s="95"/>
       <c r="Q9" s="95"/>
       <c r="R9" s="48"/>
     </row>
-    <row r="10" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A10" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+    <row r="10" spans="1:120" s="161" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="151" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147">
+        <v>4</v>
+      </c>
+      <c r="D10" s="147">
+        <v>4</v>
+      </c>
+      <c r="E10" s="147">
+        <v>4</v>
+      </c>
+      <c r="F10" s="147">
+        <v>4</v>
+      </c>
+      <c r="G10" s="147">
+        <v>4</v>
+      </c>
+      <c r="H10" s="145">
+        <v>4</v>
+      </c>
+      <c r="I10" s="145">
+        <v>3</v>
+      </c>
+      <c r="J10" s="145">
+        <v>2</v>
+      </c>
+      <c r="K10" s="145">
+        <v>2</v>
+      </c>
+      <c r="L10" s="145">
+        <v>1</v>
+      </c>
+      <c r="M10" s="147">
+        <v>0</v>
+      </c>
+      <c r="N10" s="147">
+        <v>0</v>
+      </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95"/>
       <c r="Q10" s="95"/>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="1:120" s="161" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="151" t="s">
+      <c r="R10" s="95"/>
+    </row>
+    <row r="11" spans="1:120" ht="24.95" customHeight="1">
+      <c r="A11" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147">
-        <v>4</v>
-      </c>
-      <c r="D11" s="147">
-        <v>4</v>
-      </c>
-      <c r="E11" s="147">
-        <v>4</v>
-      </c>
-      <c r="F11" s="147">
-        <v>4</v>
-      </c>
-      <c r="G11" s="147">
-        <v>4</v>
+      <c r="B11" s="75">
+        <v>27</v>
+      </c>
+      <c r="C11" s="72">
+        <v>20</v>
+      </c>
+      <c r="D11" s="72">
+        <v>20</v>
+      </c>
+      <c r="E11" s="72">
+        <v>20</v>
+      </c>
+      <c r="F11" s="72">
+        <v>20</v>
+      </c>
+      <c r="G11" s="145">
+        <v>20</v>
       </c>
       <c r="H11" s="145">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I11" s="145">
+        <v>13</v>
+      </c>
+      <c r="J11" s="145">
+        <v>11</v>
+      </c>
+      <c r="K11" s="145">
+        <v>9</v>
+      </c>
+      <c r="L11" s="145">
+        <v>5</v>
+      </c>
+      <c r="M11" s="145">
         <v>3</v>
       </c>
-      <c r="J11" s="145">
-        <v>2</v>
-      </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
+      <c r="N11" s="147">
+        <v>1</v>
+      </c>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A12" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="75">
-        <v>27</v>
-      </c>
-      <c r="C12" s="72">
-        <v>20</v>
-      </c>
-      <c r="D12" s="72">
-        <v>20</v>
-      </c>
-      <c r="E12" s="72">
-        <v>20</v>
-      </c>
-      <c r="F12" s="72">
-        <v>20</v>
-      </c>
-      <c r="G12" s="145">
-        <v>20</v>
-      </c>
-      <c r="H12" s="145">
-        <v>16</v>
-      </c>
-      <c r="I12" s="145">
-        <v>13</v>
-      </c>
-      <c r="J12" s="145">
-        <v>11</v>
-      </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
+      <c r="A12" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
       <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A13" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
+      <c r="A13" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="75">
+        <v>30</v>
+      </c>
+      <c r="C13" s="72">
+        <v>10</v>
+      </c>
+      <c r="D13" s="72">
+        <v>10</v>
+      </c>
+      <c r="E13" s="72">
+        <v>10</v>
+      </c>
+      <c r="F13" s="72">
+        <v>10</v>
+      </c>
+      <c r="G13" s="72">
+        <v>10</v>
+      </c>
+      <c r="H13" s="72">
+        <v>10</v>
+      </c>
+      <c r="I13" s="72">
+        <v>10</v>
+      </c>
+      <c r="J13" s="72">
+        <v>10</v>
+      </c>
+      <c r="K13" s="72">
+        <v>10</v>
+      </c>
+      <c r="L13" s="72">
+        <v>10</v>
+      </c>
+      <c r="M13" s="72">
+        <v>10</v>
+      </c>
+      <c r="N13" s="72">
+        <v>10</v>
+      </c>
       <c r="O13" s="94"/>
       <c r="P13" s="94"/>
       <c r="Q13" s="94"/>
       <c r="R13" s="49"/>
     </row>
-    <row r="14" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="75">
-        <v>30</v>
-      </c>
-      <c r="C14" s="72">
-        <v>10</v>
-      </c>
-      <c r="D14" s="72">
-        <v>10</v>
-      </c>
-      <c r="E14" s="72">
-        <v>10</v>
-      </c>
-      <c r="F14" s="72">
-        <v>10</v>
-      </c>
-      <c r="G14" s="72">
-        <v>10</v>
-      </c>
-      <c r="H14" s="72">
-        <v>10</v>
-      </c>
-      <c r="I14" s="72">
-        <v>10</v>
-      </c>
-      <c r="J14" s="72">
-        <v>10</v>
-      </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="49"/>
-    </row>
-    <row r="15" spans="1:120">
-      <c r="A15" s="38"/>
-    </row>
-    <row r="16" spans="1:120" s="56" customFormat="1">
-      <c r="A16" s="55"/>
+    <row r="14" spans="1:120">
+      <c r="A14" s="38"/>
+    </row>
+    <row r="15" spans="1:120" s="56" customFormat="1">
+      <c r="A15" s="55"/>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="38">
+        <f>IF(ISBLANK(C3:C13), NA(), SUM(C3:C13))</f>
+        <v>47</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" ref="D15:R15" si="0">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
+        <v>42</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L15" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M15" s="38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="38" t="e">
+        <f t="array" ref="O15">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="38" t="e">
+        <f t="array" ref="P15">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="38" t="e">
+        <f t="array" ref="Q15">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="38" t="e">
+        <f t="array" ref="R15">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120" ht="25.5">
+      <c r="A16" s="38"/>
       <c r="B16" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="38">
-        <f>IF(ISBLANK(C4:C14), NA(), SUM(C3:C14))</f>
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16" s="38"/>
       <c r="D16" s="38">
-        <f t="shared" ref="D16:E16" si="0">IF(ISBLANK(D4:D14), NA(), SUM(D3:D14))</f>
-        <v>47</v>
+        <f t="shared" ref="D16:R16" si="1">C15-D15</f>
+        <v>5</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F16" s="38">
-        <f t="array" ref="F16">IF(ISBLANK(F4:F14), NA(), SUM(F3:F14))</f>
-        <v>45</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="array" ref="G16">IF(ISBLANK(G4:G14), NA(), SUM(G3:G14))</f>
-        <v>43</v>
-      </c>
-      <c r="H16" s="38">
-        <f t="array" ref="H16">IF(ISBLANK(H4:H14), NA(), SUM(H3:H14))</f>
-        <v>39</v>
-      </c>
-      <c r="I16" s="38">
-        <f t="array" ref="I16">IF(ISBLANK(I4:I14), NA(), SUM(I3:I14))</f>
-        <v>34</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="array" ref="J16">IF(ISBLANK(J4:J14), NA(), SUM(J3:J14))</f>
-        <v>30</v>
-      </c>
-      <c r="K16" s="38" t="e">
-        <f t="array" ref="K16">IF(ISBLANK(K4:K14), NA(), SUM(K3:K14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="38" t="e">
-        <f t="array" ref="L16">IF(ISBLANK(L4:L14), NA(), SUM(L3:L14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="38" t="e">
-        <f t="array" ref="M16">IF(ISBLANK(M4:M14), NA(), SUM(M3:M14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="38" t="e">
-        <f t="array" ref="N16">IF(ISBLANK(N4:N14), NA(), SUM(N3:N14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="38" t="e">
-        <f t="array" ref="O16">IF(ISBLANK(O4:O14), NA(), SUM(O3:O14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="38" t="e">
-        <f t="array" ref="P16">IF(ISBLANK(P4:P14), NA(), SUM(P3:P14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="38" t="e">
-        <f t="array" ref="Q16">IF(ISBLANK(Q4:Q14), NA(), SUM(Q3:Q14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R16" s="38" t="e">
-        <f t="array" ref="R16">IF(ISBLANK(R4:R14), NA(), SUM(R3:R14))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="25.5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <f t="shared" ref="D17:R17" si="1">C16-D16</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F16" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G16" s="38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H17" s="38">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="38">
+      <c r="L16" s="38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J17" s="38">
+      <c r="M16" s="38">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K17" s="38" t="e">
+        <v>3</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="38" t="e">
+      <c r="P16" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="38" t="e">
+      <c r="Q16" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="38" t="e">
+      <c r="R16" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="45">
+        <f>C15</f>
+        <v>47</v>
+      </c>
+      <c r="D17" s="46">
+        <f>C17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>43.866666666666667</v>
+      </c>
+      <c r="E17" s="46">
+        <f>D17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>40.733333333333334</v>
+      </c>
+      <c r="F17" s="46">
+        <f>E17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>37.6</v>
+      </c>
+      <c r="G17" s="46">
+        <f>F17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>34.466666666666669</v>
+      </c>
+      <c r="H17" s="46">
+        <f>G17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>31.333333333333336</v>
+      </c>
+      <c r="I17" s="46">
+        <f>H17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="J17" s="46">
+        <f>I17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>25.06666666666667</v>
+      </c>
+      <c r="K17" s="46">
+        <f>J17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>21.933333333333337</v>
+      </c>
+      <c r="L17" s="46">
+        <f>K17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>18.800000000000004</v>
+      </c>
+      <c r="M17" s="46">
+        <f>L17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>15.666666666666671</v>
+      </c>
+      <c r="N17" s="46">
+        <f>M17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>12.533333333333339</v>
+      </c>
+      <c r="O17" s="46">
+        <f>N17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="P17" s="46">
+        <f>O17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>6.2666666666666728</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>P17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>3.1333333333333395</v>
+      </c>
+      <c r="R17" s="52">
+        <f>Q17-$C$15/COUNTA($C$2:$Q$2)</f>
+        <v>6.2172489379008766E-15</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="38"/>
-      <c r="B18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="45">
-        <f>C16</f>
-        <v>52</v>
-      </c>
-      <c r="D18" s="46">
-        <f t="shared" ref="D18:R18" si="2">C18-$C$16/COUNTA($C$2:$Q$2)</f>
-        <v>48.533333333333331</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="B18" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="58">
+        <f t="shared" ref="C18:R18" si="2">1-C15/$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="58">
         <f t="shared" si="2"/>
-        <v>45.066666666666663</v>
-      </c>
-      <c r="F18" s="46">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="E18" s="58">
         <f t="shared" si="2"/>
-        <v>41.599999999999994</v>
-      </c>
-      <c r="G18" s="46">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="F18" s="58">
         <f t="shared" si="2"/>
-        <v>38.133333333333326</v>
-      </c>
-      <c r="H18" s="46">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="G18" s="58">
         <f t="shared" si="2"/>
-        <v>34.666666666666657</v>
-      </c>
-      <c r="I18" s="46">
+        <v>0.21276595744680848</v>
+      </c>
+      <c r="H18" s="58">
         <f t="shared" si="2"/>
-        <v>31.199999999999989</v>
-      </c>
-      <c r="J18" s="46">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="I18" s="58">
         <f t="shared" si="2"/>
-        <v>27.73333333333332</v>
-      </c>
-      <c r="K18" s="46">
+        <v>0.4042553191489362</v>
+      </c>
+      <c r="J18" s="58">
         <f t="shared" si="2"/>
-        <v>24.266666666666652</v>
-      </c>
-      <c r="L18" s="46">
+        <v>0.48936170212765961</v>
+      </c>
+      <c r="K18" s="58">
         <f t="shared" si="2"/>
-        <v>20.799999999999983</v>
-      </c>
-      <c r="M18" s="46">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="L18" s="58">
         <f t="shared" si="2"/>
-        <v>17.333333333333314</v>
-      </c>
-      <c r="N18" s="46">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="M18" s="58">
         <f t="shared" si="2"/>
-        <v>13.866666666666648</v>
-      </c>
-      <c r="O18" s="46">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="N18" s="58">
         <f t="shared" si="2"/>
-        <v>10.399999999999981</v>
-      </c>
-      <c r="P18" s="46">
+        <v>0.74468085106382986</v>
+      </c>
+      <c r="O18" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>6.933333333333314</v>
-      </c>
-      <c r="Q18" s="46">
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.4666666666666472</v>
-      </c>
-      <c r="R18" s="52">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.9539925233402755E-14</v>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="38"/>
-      <c r="B19" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="58">
-        <f t="shared" ref="C19:R19" si="3">1-C16/$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="58">
-        <f t="shared" si="3"/>
-        <v>9.6153846153846145E-2</v>
-      </c>
-      <c r="E19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.13461538461538458</v>
-      </c>
-      <c r="F19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.13461538461538458</v>
-      </c>
-      <c r="G19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.17307692307692313</v>
-      </c>
-      <c r="H19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="J19" s="58">
-        <f t="shared" si="3"/>
-        <v>0.42307692307692313</v>
-      </c>
-      <c r="K19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="38"/>
@@ -13188,40 +13228,20 @@
       <c r="Q80" s="38"/>
       <c r="R80" s="38"/>
     </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:B11 A3:A14 B13:B14 B3:B7 G3:I3 I3:I10 J3:R14 I12:J14">
-    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I11:J13 A3:B13 G3:I3 J9:N13 O3:R13 I3:N7 I9">
+    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B14 A13 A9:A11">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A12 A8:A10">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15341,50 +15361,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -14,7 +14,7 @@
     <sheet name="Iteration 4" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$51</definedName>
     <definedName name="_Toc227043368" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_Toc332097117" localSheetId="0">'Product backlog'!$D$17</definedName>
     <definedName name="_Toc332097119" localSheetId="0">'Product backlog'!$D$19</definedName>
@@ -33,23 +33,23 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product backlog'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$14:$Z$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$13:$Z$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="113">
   <si>
     <t>Itération</t>
   </si>
@@ -270,12 +270,6 @@
     <t>Rédaction specs 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Editeur de parcours V4 : </t>
-  </si>
-  <si>
-    <t>Permettre un retour sur la structure déjà construite du parcours</t>
-  </si>
-  <si>
     <t xml:space="preserve">        - Création d'un parcours (initialisation : un seul sous-parcours, une seule scène recommandée)</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t xml:space="preserve">        - CRUD scène/transition secondaire</t>
   </si>
   <si>
-    <t xml:space="preserve">        - CRUD transition inter-parcours</t>
-  </si>
-  <si>
     <t>Service web -&gt; ouvrir la collection et les parcours</t>
   </si>
   <si>
@@ -418,6 +409,9 @@
   </si>
   <si>
     <t xml:space="preserve">        - Edition parcours avec transitions secondaires</t>
+  </si>
+  <si>
+    <t>Divers</t>
   </si>
 </sst>
 </file>
@@ -1694,21 +1688,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1985,7 +1965,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225525"/>
+          <c:x val="0.37032576667225542"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2003,9 +1983,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553254"/>
+          <c:y val="0.15742128935532546"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192558"/>
+          <c:h val="0.70464767616192581"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2315,11 +2295,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105044224"/>
-        <c:axId val="105398656"/>
+        <c:axId val="103467264"/>
+        <c:axId val="103821696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105044224"/>
+        <c:axId val="103467264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2331,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105398656"/>
+        <c:crossAx val="103821696"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2359,7 +2339,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105398656"/>
+        <c:axId val="103821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2381,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105044224"/>
+        <c:crossAx val="103467264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2489,7 +2469,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000256" footer="0.49212598450000256"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2526,7 +2506,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225553"/>
+          <c:x val="0.3703257666722557"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2544,9 +2524,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532551"/>
+          <c:y val="0.15742128935532557"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192592"/>
+          <c:h val="0.70464767616192603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2856,11 +2836,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105739392"/>
-        <c:axId val="105741312"/>
+        <c:axId val="104178816"/>
+        <c:axId val="104180736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105739392"/>
+        <c:axId val="104178816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2872,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105741312"/>
+        <c:crossAx val="104180736"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2900,7 +2880,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105741312"/>
+        <c:axId val="104180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2922,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105739392"/>
+        <c:crossAx val="104178816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,7 +3010,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,7 +3047,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225586"/>
+          <c:x val="0.37032576667225597"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3085,9 +3065,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532565"/>
+          <c:y val="0.15742128935532573"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192614"/>
+          <c:h val="0.70464767616192625"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3097,7 +3077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$15</c:f>
+              <c:f>'Iteration 3'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3188,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$15:$R$15</c:f>
+              <c:f>'Iteration 3'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3249,7 +3229,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 3'!$B$17</c:f>
+              <c:f>'Iteration 3'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3340,7 +3320,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$C$17:$R$17</c:f>
+              <c:f>'Iteration 3'!$C$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3397,11 +3377,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105667968"/>
-        <c:axId val="105682432"/>
+        <c:axId val="104226176"/>
+        <c:axId val="104244736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105667968"/>
+        <c:axId val="104226176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3413,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105682432"/>
+        <c:crossAx val="104244736"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3441,7 +3421,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105682432"/>
+        <c:axId val="104244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3463,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105667968"/>
+        <c:crossAx val="104226176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3571,7 +3551,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3608,7 +3588,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225608"/>
+          <c:x val="0.3703257666722562"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3626,9 +3606,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532579"/>
+          <c:y val="0.15742128935532584"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192636"/>
+          <c:h val="0.70464767616192658"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3938,11 +3918,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105863040"/>
-        <c:axId val="105873408"/>
+        <c:axId val="104298368"/>
+        <c:axId val="104308736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105863040"/>
+        <c:axId val="104298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +3954,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105873408"/>
+        <c:crossAx val="104308736"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3982,7 +3962,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105873408"/>
+        <c:axId val="104308736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4004,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105863040"/>
+        <c:crossAx val="104298368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,7 +4092,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000294" footer="0.49212598450000294"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4198,13 +4178,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>65444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>62002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4554,13 +4534,13 @@
   <sheetPr codeName="Feuil1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4615,7 +4595,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14">
-        <f>MAX(A13:A46)+1</f>
+        <f>MAX(A13:A45)+1</f>
         <v>35</v>
       </c>
       <c r="D3" s="162"/>
@@ -4684,7 +4664,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4770,7 +4750,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="72" t="s">
@@ -4787,7 +4767,7 @@
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
       <c r="D11" s="140" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="141"/>
       <c r="F11" s="134"/>
@@ -4819,7 +4799,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="72">
         <v>2</v>
@@ -4842,13 +4822,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="72">
         <v>2</v>
@@ -4877,7 +4857,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="72">
         <v>2</v>
@@ -4906,7 +4886,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="72">
         <v>2</v>
@@ -4929,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="103" t="s">
         <v>32</v>
@@ -4958,13 +4938,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="72">
         <v>8</v>
@@ -4993,7 +4973,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="72">
         <v>5</v>
@@ -5022,7 +5002,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" s="72">
         <v>5</v>
@@ -5043,13 +5023,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="72">
         <v>13</v>
@@ -5110,7 +5090,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
@@ -5165,7 +5145,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="72">
         <v>5</v>
@@ -5186,13 +5166,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="72">
         <v>3</v>
@@ -5219,7 +5199,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="72">
         <v>6</v>
@@ -5259,11 +5239,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" s="72">
         <v>6</v>
@@ -5284,11 +5264,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" s="72">
         <v>6</v>
@@ -5311,11 +5291,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="85">
         <v>6</v>
@@ -5376,12 +5356,12 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33">
-        <f>SUM(G35:G42)</f>
+        <f>SUM(G35:G41)</f>
         <v>55</v>
       </c>
       <c r="H34" s="135"/>
@@ -5442,11 +5422,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G37" s="72">
         <v>12</v>
@@ -5486,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="72" t="s">
@@ -5501,168 +5481,176 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
+      <c r="A40" s="75">
+        <v>30</v>
+      </c>
+      <c r="B40" s="69">
+        <v>3</v>
+      </c>
+      <c r="C40" s="68">
+        <v>1</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="72">
+        <v>10</v>
+      </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="22"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A41" s="75">
-        <v>30</v>
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A41" s="68">
+        <v>32</v>
       </c>
       <c r="B41" s="69">
         <v>3</v>
       </c>
-      <c r="C41" s="68">
-        <v>1</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>104</v>
+      <c r="C41" s="68"/>
+      <c r="D41" s="70" t="s">
+        <v>24</v>
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="72">
+        <v>28</v>
+      </c>
+      <c r="G41" s="105">
+        <v>3</v>
+      </c>
+      <c r="H41" s="106"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
+        <f>SUM(G43:G48)</f>
+        <v>38</v>
+      </c>
+      <c r="H42" s="136"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="112"/>
+    </row>
+    <row r="43" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A43" s="75">
+        <v>33</v>
+      </c>
+      <c r="B43" s="69">
+        <v>4</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="105">
         <v>10</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="68">
-        <v>32</v>
-      </c>
-      <c r="B42" s="69">
-        <v>3</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="105">
-        <v>3</v>
-      </c>
-      <c r="H42" s="106"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33">
-        <f>SUM(G44:G49)</f>
-        <v>38</v>
-      </c>
-      <c r="H43" s="136"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="112"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
     </row>
     <row r="44" spans="1:13" ht="24.95" customHeight="1">
       <c r="A44" s="75">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="69">
-        <v>4</v>
-      </c>
-      <c r="C44" s="68"/>
+        <v>3</v>
+      </c>
+      <c r="C44" s="68">
+        <v>2</v>
+      </c>
       <c r="D44" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="71"/>
+        <v>102</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>103</v>
+      </c>
       <c r="F44" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="105">
-        <v>10</v>
+      <c r="G44" s="72">
+        <v>25</v>
       </c>
       <c r="H44" s="30"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
-    </row>
-    <row r="45" spans="1:13" ht="24.95" customHeight="1">
+      <c r="I44" s="30"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="75">
-        <v>31</v>
-      </c>
-      <c r="B45" s="69">
-        <v>3</v>
-      </c>
-      <c r="C45" s="68">
-        <v>2</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="70" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="B45" s="79">
+        <v>4</v>
+      </c>
+      <c r="C45" s="103">
+        <v>4</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="84" t="s">
+        <v>71</v>
       </c>
       <c r="F45" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="72">
-        <v>25</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="22"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:13" ht="24.95" customHeight="1">
       <c r="A46" s="75">
-        <v>34</v>
-      </c>
-      <c r="B46" s="79">
+        <v>35</v>
+      </c>
+      <c r="B46" s="69">
         <v>4</v>
       </c>
-      <c r="C46" s="103">
-        <v>4</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="84" t="s">
-        <v>73</v>
+      <c r="C46" s="68">
+        <v>5</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>66</v>
       </c>
       <c r="F46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="11"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A47" s="75">
-        <v>35</v>
+      <c r="A47" s="68">
+        <v>36</v>
       </c>
       <c r="B47" s="69">
         <v>4</v>
@@ -5671,140 +5659,127 @@
         <v>5</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F47" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G47" s="72"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="22"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="22"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:13" ht="24.95" customHeight="1">
       <c r="A48" s="68">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" s="69">
         <v>4</v>
       </c>
-      <c r="C48" s="68">
-        <v>5</v>
-      </c>
+      <c r="C48" s="68"/>
       <c r="D48" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>75</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E48" s="71"/>
       <c r="F48" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="72"/>
+        <v>28</v>
+      </c>
+      <c r="G48" s="102">
+        <v>3</v>
+      </c>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="22"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A49" s="68">
-        <v>38</v>
-      </c>
-      <c r="B49" s="69">
-        <v>4</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72" t="s">
+    <row r="49" spans="1:13" s="13" customFormat="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33">
+        <v>50</v>
+      </c>
+      <c r="H49" s="135"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A50" s="75">
+        <v>39</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="102">
-        <v>3</v>
-      </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" s="13" customFormat="1">
-      <c r="A50" s="65"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33">
-        <v>50</v>
-      </c>
-      <c r="H50" s="135"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:13" ht="24.95" customHeight="1">
       <c r="A51" s="75">
-        <v>39</v>
-      </c>
-      <c r="B51" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A52" s="75">
-        <v>40</v>
-      </c>
-      <c r="B52" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="117"/>
-      <c r="D52" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="119"/>
-      <c r="F52" s="85" t="s">
+      <c r="C51" s="117"/>
+      <c r="D51" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="119"/>
+      <c r="F51" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="29"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="29"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="127"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="127"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="99"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="115"/>
@@ -5855,46 +5830,34 @@
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="115"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="99"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="121"/>
       <c r="I58" s="121"/>
-      <c r="J58" s="123"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="I59" s="121"/>
-    </row>
-    <row r="81" ht="9.75" customHeight="1"/>
+    </row>
+    <row r="80" ht="9.75" customHeight="1"/>
+    <row r="299" spans="1:1" ht="15">
+      <c r="A299" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="300" spans="1:1" ht="15">
-      <c r="A300" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="A300" s="67"/>
     </row>
     <row r="301" spans="1:1" ht="15">
-      <c r="A301" s="67"/>
+      <c r="A301" s="67" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="302" spans="1:1" ht="15">
       <c r="A302" s="67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="15">
       <c r="A303" s="67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" ht="15">
-      <c r="A304" s="67" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M52">
+  <autoFilter ref="A5:M51">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
@@ -5905,11 +5868,11 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A51:A52 B46:C46 D47:E48 H46:K46 A44:A47 D40 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A41 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="25" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A50:A51 B45:C45 D46:E47 H45:K45 A43:A46 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A40 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
+    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6172,7 +6135,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
@@ -6340,7 +6303,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
@@ -6396,7 +6359,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6564,7 +6527,7 @@
     </row>
     <row r="11" spans="1:120" s="130" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="68">
         <v>13</v>
@@ -8483,7 +8446,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -8685,7 +8648,7 @@
     </row>
     <row r="4" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="151" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="152"/>
       <c r="C4" s="153">
@@ -8739,7 +8702,7 @@
     </row>
     <row r="5" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="151" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="152"/>
       <c r="C5" s="153">
@@ -8793,7 +8756,7 @@
     </row>
     <row r="6" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="153">
@@ -8847,7 +8810,7 @@
     </row>
     <row r="7" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="153">
@@ -8901,7 +8864,7 @@
     </row>
     <row r="8" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="153">
@@ -8955,7 +8918,7 @@
     </row>
     <row r="9" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="75">
         <v>17</v>
@@ -9011,7 +8974,7 @@
     </row>
     <row r="10" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="75">
         <v>18</v>
@@ -9145,7 +9108,7 @@
     </row>
     <row r="13" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="75">
         <v>20</v>
@@ -9201,7 +9164,7 @@
     </row>
     <row r="14" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="75">
         <v>21</v>
@@ -9257,7 +9220,7 @@
     </row>
     <row r="15" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="75">
         <v>22</v>
@@ -11132,11 +11095,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP80"/>
+  <dimension ref="A1:DP79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11148,7 +11109,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -11350,7 +11311,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="72">
@@ -11389,14 +11350,16 @@
       <c r="N4" s="72">
         <v>0</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="72">
+        <v>0</v>
+      </c>
       <c r="P4" s="95"/>
       <c r="Q4" s="95"/>
       <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="72">
@@ -11435,14 +11398,16 @@
       <c r="N5" s="72">
         <v>0</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="72">
+        <v>0</v>
+      </c>
       <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="72">
@@ -11472,16 +11437,18 @@
       <c r="K6" s="145">
         <v>1</v>
       </c>
-      <c r="L6" s="145">
+      <c r="L6" s="147">
         <v>1</v>
       </c>
-      <c r="M6" s="145">
+      <c r="M6" s="147">
         <v>1</v>
       </c>
-      <c r="N6" s="145">
+      <c r="N6" s="147">
         <v>1</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="147">
+        <v>1</v>
+      </c>
       <c r="P6" s="95"/>
       <c r="Q6" s="95"/>
       <c r="R6" s="48"/>
@@ -11503,14 +11470,14 @@
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
       <c r="N7" s="91"/>
-      <c r="O7" s="93"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="93"/>
       <c r="Q7" s="93"/>
       <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" s="75">
         <v>23</v>
@@ -11551,7 +11518,9 @@
       <c r="N8" s="147">
         <v>0</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="147">
+        <v>0</v>
+      </c>
       <c r="P8" s="95"/>
       <c r="Q8" s="95"/>
       <c r="R8" s="48"/>
@@ -11573,14 +11542,14 @@
       <c r="L9" s="91"/>
       <c r="M9" s="91"/>
       <c r="N9" s="91"/>
-      <c r="O9" s="95"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="95"/>
       <c r="Q9" s="95"/>
       <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:120" s="161" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="151" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="147"/>
       <c r="C10" s="147">
@@ -11619,14 +11588,16 @@
       <c r="N10" s="147">
         <v>0</v>
       </c>
-      <c r="O10" s="95"/>
+      <c r="O10" s="147">
+        <v>0</v>
+      </c>
       <c r="P10" s="95"/>
       <c r="Q10" s="95"/>
       <c r="R10" s="95"/>
     </row>
     <row r="11" spans="1:120" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="75">
         <v>27</v>
@@ -11664,369 +11635,371 @@
       <c r="M11" s="145">
         <v>3</v>
       </c>
-      <c r="N11" s="147">
+      <c r="N11" s="145">
         <v>1</v>
       </c>
-      <c r="O11" s="92"/>
+      <c r="O11" s="147">
+        <v>0</v>
+      </c>
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A12" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="94"/>
+      <c r="A12" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="75">
+        <v>30</v>
+      </c>
+      <c r="C12" s="72">
+        <v>10</v>
+      </c>
+      <c r="D12" s="72">
+        <v>10</v>
+      </c>
+      <c r="E12" s="72">
+        <v>10</v>
+      </c>
+      <c r="F12" s="72">
+        <v>10</v>
+      </c>
+      <c r="G12" s="72">
+        <v>10</v>
+      </c>
+      <c r="H12" s="72">
+        <v>10</v>
+      </c>
+      <c r="I12" s="72">
+        <v>10</v>
+      </c>
+      <c r="J12" s="72">
+        <v>10</v>
+      </c>
+      <c r="K12" s="72">
+        <v>10</v>
+      </c>
+      <c r="L12" s="72">
+        <v>10</v>
+      </c>
+      <c r="M12" s="72">
+        <v>10</v>
+      </c>
+      <c r="N12" s="72">
+        <v>10</v>
+      </c>
+      <c r="O12" s="72">
+        <v>10</v>
+      </c>
       <c r="P12" s="94"/>
       <c r="Q12" s="94"/>
       <c r="R12" s="49"/>
     </row>
-    <row r="13" spans="1:120" ht="24.95" customHeight="1">
-      <c r="A13" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="75">
-        <v>30</v>
-      </c>
-      <c r="C13" s="72">
-        <v>10</v>
-      </c>
-      <c r="D13" s="72">
-        <v>10</v>
-      </c>
-      <c r="E13" s="72">
-        <v>10</v>
-      </c>
-      <c r="F13" s="72">
-        <v>10</v>
-      </c>
-      <c r="G13" s="72">
-        <v>10</v>
-      </c>
-      <c r="H13" s="72">
-        <v>10</v>
-      </c>
-      <c r="I13" s="72">
-        <v>10</v>
-      </c>
-      <c r="J13" s="72">
-        <v>10</v>
-      </c>
-      <c r="K13" s="72">
-        <v>10</v>
-      </c>
-      <c r="L13" s="72">
-        <v>10</v>
-      </c>
-      <c r="M13" s="72">
-        <v>10</v>
-      </c>
-      <c r="N13" s="72">
-        <v>10</v>
-      </c>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="49"/>
-    </row>
-    <row r="14" spans="1:120">
-      <c r="A14" s="38"/>
-    </row>
-    <row r="15" spans="1:120" s="56" customFormat="1">
-      <c r="A15" s="55"/>
+    <row r="13" spans="1:120">
+      <c r="A13" s="38"/>
+    </row>
+    <row r="14" spans="1:120" s="56" customFormat="1">
+      <c r="A14" s="55"/>
+      <c r="B14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="38">
+        <f>IF(ISBLANK(C3:C12), NA(), SUM(C3:C12))</f>
+        <v>47</v>
+      </c>
+      <c r="D14" s="38">
+        <f>IF(ISBLANK(D3:D12), NA(), SUM(D3:D12))</f>
+        <v>42</v>
+      </c>
+      <c r="E14" s="38">
+        <f>IF(ISBLANK(E3:E12), NA(), SUM(E3:E12))</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="38">
+        <f>IF(ISBLANK(F3:F12), NA(), SUM(F3:F12))</f>
+        <v>40</v>
+      </c>
+      <c r="G14" s="38">
+        <f>IF(ISBLANK(G3:G12), NA(), SUM(G3:G12))</f>
+        <v>37</v>
+      </c>
+      <c r="H14" s="38">
+        <f>IF(ISBLANK(H3:H12), NA(), SUM(H3:H12))</f>
+        <v>33</v>
+      </c>
+      <c r="I14" s="38">
+        <f>IF(ISBLANK(I3:I12), NA(), SUM(I3:I12))</f>
+        <v>28</v>
+      </c>
+      <c r="J14" s="38">
+        <f>IF(ISBLANK(J3:J12), NA(), SUM(J3:J12))</f>
+        <v>24</v>
+      </c>
+      <c r="K14" s="38">
+        <f>IF(ISBLANK(K3:K12), NA(), SUM(K3:K12))</f>
+        <v>22</v>
+      </c>
+      <c r="L14" s="38">
+        <f>IF(ISBLANK(L3:L12), NA(), SUM(L3:L12))</f>
+        <v>17</v>
+      </c>
+      <c r="M14" s="38">
+        <f>IF(ISBLANK(M3:M12), NA(), SUM(M3:M12))</f>
+        <v>14</v>
+      </c>
+      <c r="N14" s="38">
+        <f>IF(ISBLANK(N3:N12), NA(), SUM(N3:N12))</f>
+        <v>12</v>
+      </c>
+      <c r="O14" s="38" t="e">
+        <f t="array" ref="O14">IF(ISBLANK(O3:O12), NA(), SUM(O3:O12))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="38" t="e">
+        <f t="array" ref="P14">IF(ISBLANK(P3:P12), NA(), SUM(P3:P12))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="38" t="e">
+        <f t="array" ref="Q14">IF(ISBLANK(Q3:Q12), NA(), SUM(Q3:Q12))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="38" t="e">
+        <f t="array" ref="R14">IF(ISBLANK(R3:R12), NA(), SUM(R3:R12))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:120" ht="25.5">
+      <c r="A15" s="38"/>
       <c r="B15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="38">
-        <f>IF(ISBLANK(C3:C13), NA(), SUM(C3:C13))</f>
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C15" s="38"/>
       <c r="D15" s="38">
-        <f t="shared" ref="D15:R15" si="0">IF(ISBLANK(D3:D13), NA(), SUM(D3:D13))</f>
-        <v>42</v>
+        <f t="shared" ref="D15:R15" si="0">C14-D14</f>
+        <v>5</v>
       </c>
       <c r="E15" s="38">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="I15" s="38">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J15" s="38">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L15" s="38">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M15" s="38">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N15" s="38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O15" s="38" t="e">
-        <f t="array" ref="O15">IF(ISBLANK(O3:O13), NA(), SUM(O3:O13))</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="P15" s="38" t="e">
-        <f t="array" ref="P15">IF(ISBLANK(P3:P13), NA(), SUM(P3:P13))</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="38" t="e">
-        <f t="array" ref="Q15">IF(ISBLANK(Q3:Q13), NA(), SUM(Q3:Q13))</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="38" t="e">
-        <f t="array" ref="R15">IF(ISBLANK(R3:R13), NA(), SUM(R3:R13))</f>
+      <c r="R15" s="51" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:120" ht="25.5">
+    <row r="16" spans="1:120">
       <c r="A16" s="38"/>
-      <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38">
-        <f t="shared" ref="D16:R16" si="1">C15-D15</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="B16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="45">
+        <f>C14</f>
+        <v>47</v>
+      </c>
+      <c r="D16" s="46">
+        <f>C16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>43.866666666666667</v>
+      </c>
+      <c r="E16" s="46">
+        <f>D16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>40.733333333333334</v>
+      </c>
+      <c r="F16" s="46">
+        <f>E16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>37.6</v>
+      </c>
+      <c r="G16" s="46">
+        <f>F16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>34.466666666666669</v>
+      </c>
+      <c r="H16" s="46">
+        <f>G16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>31.333333333333336</v>
+      </c>
+      <c r="I16" s="46">
+        <f>H16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="J16" s="46">
+        <f>I16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>25.06666666666667</v>
+      </c>
+      <c r="K16" s="46">
+        <f>J16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>21.933333333333337</v>
+      </c>
+      <c r="L16" s="46">
+        <f>K16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>18.800000000000004</v>
+      </c>
+      <c r="M16" s="46">
+        <f>L16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>15.666666666666671</v>
+      </c>
+      <c r="N16" s="46">
+        <f>M16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>12.533333333333339</v>
+      </c>
+      <c r="O16" s="46">
+        <f>N16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="P16" s="46">
+        <f>O16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>6.2666666666666728</v>
+      </c>
+      <c r="Q16" s="46">
+        <f>P16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>3.1333333333333395</v>
+      </c>
+      <c r="R16" s="52">
+        <f>Q16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <v>6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="38"/>
+      <c r="B17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="58">
+        <f t="shared" ref="C17:R17" si="1">1-C14/$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="58">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="E17" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="38">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="F17" s="58">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="38">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="G17" s="58">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="38">
+        <v>0.21276595744680848</v>
+      </c>
+      <c r="H17" s="58">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J16" s="38">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="I17" s="58">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K16" s="38">
+        <v>0.4042553191489362</v>
+      </c>
+      <c r="J17" s="58">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L16" s="38">
+        <v>0.48936170212765961</v>
+      </c>
+      <c r="K17" s="58">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M16" s="38">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="L17" s="58">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N16" s="38">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="M17" s="58">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="38" t="e">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="N17" s="58">
+        <f t="shared" si="1"/>
+        <v>0.74468085106382986</v>
+      </c>
+      <c r="O17" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="38" t="e">
+      <c r="P17" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="38" t="e">
+      <c r="Q17" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="51" t="e">
+      <c r="R17" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="45">
-        <f>C15</f>
-        <v>47</v>
-      </c>
-      <c r="D17" s="46">
-        <f>C17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>43.866666666666667</v>
-      </c>
-      <c r="E17" s="46">
-        <f>D17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>40.733333333333334</v>
-      </c>
-      <c r="F17" s="46">
-        <f>E17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>37.6</v>
-      </c>
-      <c r="G17" s="46">
-        <f>F17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>34.466666666666669</v>
-      </c>
-      <c r="H17" s="46">
-        <f>G17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>31.333333333333336</v>
-      </c>
-      <c r="I17" s="46">
-        <f>H17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="J17" s="46">
-        <f>I17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>25.06666666666667</v>
-      </c>
-      <c r="K17" s="46">
-        <f>J17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>21.933333333333337</v>
-      </c>
-      <c r="L17" s="46">
-        <f>K17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>18.800000000000004</v>
-      </c>
-      <c r="M17" s="46">
-        <f>L17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>15.666666666666671</v>
-      </c>
-      <c r="N17" s="46">
-        <f>M17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>12.533333333333339</v>
-      </c>
-      <c r="O17" s="46">
-        <f>N17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>9.4000000000000057</v>
-      </c>
-      <c r="P17" s="46">
-        <f>O17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>6.2666666666666728</v>
-      </c>
-      <c r="Q17" s="46">
-        <f>P17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>3.1333333333333395</v>
-      </c>
-      <c r="R17" s="52">
-        <f>Q17-$C$15/COUNTA($C$2:$Q$2)</f>
-        <v>6.2172489379008766E-15</v>
-      </c>
-    </row>
     <row r="18" spans="1:18">
       <c r="A18" s="38"/>
-      <c r="B18" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="58">
-        <f t="shared" ref="C18:R18" si="2">1-C15/$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.1063829787234043</v>
-      </c>
-      <c r="E18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="F18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="G18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.21276595744680848</v>
-      </c>
-      <c r="H18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="I18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.4042553191489362</v>
-      </c>
-      <c r="J18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.48936170212765961</v>
-      </c>
-      <c r="K18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.53191489361702127</v>
-      </c>
-      <c r="L18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.63829787234042556</v>
-      </c>
-      <c r="M18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="N18" s="58">
-        <f t="shared" si="2"/>
-        <v>0.74468085106382986</v>
-      </c>
-      <c r="O18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="38"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="38"/>
@@ -13208,40 +13181,12 @@
       <c r="Q79" s="38"/>
       <c r="R79" s="38"/>
     </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I11:J13 A3:B13 G3:I3 J9:N13 O3:R13 I3:N7 I9">
-    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I11:J12 G3:I3 J9:N12 I9 O3:R12 I3:O7 A3:B12">
+    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
-      <formula>#REF!="O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12 A8:A10">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>#REF!="N"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13270,7 +13215,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -13474,7 +13419,7 @@
     </row>
     <row r="4" spans="1:120" s="96" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="75">
         <v>34</v>
@@ -13500,7 +13445,7 @@
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="75">
         <v>35</v>
@@ -13526,7 +13471,7 @@
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="68">
         <v>36</v>
@@ -13552,7 +13497,7 @@
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="68">
         <v>37</v>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1688,21 +1688,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1965,7 +1951,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225542"/>
+          <c:x val="0.37032576667225553"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1983,9 +1969,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532546"/>
+          <c:y val="0.15742128935532551"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192581"/>
+          <c:h val="0.70464767616192592"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2295,11 +2281,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103467264"/>
-        <c:axId val="103821696"/>
+        <c:axId val="113244416"/>
+        <c:axId val="113590656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103467264"/>
+        <c:axId val="113244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2317,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103821696"/>
+        <c:crossAx val="113590656"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2339,7 +2325,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103821696"/>
+        <c:axId val="113590656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2367,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103467264"/>
+        <c:crossAx val="113244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2455,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000261" footer="0.49212598450000261"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2506,7 +2492,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722557"/>
+          <c:x val="0.37032576667225586"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2524,9 +2510,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532557"/>
+          <c:y val="0.15742128935532565"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192603"/>
+          <c:h val="0.70464767616192614"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2836,11 +2822,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104178816"/>
-        <c:axId val="104180736"/>
+        <c:axId val="113939584"/>
+        <c:axId val="113941504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104178816"/>
+        <c:axId val="113939584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2858,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104180736"/>
+        <c:crossAx val="113941504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2880,7 +2866,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104180736"/>
+        <c:axId val="113941504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2908,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104178816"/>
+        <c:crossAx val="113939584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,7 +2996,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3047,7 +3033,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225597"/>
+          <c:x val="0.37032576667225608"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3065,9 +3051,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532573"/>
+          <c:y val="0.15742128935532579"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192625"/>
+          <c:h val="0.70464767616192636"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3377,11 +3363,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104226176"/>
-        <c:axId val="104244736"/>
+        <c:axId val="113991040"/>
+        <c:axId val="114005504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104226176"/>
+        <c:axId val="113991040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104244736"/>
+        <c:crossAx val="114005504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3421,7 +3407,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104244736"/>
+        <c:axId val="114005504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3449,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104226176"/>
+        <c:crossAx val="113991040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3551,7 +3537,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3588,7 +3574,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722562"/>
+          <c:x val="0.37032576667225636"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3606,9 +3592,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532584"/>
+          <c:y val="0.1574212893553259"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192658"/>
+          <c:h val="0.70464767616192681"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3918,11 +3904,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104298368"/>
-        <c:axId val="104308736"/>
+        <c:axId val="114063232"/>
+        <c:axId val="114073600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104298368"/>
+        <c:axId val="114063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3940,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104308736"/>
+        <c:crossAx val="114073600"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3962,7 +3948,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104308736"/>
+        <c:axId val="114073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +3990,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104298368"/>
+        <c:crossAx val="114063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4092,7 +4078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000294" footer="0.49212598450000294"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500003" footer="0.492125984500003"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5869,10 +5855,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A50:A51 B45:C45 D46:E47 H45:K45 A43:A46 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A40 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8406,18 +8392,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11079,10 +11065,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11704,51 +11690,51 @@
         <v>37</v>
       </c>
       <c r="C14" s="38">
-        <f>IF(ISBLANK(C3:C12), NA(), SUM(C3:C12))</f>
+        <f t="shared" ref="C14:N14" si="0">IF(ISBLANK(C3:C12), NA(), SUM(C3:C12))</f>
         <v>47</v>
       </c>
       <c r="D14" s="38">
-        <f>IF(ISBLANK(D3:D12), NA(), SUM(D3:D12))</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E14" s="38">
-        <f>IF(ISBLANK(E3:E12), NA(), SUM(E3:E12))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F14" s="38">
-        <f>IF(ISBLANK(F3:F12), NA(), SUM(F3:F12))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G14" s="38">
-        <f>IF(ISBLANK(G3:G12), NA(), SUM(G3:G12))</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="H14" s="38">
-        <f>IF(ISBLANK(H3:H12), NA(), SUM(H3:H12))</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="I14" s="38">
-        <f>IF(ISBLANK(I3:I12), NA(), SUM(I3:I12))</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J14" s="38">
-        <f>IF(ISBLANK(J3:J12), NA(), SUM(J3:J12))</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K14" s="38">
-        <f>IF(ISBLANK(K3:K12), NA(), SUM(K3:K12))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L14" s="38">
-        <f>IF(ISBLANK(L3:L12), NA(), SUM(L3:L12))</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M14" s="38">
-        <f>IF(ISBLANK(M3:M12), NA(), SUM(M3:M12))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N14" s="38">
-        <f>IF(ISBLANK(N3:N12), NA(), SUM(N3:N12))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O14" s="38" t="e">
@@ -11775,63 +11761,63 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38">
-        <f t="shared" ref="D15:R15" si="0">C14-D14</f>
+        <f t="shared" ref="D15:R15" si="1">C14-D14</f>
         <v>5</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O15" s="38" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="P15" s="38" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="38" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R15" s="51" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11845,63 +11831,63 @@
         <v>47</v>
       </c>
       <c r="D16" s="46">
-        <f>C16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" ref="D16:R16" si="2">C16-$C$14/COUNTA($C$2:$Q$2)</f>
         <v>43.866666666666667</v>
       </c>
       <c r="E16" s="46">
-        <f>D16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>40.733333333333334</v>
       </c>
       <c r="F16" s="46">
-        <f>E16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>37.6</v>
       </c>
       <c r="G16" s="46">
-        <f>F16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>34.466666666666669</v>
       </c>
       <c r="H16" s="46">
-        <f>G16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>31.333333333333336</v>
       </c>
       <c r="I16" s="46">
-        <f>H16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>28.200000000000003</v>
       </c>
       <c r="J16" s="46">
-        <f>I16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>25.06666666666667</v>
       </c>
       <c r="K16" s="46">
-        <f>J16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>21.933333333333337</v>
       </c>
       <c r="L16" s="46">
-        <f>K16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>18.800000000000004</v>
       </c>
       <c r="M16" s="46">
-        <f>L16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>15.666666666666671</v>
       </c>
       <c r="N16" s="46">
-        <f>M16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>12.533333333333339</v>
       </c>
       <c r="O16" s="46">
-        <f>N16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>9.4000000000000057</v>
       </c>
       <c r="P16" s="46">
-        <f>O16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>6.2666666666666728</v>
       </c>
       <c r="Q16" s="46">
-        <f>P16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>3.1333333333333395</v>
       </c>
       <c r="R16" s="52">
-        <f>Q16-$C$14/COUNTA($C$2:$Q$2)</f>
+        <f t="shared" si="2"/>
         <v>6.2172489379008766E-15</v>
       </c>
     </row>
@@ -11911,67 +11897,67 @@
         <v>40</v>
       </c>
       <c r="C17" s="58">
-        <f t="shared" ref="C17:R17" si="1">1-C14/$C$14</f>
+        <f t="shared" ref="C17:R17" si="3">1-C14/$C$14</f>
         <v>0</v>
       </c>
       <c r="D17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1063829787234043</v>
       </c>
       <c r="E17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14893617021276595</v>
       </c>
       <c r="F17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14893617021276595</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21276595744680848</v>
       </c>
       <c r="H17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2978723404255319</v>
       </c>
       <c r="I17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4042553191489362</v>
       </c>
       <c r="J17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48936170212765961</v>
       </c>
       <c r="K17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53191489361702127</v>
       </c>
       <c r="L17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63829787234042556</v>
       </c>
       <c r="M17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.7021276595744681</v>
       </c>
       <c r="N17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.74468085106382986</v>
       </c>
       <c r="O17" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="P17" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="R17" s="58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13183,10 +13169,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I11:J12 G3:I3 J9:N12 I9 O3:R12 I3:O7 A3:B12">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15306,50 +15292,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1688,7 +1688,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1951,7 +1965,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225553"/>
+          <c:x val="0.3703257666722557"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1969,9 +1983,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532551"/>
+          <c:y val="0.15742128935532557"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192592"/>
+          <c:h val="0.70464767616192603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2281,11 +2295,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113244416"/>
-        <c:axId val="113590656"/>
+        <c:axId val="95414528"/>
+        <c:axId val="95760768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113244416"/>
+        <c:axId val="95414528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2331,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113590656"/>
+        <c:crossAx val="95760768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2325,7 +2339,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113590656"/>
+        <c:axId val="95760768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2381,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113244416"/>
+        <c:crossAx val="95414528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2455,7 +2469,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000267" footer="0.49212598450000267"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2492,7 +2506,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225586"/>
+          <c:x val="0.37032576667225597"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2510,9 +2524,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532565"/>
+          <c:y val="0.15742128935532573"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192614"/>
+          <c:h val="0.70464767616192625"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2822,11 +2836,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113939584"/>
-        <c:axId val="113941504"/>
+        <c:axId val="95978624"/>
+        <c:axId val="95980544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113939584"/>
+        <c:axId val="95978624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +2872,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113941504"/>
+        <c:crossAx val="95980544"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2866,7 +2880,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113941504"/>
+        <c:axId val="95980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2922,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113939584"/>
+        <c:crossAx val="95978624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,7 +3010,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3033,7 +3047,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225608"/>
+          <c:x val="0.3703257666722562"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3051,9 +3065,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532579"/>
+          <c:y val="0.15742128935532584"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192636"/>
+          <c:h val="0.70464767616192658"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3195,16 +3209,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,11 +3377,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113991040"/>
-        <c:axId val="114005504"/>
+        <c:axId val="96165248"/>
+        <c:axId val="96183808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113991040"/>
+        <c:axId val="96165248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3413,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114005504"/>
+        <c:crossAx val="96183808"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3407,7 +3421,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114005504"/>
+        <c:axId val="96183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3463,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113991040"/>
+        <c:crossAx val="96165248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3537,7 +3551,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000294" footer="0.49212598450000294"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3574,7 +3588,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225636"/>
+          <c:x val="0.37032576667225647"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3592,9 +3606,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553259"/>
+          <c:y val="0.15742128935532596"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192681"/>
+          <c:h val="0.70464767616192692"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3904,11 +3918,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114063232"/>
-        <c:axId val="114073600"/>
+        <c:axId val="96233344"/>
+        <c:axId val="96243712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114063232"/>
+        <c:axId val="96233344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3954,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114073600"/>
+        <c:crossAx val="96243712"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3948,7 +3962,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114073600"/>
+        <c:axId val="96243712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,7 +4004,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114063232"/>
+        <c:crossAx val="96233344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4078,7 +4092,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500003" footer="0.492125984500003"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000306" footer="0.49212598450000306"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5855,10 +5869,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A50:A51 B45:C45 D46:E47 H45:K45 A43:A46 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A40 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8392,18 +8406,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="19" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11065,10 +11079,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
-    <cfRule type="expression" dxfId="15" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11083,7 +11097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11339,7 +11355,9 @@
       <c r="O4" s="72">
         <v>0</v>
       </c>
-      <c r="P4" s="95"/>
+      <c r="P4" s="72">
+        <v>0</v>
+      </c>
       <c r="Q4" s="95"/>
       <c r="R4" s="48"/>
     </row>
@@ -11387,7 +11405,9 @@
       <c r="O5" s="72">
         <v>0</v>
       </c>
-      <c r="P5" s="95"/>
+      <c r="P5" s="72">
+        <v>0</v>
+      </c>
       <c r="Q5" s="95"/>
       <c r="R5" s="48"/>
     </row>
@@ -11432,10 +11452,12 @@
       <c r="N6" s="147">
         <v>1</v>
       </c>
-      <c r="O6" s="147">
+      <c r="O6" s="145">
         <v>1</v>
       </c>
-      <c r="P6" s="95"/>
+      <c r="P6" s="147">
+        <v>0</v>
+      </c>
       <c r="Q6" s="95"/>
       <c r="R6" s="48"/>
     </row>
@@ -11457,7 +11479,7 @@
       <c r="M7" s="91"/>
       <c r="N7" s="91"/>
       <c r="O7" s="91"/>
-      <c r="P7" s="93"/>
+      <c r="P7" s="91"/>
       <c r="Q7" s="93"/>
       <c r="R7" s="48"/>
     </row>
@@ -11507,7 +11529,9 @@
       <c r="O8" s="147">
         <v>0</v>
       </c>
-      <c r="P8" s="95"/>
+      <c r="P8" s="147">
+        <v>0</v>
+      </c>
       <c r="Q8" s="95"/>
       <c r="R8" s="48"/>
     </row>
@@ -11529,7 +11553,7 @@
       <c r="M9" s="91"/>
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
-      <c r="P9" s="95"/>
+      <c r="P9" s="91"/>
       <c r="Q9" s="95"/>
       <c r="R9" s="48"/>
     </row>
@@ -11577,7 +11601,9 @@
       <c r="O10" s="147">
         <v>0</v>
       </c>
-      <c r="P10" s="95"/>
+      <c r="P10" s="147">
+        <v>0</v>
+      </c>
       <c r="Q10" s="95"/>
       <c r="R10" s="95"/>
     </row>
@@ -11627,7 +11653,9 @@
       <c r="O11" s="147">
         <v>0</v>
       </c>
-      <c r="P11" s="92"/>
+      <c r="P11" s="147">
+        <v>0</v>
+      </c>
       <c r="Q11" s="92"/>
       <c r="R11" s="49"/>
     </row>
@@ -11677,7 +11705,9 @@
       <c r="O12" s="72">
         <v>10</v>
       </c>
-      <c r="P12" s="94"/>
+      <c r="P12" s="72">
+        <v>10</v>
+      </c>
       <c r="Q12" s="94"/>
       <c r="R12" s="49"/>
     </row>
@@ -11690,7 +11720,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="38">
-        <f t="shared" ref="C14:N14" si="0">IF(ISBLANK(C3:C12), NA(), SUM(C3:C12))</f>
+        <f t="shared" ref="C14:R14" si="0">IF(ISBLANK(C3:C12), NA(), SUM(C3:C12))</f>
         <v>47</v>
       </c>
       <c r="D14" s="38">
@@ -11737,21 +11767,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O14" s="38" t="e">
-        <f t="array" ref="O14">IF(ISBLANK(O3:O12), NA(), SUM(O3:O12))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="38" t="e">
-        <f t="array" ref="P14">IF(ISBLANK(P3:P12), NA(), SUM(P3:P12))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="38" t="e">
-        <f t="array" ref="Q14">IF(ISBLANK(Q3:Q12), NA(), SUM(Q3:Q12))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="38" t="e">
-        <f t="array" ref="R14">IF(ISBLANK(R3:R12), NA(), SUM(R3:R12))</f>
-        <v>#N/A</v>
+      <c r="O14" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P14" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:120" ht="25.5">
@@ -11804,21 +11834,21 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O15" s="38" t="e">
+      <c r="O15" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="P15" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="38">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="51" t="e">
+        <v>10</v>
+      </c>
+      <c r="R15" s="51">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:120">
@@ -11944,21 +11974,21 @@
         <f t="shared" si="3"/>
         <v>0.74468085106382986</v>
       </c>
-      <c r="O17" s="58" t="e">
+      <c r="O17" s="58">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="58" t="e">
+        <v>0.76595744680851063</v>
+      </c>
+      <c r="P17" s="58">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="58" t="e">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="Q17" s="58">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="58" t="e">
+        <v>1</v>
+      </c>
+      <c r="R17" s="58">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -13168,11 +13198,11 @@
       <c r="R79" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I11:J12 G3:I3 J9:N12 I9 O3:R12 I3:O7 A3:B12">
-    <cfRule type="expression" dxfId="13" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I11:J12 G3:I3 J9:N12 I9 I3:O7 A3:B12 O3:R12">
+    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15292,50 +15322,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B6 D3:R6">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 A4:B6">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -39,10 +39,10 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
     <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1965,7 +1965,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722557"/>
+          <c:x val="0.37032576667225586"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1983,9 +1983,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532557"/>
+          <c:y val="0.15742128935532565"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192603"/>
+          <c:h val="0.70464767616192614"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2295,11 +2295,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95414528"/>
-        <c:axId val="95760768"/>
+        <c:axId val="108394752"/>
+        <c:axId val="108474752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95414528"/>
+        <c:axId val="108394752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2331,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95760768"/>
+        <c:crossAx val="108474752"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2339,7 +2339,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95760768"/>
+        <c:axId val="108474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2381,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95414528"/>
+        <c:crossAx val="108394752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2469,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000272" footer="0.49212598450000272"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2506,7 +2506,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225597"/>
+          <c:x val="0.37032576667225608"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2524,9 +2524,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532573"/>
+          <c:y val="0.15742128935532579"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192625"/>
+          <c:h val="0.70464767616192636"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2836,11 +2836,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95978624"/>
-        <c:axId val="95980544"/>
+        <c:axId val="111051904"/>
+        <c:axId val="111053824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95978624"/>
+        <c:axId val="111051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2872,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95980544"/>
+        <c:crossAx val="111053824"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2880,7 +2880,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95980544"/>
+        <c:axId val="111053824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2922,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95978624"/>
+        <c:crossAx val="111051904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,7 +3010,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3047,7 +3047,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3703257666722562"/>
+          <c:x val="0.37032576667225636"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3065,9 +3065,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532584"/>
+          <c:y val="0.1574212893553259"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192658"/>
+          <c:h val="0.70464767616192681"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3209,13 +3209,13 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3377,11 +3377,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96165248"/>
-        <c:axId val="96183808"/>
+        <c:axId val="111238528"/>
+        <c:axId val="111257088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96165248"/>
+        <c:axId val="111238528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3413,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96183808"/>
+        <c:crossAx val="111257088"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3421,7 +3421,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96183808"/>
+        <c:axId val="111257088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3463,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96165248"/>
+        <c:crossAx val="111238528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3551,7 +3551,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000294" footer="0.49212598450000294"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500003" footer="0.492125984500003"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3588,7 +3588,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225647"/>
+          <c:x val="0.37032576667225658"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3606,9 +3606,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532596"/>
+          <c:y val="0.15742128935532601"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192692"/>
+          <c:h val="0.70464767616192703"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3918,11 +3918,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96233344"/>
-        <c:axId val="96243712"/>
+        <c:axId val="111306624"/>
+        <c:axId val="111312896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96233344"/>
+        <c:axId val="111306624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3954,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96243712"/>
+        <c:crossAx val="111312896"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3962,7 +3962,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96243712"/>
+        <c:axId val="111312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4004,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96233344"/>
+        <c:crossAx val="111306624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4092,7 +4092,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000306" footer="0.49212598450000306"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000311" footer="0.49212598450000311"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -8432,7 +8432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -11098,7 +11098,7 @@
   <dimension ref="A1:DP79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11358,7 +11358,9 @@
       <c r="P4" s="72">
         <v>0</v>
       </c>
-      <c r="Q4" s="95"/>
+      <c r="Q4" s="72">
+        <v>0</v>
+      </c>
       <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
@@ -11408,7 +11410,9 @@
       <c r="P5" s="72">
         <v>0</v>
       </c>
-      <c r="Q5" s="95"/>
+      <c r="Q5" s="72">
+        <v>0</v>
+      </c>
       <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
@@ -11458,7 +11462,9 @@
       <c r="P6" s="147">
         <v>0</v>
       </c>
-      <c r="Q6" s="95"/>
+      <c r="Q6" s="147">
+        <v>0</v>
+      </c>
       <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
@@ -11480,7 +11486,7 @@
       <c r="N7" s="91"/>
       <c r="O7" s="91"/>
       <c r="P7" s="91"/>
-      <c r="Q7" s="93"/>
+      <c r="Q7" s="91"/>
       <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
@@ -11532,7 +11538,9 @@
       <c r="P8" s="147">
         <v>0</v>
       </c>
-      <c r="Q8" s="95"/>
+      <c r="Q8" s="147">
+        <v>0</v>
+      </c>
       <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
@@ -11554,7 +11562,7 @@
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91"/>
-      <c r="Q9" s="95"/>
+      <c r="Q9" s="91"/>
       <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:120" s="161" customFormat="1" ht="24.95" customHeight="1">
@@ -11604,7 +11612,9 @@
       <c r="P10" s="147">
         <v>0</v>
       </c>
-      <c r="Q10" s="95"/>
+      <c r="Q10" s="147">
+        <v>0</v>
+      </c>
       <c r="R10" s="95"/>
     </row>
     <row r="11" spans="1:120" ht="24.95" customHeight="1">
@@ -11656,7 +11666,9 @@
       <c r="P11" s="147">
         <v>0</v>
       </c>
-      <c r="Q11" s="92"/>
+      <c r="Q11" s="147">
+        <v>0</v>
+      </c>
       <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:120" ht="24.95" customHeight="1">
@@ -11699,16 +11711,18 @@
       <c r="M12" s="72">
         <v>10</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="145">
         <v>10</v>
       </c>
-      <c r="O12" s="72">
-        <v>10</v>
-      </c>
-      <c r="P12" s="72">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="94"/>
+      <c r="O12" s="145">
+        <v>7</v>
+      </c>
+      <c r="P12" s="145">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="145">
+        <v>2</v>
+      </c>
       <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:120">
@@ -11769,15 +11783,15 @@
       </c>
       <c r="O14" s="38">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P14" s="38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="38">
         <f t="shared" si="0"/>
@@ -11836,19 +11850,19 @@
       </c>
       <c r="O15" s="38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" s="38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="38">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R15" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:120">
@@ -11976,15 +11990,15 @@
       </c>
       <c r="O17" s="58">
         <f t="shared" si="3"/>
-        <v>0.76595744680851063</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="P17" s="58">
         <f t="shared" si="3"/>
-        <v>0.78723404255319152</v>
+        <v>0.91489361702127658</v>
       </c>
       <c r="Q17" s="58">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="R17" s="58">
         <f t="shared" si="3"/>

--- a/doc/Backlog [ACONIT].xlsx
+++ b/doc/Backlog [ACONIT].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="3"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="11475" windowHeight="10065" tabRatio="900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="20" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Iteration 4" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product backlog'!$A$5:$M$54</definedName>
     <definedName name="_Toc227043368" localSheetId="0">'Product backlog'!#REF!</definedName>
     <definedName name="_Toc332097117" localSheetId="0">'Product backlog'!$D$17</definedName>
     <definedName name="_Toc332097119" localSheetId="0">'Product backlog'!$D$19</definedName>
@@ -34,22 +34,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Iteration 1'!$R$12:$Z$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Iteration 2'!$R$16:$Z$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Iteration 3'!$R$13:$Z$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$7:$Z$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Iteration 4'!$R$10:$Z$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product backlog'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
+    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
+    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
     <customWorkbookView name="Bernard Notarianni - Affichage personnalisé" guid="{178C21D0-B00A-4B0E-B009-71AAC80909BC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="785" activeSheetId="1"/>
-    <customWorkbookView name="Didier Lassissi - Affichage personnalisé" guid="{5E22A59B-ECE7-4B50-9619-81A99F53295A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1064" windowHeight="552" activeSheetId="1"/>
-    <customWorkbookView name="uvba7442 - Affichage personnalisé" guid="{38566435-C99E-4958-9169-0C5C493EE97D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1213" windowHeight="665" activeSheetId="1"/>
-    <customWorkbookView name="Yoann Regardin - Affichage personnalisé" guid="{29B12ED2-AD48-4E1C-B971-77E4D76C1B5F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="609" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
   <si>
     <t>Itération</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Prise en compte retour itération 1</t>
-  </si>
-  <si>
-    <t>Prise en compte retour itération 3</t>
   </si>
   <si>
     <t>Gestion de projet itération 1</t>
@@ -273,28 +270,10 @@
     <t xml:space="preserve">        - Création d'un parcours (initialisation : un seul sous-parcours, une seule scène recommandée)</t>
   </si>
   <si>
-    <t>Ouvrir les données dans un format standard</t>
-  </si>
-  <si>
     <t>DEV5</t>
   </si>
   <si>
     <t>DEV2</t>
-  </si>
-  <si>
-    <t>? Exporter la base de données au format DublinCore ?</t>
-  </si>
-  <si>
-    <t>Possibilité de copier une scène lorsqu'on en créé une nouvelle</t>
-  </si>
-  <si>
-    <t>Réutiliser les scènes déjà créées</t>
-  </si>
-  <si>
-    <t>? Exporter les parcours au format TourML ?</t>
-  </si>
-  <si>
-    <t>Ouvrir les données dans un format standard (tourml ne permet qu'un chemin linéaire -&gt; recommandé)</t>
   </si>
   <si>
     <t>Cloture - Developpement</t>
@@ -310,9 +289,6 @@
   </si>
   <si>
     <t>Prise en charge de l'environnement technique</t>
-  </si>
-  <si>
-    <t>Autres tâches</t>
   </si>
   <si>
     <t>CLOTURE : du 08/07 au 09/08 (4 semaines, 50jh)</t>
@@ -381,15 +357,6 @@
     <t xml:space="preserve">        - CRUD scène/transition secondaire</t>
   </si>
   <si>
-    <t>Service web -&gt; ouvrir la collection et les parcours</t>
-  </si>
-  <si>
-    <t>Acceder aux données via une API pour les présenter au public</t>
-  </si>
-  <si>
-    <t>? Possibilité de copier une scène lorsqu'on en créé une nouvelle ?</t>
-  </si>
-  <si>
     <t>Réinitialiser le mot de passe d'un user</t>
   </si>
   <si>
@@ -412,6 +379,48 @@
   </si>
   <si>
     <t>Divers</t>
+  </si>
+  <si>
+    <t>Enregistrement contributeur</t>
+  </si>
+  <si>
+    <t>Connaître les contributeurs</t>
+  </si>
+  <si>
+    <t>Certaines personnes peuvent 'modeler' la collection sans être admin pour autant</t>
+  </si>
+  <si>
+    <t>Rôle 'Modeleur'</t>
+  </si>
+  <si>
+    <t>Etat brouillon/publié sur les éléments de la collection et les parcours</t>
+  </si>
+  <si>
+    <t>Les visiteurs non enregistrés ne voient que les éléments et parcours publiés</t>
+  </si>
+  <si>
+    <t>Gestion des accès concurrents : système de 'chantier'</t>
+  </si>
+  <si>
+    <t>Gérer les accès concurrents</t>
+  </si>
+  <si>
+    <t>Champ select</t>
+  </si>
+  <si>
+    <t>Champ coordonnées géographiques</t>
+  </si>
+  <si>
+    <t>Dates partielles</t>
+  </si>
+  <si>
+    <t>Pouvoir renseigner juste une année ou un mois</t>
+  </si>
+  <si>
+    <t>Manuel utilisateur : Wiki Tuleap</t>
+  </si>
+  <si>
+    <t>Fournir une aide pour utiliser l'application</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1159,7 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1451,9 +1460,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1567,9 +1573,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1688,7 +1691,77 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1965,7 +2038,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225586"/>
+          <c:x val="0.37032576667225597"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1983,9 +2056,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532565"/>
+          <c:y val="0.15742128935532573"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192614"/>
+          <c:h val="0.70464767616192625"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2295,11 +2368,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108394752"/>
-        <c:axId val="108474752"/>
+        <c:axId val="104855808"/>
+        <c:axId val="104939904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108394752"/>
+        <c:axId val="104855808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2404,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108474752"/>
+        <c:crossAx val="104939904"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2339,7 +2412,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108474752"/>
+        <c:axId val="104939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2454,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108394752"/>
+        <c:crossAx val="104855808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2542,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000278" footer="0.49212598450000278"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000283" footer="0.49212598450000283"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2506,7 +2579,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225608"/>
+          <c:x val="0.3703257666722562"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2524,9 +2597,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532579"/>
+          <c:y val="0.15742128935532584"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192636"/>
+          <c:h val="0.70464767616192658"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2836,11 +2909,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111051904"/>
-        <c:axId val="111053824"/>
+        <c:axId val="108692608"/>
+        <c:axId val="108694528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111051904"/>
+        <c:axId val="108692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2945,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111053824"/>
+        <c:crossAx val="108694528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2880,7 +2953,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111053824"/>
+        <c:axId val="108694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2995,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111051904"/>
+        <c:crossAx val="108692608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,7 +3083,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000289" footer="0.49212598450000289"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000294" footer="0.49212598450000294"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3047,7 +3120,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225636"/>
+          <c:x val="0.37032576667225647"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3065,9 +3138,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.1574212893553259"/>
+          <c:y val="0.15742128935532596"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192681"/>
+          <c:h val="0.70464767616192692"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3377,11 +3450,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111238528"/>
-        <c:axId val="111257088"/>
+        <c:axId val="108752256"/>
+        <c:axId val="108766720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111238528"/>
+        <c:axId val="108752256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3486,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111257088"/>
+        <c:crossAx val="108766720"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3421,7 +3494,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111257088"/>
+        <c:axId val="108766720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111238528"/>
+        <c:crossAx val="108752256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3551,7 +3624,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.492125984500003" footer="0.492125984500003"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000306" footer="0.49212598450000306"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3588,7 +3661,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37032576667225658"/>
+          <c:x val="0.3703257666722567"/>
           <c:y val="2.6986506746626688E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3606,9 +3679,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5640078243859845E-2"/>
-          <c:y val="0.15742128935532601"/>
+          <c:y val="0.15742128935532607"/>
           <c:w val="0.92946294640153049"/>
-          <c:h val="0.70464767616192703"/>
+          <c:h val="0.70464767616192714"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3618,7 +3691,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$8</c:f>
+              <c:f>'Iteration 4'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3709,12 +3782,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$8:$R$8</c:f>
+              <c:f>'Iteration 4'!$C$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3770,7 +3843,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Iteration 4'!$B$10</c:f>
+              <c:f>'Iteration 4'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3861,68 +3934,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 4'!$C$10:$R$10</c:f>
+              <c:f>'Iteration 4'!$C$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>34.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.266666666666666</c:v>
+                  <c:v>32.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>29.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.533333333333331</c:v>
+                  <c:v>27.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.666666666666664</c:v>
+                  <c:v>24.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.799999999999997</c:v>
+                  <c:v>22.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.93333333333333</c:v>
+                  <c:v>19.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.066666666666663</c:v>
+                  <c:v>17.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>14.799999999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3333333333333286</c:v>
+                  <c:v>12.333333333333318</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666615</c:v>
+                  <c:v>9.8666666666666512</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>7.3999999999999844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7333333333333276</c:v>
+                  <c:v>4.9333333333333176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8666666666666609</c:v>
+                  <c:v>2.4666666666666508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.773159728050814E-15</c:v>
+                  <c:v>-1.5987211554602254E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111306624"/>
-        <c:axId val="111312896"/>
+        <c:axId val="108820352"/>
+        <c:axId val="108826624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111306624"/>
+        <c:axId val="108820352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +4027,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111312896"/>
+        <c:crossAx val="108826624"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3962,7 +4035,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111312896"/>
+        <c:axId val="108826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4077,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111306624"/>
+        <c:crossAx val="108820352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4092,7 +4165,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000311" footer="0.49212598450000311"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598450000317" footer="0.49212598450000317"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4215,13 +4288,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>156884</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4534,13 +4607,13 @@
   <sheetPr codeName="Feuil1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4564,10 +4637,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="167"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="15"/>
@@ -4579,10 +4652,10 @@
       <c r="A2" s="64"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="169"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="26"/>
       <c r="G2" s="59"/>
       <c r="H2" s="3"/>
@@ -4598,8 +4671,8 @@
         <f>MAX(A13:A45)+1</f>
         <v>35</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="26"/>
       <c r="G3" s="59"/>
       <c r="H3" s="3"/>
@@ -4607,9 +4680,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5"/>
       <c r="F4" s="27"/>
@@ -4634,16 +4707,16 @@
       <c r="E5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="134" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="107" t="s">
+      <c r="F5" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="131" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -4660,11 +4733,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1">
-      <c r="A6" s="133"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="33"/>
@@ -4683,15 +4756,15 @@
         <v>1</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="30"/>
@@ -4704,15 +4777,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="30"/>
@@ -4725,19 +4798,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="137"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="22"/>
       <c r="K9" s="11"/>
     </row>
@@ -4746,19 +4819,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="70" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="137"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="22"/>
       <c r="K10" s="11"/>
     </row>
@@ -4766,16 +4839,16 @@
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="140" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134">
+      <c r="D11" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133">
         <f>SUM(G12:G22)</f>
         <v>50</v>
       </c>
-      <c r="H11" s="142"/>
+      <c r="H11" s="141"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -4793,23 +4866,23 @@
         <v>1</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="72">
         <v>2</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="138"/>
+      <c r="I12" s="137"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="78" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="75">
@@ -4822,19 +4895,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="72">
         <v>2</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="139"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="74"/>
       <c r="K13" s="71"/>
       <c r="L13" s="77"/>
@@ -4851,13 +4924,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="72">
         <v>2</v>
@@ -4880,13 +4953,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" s="72">
         <v>2</v>
@@ -4909,13 +4982,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="75">
         <v>5</v>
@@ -4938,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="72">
         <v>8</v>
@@ -4967,13 +5040,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="72">
         <v>5</v>
@@ -4996,13 +5069,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="72">
         <v>5</v>
@@ -5023,13 +5096,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="72">
         <v>13</v>
@@ -5048,11 +5121,11 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="70"/>
       <c r="F21" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="72">
         <v>3</v>
@@ -5071,11 +5144,11 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="72">
         <v>3</v>
@@ -5090,7 +5163,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="60" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="33"/>
@@ -5098,7 +5171,7 @@
         <f>SUM(G24:G33)</f>
         <v>58</v>
       </c>
-      <c r="H23" s="135"/>
+      <c r="H23" s="134"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
@@ -5118,7 +5191,7 @@
       </c>
       <c r="E24" s="71"/>
       <c r="F24" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="72">
         <v>20</v>
@@ -5139,13 +5212,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G25" s="72">
         <v>5</v>
@@ -5166,13 +5239,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" s="72">
         <v>3</v>
@@ -5193,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="82" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="72">
         <v>6</v>
@@ -5214,10 +5287,10 @@
       <c r="B28" s="79"/>
       <c r="C28" s="75"/>
       <c r="D28" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="90" t="s">
         <v>56</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>57</v>
       </c>
       <c r="F28" s="91"/>
       <c r="G28" s="91"/>
@@ -5239,11 +5312,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G29" s="72">
         <v>6</v>
@@ -5264,11 +5337,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="72">
         <v>6</v>
@@ -5291,11 +5364,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="85">
         <v>6</v>
@@ -5314,11 +5387,11 @@
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="71"/>
       <c r="F32" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="72">
         <v>3</v>
@@ -5337,11 +5410,11 @@
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="71"/>
       <c r="F33" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="72">
         <v>3</v>
@@ -5356,7 +5429,7 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
@@ -5364,10 +5437,10 @@
         <f>SUM(G35:G41)</f>
         <v>55</v>
       </c>
-      <c r="H34" s="135"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="107"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="106"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
@@ -5384,7 +5457,7 @@
       </c>
       <c r="E35" s="71"/>
       <c r="F35" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="72">
         <v>10</v>
@@ -5399,10 +5472,10 @@
       <c r="B36" s="79"/>
       <c r="C36" s="75"/>
       <c r="D36" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="91"/>
       <c r="G36" s="91"/>
@@ -5422,11 +5495,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G37" s="72">
         <v>12</v>
@@ -5443,10 +5516,10 @@
       <c r="B38" s="69"/>
       <c r="C38" s="68"/>
       <c r="D38" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="91"/>
       <c r="G38" s="91"/>
@@ -5466,11 +5539,11 @@
         <v>1</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E39" s="71"/>
       <c r="F39" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="72">
         <v>20</v>
@@ -5491,11 +5564,11 @@
         <v>1</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E40" s="71"/>
       <c r="F40" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="72">
         <v>10</v>
@@ -5514,19 +5587,19 @@
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="105">
+        <v>27</v>
+      </c>
+      <c r="G41" s="104">
         <v>3</v>
       </c>
-      <c r="H41" s="106"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
     </row>
@@ -5535,18 +5608,18 @@
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33">
-        <f>SUM(G43:G48)</f>
-        <v>38</v>
-      </c>
-      <c r="H42" s="136"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="112"/>
+        <f>SUM(G43:G51)</f>
+        <v>45</v>
+      </c>
+      <c r="H42" s="135"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1">
       <c r="A43" s="75">
@@ -5557,17 +5630,19 @@
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="71"/>
+        <v>102</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>103</v>
+      </c>
       <c r="F43" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="105">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="G43" s="104">
+        <v>2</v>
       </c>
       <c r="H43" s="30"/>
-      <c r="I43" s="111"/>
+      <c r="I43" s="110"/>
       <c r="J43" s="61"/>
       <c r="K43" s="62"/>
     </row>
@@ -5578,20 +5653,18 @@
       <c r="B44" s="69">
         <v>3</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="68"/>
+      <c r="D44" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="72">
         <v>2</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="72">
-        <v>25</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -5605,19 +5678,19 @@
       <c r="B45" s="79">
         <v>4</v>
       </c>
-      <c r="C45" s="103">
-        <v>4</v>
-      </c>
+      <c r="C45" s="103"/>
       <c r="D45" s="84" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F45" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="101"/>
+        <v>31</v>
+      </c>
+      <c r="G45" s="101">
+        <v>2</v>
+      </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="11"/>
@@ -5630,234 +5703,299 @@
       <c r="B46" s="69">
         <v>4</v>
       </c>
-      <c r="C46" s="68">
-        <v>5</v>
-      </c>
+      <c r="C46" s="68"/>
       <c r="D46" s="70" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F46" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="72"/>
+        <v>31</v>
+      </c>
+      <c r="G46" s="72">
+        <v>10</v>
+      </c>
       <c r="H46" s="23"/>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A47" s="68">
+      <c r="A47" s="75">
         <v>36</v>
       </c>
-      <c r="B47" s="69">
-        <v>4</v>
-      </c>
-      <c r="C47" s="68">
-        <v>5</v>
-      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="70" t="s">
-        <v>73</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E47" s="70"/>
       <c r="F47" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="G47" s="72">
+        <v>8</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:13" ht="24.95" customHeight="1">
       <c r="A48" s="68">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="69">
         <v>4</v>
       </c>
       <c r="C48" s="68"/>
       <c r="D48" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="71"/>
+        <v>111</v>
+      </c>
+      <c r="E48" s="70"/>
       <c r="F48" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="102">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="G48" s="72">
+        <v>8</v>
       </c>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="22"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33">
-        <v>50</v>
-      </c>
-      <c r="H49" s="135"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A49" s="68">
+        <v>38</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="72">
+        <v>5</v>
+      </c>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A50" s="75">
+      <c r="A50" s="68">
         <v>39</v>
       </c>
-      <c r="B50" s="86" t="s">
-        <v>27</v>
-      </c>
+      <c r="B50" s="69"/>
       <c r="C50" s="68"/>
       <c r="D50" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="71"/>
+        <v>114</v>
+      </c>
+      <c r="E50" s="70" t="s">
+        <v>115</v>
+      </c>
       <c r="F50" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="72"/>
+        <v>31</v>
+      </c>
+      <c r="G50" s="72">
+        <v>5</v>
+      </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="22"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A51" s="75">
+      <c r="A51" s="68">
         <v>40</v>
       </c>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="69">
+        <v>4</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="71"/>
+      <c r="F51" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="119"/>
-      <c r="F51" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="29"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="127"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="115"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="99"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="115"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="99"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="7"/>
+      <c r="G51" s="102">
+        <v>3</v>
+      </c>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" s="13" customFormat="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33">
+        <v>50</v>
+      </c>
+      <c r="H52" s="134"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A53" s="75">
+        <v>39</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="68"/>
+      <c r="D53" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="71"/>
+      <c r="F53" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="72"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A54" s="75">
+        <v>40</v>
+      </c>
+      <c r="B54" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="118"/>
+      <c r="F54" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="85"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="115"/>
       <c r="B55" s="124"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="99"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="7"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="126"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="115"/>
-      <c r="B56" s="124"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="123"/>
       <c r="C56" s="6"/>
       <c r="D56" s="99"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="123"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="122"/>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="115"/>
-      <c r="B57" s="124"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="123"/>
       <c r="C57" s="6"/>
       <c r="D57" s="99"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="123"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="122"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="I58" s="121"/>
-    </row>
-    <row r="80" ht="9.75" customHeight="1"/>
-    <row r="299" spans="1:1" ht="15">
-      <c r="A299" s="66" t="s">
+      <c r="A58" s="114"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="99"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="114"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="99"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="114"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="99"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="I61" s="120"/>
+    </row>
+    <row r="83" ht="9.75" customHeight="1"/>
+    <row r="302" spans="1:1" ht="15">
+      <c r="A302" s="66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="15">
-      <c r="A300" s="67"/>
-    </row>
-    <row r="301" spans="1:1" ht="15">
-      <c r="A301" s="67" t="s">
+    <row r="303" spans="1:1" ht="15">
+      <c r="A303" s="67"/>
+    </row>
+    <row r="304" spans="1:1" ht="15">
+      <c r="A304" s="67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="15">
-      <c r="A302" s="67" t="s">
+    <row r="305" spans="1:1" ht="15">
+      <c r="A305" s="67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="15">
-      <c r="A303" s="67" t="s">
+    <row r="306" spans="1:1" ht="15">
+      <c r="A306" s="67" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M51">
+  <autoFilter ref="A5:M54">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
@@ -5868,11 +6006,11 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A50:A51 B45:C45 D46:E47 H45:K45 A43:A46 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A40 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
-    <cfRule type="expression" dxfId="23" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="A53:A54 B45:C45 D46:E50 H45:K45 A43:A47 B37:E37 D15 D38:E38 B36:C37 H36:K37 E36:E37 A35:A40 D26 B28:C31 A13:A22 H28:K31 D20:E21 E25:E26 A25:A31 D28 E28:E31 B12:E12 D13:E13 B13:C17 H12:K17 E13:E15 E17:E19 D30:D31">
+    <cfRule type="expression" dxfId="25" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5901,7 +6039,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -5921,10 +6059,10 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="39">
         <v>41379</v>
@@ -6079,7 +6217,7 @@
     </row>
     <row r="3" spans="1:120" ht="24.95" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="75">
         <v>5</v>
@@ -6087,237 +6225,237 @@
       <c r="C3" s="72">
         <v>2</v>
       </c>
-      <c r="D3" s="145">
+      <c r="D3" s="143">
         <v>2</v>
       </c>
-      <c r="E3" s="145">
+      <c r="E3" s="143">
         <v>1</v>
       </c>
-      <c r="F3" s="145">
+      <c r="F3" s="143">
         <v>1</v>
       </c>
-      <c r="G3" s="145">
+      <c r="G3" s="143">
         <v>1</v>
       </c>
-      <c r="H3" s="148">
-        <v>0</v>
-      </c>
-      <c r="I3" s="148">
-        <v>0</v>
-      </c>
-      <c r="J3" s="148">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148">
-        <v>0</v>
-      </c>
-      <c r="L3" s="148">
-        <v>0</v>
-      </c>
-      <c r="M3" s="148">
-        <v>0</v>
-      </c>
-      <c r="N3" s="148">
-        <v>0</v>
-      </c>
-      <c r="O3" s="149">
-        <v>0</v>
-      </c>
-      <c r="P3" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="148">
-        <v>0</v>
-      </c>
-      <c r="R3" s="148">
+      <c r="H3" s="146">
+        <v>0</v>
+      </c>
+      <c r="I3" s="146">
+        <v>0</v>
+      </c>
+      <c r="J3" s="146">
+        <v>0</v>
+      </c>
+      <c r="K3" s="146">
+        <v>0</v>
+      </c>
+      <c r="L3" s="146">
+        <v>0</v>
+      </c>
+      <c r="M3" s="146">
+        <v>0</v>
+      </c>
+      <c r="N3" s="146">
+        <v>0</v>
+      </c>
+      <c r="O3" s="147">
+        <v>0</v>
+      </c>
+      <c r="P3" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="146">
+        <v>0</v>
+      </c>
+      <c r="R3" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="75">
         <v>6</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="143">
         <v>2</v>
       </c>
-      <c r="D4" s="145">
+      <c r="D4" s="143">
         <v>1</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="143">
         <v>1</v>
       </c>
-      <c r="F4" s="145">
+      <c r="F4" s="143">
         <v>1</v>
       </c>
-      <c r="G4" s="145">
+      <c r="G4" s="143">
         <v>1</v>
       </c>
-      <c r="H4" s="148">
-        <v>0</v>
-      </c>
-      <c r="I4" s="148">
-        <v>0</v>
-      </c>
-      <c r="J4" s="148">
-        <v>0</v>
-      </c>
-      <c r="K4" s="148">
-        <v>0</v>
-      </c>
-      <c r="L4" s="148">
-        <v>0</v>
-      </c>
-      <c r="M4" s="148">
-        <v>0</v>
-      </c>
-      <c r="N4" s="148">
-        <v>0</v>
-      </c>
-      <c r="O4" s="149">
-        <v>0</v>
-      </c>
-      <c r="P4" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="148">
-        <v>0</v>
-      </c>
-      <c r="R4" s="148">
+      <c r="H4" s="146">
+        <v>0</v>
+      </c>
+      <c r="I4" s="146">
+        <v>0</v>
+      </c>
+      <c r="J4" s="146">
+        <v>0</v>
+      </c>
+      <c r="K4" s="146">
+        <v>0</v>
+      </c>
+      <c r="L4" s="146">
+        <v>0</v>
+      </c>
+      <c r="M4" s="146">
+        <v>0</v>
+      </c>
+      <c r="N4" s="146">
+        <v>0</v>
+      </c>
+      <c r="O4" s="147">
+        <v>0</v>
+      </c>
+      <c r="P4" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="146">
+        <v>0</v>
+      </c>
+      <c r="R4" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="75">
         <v>7</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="143">
         <v>2</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="143">
         <v>1</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="143">
         <v>1</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="143">
         <v>1</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="143">
         <v>1</v>
       </c>
-      <c r="H5" s="148">
-        <v>0</v>
-      </c>
-      <c r="I5" s="148">
-        <v>0</v>
-      </c>
-      <c r="J5" s="148">
-        <v>0</v>
-      </c>
-      <c r="K5" s="148">
-        <v>0</v>
-      </c>
-      <c r="L5" s="148">
-        <v>0</v>
-      </c>
-      <c r="M5" s="148">
-        <v>0</v>
-      </c>
-      <c r="N5" s="148">
-        <v>0</v>
-      </c>
-      <c r="O5" s="149">
-        <v>0</v>
-      </c>
-      <c r="P5" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="148">
-        <v>0</v>
-      </c>
-      <c r="R5" s="148">
+      <c r="H5" s="146">
+        <v>0</v>
+      </c>
+      <c r="I5" s="146">
+        <v>0</v>
+      </c>
+      <c r="J5" s="146">
+        <v>0</v>
+      </c>
+      <c r="K5" s="146">
+        <v>0</v>
+      </c>
+      <c r="L5" s="146">
+        <v>0</v>
+      </c>
+      <c r="M5" s="146">
+        <v>0</v>
+      </c>
+      <c r="N5" s="146">
+        <v>0</v>
+      </c>
+      <c r="O5" s="147">
+        <v>0</v>
+      </c>
+      <c r="P5" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="146">
+        <v>0</v>
+      </c>
+      <c r="R5" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="75">
         <v>8</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="145">
         <v>2</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="143">
         <v>2</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="143">
         <v>1</v>
       </c>
-      <c r="F6" s="145">
+      <c r="F6" s="143">
         <v>1</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="143">
         <v>1</v>
       </c>
-      <c r="H6" s="148">
-        <v>0</v>
-      </c>
-      <c r="I6" s="148">
-        <v>0</v>
-      </c>
-      <c r="J6" s="148">
-        <v>0</v>
-      </c>
-      <c r="K6" s="148">
-        <v>0</v>
-      </c>
-      <c r="L6" s="148">
-        <v>0</v>
-      </c>
-      <c r="M6" s="148">
-        <v>0</v>
-      </c>
-      <c r="N6" s="148">
-        <v>0</v>
-      </c>
-      <c r="O6" s="149">
-        <v>0</v>
-      </c>
-      <c r="P6" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="148">
-        <v>0</v>
-      </c>
-      <c r="R6" s="148">
+      <c r="H6" s="146">
+        <v>0</v>
+      </c>
+      <c r="I6" s="146">
+        <v>0</v>
+      </c>
+      <c r="J6" s="146">
+        <v>0</v>
+      </c>
+      <c r="K6" s="146">
+        <v>0</v>
+      </c>
+      <c r="L6" s="146">
+        <v>0</v>
+      </c>
+      <c r="M6" s="146">
+        <v>0</v>
+      </c>
+      <c r="N6" s="146">
+        <v>0</v>
+      </c>
+      <c r="O6" s="147">
+        <v>0</v>
+      </c>
+      <c r="P6" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="146">
+        <v>0</v>
+      </c>
+      <c r="R6" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B7" s="75">
         <v>9</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="144">
         <v>5</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="143">
         <v>2</v>
       </c>
-      <c r="E7" s="146">
+      <c r="E7" s="144">
         <v>1</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="145">
         <v>0</v>
       </c>
       <c r="G7" s="72">
@@ -6344,7 +6482,7 @@
       <c r="N7" s="103">
         <v>0</v>
       </c>
-      <c r="O7" s="131">
+      <c r="O7" s="130">
         <v>0</v>
       </c>
       <c r="P7" s="103">
@@ -6359,7 +6497,7 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="75">
         <v>10</v>
@@ -6376,46 +6514,46 @@
       <c r="F8" s="72">
         <v>8</v>
       </c>
-      <c r="G8" s="145">
+      <c r="G8" s="143">
         <v>8</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="143">
         <v>7</v>
       </c>
-      <c r="I8" s="145">
+      <c r="I8" s="143">
         <v>6</v>
       </c>
-      <c r="J8" s="145">
+      <c r="J8" s="143">
         <v>5</v>
       </c>
-      <c r="K8" s="145">
+      <c r="K8" s="143">
         <v>4</v>
       </c>
-      <c r="L8" s="145">
+      <c r="L8" s="143">
         <v>3</v>
       </c>
-      <c r="M8" s="145">
+      <c r="M8" s="143">
         <v>2</v>
       </c>
-      <c r="N8" s="145">
+      <c r="N8" s="143">
         <v>1</v>
       </c>
-      <c r="O8" s="150">
+      <c r="O8" s="148">
         <v>1</v>
       </c>
-      <c r="P8" s="145">
+      <c r="P8" s="143">
         <v>1</v>
       </c>
-      <c r="Q8" s="147">
-        <v>0</v>
-      </c>
-      <c r="R8" s="147">
+      <c r="Q8" s="145">
+        <v>0</v>
+      </c>
+      <c r="R8" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:120" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="75">
         <v>11</v>
@@ -6432,37 +6570,37 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="143">
         <v>5</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="143">
         <v>4</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="143">
         <v>3</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="143">
         <v>2</v>
       </c>
-      <c r="K9" s="145">
+      <c r="K9" s="143">
         <v>1</v>
       </c>
-      <c r="L9" s="145">
+      <c r="L9" s="143">
         <v>1</v>
       </c>
-      <c r="M9" s="145">
+      <c r="M9" s="143">
         <v>1</v>
       </c>
       <c r="N9" s="103">
         <v>0</v>
       </c>
-      <c r="O9" s="131">
-        <v>0</v>
-      </c>
-      <c r="P9" s="145">
+      <c r="O9" s="130">
+        <v>0</v>
+      </c>
+      <c r="P9" s="143">
         <v>1</v>
       </c>
-      <c r="Q9" s="145">
+      <c r="Q9" s="143">
         <v>1</v>
       </c>
       <c r="R9" s="103">
@@ -6471,7 +6609,7 @@
     </row>
     <row r="10" spans="1:120" ht="24.95" customHeight="1">
       <c r="A10" s="82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="75">
         <v>12</v>
@@ -6494,40 +6632,40 @@
       <c r="H10" s="103">
         <v>5</v>
       </c>
-      <c r="I10" s="145">
+      <c r="I10" s="143">
         <v>5</v>
       </c>
-      <c r="J10" s="145">
+      <c r="J10" s="143">
         <v>4</v>
       </c>
-      <c r="K10" s="145">
+      <c r="K10" s="143">
         <v>3</v>
       </c>
-      <c r="L10" s="145">
+      <c r="L10" s="143">
         <v>2</v>
       </c>
-      <c r="M10" s="145">
+      <c r="M10" s="143">
         <v>1</v>
       </c>
       <c r="N10" s="103">
         <v>0</v>
       </c>
-      <c r="O10" s="131">
-        <v>0</v>
-      </c>
-      <c r="P10" s="145">
+      <c r="O10" s="130">
+        <v>0</v>
+      </c>
+      <c r="P10" s="143">
         <v>1</v>
       </c>
-      <c r="Q10" s="145">
+      <c r="Q10" s="143">
         <v>1</v>
       </c>
       <c r="R10" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:120" s="130" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:120" s="129" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" s="68">
         <v>13</v>
@@ -6538,28 +6676,28 @@
       <c r="D11" s="72">
         <v>13</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="143">
         <v>13</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="143">
         <v>11</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="143">
         <v>8</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="143">
         <v>6</v>
       </c>
-      <c r="I11" s="145">
+      <c r="I11" s="143">
         <v>4</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="143">
         <v>2</v>
       </c>
-      <c r="K11" s="145">
+      <c r="K11" s="143">
         <v>1</v>
       </c>
-      <c r="L11" s="145">
+      <c r="L11" s="143">
         <v>1</v>
       </c>
       <c r="M11" s="103">
@@ -6568,7 +6706,7 @@
       <c r="N11" s="103">
         <v>0</v>
       </c>
-      <c r="O11" s="131">
+      <c r="O11" s="130">
         <v>0</v>
       </c>
       <c r="P11" s="103">
@@ -6623,10 +6761,10 @@
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="38">
         <f t="array" ref="C14">IF(ISBLANK(C3:C11),NA(), SUM(C3:C11))</f>
@@ -6798,7 +6936,7 @@
     <row r="15" spans="1:120" ht="25.5">
       <c r="A15" s="38"/>
       <c r="B15" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38">
@@ -6967,7 +7105,7 @@
     <row r="16" spans="1:120">
       <c r="A16" s="38"/>
       <c r="B16" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="45">
         <f>C14</f>
@@ -7037,7 +7175,7 @@
     <row r="17" spans="1:18" s="56" customFormat="1">
       <c r="A17" s="55"/>
       <c r="B17" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="58">
         <f>1-C14/$C$14</f>
@@ -8406,18 +8544,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11 A3:B11 F3:G7 H3:R11">
-    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10 A3:A7 A11:B11">
-    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8446,7 +8584,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -8466,10 +8604,10 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="39">
         <v>41407</v>
@@ -8622,11 +8760,11 @@
       <c r="DO2" s="41"/>
       <c r="DP2" s="41"/>
     </row>
-    <row r="3" spans="1:120" s="156" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B3" s="153">
         <v>16</v>
       </c>
       <c r="C3" s="98"/>
@@ -8634,7 +8772,7 @@
       <c r="E3" s="92"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="157"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="93"/>
       <c r="J3" s="93"/>
       <c r="K3" s="93"/>
@@ -8646,120 +8784,120 @@
       <c r="Q3" s="93"/>
       <c r="R3" s="93"/>
     </row>
-    <row r="4" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="151" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="153">
+    <row r="4" spans="1:120" s="152" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151">
         <v>10</v>
       </c>
-      <c r="D4" s="145">
+      <c r="D4" s="143">
         <v>10</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="143">
         <v>6</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="156">
         <v>5</v>
       </c>
-      <c r="G4" s="159">
-        <v>0</v>
-      </c>
-      <c r="H4" s="160">
-        <v>0</v>
-      </c>
-      <c r="I4" s="159">
-        <v>0</v>
-      </c>
-      <c r="J4" s="159">
-        <v>0</v>
-      </c>
-      <c r="K4" s="159">
-        <v>0</v>
-      </c>
-      <c r="L4" s="159">
-        <v>0</v>
-      </c>
-      <c r="M4" s="159">
-        <v>0</v>
-      </c>
-      <c r="N4" s="159">
-        <v>0</v>
-      </c>
-      <c r="O4" s="159">
-        <v>0</v>
-      </c>
-      <c r="P4" s="159">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="159">
-        <v>0</v>
-      </c>
-      <c r="R4" s="159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:120" s="154" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153">
+      <c r="G4" s="157">
+        <v>0</v>
+      </c>
+      <c r="H4" s="158">
+        <v>0</v>
+      </c>
+      <c r="I4" s="157">
+        <v>0</v>
+      </c>
+      <c r="J4" s="157">
+        <v>0</v>
+      </c>
+      <c r="K4" s="157">
+        <v>0</v>
+      </c>
+      <c r="L4" s="157">
+        <v>0</v>
+      </c>
+      <c r="M4" s="157">
+        <v>0</v>
+      </c>
+      <c r="N4" s="157">
+        <v>0</v>
+      </c>
+      <c r="O4" s="157">
+        <v>0</v>
+      </c>
+      <c r="P4" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="157">
+        <v>0</v>
+      </c>
+      <c r="R4" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" s="152" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151">
         <v>1</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="145">
         <v>1</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="145">
         <v>1</v>
       </c>
-      <c r="F5" s="158">
+      <c r="F5" s="156">
         <v>1</v>
       </c>
-      <c r="G5" s="159">
-        <v>0</v>
-      </c>
-      <c r="H5" s="160">
-        <v>0</v>
-      </c>
-      <c r="I5" s="159">
-        <v>0</v>
-      </c>
-      <c r="J5" s="159">
-        <v>0</v>
-      </c>
-      <c r="K5" s="159">
-        <v>0</v>
-      </c>
-      <c r="L5" s="159">
-        <v>0</v>
-      </c>
-      <c r="M5" s="159">
-        <v>0</v>
-      </c>
-      <c r="N5" s="159">
-        <v>0</v>
-      </c>
-      <c r="O5" s="159">
-        <v>0</v>
-      </c>
-      <c r="P5" s="159">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="159">
-        <v>0</v>
-      </c>
-      <c r="R5" s="159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G5" s="157">
+        <v>0</v>
+      </c>
+      <c r="H5" s="158">
+        <v>0</v>
+      </c>
+      <c r="I5" s="157">
+        <v>0</v>
+      </c>
+      <c r="J5" s="157">
+        <v>0</v>
+      </c>
+      <c r="K5" s="157">
+        <v>0</v>
+      </c>
+      <c r="L5" s="157">
+        <v>0</v>
+      </c>
+      <c r="M5" s="157">
+        <v>0</v>
+      </c>
+      <c r="N5" s="157">
+        <v>0</v>
+      </c>
+      <c r="O5" s="157">
+        <v>0</v>
+      </c>
+      <c r="P5" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="157">
+        <v>0</v>
+      </c>
+      <c r="R5" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" s="68"/>
-      <c r="C6" s="153">
+      <c r="C6" s="151">
         <v>1</v>
       </c>
       <c r="D6" s="72">
@@ -8768,157 +8906,157 @@
       <c r="E6" s="103">
         <v>1</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="146">
         <v>1</v>
       </c>
-      <c r="G6" s="158">
+      <c r="G6" s="156">
         <v>1</v>
       </c>
-      <c r="H6" s="160">
+      <c r="H6" s="158">
         <v>1</v>
       </c>
-      <c r="I6" s="148">
-        <v>0</v>
-      </c>
-      <c r="J6" s="148">
-        <v>0</v>
-      </c>
-      <c r="K6" s="148">
-        <v>0</v>
-      </c>
-      <c r="L6" s="148">
-        <v>0</v>
-      </c>
-      <c r="M6" s="148">
-        <v>0</v>
-      </c>
-      <c r="N6" s="148">
-        <v>0</v>
-      </c>
-      <c r="O6" s="148">
-        <v>0</v>
-      </c>
-      <c r="P6" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="148">
-        <v>0</v>
-      </c>
-      <c r="R6" s="148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I6" s="146">
+        <v>0</v>
+      </c>
+      <c r="J6" s="146">
+        <v>0</v>
+      </c>
+      <c r="K6" s="146">
+        <v>0</v>
+      </c>
+      <c r="L6" s="146">
+        <v>0</v>
+      </c>
+      <c r="M6" s="146">
+        <v>0</v>
+      </c>
+      <c r="N6" s="146">
+        <v>0</v>
+      </c>
+      <c r="O6" s="146">
+        <v>0</v>
+      </c>
+      <c r="P6" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="146">
+        <v>0</v>
+      </c>
+      <c r="R6" s="146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B7" s="68"/>
-      <c r="C7" s="153">
+      <c r="C7" s="151">
         <v>1</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="143">
         <v>1</v>
       </c>
       <c r="E7" s="103">
         <v>0</v>
       </c>
-      <c r="F7" s="148">
-        <v>0</v>
-      </c>
-      <c r="G7" s="148">
-        <v>0</v>
-      </c>
-      <c r="H7" s="160">
-        <v>0</v>
-      </c>
-      <c r="I7" s="148">
-        <v>0</v>
-      </c>
-      <c r="J7" s="148">
-        <v>0</v>
-      </c>
-      <c r="K7" s="148">
-        <v>0</v>
-      </c>
-      <c r="L7" s="148">
-        <v>0</v>
-      </c>
-      <c r="M7" s="148">
-        <v>0</v>
-      </c>
-      <c r="N7" s="148">
-        <v>0</v>
-      </c>
-      <c r="O7" s="148">
-        <v>0</v>
-      </c>
-      <c r="P7" s="148">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="148">
-        <v>0</v>
-      </c>
-      <c r="R7" s="148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="F7" s="146">
+        <v>0</v>
+      </c>
+      <c r="G7" s="146">
+        <v>0</v>
+      </c>
+      <c r="H7" s="158">
+        <v>0</v>
+      </c>
+      <c r="I7" s="146">
+        <v>0</v>
+      </c>
+      <c r="J7" s="146">
+        <v>0</v>
+      </c>
+      <c r="K7" s="146">
+        <v>0</v>
+      </c>
+      <c r="L7" s="146">
+        <v>0</v>
+      </c>
+      <c r="M7" s="146">
+        <v>0</v>
+      </c>
+      <c r="N7" s="146">
+        <v>0</v>
+      </c>
+      <c r="O7" s="146">
+        <v>0</v>
+      </c>
+      <c r="P7" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="146">
+        <v>0</v>
+      </c>
+      <c r="R7" s="146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B8" s="68"/>
-      <c r="C8" s="153">
+      <c r="C8" s="151">
         <v>4</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="143">
         <v>4</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="143">
         <v>2</v>
       </c>
-      <c r="F8" s="158">
+      <c r="F8" s="156">
         <v>1</v>
       </c>
-      <c r="G8" s="159">
-        <v>0</v>
-      </c>
-      <c r="H8" s="160">
-        <v>0</v>
-      </c>
-      <c r="I8" s="159">
-        <v>0</v>
-      </c>
-      <c r="J8" s="159">
-        <v>0</v>
-      </c>
-      <c r="K8" s="159">
-        <v>0</v>
-      </c>
-      <c r="L8" s="159">
-        <v>0</v>
-      </c>
-      <c r="M8" s="159">
-        <v>0</v>
-      </c>
-      <c r="N8" s="159">
-        <v>0</v>
-      </c>
-      <c r="O8" s="159">
-        <v>0</v>
-      </c>
-      <c r="P8" s="159">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="159">
-        <v>0</v>
-      </c>
-      <c r="R8" s="159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+      <c r="G8" s="157">
+        <v>0</v>
+      </c>
+      <c r="H8" s="158">
+        <v>0</v>
+      </c>
+      <c r="I8" s="157">
+        <v>0</v>
+      </c>
+      <c r="J8" s="157">
+        <v>0</v>
+      </c>
+      <c r="K8" s="157">
+        <v>0</v>
+      </c>
+      <c r="L8" s="157">
+        <v>0</v>
+      </c>
+      <c r="M8" s="157">
+        <v>0</v>
+      </c>
+      <c r="N8" s="157">
+        <v>0</v>
+      </c>
+      <c r="O8" s="157">
+        <v>0</v>
+      </c>
+      <c r="P8" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="157">
+        <v>0</v>
+      </c>
+      <c r="R8" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B9" s="75">
         <v>17</v>
@@ -8935,22 +9073,22 @@
       <c r="F9" s="72">
         <v>5</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="143">
         <v>5</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="148">
         <v>5</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="143">
         <v>2</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="143">
         <v>1</v>
       </c>
       <c r="K9" s="72">
         <v>1</v>
       </c>
-      <c r="L9" s="145">
+      <c r="L9" s="143">
         <v>1</v>
       </c>
       <c r="M9" s="72">
@@ -8972,9 +9110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B10" s="75">
         <v>18</v>
@@ -8991,22 +9129,22 @@
       <c r="F10" s="72">
         <v>3</v>
       </c>
-      <c r="G10" s="145">
+      <c r="G10" s="143">
         <v>3</v>
       </c>
-      <c r="H10" s="150">
+      <c r="H10" s="148">
         <v>3</v>
       </c>
-      <c r="I10" s="145">
+      <c r="I10" s="143">
         <v>3</v>
       </c>
-      <c r="J10" s="145">
+      <c r="J10" s="143">
         <v>3</v>
       </c>
-      <c r="K10" s="145">
+      <c r="K10" s="143">
         <v>2</v>
       </c>
-      <c r="L10" s="145">
+      <c r="L10" s="143">
         <v>1</v>
       </c>
       <c r="M10" s="72">
@@ -9028,9 +9166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="75">
         <v>19</v>
@@ -9047,22 +9185,22 @@
       <c r="F11" s="72">
         <v>6</v>
       </c>
-      <c r="G11" s="147">
+      <c r="G11" s="145">
         <v>6</v>
       </c>
-      <c r="H11" s="150">
+      <c r="H11" s="148">
         <v>6</v>
       </c>
-      <c r="I11" s="145">
+      <c r="I11" s="143">
         <v>6</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="143">
         <v>3</v>
       </c>
-      <c r="K11" s="145">
+      <c r="K11" s="143">
         <v>2</v>
       </c>
-      <c r="L11" s="145">
+      <c r="L11" s="143">
         <v>1</v>
       </c>
       <c r="M11" s="72">
@@ -9084,9 +9222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="98"/>
@@ -9094,7 +9232,7 @@
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
       <c r="G12" s="91"/>
-      <c r="H12" s="150"/>
+      <c r="H12" s="148"/>
       <c r="I12" s="91"/>
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
@@ -9106,9 +9244,9 @@
       <c r="Q12" s="91"/>
       <c r="R12" s="91"/>
     </row>
-    <row r="13" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="75">
         <v>20</v>
@@ -9128,19 +9266,19 @@
       <c r="G13" s="72">
         <v>6</v>
       </c>
-      <c r="H13" s="150">
+      <c r="H13" s="148">
         <v>6</v>
       </c>
-      <c r="I13" s="145">
+      <c r="I13" s="143">
         <v>6</v>
       </c>
-      <c r="J13" s="145">
+      <c r="J13" s="143">
         <v>5</v>
       </c>
-      <c r="K13" s="145">
+      <c r="K13" s="143">
         <v>1</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="145">
         <v>0</v>
       </c>
       <c r="M13" s="72">
@@ -9162,9 +9300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B14" s="75">
         <v>21</v>
@@ -9184,7 +9322,7 @@
       <c r="G14" s="72">
         <v>6</v>
       </c>
-      <c r="H14" s="150">
+      <c r="H14" s="148">
         <v>6</v>
       </c>
       <c r="I14" s="72">
@@ -9193,7 +9331,7 @@
       <c r="J14" s="72">
         <v>6</v>
       </c>
-      <c r="K14" s="145">
+      <c r="K14" s="143">
         <v>6</v>
       </c>
       <c r="L14" s="72">
@@ -9218,9 +9356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:120" s="144" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:120" s="142" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B15" s="75">
         <v>22</v>
@@ -9240,7 +9378,7 @@
       <c r="G15" s="72">
         <v>6</v>
       </c>
-      <c r="H15" s="150">
+      <c r="H15" s="148">
         <v>6</v>
       </c>
       <c r="I15" s="72">
@@ -9252,10 +9390,10 @@
       <c r="K15" s="72">
         <v>6</v>
       </c>
-      <c r="L15" s="145">
+      <c r="L15" s="143">
         <v>6</v>
       </c>
-      <c r="M15" s="145">
+      <c r="M15" s="143">
         <v>2</v>
       </c>
       <c r="N15" s="72">
@@ -9296,10 +9434,10 @@
     </row>
     <row r="17" spans="1:120">
       <c r="A17" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="38">
         <f>IF(ISBLANK(C4:C15), NA(), SUM(C3:C15))</f>
@@ -9471,7 +9609,7 @@
     <row r="18" spans="1:120" ht="25.5">
       <c r="A18" s="38"/>
       <c r="B18" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38">
@@ -9640,7 +9778,7 @@
     <row r="19" spans="1:120">
       <c r="A19" s="38"/>
       <c r="B19" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="45">
         <f>C17</f>
@@ -9710,7 +9848,7 @@
     <row r="20" spans="1:120" s="56" customFormat="1">
       <c r="A20" s="55"/>
       <c r="B20" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="58">
         <f>1-C17/$C$17</f>
@@ -11079,10 +11217,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15 E13:G13 D14:R15 B3:B11 A3:A15 C6:D8 G9:M15 D3:R12 N4:R15">
-    <cfRule type="expression" dxfId="17" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
       <formula>#REF!="O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11097,8 +11235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11111,7 +11249,7 @@
   <sheetData>
     <row r="1" spans="1:120">
       <c r="C1" s="37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -11131,10 +11269,10 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="39">
         <v>41428</v>
@@ -11313,7 +11451,7 @@
     </row>
     <row r="4" spans="1:120" ht="24.95" customHeight="1">
       <c r="A4" s="70" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="72">
@@ -11325,7 +11463,7 @@
       <c r="E4" s="72">
         <v>1</v>
       </c>
-      <c r="F4" s="145">
+      <c r="F4" s="143">
         <v>1</v>
       </c>
       <c r="G4" s="72">
@@ -11361,11 +11499,13 @@
       <c r="Q4" s="72">
         <v>0</v>
       </c>
-      <c r="R4" s="48"/>
+      <c r="R4" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:120" ht="24.95" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="72">
@@ -11377,7 +11517,7 @@
       <c r="E5" s="72">
         <v>1</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="143">
         <v>1</v>
       </c>
       <c r="G5" s="72">
@@ -11413,11 +11553,13 @@
       <c r="Q5" s="72">
         <v>0</v>
       </c>
-      <c r="R5" s="48"/>
+      <c r="R5" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:120" ht="24.95" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="72">
@@ -11432,44 +11574,46 @@
       <c r="F6" s="72">
         <v>3</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="145">
         <v>3</v>
       </c>
-      <c r="H6" s="145">
+      <c r="H6" s="143">
         <v>3</v>
       </c>
-      <c r="I6" s="145">
+      <c r="I6" s="143">
         <v>2</v>
       </c>
-      <c r="J6" s="145">
+      <c r="J6" s="143">
         <v>1</v>
       </c>
-      <c r="K6" s="145">
+      <c r="K6" s="143">
         <v>1</v>
       </c>
-      <c r="L6" s="147">
+      <c r="L6" s="145">
         <v>1</v>
       </c>
-      <c r="M6" s="147">
+      <c r="M6" s="145">
         <v>1</v>
       </c>
-      <c r="N6" s="147">
+      <c r="N6" s="145">
         <v>1</v>
       </c>
-      <c r="O6" s="145">
+      <c r="O6" s="143">
         <v>1</v>
       </c>
-      <c r="P6" s="147">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="147">
-        <v>0</v>
-      </c>
-      <c r="R6" s="48"/>
+      <c r="P6" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="145">
+        <v>0</v>
+      </c>
+      <c r="R6" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:120" ht="24.95" customHeight="1">
       <c r="A7" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="91"/>
@@ -11491,61 +11635,63 @@
     </row>
     <row r="8" spans="1:120" ht="24.95" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" s="75">
         <v>23</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="143">
         <v>8</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="143">
         <v>3</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="143">
         <v>1</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="143">
         <v>1</v>
       </c>
-      <c r="G8" s="147">
-        <v>0</v>
-      </c>
-      <c r="H8" s="147">
-        <v>0</v>
-      </c>
-      <c r="I8" s="147">
-        <v>0</v>
-      </c>
-      <c r="J8" s="147">
-        <v>0</v>
-      </c>
-      <c r="K8" s="147">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1